--- a/GB-3Expense (Autosaved).xlsx
+++ b/GB-3Expense (Autosaved).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830" firstSheet="3" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Jun-2018" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,10 @@
     <sheet name="7.8.2018" sheetId="9" r:id="rId9"/>
     <sheet name="8.8.2018" sheetId="10" r:id="rId10"/>
     <sheet name="9.8.2018" sheetId="11" r:id="rId11"/>
-    <sheet name="Sheet5" sheetId="12" r:id="rId12"/>
+    <sheet name="10.8.2018" sheetId="12" r:id="rId12"/>
+    <sheet name="11.8.2018" sheetId="13" r:id="rId13"/>
+    <sheet name="Sheet2" sheetId="14" r:id="rId14"/>
+    <sheet name="Sheet3" sheetId="15" r:id="rId15"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'1.8.2018'!$A$1:$G$31</definedName>
@@ -26,13 +29,27 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'3.8.2018'!$A$1:$G$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'4.8.2018'!$A$1:$G$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'July-2018'!$A$1:$D$537</definedName>
+    <definedName name="myvar1">'11.8.2018'!$L$2</definedName>
+    <definedName name="myvar10">'11.8.2018'!$L$11</definedName>
+    <definedName name="myvar11">'11.8.2018'!$L$12</definedName>
+    <definedName name="myvar12">'11.8.2018'!$L$13</definedName>
+    <definedName name="myvar13">'11.8.2018'!$L$14</definedName>
+    <definedName name="myvar13\">'11.8.2018'!$L$14</definedName>
+    <definedName name="myvar2">'11.8.2018'!$L$3</definedName>
+    <definedName name="myvar3">'11.8.2018'!$L$4</definedName>
+    <definedName name="myvar4">'11.8.2018'!$L$5</definedName>
+    <definedName name="myvar5">'11.8.2018'!$L$6</definedName>
+    <definedName name="myvar6">'11.8.2018'!$L$7</definedName>
+    <definedName name="myvar7">'11.8.2018'!$L$8</definedName>
+    <definedName name="myvar8">'11.8.2018'!$L$9</definedName>
+    <definedName name="myvar9">'11.8.2018'!$L$10</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1663" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1816" uniqueCount="535">
   <si>
     <t>1.6.2018</t>
   </si>
@@ -1411,9 +1428,6 @@
     <t>3M-8476/Bongo</t>
   </si>
   <si>
-    <t>5P-8273/Venette</t>
-  </si>
-  <si>
     <t>ေဘာဂိြ်ဳင္း</t>
   </si>
   <si>
@@ -1421,6 +1435,225 @@
   </si>
   <si>
     <t>တိုက္ေရာ့</t>
+  </si>
+  <si>
+    <t>5P-8273/Vanette</t>
+  </si>
+  <si>
+    <t>Pipe/ဘာဂ်ာ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Car Key </t>
+  </si>
+  <si>
+    <t>BYN (Kyaw Kyaw)</t>
+  </si>
+  <si>
+    <t>Pressနင္း</t>
+  </si>
+  <si>
+    <t>ဂိုင္းဘြတ္/ျဖဳတ္တပ္/သဲကာ</t>
+  </si>
+  <si>
+    <t>Balance</t>
+  </si>
+  <si>
+    <t>1595,2</t>
+  </si>
+  <si>
+    <t>1595,4</t>
+  </si>
+  <si>
+    <t>ေလပိုက္/ေနာ္ဇယ္/ပိုက္ကလစ္</t>
+  </si>
+  <si>
+    <t>ေအာက္ကလပ္ဆံု၀ါရွာ</t>
+  </si>
+  <si>
+    <t>6C-2479/Minibus</t>
+  </si>
+  <si>
+    <t>Ko Win Zawမီးသီး၀ယ္Carryခ</t>
+  </si>
+  <si>
+    <t>ခဲခ်ြန္ဓား/စတီးျကိဳး</t>
+  </si>
+  <si>
+    <t>မီးသီး</t>
+  </si>
+  <si>
+    <t>905/ေဆးစစ္ကေတာ့</t>
+  </si>
+  <si>
+    <t>Key Copy</t>
+  </si>
+  <si>
+    <t>ေန့စားခ3</t>
+  </si>
+  <si>
+    <t>1595,0</t>
+  </si>
+  <si>
+    <t>ဆီသုတ္၀တ္</t>
+  </si>
+  <si>
+    <t>မီးစက္Filter</t>
+  </si>
+  <si>
+    <t>ေရသန့္ 4</t>
+  </si>
+  <si>
+    <t>ေရတိုင္ဂီဖံုး/ကလစ္</t>
+  </si>
+  <si>
+    <t>W.37ေျကြေဆး</t>
+  </si>
+  <si>
+    <t>3I-7433/Hijet</t>
+  </si>
+  <si>
+    <t>မီးသီးအလွဆင္</t>
+  </si>
+  <si>
+    <t>ေကာ္သီး/၀ါရွာ</t>
+  </si>
+  <si>
+    <t>Car Paper Oil 5Li</t>
+  </si>
+  <si>
+    <t>Disel 15W40 1Li Office ရွင္းက်န္ေငြ</t>
+  </si>
+  <si>
+    <t>Advance</t>
+  </si>
+  <si>
+    <t>Myo Maung</t>
+  </si>
+  <si>
+    <t>ေရစာ/Dupon</t>
+  </si>
+  <si>
+    <t>4E-6978/Hino</t>
+  </si>
+  <si>
+    <t>Pipe(ဘရိတ္ဆာဗို)</t>
+  </si>
+  <si>
+    <t>Battery ေထာက္နုိး</t>
+  </si>
+  <si>
+    <t>19/18ဂြင္း</t>
+  </si>
+  <si>
+    <t>ဖရီးေဘာျဖဳတ္တပ္</t>
+  </si>
+  <si>
+    <t>2K-1068/Dyna</t>
+  </si>
+  <si>
+    <t>ကလပ္ဘရိတ္</t>
+  </si>
+  <si>
+    <t>ဒိုး၀ိုင္းဘြတ္</t>
+  </si>
+  <si>
+    <t>ကလပ္ေဘာ</t>
+  </si>
+  <si>
+    <t>1605,7</t>
+  </si>
+  <si>
+    <t>ဂန္းဘြတ္</t>
+  </si>
+  <si>
+    <t>CC-2618/Probox</t>
+  </si>
+  <si>
+    <t>Piston</t>
+  </si>
+  <si>
+    <t>2M-8673/Suzuki</t>
+  </si>
+  <si>
+    <t>5H-4220/Prado</t>
+  </si>
+  <si>
+    <t>မွန္တပ္ဆင္</t>
+  </si>
+  <si>
+    <t>3I-7433/Susuki</t>
+  </si>
+  <si>
+    <t>GB-3 Carry</t>
+  </si>
+  <si>
+    <t>Fuji Co.,5%</t>
+  </si>
+  <si>
+    <t>အမိွဳက္အိ္တ္</t>
+  </si>
+  <si>
+    <t>Pipe/Click/ေကာ္/ဆီဖိုး</t>
+  </si>
+  <si>
+    <t>AB ေကာ္/Sparko</t>
+  </si>
+  <si>
+    <t>ေရသန့္3</t>
+  </si>
+  <si>
+    <t>GB2 To GB3 Carry</t>
+  </si>
+  <si>
+    <t>AA-8198/Probox</t>
+  </si>
+  <si>
+    <t>မိန္းလံုး2</t>
+  </si>
+  <si>
+    <t>3I-7433/Suzuki</t>
+  </si>
+  <si>
+    <t>ဒရမ္သ</t>
+  </si>
+  <si>
+    <t>သံBrush</t>
+  </si>
+  <si>
+    <t>1"*3Flat</t>
+  </si>
+  <si>
+    <t>ဘက္မွန္</t>
+  </si>
+  <si>
+    <t>တံျမက္စည္း</t>
+  </si>
+  <si>
+    <t>Polish GB1</t>
+  </si>
+  <si>
+    <t>8K-8242/LT</t>
+  </si>
+  <si>
+    <t>Myo Myint Oo</t>
+  </si>
+  <si>
+    <t>Kyaw Ko Linn</t>
+  </si>
+  <si>
+    <t>မီးလံုး</t>
+  </si>
+  <si>
+    <t>5E-3479/Suzuki</t>
+  </si>
+  <si>
+    <t>2E-9570/AD VAN</t>
+  </si>
+  <si>
+    <t>1605,4</t>
+  </si>
+  <si>
+    <t>3L-9325/Probox</t>
   </si>
 </sst>
 </file>
@@ -1431,7 +1664,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1628,6 +1861,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1695,7 +1951,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1842,6 +2098,24 @@
     <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -3384,10 +3658,10 @@
   <sheetPr>
     <tabColor theme="8"/>
   </sheetPr>
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3431,10 +3705,14 @@
       <c r="B2" s="37" t="s">
         <v>335</v>
       </c>
-      <c r="C2" s="13"/>
+      <c r="C2" s="13" t="s">
+        <v>304</v>
+      </c>
       <c r="D2" s="19"/>
       <c r="E2" s="14"/>
-      <c r="F2" s="22"/>
+      <c r="F2" s="22">
+        <v>8000</v>
+      </c>
       <c r="G2" s="40"/>
     </row>
     <row r="3" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -3444,10 +3722,14 @@
       <c r="B3" s="37" t="s">
         <v>332</v>
       </c>
-      <c r="C3" s="13"/>
+      <c r="C3" s="13" t="s">
+        <v>123</v>
+      </c>
       <c r="D3" s="19"/>
       <c r="E3" s="14"/>
-      <c r="F3" s="22"/>
+      <c r="F3" s="22">
+        <v>400</v>
+      </c>
       <c r="G3" s="40"/>
     </row>
     <row r="4" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -3457,10 +3739,14 @@
       <c r="B4" s="37" t="s">
         <v>332</v>
       </c>
-      <c r="C4" s="13"/>
+      <c r="C4" s="13" t="s">
+        <v>170</v>
+      </c>
       <c r="D4" s="19"/>
       <c r="E4" s="14"/>
-      <c r="F4" s="22"/>
+      <c r="F4" s="22">
+        <v>1000</v>
+      </c>
       <c r="G4" s="40"/>
     </row>
     <row r="5" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -3470,10 +3756,14 @@
       <c r="B5" s="37" t="s">
         <v>337</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>261</v>
+      </c>
       <c r="D5" s="19"/>
       <c r="E5" s="14"/>
-      <c r="F5" s="22"/>
+      <c r="F5" s="22">
+        <v>3800</v>
+      </c>
       <c r="G5" s="40"/>
     </row>
     <row r="6" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -3483,10 +3773,14 @@
       <c r="B6" s="37" t="s">
         <v>337</v>
       </c>
-      <c r="C6" s="13"/>
+      <c r="C6" s="13" t="s">
+        <v>481</v>
+      </c>
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
-      <c r="F6" s="22"/>
+      <c r="F6" s="22">
+        <v>1000</v>
+      </c>
       <c r="G6" s="40"/>
     </row>
     <row r="7" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -3496,10 +3790,14 @@
       <c r="B7" s="37" t="s">
         <v>332</v>
       </c>
-      <c r="C7" s="13"/>
+      <c r="C7" s="13" t="s">
+        <v>482</v>
+      </c>
       <c r="D7" s="19"/>
       <c r="E7" s="19"/>
-      <c r="F7" s="22"/>
+      <c r="F7" s="22">
+        <v>2000</v>
+      </c>
       <c r="G7" s="40"/>
     </row>
     <row r="8" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -3509,10 +3807,14 @@
       <c r="B8" s="37" t="s">
         <v>332</v>
       </c>
-      <c r="C8" s="13"/>
+      <c r="C8" s="13" t="s">
+        <v>483</v>
+      </c>
       <c r="D8" s="19"/>
       <c r="E8" s="14"/>
-      <c r="F8" s="22"/>
+      <c r="F8" s="22">
+        <v>1600</v>
+      </c>
       <c r="G8" s="40"/>
     </row>
     <row r="9" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -3522,11 +3824,21 @@
       <c r="B9" s="37" t="s">
         <v>337</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="40"/>
+      <c r="C9" s="13" t="s">
+        <v>484</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>419</v>
+      </c>
+      <c r="E9" s="14">
+        <v>15954</v>
+      </c>
+      <c r="F9" s="22">
+        <v>2300</v>
+      </c>
+      <c r="G9" s="40">
+        <v>4000</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="36">
@@ -3535,10 +3847,14 @@
       <c r="B10" s="37" t="s">
         <v>337</v>
       </c>
-      <c r="C10" s="13"/>
+      <c r="C10" s="13" t="s">
+        <v>210</v>
+      </c>
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
-      <c r="F10" s="22"/>
+      <c r="F10" s="22">
+        <v>4000</v>
+      </c>
       <c r="G10" s="40"/>
     </row>
     <row r="11" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -3548,10 +3864,16 @@
       <c r="B11" s="37" t="s">
         <v>333</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="19"/>
+      <c r="C11" s="13" t="s">
+        <v>485</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>486</v>
+      </c>
       <c r="E11" s="19"/>
-      <c r="F11" s="22"/>
+      <c r="F11" s="22">
+        <v>6000</v>
+      </c>
       <c r="G11" s="40"/>
     </row>
     <row r="12" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -3561,10 +3883,14 @@
       <c r="B12" s="37" t="s">
         <v>332</v>
       </c>
-      <c r="C12" s="13"/>
+      <c r="C12" s="13" t="s">
+        <v>107</v>
+      </c>
       <c r="D12" s="19"/>
       <c r="E12" s="14"/>
-      <c r="F12" s="22"/>
+      <c r="F12" s="22">
+        <v>4000</v>
+      </c>
       <c r="G12" s="40"/>
     </row>
     <row r="13" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -3574,10 +3900,14 @@
       <c r="B13" s="37" t="s">
         <v>337</v>
       </c>
-      <c r="C13" s="13"/>
+      <c r="C13" s="13" t="s">
+        <v>108</v>
+      </c>
       <c r="D13" s="19"/>
       <c r="E13" s="14"/>
-      <c r="F13" s="22"/>
+      <c r="F13" s="22">
+        <v>1000</v>
+      </c>
       <c r="G13" s="40"/>
     </row>
     <row r="14" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -3587,10 +3917,14 @@
       <c r="B14" s="37" t="s">
         <v>370</v>
       </c>
-      <c r="C14" s="13"/>
+      <c r="C14" s="13" t="s">
+        <v>405</v>
+      </c>
       <c r="D14" s="19"/>
       <c r="E14" s="14"/>
-      <c r="F14" s="22"/>
+      <c r="F14" s="22">
+        <v>4500</v>
+      </c>
       <c r="G14" s="40"/>
     </row>
     <row r="15" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -3600,219 +3934,138 @@
       <c r="B15" s="37" t="s">
         <v>332</v>
       </c>
-      <c r="C15" s="13"/>
+      <c r="C15" s="13" t="s">
+        <v>487</v>
+      </c>
       <c r="D15" s="19"/>
       <c r="E15" s="14"/>
-      <c r="F15" s="22"/>
+      <c r="F15" s="22">
+        <v>9200</v>
+      </c>
       <c r="G15" s="40"/>
     </row>
     <row r="16" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="36">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B16" s="37" t="s">
-        <v>370</v>
-      </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="22"/>
+        <v>334</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>424</v>
+      </c>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="22">
+        <v>20000</v>
+      </c>
       <c r="G16" s="40"/>
     </row>
     <row r="17" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B17" s="37" t="s">
-        <v>333</v>
-      </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="22"/>
+        <v>337</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="22">
+        <v>2200</v>
+      </c>
       <c r="G17" s="40"/>
     </row>
     <row r="18" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B18" s="37" t="s">
-        <v>332</v>
-      </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="19"/>
+        <v>337</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>489</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>419</v>
+      </c>
       <c r="E18" s="14"/>
-      <c r="F18" s="22"/>
+      <c r="F18" s="22">
+        <v>7500</v>
+      </c>
       <c r="G18" s="40"/>
     </row>
     <row r="19" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="36">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B19" s="37" t="s">
-        <v>332</v>
-      </c>
-      <c r="C19" s="13"/>
+        <v>335</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>425</v>
+      </c>
       <c r="D19" s="19"/>
       <c r="E19" s="14"/>
-      <c r="F19" s="22"/>
+      <c r="F19" s="22">
+        <v>28500</v>
+      </c>
       <c r="G19" s="40"/>
     </row>
-    <row r="20" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="36">
-        <v>1</v>
-      </c>
-      <c r="B20" s="37" t="s">
+    <row r="20" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E20" s="58" t="s">
         <v>332</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="40"/>
-    </row>
-    <row r="21" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="36">
-        <v>7</v>
-      </c>
-      <c r="B21" s="37" t="s">
-        <v>336</v>
-      </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="40"/>
-    </row>
-    <row r="22" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="36">
-        <v>7</v>
-      </c>
-      <c r="B22" s="37" t="s">
-        <v>336</v>
-      </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="40"/>
-    </row>
-    <row r="23" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="36">
-        <v>4</v>
-      </c>
-      <c r="B23" s="37" t="s">
-        <v>334</v>
-      </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="40"/>
-    </row>
-    <row r="24" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="36">
-        <v>4</v>
-      </c>
-      <c r="B24" s="37" t="s">
-        <v>334</v>
-      </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="40"/>
-    </row>
-    <row r="25" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="36">
-        <v>2</v>
-      </c>
-      <c r="B25" s="37" t="s">
-        <v>337</v>
-      </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="40"/>
-    </row>
-    <row r="26" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="36">
-        <v>2</v>
-      </c>
-      <c r="B26" s="37" t="s">
-        <v>337</v>
-      </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="40"/>
-    </row>
-    <row r="27" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="36">
-        <v>2</v>
-      </c>
-      <c r="B27" s="37" t="s">
-        <v>337</v>
-      </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="40"/>
-    </row>
-    <row r="28" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="36">
-        <v>3</v>
-      </c>
-      <c r="B28" s="37" t="s">
-        <v>333</v>
-      </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="40"/>
-    </row>
-    <row r="29" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="36">
-        <v>6</v>
-      </c>
-      <c r="B29" s="37" t="s">
-        <v>335</v>
-      </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="40"/>
-    </row>
-    <row r="30" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E30" s="58"/>
-      <c r="F30" s="60"/>
-    </row>
-    <row r="31" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E31" s="58"/>
-      <c r="F31" s="61"/>
-    </row>
-    <row r="32" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E32" s="58"/>
-      <c r="F32" s="61"/>
-    </row>
-    <row r="33" spans="5:6" ht="23.25" x14ac:dyDescent="0.6">
-      <c r="E33" s="58"/>
-      <c r="F33" s="59"/>
-    </row>
-    <row r="34" spans="5:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="F34" s="53"/>
-    </row>
-    <row r="35" spans="5:6" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="E35" s="58"/>
-      <c r="F35" s="56"/>
-    </row>
-    <row r="36" spans="5:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="F36" s="62"/>
+      <c r="F20" s="60">
+        <f>SUM(F2:F19)</f>
+        <v>107000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E21" s="58" t="s">
+        <v>407</v>
+      </c>
+      <c r="F21" s="61">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E22" s="58" t="s">
+        <v>372</v>
+      </c>
+      <c r="F22" s="61">
+        <v>151350</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="23.25" x14ac:dyDescent="0.6">
+      <c r="E23" s="58" t="s">
+        <v>373</v>
+      </c>
+      <c r="F23" s="59">
+        <v>786500</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F24" s="53">
+        <f>SUM(F20:F23)</f>
+        <v>1194850</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="E25" s="58" t="s">
+        <v>374</v>
+      </c>
+      <c r="F25" s="56">
+        <v>1129500</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F26" s="62">
+        <f>F25-F24</f>
+        <v>-65350</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3824,11 +4077,1609 @@
   <sheetPr>
     <tabColor theme="5" tint="-0.499984740745262"/>
   </sheetPr>
+  <dimension ref="A1:G30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="36.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>330</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>375</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>328</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="36">
+        <v>6</v>
+      </c>
+      <c r="B2" s="37" t="str">
+        <f>IF(A2=1,myvar1,IF(A2=2,myvar2,IF(A2=3,myvar3,IF(A2=4,myvar4,IF(A2=5,myvar5,IF(A2=6,myvar6,IF(A2=7,myvar7,IF(A2=8,myvar8,IF(A2=9,myvar9,IF(A2=10,myvar10,IF(A2=11,myvar11,IF(A2=12,myvar12,IF(A2=13,myvar13,)))))))))))))</f>
+        <v>Meal</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="D2" s="19"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="22">
+        <v>5000</v>
+      </c>
+      <c r="G2" s="40"/>
+    </row>
+    <row r="3" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="36">
+        <v>2</v>
+      </c>
+      <c r="B3" s="37" t="str">
+        <f>IF(A3=1,myvar1,IF(A3=2,myvar2,IF(A3=3,myvar3,IF(A3=4,myvar4,IF(A3=5,myvar5,IF(A3=6,myvar6,IF(A3=7,myvar7,IF(A3=8,myvar8,IF(A3=9,myvar9,IF(A3=10,myvar10,IF(A3=11,myvar11,IF(A3=12,myvar12,IF(A3=13,myvar13,)))))))))))))</f>
+        <v>Workshop</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>498</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>499</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>503</v>
+      </c>
+      <c r="F3" s="22">
+        <v>3500</v>
+      </c>
+      <c r="G3" s="40">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="36">
+        <v>2</v>
+      </c>
+      <c r="B4" s="37" t="str">
+        <f>IF(A4=1,myvar1,IF(A4=2,myvar2,IF(A4=3,myvar3,IF(A4=4,myvar4,IF(A4=5,myvar5,IF(A4=6,myvar6,IF(A4=7,myvar7,IF(A4=8,myvar8,IF(A4=9,myvar9,IF(A4=10,myvar10,IF(A4=11,myvar11,IF(A4=12,myvar12,IF(A4=13,myvar13,)))))))))))))</f>
+        <v>Workshop</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>500</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>499</v>
+      </c>
+      <c r="E4" s="16"/>
+      <c r="F4" s="22">
+        <v>35000</v>
+      </c>
+      <c r="G4" s="40">
+        <v>38000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="36">
+        <v>2</v>
+      </c>
+      <c r="B5" s="37" t="str">
+        <f>IF(A5=1,myvar1,IF(A5=2,myvar2,IF(A5=3,myvar3,IF(A5=4,myvar4,IF(A5=5,myvar5,IF(A5=6,myvar6,IF(A5=7,myvar7,IF(A5=8,myvar8,IF(A5=9,myvar9,IF(A5=10,myvar10,IF(A5=11,myvar11,IF(A5=12,myvar12,IF(A5=13,myvar13,)))))))))))))</f>
+        <v>Workshop</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>501</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>499</v>
+      </c>
+      <c r="E5" s="16"/>
+      <c r="F5" s="22">
+        <v>2400</v>
+      </c>
+      <c r="G5" s="40">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="36">
+        <v>2</v>
+      </c>
+      <c r="B6" s="37" t="str">
+        <f>IF(A6=1,myvar1,IF(A6=2,myvar2,IF(A6=3,myvar3,IF(A6=4,myvar4,IF(A6=5,myvar5,IF(A6=6,myvar6,IF(A6=7,myvar7,IF(A6=8,myvar8,IF(A6=9,myvar9,IF(A6=10,myvar10,IF(A6=11,myvar11,IF(A6=12,myvar12,IF(A6=13,myvar13,)))))))))))))</f>
+        <v>Workshop</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>502</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>499</v>
+      </c>
+      <c r="E6" s="16"/>
+      <c r="F6" s="22">
+        <v>17000</v>
+      </c>
+      <c r="G6" s="40">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="36">
+        <v>2</v>
+      </c>
+      <c r="B7" s="37" t="str">
+        <f>IF(A7=1,myvar1,IF(A7=2,myvar2,IF(A7=3,myvar3,IF(A7=4,myvar4,IF(A7=5,myvar5,IF(A7=6,myvar6,IF(A7=7,myvar7,IF(A7=8,myvar8,IF(A7=9,myvar9,IF(A7=10,myvar10,IF(A7=11,myvar11,IF(A7=12,myvar12,IF(A7=13,myvar13,)))))))))))))</f>
+        <v>Workshop</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>490</v>
+      </c>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="22">
+        <v>27000</v>
+      </c>
+      <c r="G7" s="40"/>
+    </row>
+    <row r="8" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="36">
+        <v>2</v>
+      </c>
+      <c r="B8" s="37" t="str">
+        <f>IF(A8=1,myvar1,IF(A8=2,myvar2,IF(A8=3,myvar3,IF(A8=4,myvar4,IF(A8=5,myvar5,IF(A8=6,myvar6,IF(A8=7,myvar7,IF(A8=8,myvar8,IF(A8=9,myvar9,IF(A8=10,myvar10,IF(A8=11,myvar11,IF(A8=12,myvar12,IF(A8=13,myvar13,)))))))))))))</f>
+        <v>Workshop</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>495</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>494</v>
+      </c>
+      <c r="E8" s="19"/>
+      <c r="F8" s="22">
+        <v>3000</v>
+      </c>
+      <c r="G8" s="40">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="36">
+        <v>2</v>
+      </c>
+      <c r="B9" s="37" t="str">
+        <f>IF(A9=1,myvar1,IF(A9=2,myvar2,IF(A9=3,myvar3,IF(A9=4,myvar4,IF(A9=5,myvar5,IF(A9=6,myvar6,IF(A9=7,myvar7,IF(A9=8,myvar8,IF(A9=9,myvar9,IF(A9=10,myvar10,IF(A9=11,myvar11,IF(A9=12,myvar12,IF(A9=13,myvar13,)))))))))))))</f>
+        <v>Workshop</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>504</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>505</v>
+      </c>
+      <c r="E9" s="16"/>
+      <c r="F9" s="22">
+        <v>6000</v>
+      </c>
+      <c r="G9" s="40">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="36">
+        <v>3</v>
+      </c>
+      <c r="B10" s="37" t="str">
+        <f>IF(A10=1,myvar1,IF(A10=2,myvar2,IF(A10=3,myvar3,IF(A10=4,myvar4,IF(A10=5,myvar5,IF(A10=6,myvar6,IF(A10=7,myvar7,IF(A10=8,myvar8,IF(A10=9,myvar9,IF(A10=10,myvar10,IF(A10=11,myvar11,IF(A10=12,myvar12,IF(A10=13,myvar13,)))))))))))))</f>
+        <v>Body &amp; Painting</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>493</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>411</v>
+      </c>
+      <c r="E10" s="19"/>
+      <c r="F10" s="22">
+        <v>10000</v>
+      </c>
+      <c r="G10" s="40"/>
+    </row>
+    <row r="11" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="36">
+        <v>2</v>
+      </c>
+      <c r="B11" s="37" t="str">
+        <f>IF(A11=1,myvar1,IF(A11=2,myvar2,IF(A11=3,myvar3,IF(A11=4,myvar4,IF(A11=5,myvar5,IF(A11=6,myvar6,IF(A11=7,myvar7,IF(A11=8,myvar8,IF(A11=9,myvar9,IF(A11=10,myvar10,IF(A11=11,myvar11,IF(A11=12,myvar12,IF(A11=13,myvar13,)))))))))))))</f>
+        <v>Workshop</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>506</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>507</v>
+      </c>
+      <c r="E11" s="14"/>
+      <c r="F11" s="22">
+        <v>10000</v>
+      </c>
+      <c r="G11" s="40">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="36">
+        <v>2</v>
+      </c>
+      <c r="B12" s="37" t="str">
+        <f>IF(A12=1,myvar1,IF(A12=2,myvar2,IF(A12=3,myvar3,IF(A12=4,myvar4,IF(A12=5,myvar5,IF(A12=6,myvar6,IF(A12=7,myvar7,IF(A12=8,myvar8,IF(A12=9,myvar9,IF(A12=10,myvar10,IF(A12=11,myvar11,IF(A12=12,myvar12,IF(A12=13,myvar13,)))))))))))))</f>
+        <v>Workshop</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>496</v>
+      </c>
+      <c r="D12" s="19"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="22">
+        <v>7000</v>
+      </c>
+      <c r="G12" s="40"/>
+    </row>
+    <row r="13" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="36">
+        <v>5</v>
+      </c>
+      <c r="B13" s="37" t="str">
+        <f>IF(A13=1,myvar1,IF(A13=2,myvar2,IF(A13=3,myvar3,IF(A13=4,myvar4,IF(A13=5,myvar5,IF(A13=6,myvar6,IF(A13=7,myvar7,IF(A13=8,myvar8,IF(A13=9,myvar9,IF(A13=10,myvar10,IF(A13=11,myvar11,IF(A13=12,myvar12,IF(A13=13,myvar13,)))))))))))))</f>
+        <v>Carry</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="D13" s="19"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="22">
+        <v>12000</v>
+      </c>
+      <c r="G13" s="40"/>
+    </row>
+    <row r="14" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="36">
+        <v>5</v>
+      </c>
+      <c r="B14" s="37" t="str">
+        <f>IF(A14=1,myvar1,IF(A14=2,myvar2,IF(A14=3,myvar3,IF(A14=4,myvar4,IF(A14=5,myvar5,IF(A14=6,myvar6,IF(A14=7,myvar7,IF(A14=8,myvar8,IF(A14=9,myvar9,IF(A14=10,myvar10,IF(A14=11,myvar11,IF(A14=12,myvar12,IF(A14=13,myvar13,)))))))))))))</f>
+        <v>Carry</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>511</v>
+      </c>
+      <c r="D14" s="19"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="22">
+        <v>6000</v>
+      </c>
+      <c r="G14" s="40"/>
+    </row>
+    <row r="15" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="36">
+        <v>3</v>
+      </c>
+      <c r="B15" s="37" t="str">
+        <f>IF(A15=1,myvar1,IF(A15=2,myvar2,IF(A15=3,myvar3,IF(A15=4,myvar4,IF(A15=5,myvar5,IF(A15=6,myvar6,IF(A15=7,myvar7,IF(A15=8,myvar8,IF(A15=9,myvar9,IF(A15=10,myvar10,IF(A15=11,myvar11,IF(A15=12,myvar12,IF(A15=13,myvar13,)))))))))))))</f>
+        <v>Body &amp; Painting</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>509</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>510</v>
+      </c>
+      <c r="E15" s="14"/>
+      <c r="F15" s="22">
+        <v>120000</v>
+      </c>
+      <c r="G15" s="40">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="36">
+        <v>7</v>
+      </c>
+      <c r="B16" s="37" t="str">
+        <f>IF(A16=1,myvar1,IF(A16=2,myvar2,IF(A16=3,myvar3,IF(A16=4,myvar4,IF(A16=5,myvar5,IF(A16=6,myvar6,IF(A16=7,myvar7,IF(A16=8,myvar8,IF(A16=9,myvar9,IF(A16=10,myvar10,IF(A16=11,myvar11,IF(A16=12,myvar12,IF(A16=13,myvar13,)))))))))))))</f>
+        <v>Discount</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>508</v>
+      </c>
+      <c r="E16" s="16"/>
+      <c r="F16" s="22">
+        <v>1000</v>
+      </c>
+      <c r="G16" s="40"/>
+    </row>
+    <row r="17" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="36">
+        <v>4</v>
+      </c>
+      <c r="B17" s="37" t="str">
+        <f>IF(A17=1,myvar1,IF(A17=2,myvar2,IF(A17=3,myvar3,IF(A17=4,myvar4,IF(A17=5,myvar5,IF(A17=6,myvar6,IF(A17=7,myvar7,IF(A17=8,myvar8,IF(A17=9,myvar9,IF(A17=10,myvar10,IF(A17=11,myvar11,IF(A17=12,myvar12,IF(A17=13,myvar13,)))))))))))))</f>
+        <v>Wages</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>424</v>
+      </c>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="22">
+        <v>20000</v>
+      </c>
+      <c r="G17" s="40"/>
+    </row>
+    <row r="18" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="36">
+        <v>8</v>
+      </c>
+      <c r="B18" s="37" t="str">
+        <f>IF(A18=1,myvar1,IF(A18=2,myvar2,IF(A18=3,myvar3,IF(A18=4,myvar4,IF(A18=5,myvar5,IF(A18=6,myvar6,IF(A18=7,myvar7,IF(A18=8,myvar8,IF(A18=9,myvar9,IF(A18=10,myvar10,IF(A18=11,myvar11,IF(A18=12,myvar12,IF(A18=13,myvar13,)))))))))))))</f>
+        <v>Advance</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>492</v>
+      </c>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="22">
+        <v>10000</v>
+      </c>
+      <c r="G18" s="40"/>
+    </row>
+    <row r="19" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="36">
+        <v>2</v>
+      </c>
+      <c r="B19" s="37" t="str">
+        <f>IF(A19=1,myvar1,IF(A19=2,myvar2,IF(A19=3,myvar3,IF(A19=4,myvar4,IF(A19=5,myvar5,IF(A19=6,myvar6,IF(A19=7,myvar7,IF(A19=8,myvar8,IF(A19=9,myvar9,IF(A19=10,myvar10,IF(A19=11,myvar11,IF(A19=12,myvar12,IF(A19=13,myvar13,)))))))))))))</f>
+        <v>Workshop</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>423</v>
+      </c>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="22">
+        <v>2000</v>
+      </c>
+      <c r="G19" s="40"/>
+    </row>
+    <row r="20" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="36">
+        <v>2</v>
+      </c>
+      <c r="B20" s="37" t="str">
+        <f>IF(A20=1,myvar1,IF(A20=2,myvar2,IF(A20=3,myvar3,IF(A20=4,myvar4,IF(A20=5,myvar5,IF(A20=6,myvar6,IF(A20=7,myvar7,IF(A20=8,myvar8,IF(A20=9,myvar9,IF(A20=10,myvar10,IF(A20=11,myvar11,IF(A20=12,myvar12,IF(A20=13,myvar13,)))))))))))))</f>
+        <v>Workshop</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>497</v>
+      </c>
+      <c r="D20" s="19"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="22">
+        <v>13000</v>
+      </c>
+      <c r="G20" s="40"/>
+    </row>
+    <row r="21" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="36">
+        <v>6</v>
+      </c>
+      <c r="B21" s="37" t="str">
+        <f>IF(A21=1,myvar1,IF(A21=2,myvar2,IF(A21=3,myvar3,IF(A21=4,myvar4,IF(A21=5,myvar5,IF(A21=6,myvar6,IF(A21=7,myvar7,IF(A21=8,myvar8,IF(A21=9,myvar9,IF(A21=10,myvar10,IF(A21=11,myvar11,IF(A21=12,myvar12,IF(A21=13,myvar13,)))))))))))))</f>
+        <v>Meal</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="D21" s="19"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="22">
+        <v>27000</v>
+      </c>
+      <c r="G21" s="40"/>
+    </row>
+    <row r="22" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E22" s="58" t="s">
+        <v>332</v>
+      </c>
+      <c r="F22" s="60">
+        <f>SUM(F2:F21)</f>
+        <v>336900</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E23" s="58" t="s">
+        <v>372</v>
+      </c>
+      <c r="F23" s="61">
+        <v>128300</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E24" s="58" t="s">
+        <v>373</v>
+      </c>
+      <c r="F24" s="61">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E25" s="58"/>
+      <c r="F25" s="69">
+        <f>SUM(F22:F24)</f>
+        <v>473200</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E26" s="66" t="s">
+        <v>428</v>
+      </c>
+      <c r="F26" s="67">
+        <v>165000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="E27" s="58" t="s">
+        <v>374</v>
+      </c>
+      <c r="F27" s="56">
+        <v>269000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F28" s="68">
+        <f>SUM(F26:F27)</f>
+        <v>434000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F29" s="72">
+        <v>473200</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F30" s="62">
+        <f>F28-F29</f>
+        <v>-39200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="2" tint="-0.749992370372631"/>
+  </sheetPr>
+  <dimension ref="A1:H36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="36.28515625" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" customWidth="1"/>
+    <col min="8" max="8" width="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>330</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>375</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>328</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="36">
+        <v>6</v>
+      </c>
+      <c r="B2" s="37" t="str">
+        <f>IF(A2=1,myvar1,IF(A2=2,myvar2,IF(A2=3,myvar3,IF(A2=4,myvar4,IF(A2=5,myvar5,IF(A2=6,myvar6,IF(A2=7,myvar7,IF(A2=8,myvar8,IF(A2=9,myvar9,IF(A2=10,myvar10,IF(A2=11,myvar11,IF(A2=12,myvar12,IF(A2=13,myvar13,)))))))))))))</f>
+        <v>Meal</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="D2" s="19"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="22">
+        <v>5000</v>
+      </c>
+      <c r="G2" s="40"/>
+    </row>
+    <row r="3" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="36">
+        <v>1</v>
+      </c>
+      <c r="B3" s="37" t="str">
+        <f>IF(A3=1,myvar1,IF(A3=2,myvar2,IF(A3=3,myvar3,IF(A3=4,myvar4,IF(A3=5,myvar5,IF(A3=6,myvar6,IF(A3=7,myvar7,IF(A3=8,myvar8,IF(A3=9,myvar9,IF(A3=10,myvar10,IF(A3=11,myvar11,IF(A3=12,myvar12,IF(A3=13,myvar13,)))))))))))))</f>
+        <v>Expense</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="19"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="22">
+        <v>2000</v>
+      </c>
+      <c r="G3" s="40"/>
+    </row>
+    <row r="4" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="36">
+        <v>2</v>
+      </c>
+      <c r="B4" s="37" t="str">
+        <f>IF(A4=1,myvar1,IF(A4=2,myvar2,IF(A4=3,myvar3,IF(A4=4,myvar4,IF(A4=5,myvar5,IF(A4=6,myvar6,IF(A4=7,myvar7,IF(A4=8,myvar8,IF(A4=9,myvar9,IF(A4=10,myvar10,IF(A4=11,myvar11,IF(A4=12,myvar12,IF(A4=13,myvar13,)))))))))))))</f>
+        <v>Workshop</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="D4" s="19"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="22">
+        <v>2500</v>
+      </c>
+      <c r="G4" s="40"/>
+    </row>
+    <row r="5" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="36">
+        <v>2</v>
+      </c>
+      <c r="B5" s="37" t="str">
+        <f>IF(A5=1,myvar1,IF(A5=2,myvar2,IF(A5=3,myvar3,IF(A5=4,myvar4,IF(A5=5,myvar5,IF(A5=6,myvar6,IF(A5=7,myvar7,IF(A5=8,myvar8,IF(A5=9,myvar9,IF(A5=10,myvar10,IF(A5=11,myvar11,IF(A5=12,myvar12,IF(A5=13,myvar13,)))))))))))))</f>
+        <v>Workshop</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>522</v>
+      </c>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="22">
+        <v>3500</v>
+      </c>
+      <c r="G5" s="40"/>
+    </row>
+    <row r="6" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="36">
+        <v>1</v>
+      </c>
+      <c r="B6" s="37" t="str">
+        <f>IF(A6=1,myvar1,IF(A6=2,myvar2,IF(A6=3,myvar3,IF(A6=4,myvar4,IF(A6=5,myvar5,IF(A6=6,myvar6,IF(A6=7,myvar7,IF(A6=8,myvar8,IF(A6=9,myvar9,IF(A6=10,myvar10,IF(A6=11,myvar11,IF(A6=12,myvar12,IF(A6=13,myvar13,)))))))))))))</f>
+        <v>Expense</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>512</v>
+      </c>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="22">
+        <v>34500</v>
+      </c>
+      <c r="G6" s="40"/>
+    </row>
+    <row r="7" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="36">
+        <v>1</v>
+      </c>
+      <c r="B7" s="37" t="str">
+        <f>IF(A7=1,myvar1,IF(A7=2,myvar2,IF(A7=3,myvar3,IF(A7=4,myvar4,IF(A7=5,myvar5,IF(A7=6,myvar6,IF(A7=7,myvar7,IF(A7=8,myvar8,IF(A7=9,myvar9,IF(A7=10,myvar10,IF(A7=11,myvar11,IF(A7=12,myvar12,IF(A7=13,myvar13,)))))))))))))</f>
+        <v>Expense</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>513</v>
+      </c>
+      <c r="D7" s="19"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="22">
+        <v>2700</v>
+      </c>
+      <c r="G7" s="40"/>
+    </row>
+    <row r="8" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="36">
+        <v>2</v>
+      </c>
+      <c r="B8" s="37" t="str">
+        <f>IF(A8=1,myvar1,IF(A8=2,myvar2,IF(A8=3,myvar3,IF(A8=4,myvar4,IF(A8=5,myvar5,IF(A8=6,myvar6,IF(A8=7,myvar7,IF(A8=8,myvar8,IF(A8=9,myvar9,IF(A8=10,myvar10,IF(A8=11,myvar11,IF(A8=12,myvar12,IF(A8=13,myvar13,)))))))))))))</f>
+        <v>Workshop</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>519</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>518</v>
+      </c>
+      <c r="E8" s="14">
+        <v>16055</v>
+      </c>
+      <c r="F8" s="22">
+        <v>22000</v>
+      </c>
+      <c r="G8" s="40">
+        <v>12000</v>
+      </c>
+      <c r="H8" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="36">
+        <v>2</v>
+      </c>
+      <c r="B9" s="37" t="str">
+        <f>IF(A9=1,myvar1,IF(A9=2,myvar2,IF(A9=3,myvar3,IF(A9=4,myvar4,IF(A9=5,myvar5,IF(A9=6,myvar6,IF(A9=7,myvar7,IF(A9=8,myvar8,IF(A9=9,myvar9,IF(A9=10,myvar10,IF(A9=11,myvar11,IF(A9=12,myvar12,IF(A9=13,myvar13,)))))))))))))</f>
+        <v>Workshop</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>521</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>532</v>
+      </c>
+      <c r="E9" s="63" t="s">
+        <v>533</v>
+      </c>
+      <c r="F9" s="22">
+        <v>4000</v>
+      </c>
+      <c r="G9" s="40">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="36">
+        <v>3</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>333</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>526</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>520</v>
+      </c>
+      <c r="E10" s="16"/>
+      <c r="F10" s="22">
+        <v>5000</v>
+      </c>
+      <c r="G10" s="40"/>
+    </row>
+    <row r="11" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="36">
+        <v>3</v>
+      </c>
+      <c r="B11" s="37" t="str">
+        <f>IF(A11=1,myvar1,IF(A11=2,myvar2,IF(A11=3,myvar3,IF(A11=4,myvar4,IF(A11=5,myvar5,IF(A11=6,myvar6,IF(A11=7,myvar7,IF(A11=8,myvar8,IF(A11=9,myvar9,IF(A11=10,myvar10,IF(A11=11,myvar11,IF(A11=12,myvar12,IF(A11=13,myvar13,)))))))))))))</f>
+        <v>Body &amp; Painting</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>514</v>
+      </c>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="22">
+        <v>7200</v>
+      </c>
+      <c r="G11" s="40"/>
+    </row>
+    <row r="12" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="36">
+        <v>1</v>
+      </c>
+      <c r="B12" s="37" t="str">
+        <f>IF(A12=1,myvar1,IF(A12=2,myvar2,IF(A12=3,myvar3,IF(A12=4,myvar4,IF(A12=5,myvar5,IF(A12=6,myvar6,IF(A12=7,myvar7,IF(A12=8,myvar8,IF(A12=9,myvar9,IF(A12=10,myvar10,IF(A12=11,myvar11,IF(A12=12,myvar12,IF(A12=13,myvar13,)))))))))))))</f>
+        <v>Expense</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>516</v>
+      </c>
+      <c r="D12" s="19"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="22">
+        <v>1200</v>
+      </c>
+      <c r="G12" s="40"/>
+    </row>
+    <row r="13" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="36">
+        <v>2</v>
+      </c>
+      <c r="B13" s="37" t="str">
+        <f>IF(A13=1,myvar1,IF(A13=2,myvar2,IF(A13=3,myvar3,IF(A13=4,myvar4,IF(A13=5,myvar5,IF(A13=6,myvar6,IF(A13=7,myvar7,IF(A13=8,myvar8,IF(A13=9,myvar9,IF(A13=10,myvar10,IF(A13=11,myvar11,IF(A13=12,myvar12,IF(A13=13,myvar13,)))))))))))))</f>
+        <v>Workshop</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>515</v>
+      </c>
+      <c r="D13" s="19"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="22">
+        <v>5400</v>
+      </c>
+      <c r="G13" s="40"/>
+    </row>
+    <row r="14" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="36">
+        <v>5</v>
+      </c>
+      <c r="B14" s="37" t="str">
+        <f>IF(A14=1,myvar1,IF(A14=2,myvar2,IF(A14=3,myvar3,IF(A14=4,myvar4,IF(A14=5,myvar5,IF(A14=6,myvar6,IF(A14=7,myvar7,IF(A14=8,myvar8,IF(A14=9,myvar9,IF(A14=10,myvar10,IF(A14=11,myvar11,IF(A14=12,myvar12,IF(A14=13,myvar13,)))))))))))))</f>
+        <v>Carry</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="D14" s="19"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="22">
+        <v>15000</v>
+      </c>
+      <c r="G14" s="40"/>
+    </row>
+    <row r="15" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="36">
+        <v>1</v>
+      </c>
+      <c r="B15" s="37" t="str">
+        <f>IF(A15=1,myvar1,IF(A15=2,myvar2,IF(A15=3,myvar3,IF(A15=4,myvar4,IF(A15=5,myvar5,IF(A15=6,myvar6,IF(A15=7,myvar7,IF(A15=8,myvar8,IF(A15=9,myvar9,IF(A15=10,myvar10,IF(A15=11,myvar11,IF(A15=12,myvar12,IF(A15=13,myvar13,)))))))))))))</f>
+        <v>Expense</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>517</v>
+      </c>
+      <c r="D15" s="19"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="22">
+        <v>2000</v>
+      </c>
+      <c r="G15" s="40"/>
+    </row>
+    <row r="16" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="36">
+        <v>5</v>
+      </c>
+      <c r="B16" s="37" t="str">
+        <f>IF(A16=1,myvar1,IF(A16=2,myvar2,IF(A16=3,myvar3,IF(A16=4,myvar4,IF(A16=5,myvar5,IF(A16=6,myvar6,IF(A16=7,myvar7,IF(A16=8,myvar8,IF(A16=9,myvar9,IF(A16=10,myvar10,IF(A16=11,myvar11,IF(A16=12,myvar12,IF(A16=13,myvar13,)))))))))))))</f>
+        <v>Carry</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>405</v>
+      </c>
+      <c r="D16" s="19"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="22">
+        <v>8000</v>
+      </c>
+      <c r="G16" s="40"/>
+    </row>
+    <row r="17" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="36">
+        <v>3</v>
+      </c>
+      <c r="B17" s="37" t="s">
+        <v>333</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>524</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>534</v>
+      </c>
+      <c r="E17" s="14">
+        <v>16063</v>
+      </c>
+      <c r="F17" s="22">
+        <v>35000</v>
+      </c>
+      <c r="G17" s="40">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="36">
+        <v>3</v>
+      </c>
+      <c r="B18" s="37" t="s">
+        <v>333</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>530</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>531</v>
+      </c>
+      <c r="E18" s="14"/>
+      <c r="F18" s="22">
+        <v>30000</v>
+      </c>
+      <c r="G18" s="40"/>
+    </row>
+    <row r="19" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="36">
+        <v>3</v>
+      </c>
+      <c r="B19" s="37" t="str">
+        <f>IF(A19=1,myvar1,IF(A19=2,myvar2,IF(A19=3,myvar3,IF(A19=4,myvar4,IF(A19=5,myvar5,IF(A19=6,myvar6,IF(A19=7,myvar7,IF(A19=8,myvar8,IF(A19=9,myvar9,IF(A19=10,myvar10,IF(A19=11,myvar11,IF(A19=12,myvar12,IF(A19=13,myvar13,)))))))))))))</f>
+        <v>Body &amp; Painting</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>523</v>
+      </c>
+      <c r="D19" s="19"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="22">
+        <v>1500</v>
+      </c>
+      <c r="G19" s="40"/>
+    </row>
+    <row r="20" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="36">
+        <v>1</v>
+      </c>
+      <c r="B20" s="37" t="str">
+        <f>IF(A20=1,myvar1,IF(A20=2,myvar2,IF(A20=3,myvar3,IF(A20=4,myvar4,IF(A20=5,myvar5,IF(A20=6,myvar6,IF(A20=7,myvar7,IF(A20=8,myvar8,IF(A20=9,myvar9,IF(A20=10,myvar10,IF(A20=11,myvar11,IF(A20=12,myvar12,IF(A20=13,myvar13,)))))))))))))</f>
+        <v>Expense</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>525</v>
+      </c>
+      <c r="D20" s="19"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="22">
+        <v>2800</v>
+      </c>
+      <c r="G20" s="40"/>
+    </row>
+    <row r="21" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="36">
+        <v>7</v>
+      </c>
+      <c r="B21" s="37" t="str">
+        <f>IF(A21=1,myvar1,IF(A21=2,myvar2,IF(A21=3,myvar3,IF(A21=4,myvar4,IF(A21=5,myvar5,IF(A21=6,myvar6,IF(A21=7,myvar7,IF(A21=8,myvar8,IF(A21=9,myvar9,IF(A21=10,myvar10,IF(A21=11,myvar11,IF(A21=12,myvar12,IF(A21=13,myvar13,)))))))))))))</f>
+        <v>Discount</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>520</v>
+      </c>
+      <c r="E21" s="16"/>
+      <c r="F21" s="22">
+        <v>20000</v>
+      </c>
+      <c r="G21" s="40"/>
+    </row>
+    <row r="22" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="36">
+        <v>7</v>
+      </c>
+      <c r="B22" s="37" t="str">
+        <f>IF(A22=1,myvar1,IF(A22=2,myvar2,IF(A22=3,myvar3,IF(A22=4,myvar4,IF(A22=5,myvar5,IF(A22=6,myvar6,IF(A22=7,myvar7,IF(A22=8,myvar8,IF(A22=9,myvar9,IF(A22=10,myvar10,IF(A22=11,myvar11,IF(A22=12,myvar12,IF(A22=13,myvar13,)))))))))))))</f>
+        <v>Discount</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>527</v>
+      </c>
+      <c r="E22" s="16"/>
+      <c r="F22" s="22">
+        <v>1000</v>
+      </c>
+      <c r="G22" s="40"/>
+    </row>
+    <row r="23" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="36">
+        <v>8</v>
+      </c>
+      <c r="B23" s="37" t="s">
+        <v>491</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>529</v>
+      </c>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="22">
+        <v>60000</v>
+      </c>
+      <c r="G23" s="40"/>
+    </row>
+    <row r="24" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="36">
+        <v>8</v>
+      </c>
+      <c r="B24" s="37" t="s">
+        <v>491</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>528</v>
+      </c>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="22">
+        <v>20000</v>
+      </c>
+      <c r="G24" s="40"/>
+    </row>
+    <row r="25" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="36">
+        <v>4</v>
+      </c>
+      <c r="B25" s="37" t="str">
+        <f>IF(A25=1,myvar1,IF(A25=2,myvar2,IF(A25=3,myvar3,IF(A25=4,myvar4,IF(A25=5,myvar5,IF(A25=6,myvar6,IF(A25=7,myvar7,IF(A25=8,myvar8,IF(A25=9,myvar9,IF(A25=10,myvar10,IF(A25=11,myvar11,IF(A25=12,myvar12,IF(A25=13,myvar13,)))))))))))))</f>
+        <v>Wages</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>424</v>
+      </c>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="22">
+        <v>20000</v>
+      </c>
+      <c r="G25" s="40"/>
+    </row>
+    <row r="26" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="36">
+        <v>6</v>
+      </c>
+      <c r="B26" s="37" t="str">
+        <f>IF(A26=1,myvar1,IF(A26=2,myvar2,IF(A26=3,myvar3,IF(A26=4,myvar4,IF(A26=5,myvar5,IF(A26=6,myvar6,IF(A26=7,myvar7,IF(A26=8,myvar8,IF(A26=9,myvar9,IF(A26=10,myvar10,IF(A26=11,myvar11,IF(A26=12,myvar12,IF(A26=13,myvar13,)))))))))))))</f>
+        <v>Meal</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>425</v>
+      </c>
+      <c r="D26" s="19"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="22">
+        <v>28500</v>
+      </c>
+      <c r="G26" s="40"/>
+    </row>
+    <row r="27" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="73"/>
+      <c r="E27" s="58" t="s">
+        <v>332</v>
+      </c>
+      <c r="F27" s="60">
+        <f>SUM(F2:F26)</f>
+        <v>338800</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E28" s="58" t="s">
+        <v>407</v>
+      </c>
+      <c r="F28" s="61">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E29" s="58" t="s">
+        <v>372</v>
+      </c>
+      <c r="F29" s="61">
+        <v>218250</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="23.25" x14ac:dyDescent="0.6">
+      <c r="E30" s="58" t="s">
+        <v>373</v>
+      </c>
+      <c r="F30" s="59">
+        <v>1170500</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F31" s="53">
+        <f>SUM(F27:F30)</f>
+        <v>1739550</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E32" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="F32" s="61">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="33" spans="5:6" ht="23.25" x14ac:dyDescent="0.6">
+      <c r="E33" s="58" t="s">
+        <v>374</v>
+      </c>
+      <c r="F33" s="74">
+        <v>1904800</v>
+      </c>
+    </row>
+    <row r="34" spans="5:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F34" s="50">
+        <f>SUM(F32:F33)</f>
+        <v>2054800</v>
+      </c>
+    </row>
+    <row r="35" spans="5:6" ht="23.25" x14ac:dyDescent="0.6">
+      <c r="F35" s="59">
+        <v>1739550</v>
+      </c>
+    </row>
+    <row r="36" spans="5:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E36" s="58" t="s">
+        <v>468</v>
+      </c>
+      <c r="F36" s="50">
+        <f>F34-F35</f>
+        <v>315250</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="36.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="26" t="s">
+        <v>330</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>375</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>328</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="36">
+        <v>3</v>
+      </c>
+      <c r="B2" s="37" t="str">
+        <f>IF(A2=1,myvar1,IF(A2=2,myvar2,IF(A2=3,myvar3,IF(A2=4,myvar4,IF(A2=5,myvar5,IF(A2=6,myvar6,IF(A2=7,myvar7,IF(A2=8,myvar8,IF(A2=9,myvar9,IF(A2=10,myvar10,IF(A2=11,myvar11,IF(A2=12,myvar12,IF(A2=13,myvar13,)))))))))))))</f>
+        <v>Body &amp; Painting</v>
+      </c>
+      <c r="C2" s="13"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="40"/>
+      <c r="K2" s="12">
+        <v>1</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="36">
+        <v>1</v>
+      </c>
+      <c r="B3" s="37" t="str">
+        <f>IF(A3=1,myvar1,IF(A3=2,myvar2,IF(A3=3,myvar3,IF(A3=4,myvar4,IF(A3=5,myvar5,IF(A3=6,myvar6,IF(A3=7,myvar7,IF(A3=8,myvar8,IF(A3=9,myvar9,IF(A3=10,myvar10,IF(A3=11,myvar11,IF(A3=12,myvar12,IF(A3=13,myvar13,)))))))))))))</f>
+        <v>Expense</v>
+      </c>
+      <c r="C3" s="13"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="40"/>
+      <c r="K3" s="12">
+        <v>2</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="36">
+        <v>2</v>
+      </c>
+      <c r="B4" s="37" t="str">
+        <f>IF(A4=1,myvar1,IF(A4=2,myvar2,IF(A4=3,myvar3,IF(A4=4,myvar4,IF(A4=5,myvar5,IF(A4=6,myvar6,IF(A4=7,myvar7,IF(A4=8,myvar8,IF(A4=9,myvar9,IF(A4=10,myvar10,IF(A4=11,myvar11,IF(A4=12,myvar12,IF(A4=13,myvar13,)))))))))))))</f>
+        <v>Workshop</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="40"/>
+      <c r="K4" s="12">
+        <v>3</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="36"/>
+      <c r="B5" s="37">
+        <f>IF(A5=1,myvar1,IF(A5=2,myvar2,IF(A5=3,myvar3,IF(A5=4,myvar4,IF(A5=5,myvar5,IF(A5=6,myvar6,IF(A5=7,myvar7,IF(A5=8,myvar8,IF(A5=9,myvar9,IF(A5=10,myvar10,IF(A5=11,myvar11,IF(A5=12,myvar12,IF(A5=13,myvar13,)))))))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="40"/>
+      <c r="K5" s="12">
+        <v>4</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="36"/>
+      <c r="B6" s="37">
+        <f>IF(A6=1,myvar1,IF(A6=2,myvar2,IF(A6=3,myvar3,IF(A6=4,myvar4,IF(A6=5,myvar5,IF(A6=6,myvar6,IF(A6=7,myvar7,IF(A6=8,myvar8,IF(A6=9,myvar9,IF(A6=10,myvar10,IF(A6=11,myvar11,IF(A6=12,myvar12,IF(A6=13,myvar13,)))))))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="40"/>
+      <c r="K6" s="12">
+        <v>5</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="36"/>
+      <c r="B7" s="37">
+        <f>IF(A7=1,myvar1,IF(A7=2,myvar2,IF(A7=3,myvar3,IF(A7=4,myvar4,IF(A7=5,myvar5,IF(A7=6,myvar6,IF(A7=7,myvar7,IF(A7=8,myvar8,IF(A7=9,myvar9,IF(A7=10,myvar10,IF(A7=11,myvar11,IF(A7=12,myvar12,IF(A7=13,myvar13,)))))))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="40"/>
+      <c r="K7" s="12">
+        <v>6</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="36"/>
+      <c r="B8" s="37">
+        <f>IF(A8=1,myvar1,IF(A8=2,myvar2,IF(A8=3,myvar3,IF(A8=4,myvar4,IF(A8=5,myvar5,IF(A8=6,myvar6,IF(A8=7,myvar7,IF(A8=8,myvar8,IF(A8=9,myvar9,IF(A8=10,myvar10,IF(A8=11,myvar11,IF(A8=12,myvar12,IF(A8=13,myvar13,)))))))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="40"/>
+      <c r="K8" s="12">
+        <v>7</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="36"/>
+      <c r="B9" s="37">
+        <f>IF(A9=1,myvar1,IF(A9=2,myvar2,IF(A9=3,myvar3,IF(A9=4,myvar4,IF(A9=5,myvar5,IF(A9=6,myvar6,IF(A9=7,myvar7,IF(A9=8,myvar8,IF(A9=9,myvar9,IF(A9=10,myvar10,IF(A9=11,myvar11,IF(A9=12,myvar12,IF(A9=13,myvar13,)))))))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="40"/>
+      <c r="K9" s="12">
+        <v>8</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="36"/>
+      <c r="B10" s="37">
+        <f>IF(A10=1,myvar1,IF(A10=2,myvar2,IF(A10=3,myvar3,IF(A10=4,myvar4,IF(A10=5,myvar5,IF(A10=6,myvar6,IF(A10=7,myvar7,IF(A10=8,myvar8,IF(A10=9,myvar9,IF(A10=10,myvar10,IF(A10=11,myvar11,IF(A10=12,myvar12,IF(A10=13,myvar13,)))))))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="40"/>
+      <c r="K10" s="12">
+        <v>9</v>
+      </c>
+      <c r="L10" s="12"/>
+    </row>
+    <row r="11" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="36"/>
+      <c r="B11" s="37">
+        <f>IF(A11=1,myvar1,IF(A11=2,myvar2,IF(A11=3,myvar3,IF(A11=4,myvar4,IF(A11=5,myvar5,IF(A11=6,myvar6,IF(A11=7,myvar7,IF(A11=8,myvar8,IF(A11=9,myvar9,IF(A11=10,myvar10,IF(A11=11,myvar11,IF(A11=12,myvar12,IF(A11=13,myvar13,)))))))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="40"/>
+      <c r="K11" s="12">
+        <v>10</v>
+      </c>
+      <c r="L11" s="12"/>
+    </row>
+    <row r="12" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="36"/>
+      <c r="B12" s="37">
+        <f>IF(A12=1,myvar1,IF(A12=2,myvar2,IF(A12=3,myvar3,IF(A12=4,myvar4,IF(A12=5,myvar5,IF(A12=6,myvar6,IF(A12=7,myvar7,IF(A12=8,myvar8,IF(A12=9,myvar9,IF(A12=10,myvar10,IF(A12=11,myvar11,IF(A12=12,myvar12,IF(A12=13,myvar13,)))))))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="40"/>
+      <c r="K12" s="12">
+        <v>11</v>
+      </c>
+      <c r="L12" s="12"/>
+    </row>
+    <row r="13" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="36"/>
+      <c r="B13" s="37">
+        <f>IF(A13=1,myvar1,IF(A13=2,myvar2,IF(A13=3,myvar3,IF(A13=4,myvar4,IF(A13=5,myvar5,IF(A13=6,myvar6,IF(A13=7,myvar7,IF(A13=8,myvar8,IF(A13=9,myvar9,IF(A13=10,myvar10,IF(A13=11,myvar11,IF(A13=12,myvar12,IF(A13=13,myvar13,)))))))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="40"/>
+      <c r="K13" s="12">
+        <v>12</v>
+      </c>
+      <c r="L13" s="12"/>
+    </row>
+    <row r="14" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="36"/>
+      <c r="B14" s="37">
+        <f>IF(A14=1,myvar1,IF(A14=2,myvar2,IF(A14=3,myvar3,IF(A14=4,myvar4,IF(A14=5,myvar5,IF(A14=6,myvar6,IF(A14=7,myvar7,IF(A14=8,myvar8,IF(A14=9,myvar9,IF(A14=10,myvar10,IF(A14=11,myvar11,IF(A14=12,myvar12,IF(A14=13,myvar13,)))))))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="40"/>
+      <c r="K14" s="12">
+        <v>13</v>
+      </c>
+      <c r="L14" s="12"/>
+    </row>
+    <row r="15" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="36"/>
+      <c r="B15" s="37">
+        <f>IF(A15=1,myvar1,IF(A15=2,myvar2,IF(A15=3,myvar3,IF(A15=4,myvar4,IF(A15=5,myvar5,IF(A15=6,myvar6,IF(A15=7,myvar7,IF(A15=8,myvar8,IF(A15=9,myvar9,IF(A15=10,myvar10,IF(A15=11,myvar11,IF(A15=12,myvar12,IF(A15=13,myvar13,)))))))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="40"/>
+    </row>
+    <row r="16" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="36"/>
+      <c r="B16" s="37">
+        <f>IF(A16=1,myvar1,IF(A16=2,myvar2,IF(A16=3,myvar3,IF(A16=4,myvar4,IF(A16=5,myvar5,IF(A16=6,myvar6,IF(A16=7,myvar7,IF(A16=8,myvar8,IF(A16=9,myvar9,IF(A16=10,myvar10,IF(A16=11,myvar11,IF(A16=12,myvar12,IF(A16=13,myvar13,)))))))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="C16" s="13"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="40"/>
+    </row>
+    <row r="17" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="36"/>
+      <c r="B17" s="37">
+        <f>IF(A17=1,myvar1,IF(A17=2,myvar2,IF(A17=3,myvar3,IF(A17=4,myvar4,IF(A17=5,myvar5,IF(A17=6,myvar6,IF(A17=7,myvar7,IF(A17=8,myvar8,IF(A17=9,myvar9,IF(A17=10,myvar10,IF(A17=11,myvar11,IF(A17=12,myvar12,IF(A17=13,myvar13,)))))))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="40"/>
+    </row>
+    <row r="18" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="36"/>
+      <c r="B18" s="37">
+        <f>IF(A18=1,myvar1,IF(A18=2,myvar2,IF(A18=3,myvar3,IF(A18=4,myvar4,IF(A18=5,myvar5,IF(A18=6,myvar6,IF(A18=7,myvar7,IF(A18=8,myvar8,IF(A18=9,myvar9,IF(A18=10,myvar10,IF(A18=11,myvar11,IF(A18=12,myvar12,IF(A18=13,myvar13,)))))))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="40"/>
+    </row>
+    <row r="19" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="36"/>
+      <c r="B19" s="37">
+        <f>IF(A19=1,myvar1,IF(A19=2,myvar2,IF(A19=3,myvar3,IF(A19=4,myvar4,IF(A19=5,myvar5,IF(A19=6,myvar6,IF(A19=7,myvar7,IF(A19=8,myvar8,IF(A19=9,myvar9,IF(A19=10,myvar10,IF(A19=11,myvar11,IF(A19=12,myvar12,IF(A19=13,myvar13,)))))))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="40"/>
+    </row>
+    <row r="20" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="36"/>
+      <c r="B20" s="37">
+        <f>IF(A20=1,myvar1,IF(A20=2,myvar2,IF(A20=3,myvar3,IF(A20=4,myvar4,IF(A20=5,myvar5,IF(A20=6,myvar6,IF(A20=7,myvar7,IF(A20=8,myvar8,IF(A20=9,myvar9,IF(A20=10,myvar10,IF(A20=11,myvar11,IF(A20=12,myvar12,IF(A20=13,myvar13,)))))))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="C20" s="13"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="40"/>
+    </row>
+    <row r="21" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="36"/>
+      <c r="B21" s="37">
+        <f>IF(A21=1,myvar1,IF(A21=2,myvar2,IF(A21=3,myvar3,IF(A21=4,myvar4,IF(A21=5,myvar5,IF(A21=6,myvar6,IF(A21=7,myvar7,IF(A21=8,myvar8,IF(A21=9,myvar9,IF(A21=10,myvar10,IF(A21=11,myvar11,IF(A21=12,myvar12,IF(A21=13,myvar13,)))))))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="40"/>
+    </row>
+    <row r="22" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="36"/>
+      <c r="B22" s="37">
+        <f>IF(A22=1,myvar1,IF(A22=2,myvar2,IF(A22=3,myvar3,IF(A22=4,myvar4,IF(A22=5,myvar5,IF(A22=6,myvar6,IF(A22=7,myvar7,IF(A22=8,myvar8,IF(A22=9,myvar9,IF(A22=10,myvar10,IF(A22=11,myvar11,IF(A22=12,myvar12,IF(A22=13,myvar13,)))))))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="C22" s="13"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="40"/>
+    </row>
+    <row r="23" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="36"/>
+      <c r="B23" s="37">
+        <f>IF(A23=1,myvar1,IF(A23=2,myvar2,IF(A23=3,myvar3,IF(A23=4,myvar4,IF(A23=5,myvar5,IF(A23=6,myvar6,IF(A23=7,myvar7,IF(A23=8,myvar8,IF(A23=9,myvar9,IF(A23=10,myvar10,IF(A23=11,myvar11,IF(A23=12,myvar12,IF(A23=13,myvar13,)))))))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="C23" s="13"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="40"/>
+    </row>
+    <row r="24" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="36"/>
+      <c r="B24" s="37">
+        <f>IF(A24=1,myvar1,IF(A24=2,myvar2,IF(A24=3,myvar3,IF(A24=4,myvar4,IF(A24=5,myvar5,IF(A24=6,myvar6,IF(A24=7,myvar7,IF(A24=8,myvar8,IF(A24=9,myvar9,IF(A24=10,myvar10,IF(A24=11,myvar11,IF(A24=12,myvar12,IF(A24=13,myvar13,)))))))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="C24" s="13"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="40"/>
+    </row>
+    <row r="25" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="36"/>
+      <c r="B25" s="37">
+        <f>IF(A25=1,myvar1,IF(A25=2,myvar2,IF(A25=3,myvar3,IF(A25=4,myvar4,IF(A25=5,myvar5,IF(A25=6,myvar6,IF(A25=7,myvar7,IF(A25=8,myvar8,IF(A25=9,myvar9,IF(A25=10,myvar10,IF(A25=11,myvar11,IF(A25=12,myvar12,IF(A25=13,myvar13,)))))))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="C25" s="15"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="40"/>
+    </row>
+    <row r="26" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="36"/>
+      <c r="B26" s="37">
+        <f>IF(A26=1,myvar1,IF(A26=2,myvar2,IF(A26=3,myvar3,IF(A26=4,myvar4,IF(A26=5,myvar5,IF(A26=6,myvar6,IF(A26=7,myvar7,IF(A26=8,myvar8,IF(A26=9,myvar9,IF(A26=10,myvar10,IF(A26=11,myvar11,IF(A26=12,myvar12,IF(A26=13,myvar13,)))))))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="C26" s="13"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="40"/>
+    </row>
+    <row r="27" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="36"/>
+      <c r="B27" s="37">
+        <f>IF(A27=1,myvar1,IF(A27=2,myvar2,IF(A27=3,myvar3,IF(A27=4,myvar4,IF(A27=5,myvar5,IF(A27=6,myvar6,IF(A27=7,myvar7,IF(A27=8,myvar8,IF(A27=9,myvar9,IF(A27=10,myvar10,IF(A27=11,myvar11,IF(A27=12,myvar12,IF(A27=13,myvar13,)))))))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="C27" s="13"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="40"/>
+    </row>
+    <row r="28" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="36"/>
+      <c r="B28" s="37">
+        <f>IF(A28=1,myvar1,IF(A28=2,myvar2,IF(A28=3,myvar3,IF(A28=4,myvar4,IF(A28=5,myvar5,IF(A28=6,myvar6,IF(A28=7,myvar7,IF(A28=8,myvar8,IF(A28=9,myvar9,IF(A28=10,myvar10,IF(A28=11,myvar11,IF(A28=12,myvar12,IF(A28=13,myvar13,)))))))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="C28" s="13"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="40"/>
+    </row>
+    <row r="29" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="36"/>
+      <c r="B29" s="37">
+        <f>IF(A29=1,myvar1,IF(A29=2,myvar2,IF(A29=3,myvar3,IF(A29=4,myvar4,IF(A29=5,myvar5,IF(A29=6,myvar6,IF(A29=7,myvar7,IF(A29=8,myvar8,IF(A29=9,myvar9,IF(A29=10,myvar10,IF(A29=11,myvar11,IF(A29=12,myvar12,IF(A29=13,myvar13,)))))))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="C29" s="13"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="40"/>
+    </row>
+    <row r="30" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E30" s="58"/>
+      <c r="F30" s="60"/>
+    </row>
+    <row r="31" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E31" s="58"/>
+      <c r="F31" s="61"/>
+    </row>
+    <row r="32" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E32" s="58"/>
+      <c r="F32" s="61"/>
+    </row>
+    <row r="33" spans="5:6" ht="23.25" x14ac:dyDescent="0.6">
+      <c r="E33" s="58"/>
+      <c r="F33" s="59"/>
+    </row>
+    <row r="34" spans="5:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F34" s="53"/>
+    </row>
+    <row r="35" spans="5:6" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="E35" s="58"/>
+      <c r="F35" s="56"/>
+    </row>
+    <row r="36" spans="5:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F36" s="62"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -3836,7 +5687,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -10835,11 +12686,11 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:I539"/>
+  <dimension ref="A1:K539"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I31" sqref="I31"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J1" sqref="J1:K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" x14ac:dyDescent="0.55000000000000004"/>
@@ -10856,7 +12707,7 @@
     <col min="10" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="26" t="s">
         <v>330</v>
       </c>
@@ -10878,14 +12729,14 @@
       <c r="G1" s="21" t="s">
         <v>329</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="J1" s="12" t="s">
         <v>330</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="K1" s="12" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="36">
         <v>6</v>
       </c>
@@ -10901,14 +12752,14 @@
         <v>3000</v>
       </c>
       <c r="G2" s="40"/>
-      <c r="H2" s="12">
+      <c r="J2" s="12">
         <v>1</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="K2" s="12" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="36">
         <v>2</v>
       </c>
@@ -10924,14 +12775,14 @@
         <v>1000</v>
       </c>
       <c r="G3" s="40"/>
-      <c r="H3" s="12">
+      <c r="J3" s="12">
         <v>2</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="K3" s="12" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="36">
         <v>2</v>
       </c>
@@ -10949,14 +12800,14 @@
         <v>35000</v>
       </c>
       <c r="G4" s="40"/>
-      <c r="H4" s="12">
+      <c r="J4" s="12">
         <v>3</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="K4" s="12" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="36">
         <v>1</v>
       </c>
@@ -10972,14 +12823,14 @@
         <v>27000</v>
       </c>
       <c r="G5" s="40"/>
-      <c r="H5" s="12">
+      <c r="J5" s="12">
         <v>4</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="K5" s="12" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="36">
         <v>1</v>
       </c>
@@ -10995,14 +12846,14 @@
         <v>5000</v>
       </c>
       <c r="G6" s="40"/>
-      <c r="H6" s="12">
+      <c r="J6" s="12">
         <v>5</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="K6" s="12" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="36">
         <v>2</v>
       </c>
@@ -11020,14 +12871,14 @@
         <v>2000</v>
       </c>
       <c r="G7" s="40"/>
-      <c r="H7" s="12">
+      <c r="J7" s="12">
         <v>6</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="K7" s="12" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="36">
         <v>2</v>
       </c>
@@ -11049,14 +12900,14 @@
       <c r="G8" s="40">
         <v>23000</v>
       </c>
-      <c r="H8" s="12">
+      <c r="J8" s="12">
         <v>7</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="K8" s="12" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="36">
         <v>3</v>
       </c>
@@ -11074,11 +12925,14 @@
         <v>23500</v>
       </c>
       <c r="G9" s="40"/>
-      <c r="H9" s="12">
+      <c r="J9" s="12">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K9" s="12" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="36">
         <v>1</v>
       </c>
@@ -11094,11 +12948,11 @@
         <v>800</v>
       </c>
       <c r="G10" s="40"/>
-      <c r="H10" s="12">
+      <c r="J10" s="12">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="36">
         <v>2</v>
       </c>
@@ -11116,11 +12970,11 @@
         <v>4000</v>
       </c>
       <c r="G11" s="40"/>
-      <c r="H11" s="12">
+      <c r="J11" s="12">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="36">
         <v>5</v>
       </c>
@@ -11136,11 +12990,11 @@
         <v>12000</v>
       </c>
       <c r="G12" s="40"/>
-      <c r="H12" s="12">
+      <c r="J12" s="12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="36">
         <v>1</v>
       </c>
@@ -11156,11 +13010,11 @@
         <v>2000</v>
       </c>
       <c r="G13" s="40"/>
-      <c r="H13" s="12">
+      <c r="J13" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="36">
         <v>5</v>
       </c>
@@ -11176,11 +13030,11 @@
         <v>14000</v>
       </c>
       <c r="G14" s="40"/>
-      <c r="H14" s="12">
+      <c r="J14" s="12">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="36">
         <v>3</v>
       </c>
@@ -11197,7 +13051,7 @@
       </c>
       <c r="G15" s="40"/>
     </row>
-    <row r="16" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="36">
         <v>1</v>
       </c>
@@ -14058,7 +15912,7 @@
   </sheetPr>
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -15007,9 +16861,578 @@
   <sheetPr>
     <tabColor theme="3" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="36.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>330</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>375</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>328</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="36">
+        <v>6</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>335</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="D2" s="19"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="22">
+        <v>6550</v>
+      </c>
+      <c r="G2" s="40"/>
+    </row>
+    <row r="3" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="36">
+        <v>1</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>332</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>449</v>
+      </c>
+      <c r="D3" s="19"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="22">
+        <v>52000</v>
+      </c>
+      <c r="G3" s="40"/>
+    </row>
+    <row r="4" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="36">
+        <v>1</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>332</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>455</v>
+      </c>
+      <c r="D4" s="19"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="22">
+        <v>1600</v>
+      </c>
+      <c r="G4" s="40"/>
+    </row>
+    <row r="5" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="36">
+        <v>2</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>337</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>450</v>
+      </c>
+      <c r="D5" s="19"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="22">
+        <v>4500</v>
+      </c>
+      <c r="G5" s="40"/>
+    </row>
+    <row r="6" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="36">
+        <v>2</v>
+      </c>
+      <c r="B6" s="37" t="s">
+        <v>337</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>460</v>
+      </c>
+      <c r="E6" s="63" t="s">
+        <v>469</v>
+      </c>
+      <c r="F6" s="22">
+        <v>34000</v>
+      </c>
+      <c r="G6" s="40">
+        <v>46000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="36">
+        <v>2</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>337</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>461</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>460</v>
+      </c>
+      <c r="E7" s="63" t="s">
+        <v>469</v>
+      </c>
+      <c r="F7" s="22">
+        <v>30000</v>
+      </c>
+      <c r="G7" s="40">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="36">
+        <v>2</v>
+      </c>
+      <c r="B8" s="37" t="s">
+        <v>337</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>467</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>460</v>
+      </c>
+      <c r="E8" s="14">
+        <v>15952</v>
+      </c>
+      <c r="F8" s="22">
+        <v>43500</v>
+      </c>
+      <c r="G8" s="40">
+        <v>48500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="36">
+        <v>2</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>337</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>460</v>
+      </c>
+      <c r="E9" s="14">
+        <v>15952</v>
+      </c>
+      <c r="F9" s="22">
+        <v>8000</v>
+      </c>
+      <c r="G9" s="40">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="36">
+        <v>1</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>332</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>451</v>
+      </c>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="22">
+        <v>2000</v>
+      </c>
+      <c r="G10" s="40"/>
+    </row>
+    <row r="11" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="36">
+        <v>1</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>332</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="D11" s="19"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="22">
+        <v>1000</v>
+      </c>
+      <c r="G11" s="40"/>
+    </row>
+    <row r="12" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="36">
+        <v>2</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>337</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>457</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>458</v>
+      </c>
+      <c r="E12" s="14">
+        <v>15934</v>
+      </c>
+      <c r="F12" s="22">
+        <v>4800</v>
+      </c>
+      <c r="G12" s="40">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="36">
+        <v>2</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>337</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>463</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>419</v>
+      </c>
+      <c r="E13" s="63" t="s">
+        <v>470</v>
+      </c>
+      <c r="F13" s="22">
+        <v>22000</v>
+      </c>
+      <c r="G13" s="40">
+        <v>27000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="36">
+        <v>3</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>333</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>454</v>
+      </c>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="22">
+        <v>2400</v>
+      </c>
+      <c r="G14" s="40"/>
+    </row>
+    <row r="15" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="36">
+        <v>3</v>
+      </c>
+      <c r="B15" s="37" t="s">
+        <v>333</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>453</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>452</v>
+      </c>
+      <c r="E15" s="14"/>
+      <c r="F15" s="22">
+        <v>21500</v>
+      </c>
+      <c r="G15" s="40"/>
+    </row>
+    <row r="16" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="36">
+        <v>3</v>
+      </c>
+      <c r="B16" s="37" t="s">
+        <v>333</v>
+      </c>
+      <c r="C16" s="13">
+        <v>131</v>
+      </c>
+      <c r="D16" s="19"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="22">
+        <v>9000</v>
+      </c>
+      <c r="G16" s="40"/>
+    </row>
+    <row r="17" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="36">
+        <v>5</v>
+      </c>
+      <c r="B17" s="37" t="s">
+        <v>370</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="D17" s="19"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="22">
+        <v>9000</v>
+      </c>
+      <c r="G17" s="40"/>
+    </row>
+    <row r="18" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="36">
+        <v>1</v>
+      </c>
+      <c r="B18" s="37" t="s">
+        <v>332</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>456</v>
+      </c>
+      <c r="D18" s="19"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="22">
+        <v>1000</v>
+      </c>
+      <c r="G18" s="40"/>
+    </row>
+    <row r="19" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="36">
+        <v>5</v>
+      </c>
+      <c r="B19" s="37" t="s">
+        <v>370</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>405</v>
+      </c>
+      <c r="D19" s="19"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="22">
+        <v>6500</v>
+      </c>
+      <c r="G19" s="40"/>
+    </row>
+    <row r="20" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="36">
+        <v>1</v>
+      </c>
+      <c r="B20" s="37" t="s">
+        <v>332</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>394</v>
+      </c>
+      <c r="D20" s="19"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="22">
+        <v>3000</v>
+      </c>
+      <c r="G20" s="40"/>
+    </row>
+    <row r="21" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="36">
+        <v>1</v>
+      </c>
+      <c r="B21" s="37" t="s">
+        <v>332</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>464</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>343</v>
+      </c>
+      <c r="E21" s="14"/>
+      <c r="F21" s="22">
+        <v>40000</v>
+      </c>
+      <c r="G21" s="40"/>
+    </row>
+    <row r="22" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="36">
+        <v>7</v>
+      </c>
+      <c r="B22" s="37" t="s">
+        <v>336</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>462</v>
+      </c>
+      <c r="E22" s="16"/>
+      <c r="F22" s="22">
+        <v>1000</v>
+      </c>
+      <c r="G22" s="40"/>
+    </row>
+    <row r="23" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="36">
+        <v>4</v>
+      </c>
+      <c r="B23" s="37" t="s">
+        <v>334</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>424</v>
+      </c>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="22">
+        <v>23000</v>
+      </c>
+      <c r="G23" s="40"/>
+    </row>
+    <row r="24" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="36">
+        <v>2</v>
+      </c>
+      <c r="B24" s="37" t="s">
+        <v>337</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>465</v>
+      </c>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="22">
+        <v>500000</v>
+      </c>
+      <c r="G24" s="40"/>
+    </row>
+    <row r="25" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="36">
+        <v>6</v>
+      </c>
+      <c r="B25" s="37" t="s">
+        <v>335</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="D25" s="19"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="22">
+        <v>27000</v>
+      </c>
+      <c r="G25" s="40"/>
+    </row>
+    <row r="26" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E26" s="58" t="s">
+        <v>332</v>
+      </c>
+      <c r="F26" s="60">
+        <f>SUM(F2:F25)</f>
+        <v>853350</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E27" s="58" t="s">
+        <v>372</v>
+      </c>
+      <c r="F27" s="61">
+        <v>43350</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E28" s="58" t="s">
+        <v>373</v>
+      </c>
+      <c r="F28" s="56">
+        <v>109000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E29" s="58"/>
+      <c r="F29" s="69">
+        <f>SUM(F26:F28)</f>
+        <v>1005700</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E30" s="66" t="s">
+        <v>428</v>
+      </c>
+      <c r="F30" s="67">
+        <v>689500</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="E31" s="58" t="s">
+        <v>374</v>
+      </c>
+      <c r="F31" s="56">
+        <v>340500</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F32" s="68">
+        <f>SUM(F30:F31)</f>
+        <v>1030000</v>
+      </c>
+    </row>
+    <row r="33" spans="5:6" ht="23.25" x14ac:dyDescent="0.6">
+      <c r="F33" s="70">
+        <v>1005700</v>
+      </c>
+    </row>
+    <row r="34" spans="5:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E34" s="58" t="s">
+        <v>468</v>
+      </c>
+      <c r="F34" s="50">
+        <f>F32-F33</f>
+        <v>24300</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="6" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:J24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
@@ -15024,7 +17447,7 @@
     <col min="7" max="7" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>330</v>
       </c>
@@ -15047,7 +17470,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="36">
         <v>6</v>
       </c>
@@ -15055,16 +17478,16 @@
         <v>335</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>304</v>
+        <v>425</v>
       </c>
       <c r="D2" s="19"/>
       <c r="E2" s="14"/>
       <c r="F2" s="22">
-        <v>6550</v>
+        <v>28500</v>
       </c>
       <c r="G2" s="40"/>
     </row>
-    <row r="3" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="36">
         <v>1</v>
       </c>
@@ -15072,16 +17495,18 @@
         <v>332</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>449</v>
-      </c>
-      <c r="D3" s="19"/>
+        <v>478</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>246</v>
+      </c>
       <c r="E3" s="14"/>
       <c r="F3" s="22">
-        <v>52000</v>
+        <v>2000</v>
       </c>
       <c r="G3" s="40"/>
     </row>
-    <row r="4" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="36">
         <v>1</v>
       </c>
@@ -15089,16 +17514,16 @@
         <v>332</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>455</v>
+        <v>474</v>
       </c>
       <c r="D4" s="19"/>
       <c r="E4" s="14"/>
       <c r="F4" s="22">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="G4" s="40"/>
     </row>
-    <row r="5" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="36">
         <v>2</v>
       </c>
@@ -15106,16 +17531,16 @@
         <v>337</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>450</v>
+        <v>471</v>
       </c>
       <c r="D5" s="19"/>
       <c r="E5" s="14"/>
       <c r="F5" s="22">
-        <v>4500</v>
+        <v>14000</v>
       </c>
       <c r="G5" s="40"/>
     </row>
-    <row r="6" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="36">
         <v>2</v>
       </c>
@@ -15123,20 +17548,22 @@
         <v>337</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>461</v>
-      </c>
-      <c r="E6" s="16"/>
+        <v>473</v>
+      </c>
+      <c r="E6" s="63" t="s">
+        <v>480</v>
+      </c>
       <c r="F6" s="22">
-        <v>34000</v>
+        <v>5000</v>
       </c>
       <c r="G6" s="40">
-        <v>46000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="36">
         <v>2</v>
       </c>
@@ -15144,838 +17571,220 @@
         <v>337</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>462</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>461</v>
-      </c>
-      <c r="E7" s="16"/>
+        <v>229</v>
+      </c>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
       <c r="F7" s="22">
-        <v>30000</v>
-      </c>
-      <c r="G7" s="40">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>3400</v>
+      </c>
+      <c r="G7" s="40"/>
+    </row>
+    <row r="8" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="36">
+        <v>2</v>
+      </c>
+      <c r="B8" s="37" t="s">
+        <v>337</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="22">
+        <v>2500</v>
+      </c>
+      <c r="G8" s="40"/>
+    </row>
+    <row r="9" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="36">
+        <v>3</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>333</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>475</v>
+      </c>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="22">
+        <v>2000</v>
+      </c>
+      <c r="G9" s="40"/>
+    </row>
+    <row r="10" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="36">
         <v>1</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="B10" s="37" t="s">
         <v>332</v>
       </c>
-      <c r="C8" s="13" t="s">
-        <v>451</v>
-      </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="22">
-        <v>2000</v>
-      </c>
-      <c r="G8" s="40"/>
-    </row>
-    <row r="9" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="36">
-        <v>1</v>
-      </c>
-      <c r="B9" s="37" t="s">
-        <v>332</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="22">
-        <v>1000</v>
-      </c>
-      <c r="G9" s="40"/>
-    </row>
-    <row r="10" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="36">
-        <v>2</v>
-      </c>
-      <c r="B10" s="37" t="s">
-        <v>337</v>
-      </c>
       <c r="C10" s="13" t="s">
-        <v>457</v>
+        <v>476</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="E10" s="19"/>
+        <v>436</v>
+      </c>
+      <c r="E10" s="14"/>
       <c r="F10" s="22">
-        <v>4800</v>
-      </c>
-      <c r="G10" s="40">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>65000</v>
+      </c>
+      <c r="G10" s="40"/>
+    </row>
+    <row r="11" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="36">
         <v>2</v>
       </c>
       <c r="B11" s="37" t="s">
         <v>337</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="22"/>
+      <c r="C11" s="13" t="s">
+        <v>465</v>
+      </c>
+      <c r="D11" s="19"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="22">
+        <v>500000</v>
+      </c>
       <c r="G11" s="40"/>
     </row>
-    <row r="12" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="36">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>333</v>
+        <v>370</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>454</v>
+        <v>358</v>
       </c>
       <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
+      <c r="E12" s="14"/>
       <c r="F12" s="22">
-        <v>2400</v>
+        <v>9000</v>
       </c>
       <c r="G12" s="40"/>
     </row>
-    <row r="13" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="36">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B13" s="37" t="s">
-        <v>333</v>
+        <v>370</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>453</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>452</v>
-      </c>
+        <v>405</v>
+      </c>
+      <c r="D13" s="19"/>
       <c r="E13" s="14"/>
       <c r="F13" s="22">
-        <v>21500</v>
+        <v>1000</v>
       </c>
       <c r="G13" s="40"/>
     </row>
-    <row r="14" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="36">
         <v>3</v>
       </c>
       <c r="B14" s="37" t="s">
         <v>333</v>
       </c>
-      <c r="C14" s="13">
-        <v>131</v>
+      <c r="C14" s="13" t="s">
+        <v>477</v>
       </c>
       <c r="D14" s="19"/>
       <c r="E14" s="14"/>
       <c r="F14" s="22">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="G14" s="40"/>
-    </row>
-    <row r="15" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="J14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="36">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B15" s="37" t="s">
-        <v>370</v>
+        <v>334</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>358</v>
-      </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="14"/>
+        <v>479</v>
+      </c>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
       <c r="F15" s="22">
-        <v>9000</v>
+        <v>33000</v>
       </c>
       <c r="G15" s="40"/>
     </row>
-    <row r="16" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="36">
-        <v>1</v>
-      </c>
-      <c r="B16" s="37" t="s">
+    <row r="16" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E16" s="58" t="s">
         <v>332</v>
       </c>
-      <c r="C16" s="13" t="s">
-        <v>456</v>
-      </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="22">
-        <v>1000</v>
-      </c>
-      <c r="G16" s="40"/>
-    </row>
-    <row r="17" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="36">
-        <v>5</v>
-      </c>
-      <c r="B17" s="37" t="s">
-        <v>370</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>405</v>
-      </c>
-      <c r="D17" s="19"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="22">
-        <v>6500</v>
-      </c>
-      <c r="G17" s="40"/>
-    </row>
-    <row r="18" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="36">
-        <v>3</v>
-      </c>
-      <c r="B18" s="37" t="s">
-        <v>333</v>
-      </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="40"/>
-    </row>
-    <row r="19" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="36">
-        <v>1</v>
-      </c>
-      <c r="B19" s="37" t="s">
-        <v>332</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>394</v>
-      </c>
-      <c r="D19" s="19"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="22">
-        <v>3000</v>
-      </c>
-      <c r="G19" s="40"/>
-    </row>
-    <row r="20" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="36">
-        <v>1</v>
-      </c>
-      <c r="B20" s="37" t="s">
-        <v>332</v>
-      </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="40"/>
-    </row>
-    <row r="21" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="36">
-        <v>1</v>
-      </c>
-      <c r="B21" s="37" t="s">
-        <v>332</v>
-      </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="40"/>
-    </row>
-    <row r="22" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="36">
-        <v>7</v>
-      </c>
-      <c r="B22" s="37" t="s">
-        <v>336</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D22" s="16" t="s">
-        <v>459</v>
-      </c>
-      <c r="E22" s="16"/>
-      <c r="F22" s="22">
-        <v>1000</v>
-      </c>
-      <c r="G22" s="40"/>
-    </row>
-    <row r="23" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="36">
-        <v>7</v>
-      </c>
-      <c r="B23" s="37" t="s">
-        <v>336</v>
-      </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="40"/>
-    </row>
-    <row r="24" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="36">
-        <v>4</v>
-      </c>
-      <c r="B24" s="37" t="s">
-        <v>334</v>
-      </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="40"/>
-    </row>
-    <row r="25" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="36">
-        <v>4</v>
-      </c>
-      <c r="B25" s="37" t="s">
-        <v>334</v>
-      </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="40"/>
-    </row>
-    <row r="26" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="36">
-        <v>2</v>
-      </c>
-      <c r="B26" s="37" t="s">
-        <v>337</v>
-      </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="40"/>
-    </row>
-    <row r="27" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="36">
-        <v>2</v>
-      </c>
-      <c r="B27" s="37" t="s">
-        <v>337</v>
-      </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="40"/>
-    </row>
-    <row r="28" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="36">
-        <v>2</v>
-      </c>
-      <c r="B28" s="37" t="s">
-        <v>337</v>
-      </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="40"/>
-    </row>
-    <row r="29" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="36">
-        <v>3</v>
-      </c>
-      <c r="B29" s="37" t="s">
-        <v>333</v>
-      </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="40"/>
-    </row>
-    <row r="30" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="36">
-        <v>6</v>
-      </c>
-      <c r="B30" s="37" t="s">
-        <v>335</v>
-      </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="40"/>
-    </row>
-    <row r="31" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E31" s="58"/>
-      <c r="F31" s="60"/>
-    </row>
-    <row r="32" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E32" s="58"/>
-      <c r="F32" s="61"/>
-    </row>
-    <row r="33" spans="5:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E33" s="58"/>
-      <c r="F33" s="61"/>
-    </row>
-    <row r="34" spans="5:6" ht="23.25" x14ac:dyDescent="0.6">
-      <c r="E34" s="58"/>
-      <c r="F34" s="59"/>
-    </row>
-    <row r="35" spans="5:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="F35" s="53"/>
-    </row>
-    <row r="36" spans="5:6" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="E36" s="58"/>
-      <c r="F36" s="56"/>
-    </row>
-    <row r="37" spans="5:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="F37" s="62"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="6" tint="-0.249977111117893"/>
-  </sheetPr>
-  <dimension ref="A1:J36"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="7.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" customWidth="1"/>
-    <col min="3" max="3" width="36.28515625" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
-        <v>330</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>375</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>347</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>328</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="36">
-        <v>6</v>
-      </c>
-      <c r="B2" s="37" t="s">
-        <v>335</v>
-      </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="40"/>
-    </row>
-    <row r="3" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="36">
-        <v>1</v>
-      </c>
-      <c r="B3" s="37" t="s">
-        <v>332</v>
-      </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="40"/>
-    </row>
-    <row r="4" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="36">
-        <v>1</v>
-      </c>
-      <c r="B4" s="37" t="s">
-        <v>332</v>
-      </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="40"/>
-    </row>
-    <row r="5" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="36">
-        <v>2</v>
-      </c>
-      <c r="B5" s="37" t="s">
-        <v>337</v>
-      </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="40"/>
-    </row>
-    <row r="6" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="36">
-        <v>2</v>
-      </c>
-      <c r="B6" s="37" t="s">
-        <v>337</v>
-      </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="40"/>
-    </row>
-    <row r="7" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="36">
-        <v>1</v>
-      </c>
-      <c r="B7" s="37" t="s">
-        <v>332</v>
-      </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="40"/>
-    </row>
-    <row r="8" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="36">
-        <v>1</v>
-      </c>
-      <c r="B8" s="37" t="s">
-        <v>332</v>
-      </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="40"/>
-    </row>
-    <row r="9" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="36">
-        <v>2</v>
-      </c>
-      <c r="B9" s="37" t="s">
-        <v>337</v>
-      </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="40"/>
-    </row>
-    <row r="10" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="36">
-        <v>2</v>
-      </c>
-      <c r="B10" s="37" t="s">
-        <v>337</v>
-      </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="40"/>
-    </row>
-    <row r="11" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="36">
-        <v>3</v>
-      </c>
-      <c r="B11" s="37" t="s">
-        <v>333</v>
-      </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="40"/>
-    </row>
-    <row r="12" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="36">
-        <v>1</v>
-      </c>
-      <c r="B12" s="37" t="s">
-        <v>332</v>
-      </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="40"/>
-    </row>
-    <row r="13" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="36">
-        <v>2</v>
-      </c>
-      <c r="B13" s="37" t="s">
-        <v>337</v>
-      </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="40"/>
-    </row>
-    <row r="14" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="36">
-        <v>5</v>
-      </c>
-      <c r="B14" s="37" t="s">
-        <v>370</v>
-      </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="40"/>
-    </row>
-    <row r="15" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="36">
-        <v>1</v>
-      </c>
-      <c r="B15" s="37" t="s">
-        <v>332</v>
-      </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="40"/>
-    </row>
-    <row r="16" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="36">
-        <v>5</v>
-      </c>
-      <c r="B16" s="37" t="s">
-        <v>370</v>
-      </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="40"/>
-    </row>
-    <row r="17" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="36">
-        <v>3</v>
-      </c>
-      <c r="B17" s="37" t="s">
-        <v>333</v>
-      </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="40"/>
-      <c r="J17">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="36">
-        <v>1</v>
-      </c>
-      <c r="B18" s="37" t="s">
-        <v>332</v>
-      </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="40"/>
-    </row>
-    <row r="19" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="36">
-        <v>1</v>
-      </c>
-      <c r="B19" s="37" t="s">
-        <v>332</v>
-      </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="40"/>
-    </row>
-    <row r="20" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="36">
-        <v>1</v>
-      </c>
-      <c r="B20" s="37" t="s">
-        <v>332</v>
-      </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="40"/>
-    </row>
-    <row r="21" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="36">
-        <v>7</v>
-      </c>
-      <c r="B21" s="37" t="s">
-        <v>336</v>
-      </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="40"/>
-    </row>
-    <row r="22" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="36">
-        <v>7</v>
-      </c>
-      <c r="B22" s="37" t="s">
-        <v>336</v>
-      </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="40"/>
-    </row>
-    <row r="23" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="36">
-        <v>4</v>
-      </c>
-      <c r="B23" s="37" t="s">
-        <v>334</v>
-      </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="40"/>
-    </row>
-    <row r="24" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="36">
-        <v>4</v>
-      </c>
-      <c r="B24" s="37" t="s">
-        <v>334</v>
-      </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="40"/>
-    </row>
-    <row r="25" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="36">
-        <v>2</v>
-      </c>
-      <c r="B25" s="37" t="s">
-        <v>337</v>
-      </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="40"/>
-    </row>
-    <row r="26" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="36">
-        <v>2</v>
-      </c>
-      <c r="B26" s="37" t="s">
-        <v>337</v>
-      </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="40"/>
-    </row>
-    <row r="27" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="36">
-        <v>2</v>
-      </c>
-      <c r="B27" s="37" t="s">
-        <v>337</v>
-      </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="40"/>
-    </row>
-    <row r="28" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="36">
-        <v>3</v>
-      </c>
-      <c r="B28" s="37" t="s">
-        <v>333</v>
-      </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="40"/>
-    </row>
-    <row r="29" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="36">
-        <v>6</v>
-      </c>
-      <c r="B29" s="37" t="s">
-        <v>335</v>
-      </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="40"/>
-    </row>
-    <row r="30" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E30" s="58"/>
-      <c r="F30" s="60"/>
-    </row>
-    <row r="31" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E31" s="58"/>
-      <c r="F31" s="61"/>
-    </row>
-    <row r="32" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E32" s="58"/>
-      <c r="F32" s="61"/>
-    </row>
-    <row r="33" spans="5:6" ht="23.25" x14ac:dyDescent="0.6">
-      <c r="E33" s="58"/>
-      <c r="F33" s="59"/>
-    </row>
-    <row r="34" spans="5:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="F34" s="53"/>
-    </row>
-    <row r="35" spans="5:6" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="E35" s="58"/>
-      <c r="F35" s="56"/>
-    </row>
-    <row r="36" spans="5:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="F36" s="62"/>
+      <c r="F16" s="60">
+        <f>SUM(F2:F15)</f>
+        <v>673900</v>
+      </c>
+    </row>
+    <row r="17" spans="5:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E17" s="58" t="s">
+        <v>372</v>
+      </c>
+      <c r="F17" s="61">
+        <v>99450</v>
+      </c>
+    </row>
+    <row r="18" spans="5:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E18" s="58" t="s">
+        <v>407</v>
+      </c>
+      <c r="F18" s="71">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="19" spans="5:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E19" s="58"/>
+      <c r="F19" s="69">
+        <f>SUM(F16:F18)</f>
+        <v>778350</v>
+      </c>
+    </row>
+    <row r="20" spans="5:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E20" s="66" t="s">
+        <v>428</v>
+      </c>
+      <c r="F20" s="67">
+        <v>138000</v>
+      </c>
+    </row>
+    <row r="21" spans="5:6" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="E21" s="58" t="s">
+        <v>374</v>
+      </c>
+      <c r="F21" s="56">
+        <v>562000</v>
+      </c>
+    </row>
+    <row r="22" spans="5:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F22" s="68">
+        <f>SUM(F20:F21)</f>
+        <v>700000</v>
+      </c>
+    </row>
+    <row r="23" spans="5:6" ht="23.25" x14ac:dyDescent="0.6">
+      <c r="F23" s="59">
+        <v>778350</v>
+      </c>
+    </row>
+    <row r="24" spans="5:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F24" s="62">
+        <f>F22-F23</f>
+        <v>-78350</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/GB-3Expense (Autosaved).xlsx
+++ b/GB-3Expense (Autosaved).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830" firstSheet="3" activeTab="11"/>
+    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830" firstSheet="9" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Jun-2018" sheetId="1" r:id="rId1"/>
@@ -20,8 +20,12 @@
     <sheet name="9.8.2018" sheetId="11" r:id="rId11"/>
     <sheet name="10.8.2018" sheetId="12" r:id="rId12"/>
     <sheet name="11.8.2018" sheetId="13" r:id="rId13"/>
-    <sheet name="Sheet2" sheetId="14" r:id="rId14"/>
-    <sheet name="Sheet3" sheetId="15" r:id="rId15"/>
+    <sheet name="12.8.2018" sheetId="14" r:id="rId14"/>
+    <sheet name="13.8.2018" sheetId="15" r:id="rId15"/>
+    <sheet name="14.8.2018" sheetId="16" r:id="rId16"/>
+    <sheet name="Sheet2" sheetId="17" r:id="rId17"/>
+    <sheet name="Sheet3" sheetId="18" r:id="rId18"/>
+    <sheet name="Sheet4" sheetId="19" r:id="rId19"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'1.8.2018'!$A$1:$G$31</definedName>
@@ -49,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1816" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1931" uniqueCount="572">
   <si>
     <t>1.6.2018</t>
   </si>
@@ -1654,6 +1658,117 @@
   </si>
   <si>
     <t>3L-9325/Probox</t>
+  </si>
+  <si>
+    <t>ပါးျခမ္း</t>
+  </si>
+  <si>
+    <t>ဂိုင္း</t>
+  </si>
+  <si>
+    <t>ဆူးသြား</t>
+  </si>
+  <si>
+    <t>8E-3438/LT</t>
+  </si>
+  <si>
+    <t>သံ/ဂြ</t>
+  </si>
+  <si>
+    <t>Sparko3</t>
+  </si>
+  <si>
+    <t>Ko Aung Htoo</t>
+  </si>
+  <si>
+    <t>ေဘာပြဲကြင္းေျကး</t>
+  </si>
+  <si>
+    <t>6.8.2018</t>
+  </si>
+  <si>
+    <t>Ko kyaw Thiha</t>
+  </si>
+  <si>
+    <t>ဒူးဆစ္အမဲဆီ</t>
+  </si>
+  <si>
+    <t>ေန့စားခ1</t>
+  </si>
+  <si>
+    <t>BYN Kyaw Kyaw</t>
+  </si>
+  <si>
+    <t>Battery Carry</t>
+  </si>
+  <si>
+    <t>Batteryအိုးအားသြင္းခ</t>
+  </si>
+  <si>
+    <t>အလွဴေငြ(ေ၇ေဘး)</t>
+  </si>
+  <si>
+    <t>4Pk 1210</t>
+  </si>
+  <si>
+    <t>1K-5900/Probox</t>
+  </si>
+  <si>
+    <t>2'Click</t>
+  </si>
+  <si>
+    <t>9P-8454/</t>
+  </si>
+  <si>
+    <t>Battery ျကိုး/ေခါင္း</t>
+  </si>
+  <si>
+    <t>4F-6371/Fuji</t>
+  </si>
+  <si>
+    <t>ေရလည္အံု</t>
+  </si>
+  <si>
+    <t>CC-2093/Probox</t>
+  </si>
+  <si>
+    <t>ေရတိုင္ဂီဖံုး</t>
+  </si>
+  <si>
+    <t>4M42 နက္ျကိုးထုတ္</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>905တင္ဒါ</t>
+  </si>
+  <si>
+    <t>W09</t>
+  </si>
+  <si>
+    <t>ဘာဂ်ာပိုက္/မီးတိတ္</t>
+  </si>
+  <si>
+    <t>GB Car Petro Top Up</t>
+  </si>
+  <si>
+    <t>Ko Pyone အလွဴ/အခ်ိဳရည္</t>
+  </si>
+  <si>
+    <t>တံခါးဂ်က္</t>
+  </si>
+  <si>
+    <t>ညစာထမင္းဖိုး&amp;Coffee</t>
+  </si>
+  <si>
+    <t>Pipe Click/Dis Brake</t>
+  </si>
+  <si>
+    <t>1610,6</t>
+  </si>
+  <si>
+    <t>1610,0</t>
   </si>
 </sst>
 </file>
@@ -1951,7 +2066,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2116,6 +2231,22 @@
     </xf>
     <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -4079,7 +4210,7 @@
   </sheetPr>
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
@@ -4122,7 +4253,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="37" t="str">
-        <f>IF(A2=1,myvar1,IF(A2=2,myvar2,IF(A2=3,myvar3,IF(A2=4,myvar4,IF(A2=5,myvar5,IF(A2=6,myvar6,IF(A2=7,myvar7,IF(A2=8,myvar8,IF(A2=9,myvar9,IF(A2=10,myvar10,IF(A2=11,myvar11,IF(A2=12,myvar12,IF(A2=13,myvar13,)))))))))))))</f>
+        <f t="shared" ref="B2:B21" si="0">IF(A2=1,myvar1,IF(A2=2,myvar2,IF(A2=3,myvar3,IF(A2=4,myvar4,IF(A2=5,myvar5,IF(A2=6,myvar6,IF(A2=7,myvar7,IF(A2=8,myvar8,IF(A2=9,myvar9,IF(A2=10,myvar10,IF(A2=11,myvar11,IF(A2=12,myvar12,IF(A2=13,myvar13,)))))))))))))</f>
         <v>Meal</v>
       </c>
       <c r="C2" s="13" t="s">
@@ -4140,7 +4271,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="37" t="str">
-        <f>IF(A3=1,myvar1,IF(A3=2,myvar2,IF(A3=3,myvar3,IF(A3=4,myvar4,IF(A3=5,myvar5,IF(A3=6,myvar6,IF(A3=7,myvar7,IF(A3=8,myvar8,IF(A3=9,myvar9,IF(A3=10,myvar10,IF(A3=11,myvar11,IF(A3=12,myvar12,IF(A3=13,myvar13,)))))))))))))</f>
+        <f t="shared" si="0"/>
         <v>Workshop</v>
       </c>
       <c r="C3" s="13" t="s">
@@ -4164,7 +4295,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="37" t="str">
-        <f>IF(A4=1,myvar1,IF(A4=2,myvar2,IF(A4=3,myvar3,IF(A4=4,myvar4,IF(A4=5,myvar5,IF(A4=6,myvar6,IF(A4=7,myvar7,IF(A4=8,myvar8,IF(A4=9,myvar9,IF(A4=10,myvar10,IF(A4=11,myvar11,IF(A4=12,myvar12,IF(A4=13,myvar13,)))))))))))))</f>
+        <f t="shared" si="0"/>
         <v>Workshop</v>
       </c>
       <c r="C4" s="13" t="s">
@@ -4186,7 +4317,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="37" t="str">
-        <f>IF(A5=1,myvar1,IF(A5=2,myvar2,IF(A5=3,myvar3,IF(A5=4,myvar4,IF(A5=5,myvar5,IF(A5=6,myvar6,IF(A5=7,myvar7,IF(A5=8,myvar8,IF(A5=9,myvar9,IF(A5=10,myvar10,IF(A5=11,myvar11,IF(A5=12,myvar12,IF(A5=13,myvar13,)))))))))))))</f>
+        <f t="shared" si="0"/>
         <v>Workshop</v>
       </c>
       <c r="C5" s="13" t="s">
@@ -4208,7 +4339,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="37" t="str">
-        <f>IF(A6=1,myvar1,IF(A6=2,myvar2,IF(A6=3,myvar3,IF(A6=4,myvar4,IF(A6=5,myvar5,IF(A6=6,myvar6,IF(A6=7,myvar7,IF(A6=8,myvar8,IF(A6=9,myvar9,IF(A6=10,myvar10,IF(A6=11,myvar11,IF(A6=12,myvar12,IF(A6=13,myvar13,)))))))))))))</f>
+        <f t="shared" si="0"/>
         <v>Workshop</v>
       </c>
       <c r="C6" s="13" t="s">
@@ -4230,7 +4361,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="37" t="str">
-        <f>IF(A7=1,myvar1,IF(A7=2,myvar2,IF(A7=3,myvar3,IF(A7=4,myvar4,IF(A7=5,myvar5,IF(A7=6,myvar6,IF(A7=7,myvar7,IF(A7=8,myvar8,IF(A7=9,myvar9,IF(A7=10,myvar10,IF(A7=11,myvar11,IF(A7=12,myvar12,IF(A7=13,myvar13,)))))))))))))</f>
+        <f t="shared" si="0"/>
         <v>Workshop</v>
       </c>
       <c r="C7" s="13" t="s">
@@ -4248,7 +4379,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="37" t="str">
-        <f>IF(A8=1,myvar1,IF(A8=2,myvar2,IF(A8=3,myvar3,IF(A8=4,myvar4,IF(A8=5,myvar5,IF(A8=6,myvar6,IF(A8=7,myvar7,IF(A8=8,myvar8,IF(A8=9,myvar9,IF(A8=10,myvar10,IF(A8=11,myvar11,IF(A8=12,myvar12,IF(A8=13,myvar13,)))))))))))))</f>
+        <f t="shared" si="0"/>
         <v>Workshop</v>
       </c>
       <c r="C8" s="13" t="s">
@@ -4270,7 +4401,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="37" t="str">
-        <f>IF(A9=1,myvar1,IF(A9=2,myvar2,IF(A9=3,myvar3,IF(A9=4,myvar4,IF(A9=5,myvar5,IF(A9=6,myvar6,IF(A9=7,myvar7,IF(A9=8,myvar8,IF(A9=9,myvar9,IF(A9=10,myvar10,IF(A9=11,myvar11,IF(A9=12,myvar12,IF(A9=13,myvar13,)))))))))))))</f>
+        <f t="shared" si="0"/>
         <v>Workshop</v>
       </c>
       <c r="C9" s="13" t="s">
@@ -4292,7 +4423,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="37" t="str">
-        <f>IF(A10=1,myvar1,IF(A10=2,myvar2,IF(A10=3,myvar3,IF(A10=4,myvar4,IF(A10=5,myvar5,IF(A10=6,myvar6,IF(A10=7,myvar7,IF(A10=8,myvar8,IF(A10=9,myvar9,IF(A10=10,myvar10,IF(A10=11,myvar11,IF(A10=12,myvar12,IF(A10=13,myvar13,)))))))))))))</f>
+        <f t="shared" si="0"/>
         <v>Body &amp; Painting</v>
       </c>
       <c r="C10" s="13" t="s">
@@ -4312,7 +4443,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="37" t="str">
-        <f>IF(A11=1,myvar1,IF(A11=2,myvar2,IF(A11=3,myvar3,IF(A11=4,myvar4,IF(A11=5,myvar5,IF(A11=6,myvar6,IF(A11=7,myvar7,IF(A11=8,myvar8,IF(A11=9,myvar9,IF(A11=10,myvar10,IF(A11=11,myvar11,IF(A11=12,myvar12,IF(A11=13,myvar13,)))))))))))))</f>
+        <f t="shared" si="0"/>
         <v>Workshop</v>
       </c>
       <c r="C11" s="13" t="s">
@@ -4334,7 +4465,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="37" t="str">
-        <f>IF(A12=1,myvar1,IF(A12=2,myvar2,IF(A12=3,myvar3,IF(A12=4,myvar4,IF(A12=5,myvar5,IF(A12=6,myvar6,IF(A12=7,myvar7,IF(A12=8,myvar8,IF(A12=9,myvar9,IF(A12=10,myvar10,IF(A12=11,myvar11,IF(A12=12,myvar12,IF(A12=13,myvar13,)))))))))))))</f>
+        <f t="shared" si="0"/>
         <v>Workshop</v>
       </c>
       <c r="C12" s="13" t="s">
@@ -4352,7 +4483,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="37" t="str">
-        <f>IF(A13=1,myvar1,IF(A13=2,myvar2,IF(A13=3,myvar3,IF(A13=4,myvar4,IF(A13=5,myvar5,IF(A13=6,myvar6,IF(A13=7,myvar7,IF(A13=8,myvar8,IF(A13=9,myvar9,IF(A13=10,myvar10,IF(A13=11,myvar11,IF(A13=12,myvar12,IF(A13=13,myvar13,)))))))))))))</f>
+        <f t="shared" si="0"/>
         <v>Carry</v>
       </c>
       <c r="C13" s="13" t="s">
@@ -4370,7 +4501,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="37" t="str">
-        <f>IF(A14=1,myvar1,IF(A14=2,myvar2,IF(A14=3,myvar3,IF(A14=4,myvar4,IF(A14=5,myvar5,IF(A14=6,myvar6,IF(A14=7,myvar7,IF(A14=8,myvar8,IF(A14=9,myvar9,IF(A14=10,myvar10,IF(A14=11,myvar11,IF(A14=12,myvar12,IF(A14=13,myvar13,)))))))))))))</f>
+        <f t="shared" si="0"/>
         <v>Carry</v>
       </c>
       <c r="C14" s="13" t="s">
@@ -4388,7 +4519,7 @@
         <v>3</v>
       </c>
       <c r="B15" s="37" t="str">
-        <f>IF(A15=1,myvar1,IF(A15=2,myvar2,IF(A15=3,myvar3,IF(A15=4,myvar4,IF(A15=5,myvar5,IF(A15=6,myvar6,IF(A15=7,myvar7,IF(A15=8,myvar8,IF(A15=9,myvar9,IF(A15=10,myvar10,IF(A15=11,myvar11,IF(A15=12,myvar12,IF(A15=13,myvar13,)))))))))))))</f>
+        <f t="shared" si="0"/>
         <v>Body &amp; Painting</v>
       </c>
       <c r="C15" s="13" t="s">
@@ -4410,7 +4541,7 @@
         <v>7</v>
       </c>
       <c r="B16" s="37" t="str">
-        <f>IF(A16=1,myvar1,IF(A16=2,myvar2,IF(A16=3,myvar3,IF(A16=4,myvar4,IF(A16=5,myvar5,IF(A16=6,myvar6,IF(A16=7,myvar7,IF(A16=8,myvar8,IF(A16=9,myvar9,IF(A16=10,myvar10,IF(A16=11,myvar11,IF(A16=12,myvar12,IF(A16=13,myvar13,)))))))))))))</f>
+        <f t="shared" si="0"/>
         <v>Discount</v>
       </c>
       <c r="C16" s="13" t="s">
@@ -4430,7 +4561,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="37" t="str">
-        <f>IF(A17=1,myvar1,IF(A17=2,myvar2,IF(A17=3,myvar3,IF(A17=4,myvar4,IF(A17=5,myvar5,IF(A17=6,myvar6,IF(A17=7,myvar7,IF(A17=8,myvar8,IF(A17=9,myvar9,IF(A17=10,myvar10,IF(A17=11,myvar11,IF(A17=12,myvar12,IF(A17=13,myvar13,)))))))))))))</f>
+        <f t="shared" si="0"/>
         <v>Wages</v>
       </c>
       <c r="C17" s="13" t="s">
@@ -4448,7 +4579,7 @@
         <v>8</v>
       </c>
       <c r="B18" s="37" t="str">
-        <f>IF(A18=1,myvar1,IF(A18=2,myvar2,IF(A18=3,myvar3,IF(A18=4,myvar4,IF(A18=5,myvar5,IF(A18=6,myvar6,IF(A18=7,myvar7,IF(A18=8,myvar8,IF(A18=9,myvar9,IF(A18=10,myvar10,IF(A18=11,myvar11,IF(A18=12,myvar12,IF(A18=13,myvar13,)))))))))))))</f>
+        <f t="shared" si="0"/>
         <v>Advance</v>
       </c>
       <c r="C18" s="13" t="s">
@@ -4466,7 +4597,7 @@
         <v>2</v>
       </c>
       <c r="B19" s="37" t="str">
-        <f>IF(A19=1,myvar1,IF(A19=2,myvar2,IF(A19=3,myvar3,IF(A19=4,myvar4,IF(A19=5,myvar5,IF(A19=6,myvar6,IF(A19=7,myvar7,IF(A19=8,myvar8,IF(A19=9,myvar9,IF(A19=10,myvar10,IF(A19=11,myvar11,IF(A19=12,myvar12,IF(A19=13,myvar13,)))))))))))))</f>
+        <f t="shared" si="0"/>
         <v>Workshop</v>
       </c>
       <c r="C19" s="15" t="s">
@@ -4484,7 +4615,7 @@
         <v>2</v>
       </c>
       <c r="B20" s="37" t="str">
-        <f>IF(A20=1,myvar1,IF(A20=2,myvar2,IF(A20=3,myvar3,IF(A20=4,myvar4,IF(A20=5,myvar5,IF(A20=6,myvar6,IF(A20=7,myvar7,IF(A20=8,myvar8,IF(A20=9,myvar9,IF(A20=10,myvar10,IF(A20=11,myvar11,IF(A20=12,myvar12,IF(A20=13,myvar13,)))))))))))))</f>
+        <f t="shared" si="0"/>
         <v>Workshop</v>
       </c>
       <c r="C20" s="13" t="s">
@@ -4502,7 +4633,7 @@
         <v>6</v>
       </c>
       <c r="B21" s="37" t="str">
-        <f>IF(A21=1,myvar1,IF(A21=2,myvar2,IF(A21=3,myvar3,IF(A21=4,myvar4,IF(A21=5,myvar5,IF(A21=6,myvar6,IF(A21=7,myvar7,IF(A21=8,myvar8,IF(A21=9,myvar9,IF(A21=10,myvar10,IF(A21=11,myvar11,IF(A21=12,myvar12,IF(A21=13,myvar13,)))))))))))))</f>
+        <f t="shared" si="0"/>
         <v>Meal</v>
       </c>
       <c r="C21" s="13" t="s">
@@ -4592,8 +4723,8 @@
   </sheetPr>
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4636,7 +4767,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="37" t="str">
-        <f>IF(A2=1,myvar1,IF(A2=2,myvar2,IF(A2=3,myvar3,IF(A2=4,myvar4,IF(A2=5,myvar5,IF(A2=6,myvar6,IF(A2=7,myvar7,IF(A2=8,myvar8,IF(A2=9,myvar9,IF(A2=10,myvar10,IF(A2=11,myvar11,IF(A2=12,myvar12,IF(A2=13,myvar13,)))))))))))))</f>
+        <f t="shared" ref="B2:B9" si="0">IF(A2=1,myvar1,IF(A2=2,myvar2,IF(A2=3,myvar3,IF(A2=4,myvar4,IF(A2=5,myvar5,IF(A2=6,myvar6,IF(A2=7,myvar7,IF(A2=8,myvar8,IF(A2=9,myvar9,IF(A2=10,myvar10,IF(A2=11,myvar11,IF(A2=12,myvar12,IF(A2=13,myvar13,)))))))))))))</f>
         <v>Meal</v>
       </c>
       <c r="C2" s="13" t="s">
@@ -4654,7 +4785,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="37" t="str">
-        <f>IF(A3=1,myvar1,IF(A3=2,myvar2,IF(A3=3,myvar3,IF(A3=4,myvar4,IF(A3=5,myvar5,IF(A3=6,myvar6,IF(A3=7,myvar7,IF(A3=8,myvar8,IF(A3=9,myvar9,IF(A3=10,myvar10,IF(A3=11,myvar11,IF(A3=12,myvar12,IF(A3=13,myvar13,)))))))))))))</f>
+        <f t="shared" si="0"/>
         <v>Expense</v>
       </c>
       <c r="C3" s="13" t="s">
@@ -4672,7 +4803,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="37" t="str">
-        <f>IF(A4=1,myvar1,IF(A4=2,myvar2,IF(A4=3,myvar3,IF(A4=4,myvar4,IF(A4=5,myvar5,IF(A4=6,myvar6,IF(A4=7,myvar7,IF(A4=8,myvar8,IF(A4=9,myvar9,IF(A4=10,myvar10,IF(A4=11,myvar11,IF(A4=12,myvar12,IF(A4=13,myvar13,)))))))))))))</f>
+        <f t="shared" si="0"/>
         <v>Workshop</v>
       </c>
       <c r="C4" s="13" t="s">
@@ -4690,7 +4821,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="37" t="str">
-        <f>IF(A5=1,myvar1,IF(A5=2,myvar2,IF(A5=3,myvar3,IF(A5=4,myvar4,IF(A5=5,myvar5,IF(A5=6,myvar6,IF(A5=7,myvar7,IF(A5=8,myvar8,IF(A5=9,myvar9,IF(A5=10,myvar10,IF(A5=11,myvar11,IF(A5=12,myvar12,IF(A5=13,myvar13,)))))))))))))</f>
+        <f t="shared" si="0"/>
         <v>Workshop</v>
       </c>
       <c r="C5" s="13" t="s">
@@ -4708,7 +4839,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="37" t="str">
-        <f>IF(A6=1,myvar1,IF(A6=2,myvar2,IF(A6=3,myvar3,IF(A6=4,myvar4,IF(A6=5,myvar5,IF(A6=6,myvar6,IF(A6=7,myvar7,IF(A6=8,myvar8,IF(A6=9,myvar9,IF(A6=10,myvar10,IF(A6=11,myvar11,IF(A6=12,myvar12,IF(A6=13,myvar13,)))))))))))))</f>
+        <f t="shared" si="0"/>
         <v>Expense</v>
       </c>
       <c r="C6" s="13" t="s">
@@ -4726,7 +4857,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="37" t="str">
-        <f>IF(A7=1,myvar1,IF(A7=2,myvar2,IF(A7=3,myvar3,IF(A7=4,myvar4,IF(A7=5,myvar5,IF(A7=6,myvar6,IF(A7=7,myvar7,IF(A7=8,myvar8,IF(A7=9,myvar9,IF(A7=10,myvar10,IF(A7=11,myvar11,IF(A7=12,myvar12,IF(A7=13,myvar13,)))))))))))))</f>
+        <f t="shared" si="0"/>
         <v>Expense</v>
       </c>
       <c r="C7" s="13" t="s">
@@ -4744,7 +4875,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="37" t="str">
-        <f>IF(A8=1,myvar1,IF(A8=2,myvar2,IF(A8=3,myvar3,IF(A8=4,myvar4,IF(A8=5,myvar5,IF(A8=6,myvar6,IF(A8=7,myvar7,IF(A8=8,myvar8,IF(A8=9,myvar9,IF(A8=10,myvar10,IF(A8=11,myvar11,IF(A8=12,myvar12,IF(A8=13,myvar13,)))))))))))))</f>
+        <f t="shared" si="0"/>
         <v>Workshop</v>
       </c>
       <c r="C8" s="13" t="s">
@@ -4771,7 +4902,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="37" t="str">
-        <f>IF(A9=1,myvar1,IF(A9=2,myvar2,IF(A9=3,myvar3,IF(A9=4,myvar4,IF(A9=5,myvar5,IF(A9=6,myvar6,IF(A9=7,myvar7,IF(A9=8,myvar8,IF(A9=9,myvar9,IF(A9=10,myvar10,IF(A9=11,myvar11,IF(A9=12,myvar12,IF(A9=13,myvar13,)))))))))))))</f>
+        <f t="shared" si="0"/>
         <v>Workshop</v>
       </c>
       <c r="C9" s="13" t="s">
@@ -4814,7 +4945,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="37" t="str">
-        <f>IF(A11=1,myvar1,IF(A11=2,myvar2,IF(A11=3,myvar3,IF(A11=4,myvar4,IF(A11=5,myvar5,IF(A11=6,myvar6,IF(A11=7,myvar7,IF(A11=8,myvar8,IF(A11=9,myvar9,IF(A11=10,myvar10,IF(A11=11,myvar11,IF(A11=12,myvar12,IF(A11=13,myvar13,)))))))))))))</f>
+        <f t="shared" ref="B11:B16" si="1">IF(A11=1,myvar1,IF(A11=2,myvar2,IF(A11=3,myvar3,IF(A11=4,myvar4,IF(A11=5,myvar5,IF(A11=6,myvar6,IF(A11=7,myvar7,IF(A11=8,myvar8,IF(A11=9,myvar9,IF(A11=10,myvar10,IF(A11=11,myvar11,IF(A11=12,myvar12,IF(A11=13,myvar13,)))))))))))))</f>
         <v>Body &amp; Painting</v>
       </c>
       <c r="C11" s="13" t="s">
@@ -4832,7 +4963,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="37" t="str">
-        <f>IF(A12=1,myvar1,IF(A12=2,myvar2,IF(A12=3,myvar3,IF(A12=4,myvar4,IF(A12=5,myvar5,IF(A12=6,myvar6,IF(A12=7,myvar7,IF(A12=8,myvar8,IF(A12=9,myvar9,IF(A12=10,myvar10,IF(A12=11,myvar11,IF(A12=12,myvar12,IF(A12=13,myvar13,)))))))))))))</f>
+        <f t="shared" si="1"/>
         <v>Expense</v>
       </c>
       <c r="C12" s="13" t="s">
@@ -4850,7 +4981,7 @@
         <v>2</v>
       </c>
       <c r="B13" s="37" t="str">
-        <f>IF(A13=1,myvar1,IF(A13=2,myvar2,IF(A13=3,myvar3,IF(A13=4,myvar4,IF(A13=5,myvar5,IF(A13=6,myvar6,IF(A13=7,myvar7,IF(A13=8,myvar8,IF(A13=9,myvar9,IF(A13=10,myvar10,IF(A13=11,myvar11,IF(A13=12,myvar12,IF(A13=13,myvar13,)))))))))))))</f>
+        <f t="shared" si="1"/>
         <v>Workshop</v>
       </c>
       <c r="C13" s="13" t="s">
@@ -4868,7 +4999,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="37" t="str">
-        <f>IF(A14=1,myvar1,IF(A14=2,myvar2,IF(A14=3,myvar3,IF(A14=4,myvar4,IF(A14=5,myvar5,IF(A14=6,myvar6,IF(A14=7,myvar7,IF(A14=8,myvar8,IF(A14=9,myvar9,IF(A14=10,myvar10,IF(A14=11,myvar11,IF(A14=12,myvar12,IF(A14=13,myvar13,)))))))))))))</f>
+        <f t="shared" si="1"/>
         <v>Carry</v>
       </c>
       <c r="C14" s="13" t="s">
@@ -4886,7 +5017,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="37" t="str">
-        <f>IF(A15=1,myvar1,IF(A15=2,myvar2,IF(A15=3,myvar3,IF(A15=4,myvar4,IF(A15=5,myvar5,IF(A15=6,myvar6,IF(A15=7,myvar7,IF(A15=8,myvar8,IF(A15=9,myvar9,IF(A15=10,myvar10,IF(A15=11,myvar11,IF(A15=12,myvar12,IF(A15=13,myvar13,)))))))))))))</f>
+        <f t="shared" si="1"/>
         <v>Expense</v>
       </c>
       <c r="C15" s="13" t="s">
@@ -4904,7 +5035,7 @@
         <v>5</v>
       </c>
       <c r="B16" s="37" t="str">
-        <f>IF(A16=1,myvar1,IF(A16=2,myvar2,IF(A16=3,myvar3,IF(A16=4,myvar4,IF(A16=5,myvar5,IF(A16=6,myvar6,IF(A16=7,myvar7,IF(A16=8,myvar8,IF(A16=9,myvar9,IF(A16=10,myvar10,IF(A16=11,myvar11,IF(A16=12,myvar12,IF(A16=13,myvar13,)))))))))))))</f>
+        <f t="shared" si="1"/>
         <v>Carry</v>
       </c>
       <c r="C16" s="13" t="s">
@@ -5168,7 +5299,7 @@
       </c>
     </row>
     <row r="35" spans="5:6" ht="23.25" x14ac:dyDescent="0.6">
-      <c r="F35" s="59">
+      <c r="F35" s="70">
         <v>1739550</v>
       </c>
     </row>
@@ -5188,10 +5319,13 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L36"/>
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5239,7 +5373,1141 @@
         <v>3</v>
       </c>
       <c r="B2" s="37" t="str">
-        <f>IF(A2=1,myvar1,IF(A2=2,myvar2,IF(A2=3,myvar3,IF(A2=4,myvar4,IF(A2=5,myvar5,IF(A2=6,myvar6,IF(A2=7,myvar7,IF(A2=8,myvar8,IF(A2=9,myvar9,IF(A2=10,myvar10,IF(A2=11,myvar11,IF(A2=12,myvar12,IF(A2=13,myvar13,)))))))))))))</f>
+        <f t="shared" ref="B2:B20" si="0">IF(A2=1,myvar1,IF(A2=2,myvar2,IF(A2=3,myvar3,IF(A2=4,myvar4,IF(A2=5,myvar5,IF(A2=6,myvar6,IF(A2=7,myvar7,IF(A2=8,myvar8,IF(A2=9,myvar9,IF(A2=10,myvar10,IF(A2=11,myvar11,IF(A2=12,myvar12,IF(A2=13,myvar13,)))))))))))))</f>
+        <v>Body &amp; Painting</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>537</v>
+      </c>
+      <c r="D2" s="19"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="22">
+        <v>1000</v>
+      </c>
+      <c r="G2" s="40"/>
+      <c r="K2" s="12">
+        <v>1</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="36">
+        <v>1</v>
+      </c>
+      <c r="B3" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Expense</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>542</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>543</v>
+      </c>
+      <c r="E3" s="14"/>
+      <c r="F3" s="22">
+        <v>20000</v>
+      </c>
+      <c r="G3" s="40"/>
+      <c r="K3" s="12">
+        <v>2</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="36">
+        <v>2</v>
+      </c>
+      <c r="B4" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>535</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>531</v>
+      </c>
+      <c r="E4" s="14"/>
+      <c r="F4" s="22">
+        <v>55000</v>
+      </c>
+      <c r="G4" s="40"/>
+      <c r="K4" s="12">
+        <v>3</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="36">
+        <v>2</v>
+      </c>
+      <c r="B5" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>536</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>531</v>
+      </c>
+      <c r="E5" s="14"/>
+      <c r="F5" s="22">
+        <v>13000</v>
+      </c>
+      <c r="G5" s="40"/>
+      <c r="K5" s="12">
+        <v>4</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="36">
+        <v>5</v>
+      </c>
+      <c r="B6" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Carry</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="22">
+        <v>18000</v>
+      </c>
+      <c r="G6" s="40"/>
+      <c r="K6" s="12">
+        <v>5</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="36">
+        <v>2</v>
+      </c>
+      <c r="B7" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>538</v>
+      </c>
+      <c r="E7" s="14">
+        <v>16087</v>
+      </c>
+      <c r="F7" s="22">
+        <v>1600</v>
+      </c>
+      <c r="G7" s="40">
+        <v>5000</v>
+      </c>
+      <c r="K7" s="12">
+        <v>6</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="36">
+        <v>3</v>
+      </c>
+      <c r="B8" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Body &amp; Painting</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>539</v>
+      </c>
+      <c r="D8" s="19"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="22">
+        <v>5000</v>
+      </c>
+      <c r="G8" s="40"/>
+      <c r="K8" s="12">
+        <v>7</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="36">
+        <v>2</v>
+      </c>
+      <c r="B9" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>540</v>
+      </c>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="22">
+        <v>5200</v>
+      </c>
+      <c r="G9" s="40"/>
+      <c r="K9" s="12">
+        <v>8</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="36">
+        <v>5</v>
+      </c>
+      <c r="B10" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Carry</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>405</v>
+      </c>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="22">
+        <v>8000</v>
+      </c>
+      <c r="G10" s="40"/>
+      <c r="K10" s="12">
+        <v>9</v>
+      </c>
+      <c r="L10" s="12"/>
+    </row>
+    <row r="11" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="36">
+        <v>5</v>
+      </c>
+      <c r="B11" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Carry</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>541</v>
+      </c>
+      <c r="E11" s="19"/>
+      <c r="F11" s="22">
+        <v>2000</v>
+      </c>
+      <c r="G11" s="40"/>
+      <c r="K11" s="12">
+        <v>10</v>
+      </c>
+      <c r="L11" s="12"/>
+    </row>
+    <row r="12" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="36">
+        <v>8</v>
+      </c>
+      <c r="B12" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Advance</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>544</v>
+      </c>
+      <c r="D12" s="19"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="22">
+        <v>30000</v>
+      </c>
+      <c r="G12" s="40"/>
+      <c r="K12" s="12">
+        <v>11</v>
+      </c>
+      <c r="L12" s="12"/>
+    </row>
+    <row r="13" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="36">
+        <v>2</v>
+      </c>
+      <c r="B13" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>506</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>538</v>
+      </c>
+      <c r="E13" s="14">
+        <v>16087</v>
+      </c>
+      <c r="F13" s="22">
+        <v>3000</v>
+      </c>
+      <c r="G13" s="40">
+        <v>5000</v>
+      </c>
+      <c r="K13" s="12">
+        <v>12</v>
+      </c>
+      <c r="L13" s="12"/>
+    </row>
+    <row r="14" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="36">
+        <v>2</v>
+      </c>
+      <c r="B14" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>545</v>
+      </c>
+      <c r="D14" s="19"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="22">
+        <v>4000</v>
+      </c>
+      <c r="G14" s="40"/>
+      <c r="K14" s="12">
+        <v>13</v>
+      </c>
+      <c r="L14" s="12"/>
+    </row>
+    <row r="15" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="36">
+        <v>6</v>
+      </c>
+      <c r="B15" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Meal</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>425</v>
+      </c>
+      <c r="D15" s="19"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="22">
+        <v>28500</v>
+      </c>
+      <c r="G15" s="40"/>
+    </row>
+    <row r="16" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="36">
+        <v>4</v>
+      </c>
+      <c r="B16" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Wages</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>546</v>
+      </c>
+      <c r="D16" s="19"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="22">
+        <v>10000</v>
+      </c>
+      <c r="G16" s="40"/>
+    </row>
+    <row r="17" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="36">
+        <v>2</v>
+      </c>
+      <c r="B17" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>547</v>
+      </c>
+      <c r="D17" s="19"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="22">
+        <v>500000</v>
+      </c>
+      <c r="G17" s="40"/>
+    </row>
+    <row r="18" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="36"/>
+      <c r="B18" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="40"/>
+    </row>
+    <row r="19" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="36"/>
+      <c r="B19" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="40"/>
+    </row>
+    <row r="20" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="36"/>
+      <c r="B20" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C20" s="13"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="40"/>
+    </row>
+    <row r="21" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E21" s="58" t="s">
+        <v>332</v>
+      </c>
+      <c r="F21" s="60">
+        <f>SUM(F2:F20)</f>
+        <v>704300</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E22" s="58" t="s">
+        <v>407</v>
+      </c>
+      <c r="F22" s="56">
+        <v>122000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E23" s="58"/>
+      <c r="F23" s="77">
+        <f>SUM(F21:F22)</f>
+        <v>826300</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E24" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="F24" s="76">
+        <v>637000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E25" s="66" t="s">
+        <v>374</v>
+      </c>
+      <c r="F25" s="78">
+        <v>231500</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E26" s="58"/>
+      <c r="F26" s="61">
+        <f>SUM(F24:F25)</f>
+        <v>868500</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F27" s="79">
+        <v>826300</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E28" s="58" t="s">
+        <v>468</v>
+      </c>
+      <c r="F28" s="60">
+        <f>F26-F27</f>
+        <v>42200</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="1"/>
+  </sheetPr>
+  <dimension ref="A1:L36"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="36.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="26" t="s">
+        <v>330</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>375</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>328</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="36">
+        <v>3</v>
+      </c>
+      <c r="B2" s="37" t="str">
+        <f t="shared" ref="B2:B21" si="0">IF(A2=1,myvar1,IF(A2=2,myvar2,IF(A2=3,myvar3,IF(A2=4,myvar4,IF(A2=5,myvar5,IF(A2=6,myvar6,IF(A2=7,myvar7,IF(A2=8,myvar8,IF(A2=9,myvar9,IF(A2=10,myvar10,IF(A2=11,myvar11,IF(A2=12,myvar12,IF(A2=13,myvar13,)))))))))))))</f>
+        <v>Body &amp; Painting</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>562</v>
+      </c>
+      <c r="D2" s="19"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="22">
+        <v>5000</v>
+      </c>
+      <c r="G2" s="40"/>
+      <c r="K2" s="12">
+        <v>1</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="36">
+        <v>1</v>
+      </c>
+      <c r="B3" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Expense</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>550</v>
+      </c>
+      <c r="D3" s="19"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="22">
+        <v>5000</v>
+      </c>
+      <c r="G3" s="40"/>
+      <c r="K3" s="12">
+        <v>2</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="36">
+        <v>2</v>
+      </c>
+      <c r="B4" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>549</v>
+      </c>
+      <c r="D4" s="19"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="22">
+        <v>4000</v>
+      </c>
+      <c r="G4" s="40"/>
+      <c r="K4" s="12">
+        <v>3</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="36">
+        <v>5</v>
+      </c>
+      <c r="B5" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Carry</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>548</v>
+      </c>
+      <c r="D5" s="19"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="22">
+        <v>3000</v>
+      </c>
+      <c r="G5" s="40"/>
+      <c r="K5" s="12">
+        <v>4</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="36">
+        <v>2</v>
+      </c>
+      <c r="B6" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>551</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>552</v>
+      </c>
+      <c r="E6" s="63" t="s">
+        <v>570</v>
+      </c>
+      <c r="F6" s="22">
+        <v>5000</v>
+      </c>
+      <c r="G6" s="40">
+        <v>7000</v>
+      </c>
+      <c r="K6" s="12">
+        <v>5</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="36">
+        <v>2</v>
+      </c>
+      <c r="B7" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>553</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>554</v>
+      </c>
+      <c r="E7" s="19"/>
+      <c r="F7" s="22">
+        <v>400</v>
+      </c>
+      <c r="G7" s="40"/>
+      <c r="K7" s="12">
+        <v>6</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="36">
+        <v>2</v>
+      </c>
+      <c r="B8" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>555</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>556</v>
+      </c>
+      <c r="E8" s="14"/>
+      <c r="F8" s="22">
+        <v>3700</v>
+      </c>
+      <c r="G8" s="40"/>
+      <c r="K8" s="12">
+        <v>7</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="36">
+        <v>2</v>
+      </c>
+      <c r="B9" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>557</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>558</v>
+      </c>
+      <c r="E9" s="14">
+        <v>16111</v>
+      </c>
+      <c r="F9" s="22">
+        <v>20000</v>
+      </c>
+      <c r="G9" s="40">
+        <v>25000</v>
+      </c>
+      <c r="K9" s="12">
+        <v>8</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="36">
+        <v>2</v>
+      </c>
+      <c r="B10" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>559</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>552</v>
+      </c>
+      <c r="E10" s="63" t="s">
+        <v>571</v>
+      </c>
+      <c r="F10" s="22">
+        <v>2000</v>
+      </c>
+      <c r="G10" s="40">
+        <v>3000</v>
+      </c>
+      <c r="K10" s="12">
+        <v>9</v>
+      </c>
+      <c r="L10" s="12"/>
+    </row>
+    <row r="11" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="36">
+        <v>2</v>
+      </c>
+      <c r="B11" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>560</v>
+      </c>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="22">
+        <v>4000</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>561</v>
+      </c>
+      <c r="K11" s="12">
+        <v>10</v>
+      </c>
+      <c r="L11" s="12"/>
+    </row>
+    <row r="12" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="36">
+        <v>3</v>
+      </c>
+      <c r="B12" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Body &amp; Painting</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>563</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>531</v>
+      </c>
+      <c r="E12" s="14"/>
+      <c r="F12" s="22">
+        <v>9000</v>
+      </c>
+      <c r="G12" s="40"/>
+      <c r="K12" s="12">
+        <v>11</v>
+      </c>
+      <c r="L12" s="12"/>
+    </row>
+    <row r="13" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="36">
+        <v>2</v>
+      </c>
+      <c r="B13" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>564</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>554</v>
+      </c>
+      <c r="E13" s="14"/>
+      <c r="F13" s="22">
+        <v>7900</v>
+      </c>
+      <c r="G13" s="40"/>
+      <c r="K13" s="12">
+        <v>12</v>
+      </c>
+      <c r="L13" s="12"/>
+    </row>
+    <row r="14" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="36">
+        <v>2</v>
+      </c>
+      <c r="B14" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>567</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>531</v>
+      </c>
+      <c r="E14" s="14"/>
+      <c r="F14" s="22">
+        <v>14000</v>
+      </c>
+      <c r="G14" s="40"/>
+      <c r="K14" s="12">
+        <v>13</v>
+      </c>
+      <c r="L14" s="12"/>
+    </row>
+    <row r="15" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="36">
+        <v>1</v>
+      </c>
+      <c r="B15" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Expense</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>516</v>
+      </c>
+      <c r="D15" s="19"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="22">
+        <v>1200</v>
+      </c>
+      <c r="G15" s="40"/>
+    </row>
+    <row r="16" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="36">
+        <v>5</v>
+      </c>
+      <c r="B16" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Carry</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>541</v>
+      </c>
+      <c r="E16" s="14"/>
+      <c r="F16" s="22">
+        <v>2000</v>
+      </c>
+      <c r="G16" s="40"/>
+    </row>
+    <row r="17" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="36">
+        <v>1</v>
+      </c>
+      <c r="B17" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Expense</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>565</v>
+      </c>
+      <c r="D17" s="19"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="22">
+        <v>10000</v>
+      </c>
+      <c r="G17" s="40"/>
+    </row>
+    <row r="18" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="36">
+        <v>1</v>
+      </c>
+      <c r="B18" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Expense</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>566</v>
+      </c>
+      <c r="D18" s="19"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="22">
+        <v>11700</v>
+      </c>
+      <c r="G18" s="40"/>
+    </row>
+    <row r="19" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="36">
+        <v>6</v>
+      </c>
+      <c r="B19" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Meal</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>568</v>
+      </c>
+      <c r="D19" s="19"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="22">
+        <v>15000</v>
+      </c>
+      <c r="G19" s="40"/>
+    </row>
+    <row r="20" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="36">
+        <v>2</v>
+      </c>
+      <c r="B20" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>569</v>
+      </c>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="22">
+        <v>6000</v>
+      </c>
+      <c r="G20" s="40"/>
+    </row>
+    <row r="21" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="36">
+        <v>5</v>
+      </c>
+      <c r="B21" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Carry</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>405</v>
+      </c>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="22">
+        <v>4000</v>
+      </c>
+      <c r="G21" s="40"/>
+    </row>
+    <row r="22" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E22" s="58" t="s">
+        <v>332</v>
+      </c>
+      <c r="F22" s="60">
+        <f>SUM(F2:F21)</f>
+        <v>132900</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E23" s="58" t="s">
+        <v>407</v>
+      </c>
+      <c r="F23" s="80">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E24" s="58" t="s">
+        <v>372</v>
+      </c>
+      <c r="F24" s="80">
+        <v>43550</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E25" s="58" t="s">
+        <v>373</v>
+      </c>
+      <c r="F25" s="81">
+        <v>33000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F26" s="62">
+        <f>SUM(F22:F25)</f>
+        <v>284450</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E27" s="58" t="s">
+        <v>374</v>
+      </c>
+      <c r="F27" s="76">
+        <v>276000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="F28" s="70">
+        <v>284450</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F29" s="69">
+        <f>F27-F28</f>
+        <v>-8450</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E30" s="58"/>
+      <c r="F30" s="60"/>
+    </row>
+    <row r="31" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E31" s="58"/>
+      <c r="F31" s="61"/>
+    </row>
+    <row r="32" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E32" s="58"/>
+      <c r="F32" s="61"/>
+    </row>
+    <row r="33" spans="5:6" ht="21" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="E33" s="58"/>
+      <c r="F33" s="59"/>
+    </row>
+    <row r="34" spans="5:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F34" s="53"/>
+    </row>
+    <row r="35" spans="5:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E35" s="58"/>
+      <c r="F35" s="56"/>
+    </row>
+    <row r="36" spans="5:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F36" s="62"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFC00000"/>
+  </sheetPr>
+  <dimension ref="A1:L36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="36.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="26" t="s">
+        <v>330</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>375</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>328</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="36">
+        <v>3</v>
+      </c>
+      <c r="B2" s="37" t="str">
+        <f t="shared" ref="B2:B29" si="0">IF(A2=1,myvar1,IF(A2=2,myvar2,IF(A2=3,myvar3,IF(A2=4,myvar4,IF(A2=5,myvar5,IF(A2=6,myvar6,IF(A2=7,myvar7,IF(A2=8,myvar8,IF(A2=9,myvar9,IF(A2=10,myvar10,IF(A2=11,myvar11,IF(A2=12,myvar12,IF(A2=13,myvar13,)))))))))))))</f>
         <v>Body &amp; Painting</v>
       </c>
       <c r="C2" s="13"/>
@@ -5259,7 +6527,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="37" t="str">
-        <f>IF(A3=1,myvar1,IF(A3=2,myvar2,IF(A3=3,myvar3,IF(A3=4,myvar4,IF(A3=5,myvar5,IF(A3=6,myvar6,IF(A3=7,myvar7,IF(A3=8,myvar8,IF(A3=9,myvar9,IF(A3=10,myvar10,IF(A3=11,myvar11,IF(A3=12,myvar12,IF(A3=13,myvar13,)))))))))))))</f>
+        <f t="shared" si="0"/>
         <v>Expense</v>
       </c>
       <c r="C3" s="13"/>
@@ -5279,7 +6547,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="37" t="str">
-        <f>IF(A4=1,myvar1,IF(A4=2,myvar2,IF(A4=3,myvar3,IF(A4=4,myvar4,IF(A4=5,myvar5,IF(A4=6,myvar6,IF(A4=7,myvar7,IF(A4=8,myvar8,IF(A4=9,myvar9,IF(A4=10,myvar10,IF(A4=11,myvar11,IF(A4=12,myvar12,IF(A4=13,myvar13,)))))))))))))</f>
+        <f t="shared" si="0"/>
         <v>Workshop</v>
       </c>
       <c r="C4" s="13"/>
@@ -5297,7 +6565,7 @@
     <row r="5" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="36"/>
       <c r="B5" s="37">
-        <f>IF(A5=1,myvar1,IF(A5=2,myvar2,IF(A5=3,myvar3,IF(A5=4,myvar4,IF(A5=5,myvar5,IF(A5=6,myvar6,IF(A5=7,myvar7,IF(A5=8,myvar8,IF(A5=9,myvar9,IF(A5=10,myvar10,IF(A5=11,myvar11,IF(A5=12,myvar12,IF(A5=13,myvar13,)))))))))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C5" s="13"/>
@@ -5315,7 +6583,7 @@
     <row r="6" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="36"/>
       <c r="B6" s="37">
-        <f>IF(A6=1,myvar1,IF(A6=2,myvar2,IF(A6=3,myvar3,IF(A6=4,myvar4,IF(A6=5,myvar5,IF(A6=6,myvar6,IF(A6=7,myvar7,IF(A6=8,myvar8,IF(A6=9,myvar9,IF(A6=10,myvar10,IF(A6=11,myvar11,IF(A6=12,myvar12,IF(A6=13,myvar13,)))))))))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C6" s="13"/>
@@ -5333,7 +6601,7 @@
     <row r="7" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="36"/>
       <c r="B7" s="37">
-        <f>IF(A7=1,myvar1,IF(A7=2,myvar2,IF(A7=3,myvar3,IF(A7=4,myvar4,IF(A7=5,myvar5,IF(A7=6,myvar6,IF(A7=7,myvar7,IF(A7=8,myvar8,IF(A7=9,myvar9,IF(A7=10,myvar10,IF(A7=11,myvar11,IF(A7=12,myvar12,IF(A7=13,myvar13,)))))))))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C7" s="13"/>
@@ -5351,7 +6619,7 @@
     <row r="8" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="36"/>
       <c r="B8" s="37">
-        <f>IF(A8=1,myvar1,IF(A8=2,myvar2,IF(A8=3,myvar3,IF(A8=4,myvar4,IF(A8=5,myvar5,IF(A8=6,myvar6,IF(A8=7,myvar7,IF(A8=8,myvar8,IF(A8=9,myvar9,IF(A8=10,myvar10,IF(A8=11,myvar11,IF(A8=12,myvar12,IF(A8=13,myvar13,)))))))))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C8" s="13"/>
@@ -5369,7 +6637,7 @@
     <row r="9" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="36"/>
       <c r="B9" s="37">
-        <f>IF(A9=1,myvar1,IF(A9=2,myvar2,IF(A9=3,myvar3,IF(A9=4,myvar4,IF(A9=5,myvar5,IF(A9=6,myvar6,IF(A9=7,myvar7,IF(A9=8,myvar8,IF(A9=9,myvar9,IF(A9=10,myvar10,IF(A9=11,myvar11,IF(A9=12,myvar12,IF(A9=13,myvar13,)))))))))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C9" s="13"/>
@@ -5387,7 +6655,7 @@
     <row r="10" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="36"/>
       <c r="B10" s="37">
-        <f>IF(A10=1,myvar1,IF(A10=2,myvar2,IF(A10=3,myvar3,IF(A10=4,myvar4,IF(A10=5,myvar5,IF(A10=6,myvar6,IF(A10=7,myvar7,IF(A10=8,myvar8,IF(A10=9,myvar9,IF(A10=10,myvar10,IF(A10=11,myvar11,IF(A10=12,myvar12,IF(A10=13,myvar13,)))))))))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C10" s="13"/>
@@ -5403,7 +6671,7 @@
     <row r="11" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="36"/>
       <c r="B11" s="37">
-        <f>IF(A11=1,myvar1,IF(A11=2,myvar2,IF(A11=3,myvar3,IF(A11=4,myvar4,IF(A11=5,myvar5,IF(A11=6,myvar6,IF(A11=7,myvar7,IF(A11=8,myvar8,IF(A11=9,myvar9,IF(A11=10,myvar10,IF(A11=11,myvar11,IF(A11=12,myvar12,IF(A11=13,myvar13,)))))))))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C11" s="13"/>
@@ -5419,7 +6687,7 @@
     <row r="12" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="36"/>
       <c r="B12" s="37">
-        <f>IF(A12=1,myvar1,IF(A12=2,myvar2,IF(A12=3,myvar3,IF(A12=4,myvar4,IF(A12=5,myvar5,IF(A12=6,myvar6,IF(A12=7,myvar7,IF(A12=8,myvar8,IF(A12=9,myvar9,IF(A12=10,myvar10,IF(A12=11,myvar11,IF(A12=12,myvar12,IF(A12=13,myvar13,)))))))))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C12" s="13"/>
@@ -5435,7 +6703,7 @@
     <row r="13" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="36"/>
       <c r="B13" s="37">
-        <f>IF(A13=1,myvar1,IF(A13=2,myvar2,IF(A13=3,myvar3,IF(A13=4,myvar4,IF(A13=5,myvar5,IF(A13=6,myvar6,IF(A13=7,myvar7,IF(A13=8,myvar8,IF(A13=9,myvar9,IF(A13=10,myvar10,IF(A13=11,myvar11,IF(A13=12,myvar12,IF(A13=13,myvar13,)))))))))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C13" s="13"/>
@@ -5451,7 +6719,7 @@
     <row r="14" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="36"/>
       <c r="B14" s="37">
-        <f>IF(A14=1,myvar1,IF(A14=2,myvar2,IF(A14=3,myvar3,IF(A14=4,myvar4,IF(A14=5,myvar5,IF(A14=6,myvar6,IF(A14=7,myvar7,IF(A14=8,myvar8,IF(A14=9,myvar9,IF(A14=10,myvar10,IF(A14=11,myvar11,IF(A14=12,myvar12,IF(A14=13,myvar13,)))))))))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C14" s="13"/>
@@ -5467,7 +6735,7 @@
     <row r="15" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="36"/>
       <c r="B15" s="37">
-        <f>IF(A15=1,myvar1,IF(A15=2,myvar2,IF(A15=3,myvar3,IF(A15=4,myvar4,IF(A15=5,myvar5,IF(A15=6,myvar6,IF(A15=7,myvar7,IF(A15=8,myvar8,IF(A15=9,myvar9,IF(A15=10,myvar10,IF(A15=11,myvar11,IF(A15=12,myvar12,IF(A15=13,myvar13,)))))))))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C15" s="13"/>
@@ -5479,7 +6747,7 @@
     <row r="16" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="36"/>
       <c r="B16" s="37">
-        <f>IF(A16=1,myvar1,IF(A16=2,myvar2,IF(A16=3,myvar3,IF(A16=4,myvar4,IF(A16=5,myvar5,IF(A16=6,myvar6,IF(A16=7,myvar7,IF(A16=8,myvar8,IF(A16=9,myvar9,IF(A16=10,myvar10,IF(A16=11,myvar11,IF(A16=12,myvar12,IF(A16=13,myvar13,)))))))))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C16" s="13"/>
@@ -5488,10 +6756,10 @@
       <c r="F16" s="22"/>
       <c r="G16" s="40"/>
     </row>
-    <row r="17" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:7" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="36"/>
       <c r="B17" s="37">
-        <f>IF(A17=1,myvar1,IF(A17=2,myvar2,IF(A17=3,myvar3,IF(A17=4,myvar4,IF(A17=5,myvar5,IF(A17=6,myvar6,IF(A17=7,myvar7,IF(A17=8,myvar8,IF(A17=9,myvar9,IF(A17=10,myvar10,IF(A17=11,myvar11,IF(A17=12,myvar12,IF(A17=13,myvar13,)))))))))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C17" s="13"/>
@@ -5500,10 +6768,10 @@
       <c r="F17" s="22"/>
       <c r="G17" s="40"/>
     </row>
-    <row r="18" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:7" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="36"/>
       <c r="B18" s="37">
-        <f>IF(A18=1,myvar1,IF(A18=2,myvar2,IF(A18=3,myvar3,IF(A18=4,myvar4,IF(A18=5,myvar5,IF(A18=6,myvar6,IF(A18=7,myvar7,IF(A18=8,myvar8,IF(A18=9,myvar9,IF(A18=10,myvar10,IF(A18=11,myvar11,IF(A18=12,myvar12,IF(A18=13,myvar13,)))))))))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C18" s="13"/>
@@ -5512,10 +6780,10 @@
       <c r="F18" s="22"/>
       <c r="G18" s="40"/>
     </row>
-    <row r="19" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:7" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="36"/>
       <c r="B19" s="37">
-        <f>IF(A19=1,myvar1,IF(A19=2,myvar2,IF(A19=3,myvar3,IF(A19=4,myvar4,IF(A19=5,myvar5,IF(A19=6,myvar6,IF(A19=7,myvar7,IF(A19=8,myvar8,IF(A19=9,myvar9,IF(A19=10,myvar10,IF(A19=11,myvar11,IF(A19=12,myvar12,IF(A19=13,myvar13,)))))))))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C19" s="13"/>
@@ -5524,10 +6792,10 @@
       <c r="F19" s="22"/>
       <c r="G19" s="40"/>
     </row>
-    <row r="20" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:7" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="36"/>
       <c r="B20" s="37">
-        <f>IF(A20=1,myvar1,IF(A20=2,myvar2,IF(A20=3,myvar3,IF(A20=4,myvar4,IF(A20=5,myvar5,IF(A20=6,myvar6,IF(A20=7,myvar7,IF(A20=8,myvar8,IF(A20=9,myvar9,IF(A20=10,myvar10,IF(A20=11,myvar11,IF(A20=12,myvar12,IF(A20=13,myvar13,)))))))))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C20" s="13"/>
@@ -5536,10 +6804,10 @@
       <c r="F20" s="22"/>
       <c r="G20" s="40"/>
     </row>
-    <row r="21" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:7" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="36"/>
       <c r="B21" s="37">
-        <f>IF(A21=1,myvar1,IF(A21=2,myvar2,IF(A21=3,myvar3,IF(A21=4,myvar4,IF(A21=5,myvar5,IF(A21=6,myvar6,IF(A21=7,myvar7,IF(A21=8,myvar8,IF(A21=9,myvar9,IF(A21=10,myvar10,IF(A21=11,myvar11,IF(A21=12,myvar12,IF(A21=13,myvar13,)))))))))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C21" s="13"/>
@@ -5548,10 +6816,10 @@
       <c r="F21" s="22"/>
       <c r="G21" s="40"/>
     </row>
-    <row r="22" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:7" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="36"/>
       <c r="B22" s="37">
-        <f>IF(A22=1,myvar1,IF(A22=2,myvar2,IF(A22=3,myvar3,IF(A22=4,myvar4,IF(A22=5,myvar5,IF(A22=6,myvar6,IF(A22=7,myvar7,IF(A22=8,myvar8,IF(A22=9,myvar9,IF(A22=10,myvar10,IF(A22=11,myvar11,IF(A22=12,myvar12,IF(A22=13,myvar13,)))))))))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C22" s="13"/>
@@ -5560,10 +6828,10 @@
       <c r="F22" s="22"/>
       <c r="G22" s="40"/>
     </row>
-    <row r="23" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:7" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="36"/>
       <c r="B23" s="37">
-        <f>IF(A23=1,myvar1,IF(A23=2,myvar2,IF(A23=3,myvar3,IF(A23=4,myvar4,IF(A23=5,myvar5,IF(A23=6,myvar6,IF(A23=7,myvar7,IF(A23=8,myvar8,IF(A23=9,myvar9,IF(A23=10,myvar10,IF(A23=11,myvar11,IF(A23=12,myvar12,IF(A23=13,myvar13,)))))))))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C23" s="13"/>
@@ -5572,10 +6840,10 @@
       <c r="F23" s="22"/>
       <c r="G23" s="40"/>
     </row>
-    <row r="24" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:7" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="36"/>
       <c r="B24" s="37">
-        <f>IF(A24=1,myvar1,IF(A24=2,myvar2,IF(A24=3,myvar3,IF(A24=4,myvar4,IF(A24=5,myvar5,IF(A24=6,myvar6,IF(A24=7,myvar7,IF(A24=8,myvar8,IF(A24=9,myvar9,IF(A24=10,myvar10,IF(A24=11,myvar11,IF(A24=12,myvar12,IF(A24=13,myvar13,)))))))))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C24" s="13"/>
@@ -5584,10 +6852,10 @@
       <c r="F24" s="22"/>
       <c r="G24" s="40"/>
     </row>
-    <row r="25" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:7" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="36"/>
       <c r="B25" s="37">
-        <f>IF(A25=1,myvar1,IF(A25=2,myvar2,IF(A25=3,myvar3,IF(A25=4,myvar4,IF(A25=5,myvar5,IF(A25=6,myvar6,IF(A25=7,myvar7,IF(A25=8,myvar8,IF(A25=9,myvar9,IF(A25=10,myvar10,IF(A25=11,myvar11,IF(A25=12,myvar12,IF(A25=13,myvar13,)))))))))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C25" s="15"/>
@@ -5596,10 +6864,10 @@
       <c r="F25" s="22"/>
       <c r="G25" s="40"/>
     </row>
-    <row r="26" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:7" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="36"/>
       <c r="B26" s="37">
-        <f>IF(A26=1,myvar1,IF(A26=2,myvar2,IF(A26=3,myvar3,IF(A26=4,myvar4,IF(A26=5,myvar5,IF(A26=6,myvar6,IF(A26=7,myvar7,IF(A26=8,myvar8,IF(A26=9,myvar9,IF(A26=10,myvar10,IF(A26=11,myvar11,IF(A26=12,myvar12,IF(A26=13,myvar13,)))))))))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C26" s="13"/>
@@ -5608,10 +6876,10 @@
       <c r="F26" s="22"/>
       <c r="G26" s="40"/>
     </row>
-    <row r="27" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:7" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="36"/>
       <c r="B27" s="37">
-        <f>IF(A27=1,myvar1,IF(A27=2,myvar2,IF(A27=3,myvar3,IF(A27=4,myvar4,IF(A27=5,myvar5,IF(A27=6,myvar6,IF(A27=7,myvar7,IF(A27=8,myvar8,IF(A27=9,myvar9,IF(A27=10,myvar10,IF(A27=11,myvar11,IF(A27=12,myvar12,IF(A27=13,myvar13,)))))))))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C27" s="13"/>
@@ -5620,10 +6888,10 @@
       <c r="F27" s="22"/>
       <c r="G27" s="40"/>
     </row>
-    <row r="28" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:7" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="36"/>
       <c r="B28" s="37">
-        <f>IF(A28=1,myvar1,IF(A28=2,myvar2,IF(A28=3,myvar3,IF(A28=4,myvar4,IF(A28=5,myvar5,IF(A28=6,myvar6,IF(A28=7,myvar7,IF(A28=8,myvar8,IF(A28=9,myvar9,IF(A28=10,myvar10,IF(A28=11,myvar11,IF(A28=12,myvar12,IF(A28=13,myvar13,)))))))))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C28" s="13"/>
@@ -5632,10 +6900,10 @@
       <c r="F28" s="22"/>
       <c r="G28" s="40"/>
     </row>
-    <row r="29" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:7" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="36"/>
       <c r="B29" s="37">
-        <f>IF(A29=1,myvar1,IF(A29=2,myvar2,IF(A29=3,myvar3,IF(A29=4,myvar4,IF(A29=5,myvar5,IF(A29=6,myvar6,IF(A29=7,myvar7,IF(A29=8,myvar8,IF(A29=9,myvar9,IF(A29=10,myvar10,IF(A29=11,myvar11,IF(A29=12,myvar12,IF(A29=13,myvar13,)))))))))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C29" s="13"/>
@@ -5644,15 +6912,15 @@
       <c r="F29" s="22"/>
       <c r="G29" s="40"/>
     </row>
-    <row r="30" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="E30" s="58"/>
       <c r="F30" s="60"/>
     </row>
-    <row r="31" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="E31" s="58"/>
       <c r="F31" s="61"/>
     </row>
-    <row r="32" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="E32" s="58"/>
       <c r="F32" s="61"/>
     </row>
@@ -5675,7 +6943,499 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:L36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="36.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="26" t="s">
+        <v>330</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>375</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>328</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="36">
+        <v>3</v>
+      </c>
+      <c r="B2" s="37" t="str">
+        <f t="shared" ref="B2:B29" si="0">IF(A2=1,myvar1,IF(A2=2,myvar2,IF(A2=3,myvar3,IF(A2=4,myvar4,IF(A2=5,myvar5,IF(A2=6,myvar6,IF(A2=7,myvar7,IF(A2=8,myvar8,IF(A2=9,myvar9,IF(A2=10,myvar10,IF(A2=11,myvar11,IF(A2=12,myvar12,IF(A2=13,myvar13,)))))))))))))</f>
+        <v>Body &amp; Painting</v>
+      </c>
+      <c r="C2" s="13"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="40"/>
+      <c r="K2" s="12">
+        <v>1</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="36">
+        <v>1</v>
+      </c>
+      <c r="B3" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Expense</v>
+      </c>
+      <c r="C3" s="13"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="40"/>
+      <c r="K3" s="12">
+        <v>2</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="36">
+        <v>2</v>
+      </c>
+      <c r="B4" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="40"/>
+      <c r="K4" s="12">
+        <v>3</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="36"/>
+      <c r="B5" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="40"/>
+      <c r="K5" s="12">
+        <v>4</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="36"/>
+      <c r="B6" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="40"/>
+      <c r="K6" s="12">
+        <v>5</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="36"/>
+      <c r="B7" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="40"/>
+      <c r="K7" s="12">
+        <v>6</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="36"/>
+      <c r="B8" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="40"/>
+      <c r="K8" s="12">
+        <v>7</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="36"/>
+      <c r="B9" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="40"/>
+      <c r="K9" s="12">
+        <v>8</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="36"/>
+      <c r="B10" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="40"/>
+      <c r="K10" s="12">
+        <v>9</v>
+      </c>
+      <c r="L10" s="12"/>
+    </row>
+    <row r="11" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="36"/>
+      <c r="B11" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="40"/>
+      <c r="K11" s="12">
+        <v>10</v>
+      </c>
+      <c r="L11" s="12"/>
+    </row>
+    <row r="12" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="36"/>
+      <c r="B12" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="40"/>
+      <c r="K12" s="12">
+        <v>11</v>
+      </c>
+      <c r="L12" s="12"/>
+    </row>
+    <row r="13" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="36"/>
+      <c r="B13" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="40"/>
+      <c r="K13" s="12">
+        <v>12</v>
+      </c>
+      <c r="L13" s="12"/>
+    </row>
+    <row r="14" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="36"/>
+      <c r="B14" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="40"/>
+      <c r="K14" s="12">
+        <v>13</v>
+      </c>
+      <c r="L14" s="12"/>
+    </row>
+    <row r="15" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="36"/>
+      <c r="B15" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="40"/>
+    </row>
+    <row r="16" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="36"/>
+      <c r="B16" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C16" s="13"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="40"/>
+    </row>
+    <row r="17" spans="1:7" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="36"/>
+      <c r="B17" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="40"/>
+    </row>
+    <row r="18" spans="1:7" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="36"/>
+      <c r="B18" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="40"/>
+    </row>
+    <row r="19" spans="1:7" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="36"/>
+      <c r="B19" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="40"/>
+    </row>
+    <row r="20" spans="1:7" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="36"/>
+      <c r="B20" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C20" s="13"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="40"/>
+    </row>
+    <row r="21" spans="1:7" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="36"/>
+      <c r="B21" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="40"/>
+    </row>
+    <row r="22" spans="1:7" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="36"/>
+      <c r="B22" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C22" s="13"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="40"/>
+    </row>
+    <row r="23" spans="1:7" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="36"/>
+      <c r="B23" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C23" s="13"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="40"/>
+    </row>
+    <row r="24" spans="1:7" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="36"/>
+      <c r="B24" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C24" s="13"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="40"/>
+    </row>
+    <row r="25" spans="1:7" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="36"/>
+      <c r="B25" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C25" s="15"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="40"/>
+    </row>
+    <row r="26" spans="1:7" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="36"/>
+      <c r="B26" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C26" s="13"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="40"/>
+    </row>
+    <row r="27" spans="1:7" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="36"/>
+      <c r="B27" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C27" s="13"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="40"/>
+    </row>
+    <row r="28" spans="1:7" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="36"/>
+      <c r="B28" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C28" s="13"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="40"/>
+    </row>
+    <row r="29" spans="1:7" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="36"/>
+      <c r="B29" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C29" s="13"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="40"/>
+    </row>
+    <row r="30" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E30" s="58"/>
+      <c r="F30" s="60"/>
+    </row>
+    <row r="31" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E31" s="58"/>
+      <c r="F31" s="61"/>
+    </row>
+    <row r="32" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E32" s="58"/>
+      <c r="F32" s="61"/>
+    </row>
+    <row r="33" spans="5:6" ht="23.25" x14ac:dyDescent="0.6">
+      <c r="E33" s="58"/>
+      <c r="F33" s="59"/>
+    </row>
+    <row r="34" spans="5:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F34" s="53"/>
+    </row>
+    <row r="35" spans="5:6" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="E35" s="58"/>
+      <c r="F35" s="56"/>
+    </row>
+    <row r="36" spans="5:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F36" s="62"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -5687,7 +7447,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>

--- a/GB-3Expense (Autosaved).xlsx
+++ b/GB-3Expense (Autosaved).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830" firstSheet="9" activeTab="10"/>
+    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830" firstSheet="9" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Jun-2018" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1931" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1974" uniqueCount="593">
   <si>
     <t>1.6.2018</t>
   </si>
@@ -1769,6 +1769,69 @@
   </si>
   <si>
     <t>1610,0</t>
+  </si>
+  <si>
+    <t>Batteryေထာက္နိုး</t>
+  </si>
+  <si>
+    <t>Superglue</t>
+  </si>
+  <si>
+    <t>ေနာ္ဇယ္ျပဳျပင္</t>
+  </si>
+  <si>
+    <t>4M-9322/Porter2</t>
+  </si>
+  <si>
+    <t>ေ၇တိုင္ဂီအေပါက္ဖာ</t>
+  </si>
+  <si>
+    <t>ထိုးတံအထိုင္ေျကးေဆာ္</t>
+  </si>
+  <si>
+    <t>Clutch Ball</t>
+  </si>
+  <si>
+    <t>9G-9951/</t>
+  </si>
+  <si>
+    <t>တိုက္ေရာ့/မိန္းလံုး</t>
+  </si>
+  <si>
+    <t>2L-4623/Fuji</t>
+  </si>
+  <si>
+    <t>မိန္းလံုးPressနင္း</t>
+  </si>
+  <si>
+    <t>2L-4636/Fuji</t>
+  </si>
+  <si>
+    <t>ေဆးနက္MN322</t>
+  </si>
+  <si>
+    <t>W.90</t>
+  </si>
+  <si>
+    <t>Honda</t>
+  </si>
+  <si>
+    <t>Sparko5*1700</t>
+  </si>
+  <si>
+    <t>SSP</t>
+  </si>
+  <si>
+    <t>စရံေပးေငြ(10.8.2018)</t>
+  </si>
+  <si>
+    <t>ေနာက္ေက်ာမွန္</t>
+  </si>
+  <si>
+    <t>Vigo</t>
+  </si>
+  <si>
+    <t>ေဘာလံုးကြင္းေျကး</t>
   </si>
 </sst>
 </file>
@@ -4210,7 +4273,7 @@
   </sheetPr>
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
@@ -6456,18 +6519,18 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:L36"/>
+  <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.28515625" customWidth="1"/>
     <col min="2" max="2" width="20.42578125" customWidth="1"/>
     <col min="3" max="3" width="36.28515625" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" customWidth="1"/>
     <col min="6" max="6" width="14.140625" customWidth="1"/>
     <col min="7" max="7" width="12.28515625" customWidth="1"/>
@@ -6510,10 +6573,14 @@
         <f t="shared" ref="B2:B29" si="0">IF(A2=1,myvar1,IF(A2=2,myvar2,IF(A2=3,myvar3,IF(A2=4,myvar4,IF(A2=5,myvar5,IF(A2=6,myvar6,IF(A2=7,myvar7,IF(A2=8,myvar8,IF(A2=9,myvar9,IF(A2=10,myvar10,IF(A2=11,myvar11,IF(A2=12,myvar12,IF(A2=13,myvar13,)))))))))))))</f>
         <v>Body &amp; Painting</v>
       </c>
-      <c r="C2" s="13"/>
+      <c r="C2" s="13" t="s">
+        <v>573</v>
+      </c>
       <c r="D2" s="19"/>
       <c r="E2" s="14"/>
-      <c r="F2" s="22"/>
+      <c r="F2" s="22">
+        <v>600</v>
+      </c>
       <c r="G2" s="40"/>
       <c r="K2" s="12">
         <v>1</v>
@@ -6530,10 +6597,14 @@
         <f t="shared" si="0"/>
         <v>Expense</v>
       </c>
-      <c r="C3" s="13"/>
+      <c r="C3" s="13" t="s">
+        <v>170</v>
+      </c>
       <c r="D3" s="19"/>
       <c r="E3" s="14"/>
-      <c r="F3" s="22"/>
+      <c r="F3" s="22">
+        <v>2200</v>
+      </c>
       <c r="G3" s="40"/>
       <c r="K3" s="12">
         <v>2</v>
@@ -6550,10 +6621,16 @@
         <f t="shared" si="0"/>
         <v>Workshop</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="19"/>
+      <c r="C4" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>411</v>
+      </c>
       <c r="E4" s="14"/>
-      <c r="F4" s="22"/>
+      <c r="F4" s="22">
+        <v>5000</v>
+      </c>
       <c r="G4" s="40"/>
       <c r="K4" s="12">
         <v>3</v>
@@ -6563,15 +6640,21 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="36"/>
-      <c r="B5" s="37">
+      <c r="A5" s="36">
+        <v>5</v>
+      </c>
+      <c r="B5" s="37" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C5" s="13"/>
+        <v>Carry</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>572</v>
+      </c>
       <c r="D5" s="19"/>
       <c r="E5" s="14"/>
-      <c r="F5" s="22"/>
+      <c r="F5" s="22">
+        <v>3000</v>
+      </c>
       <c r="G5" s="40"/>
       <c r="K5" s="12">
         <v>4</v>
@@ -6581,15 +6664,23 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="36"/>
-      <c r="B6" s="37">
+      <c r="A6" s="36">
+        <v>2</v>
+      </c>
+      <c r="B6" s="37" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="16"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>574</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>575</v>
+      </c>
       <c r="E6" s="16"/>
-      <c r="F6" s="22"/>
+      <c r="F6" s="22">
+        <v>36000</v>
+      </c>
       <c r="G6" s="40"/>
       <c r="K6" s="12">
         <v>5</v>
@@ -6599,15 +6690,23 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="36"/>
-      <c r="B7" s="37">
+      <c r="A7" s="36">
+        <v>2</v>
+      </c>
+      <c r="B7" s="37" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="19"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>576</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>575</v>
+      </c>
       <c r="E7" s="19"/>
-      <c r="F7" s="22"/>
+      <c r="F7" s="22">
+        <v>5000</v>
+      </c>
       <c r="G7" s="40"/>
       <c r="K7" s="12">
         <v>6</v>
@@ -6617,15 +6716,23 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="36"/>
-      <c r="B8" s="37">
+      <c r="A8" s="36">
+        <v>2</v>
+      </c>
+      <c r="B8" s="37" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="19"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>577</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>575</v>
+      </c>
       <c r="E8" s="14"/>
-      <c r="F8" s="22"/>
+      <c r="F8" s="22">
+        <v>4000</v>
+      </c>
       <c r="G8" s="40"/>
       <c r="K8" s="12">
         <v>7</v>
@@ -6635,15 +6742,21 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="36"/>
-      <c r="B9" s="37">
+      <c r="A9" s="36">
+        <v>5</v>
+      </c>
+      <c r="B9" s="37" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C9" s="13"/>
+        <v>Carry</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>358</v>
+      </c>
       <c r="D9" s="19"/>
       <c r="E9" s="19"/>
-      <c r="F9" s="22"/>
+      <c r="F9" s="22">
+        <v>9000</v>
+      </c>
       <c r="G9" s="40"/>
       <c r="K9" s="12">
         <v>8</v>
@@ -6653,15 +6766,23 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="36"/>
-      <c r="B10" s="37">
+      <c r="A10" s="36">
+        <v>5</v>
+      </c>
+      <c r="B10" s="37" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="16"/>
+        <v>Carry</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>541</v>
+      </c>
       <c r="E10" s="16"/>
-      <c r="F10" s="22"/>
+      <c r="F10" s="22">
+        <v>2000</v>
+      </c>
       <c r="G10" s="40"/>
       <c r="K10" s="12">
         <v>9</v>
@@ -6669,15 +6790,23 @@
       <c r="L10" s="12"/>
     </row>
     <row r="11" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="36"/>
-      <c r="B11" s="37">
+      <c r="A11" s="36">
+        <v>2</v>
+      </c>
+      <c r="B11" s="37" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="19"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>578</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>579</v>
+      </c>
       <c r="E11" s="19"/>
-      <c r="F11" s="22"/>
+      <c r="F11" s="22">
+        <v>15000</v>
+      </c>
       <c r="G11" s="40"/>
       <c r="K11" s="12">
         <v>10</v>
@@ -6685,15 +6814,23 @@
       <c r="L11" s="12"/>
     </row>
     <row r="12" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="36"/>
-      <c r="B12" s="37">
+      <c r="A12" s="36">
+        <v>2</v>
+      </c>
+      <c r="B12" s="37" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="19"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>581</v>
+      </c>
       <c r="E12" s="14"/>
-      <c r="F12" s="22"/>
+      <c r="F12" s="22">
+        <v>34000</v>
+      </c>
       <c r="G12" s="40"/>
       <c r="K12" s="12">
         <v>11</v>
@@ -6701,15 +6838,23 @@
       <c r="L12" s="12"/>
     </row>
     <row r="13" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="36"/>
-      <c r="B13" s="37">
+      <c r="A13" s="36">
+        <v>2</v>
+      </c>
+      <c r="B13" s="37" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="19"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>582</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>583</v>
+      </c>
       <c r="E13" s="14"/>
-      <c r="F13" s="22"/>
+      <c r="F13" s="22">
+        <v>4000</v>
+      </c>
       <c r="G13" s="40"/>
       <c r="K13" s="12">
         <v>12</v>
@@ -6717,15 +6862,21 @@
       <c r="L13" s="12"/>
     </row>
     <row r="14" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="36"/>
-      <c r="B14" s="37">
+      <c r="A14" s="36">
+        <v>3</v>
+      </c>
+      <c r="B14" s="37" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C14" s="13"/>
+        <v>Body &amp; Painting</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>584</v>
+      </c>
       <c r="D14" s="19"/>
       <c r="E14" s="14"/>
-      <c r="F14" s="22"/>
+      <c r="F14" s="22">
+        <v>5500</v>
+      </c>
       <c r="G14" s="40"/>
       <c r="K14" s="12">
         <v>13</v>
@@ -6733,126 +6884,196 @@
       <c r="L14" s="12"/>
     </row>
     <row r="15" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="36"/>
-      <c r="B15" s="37">
+      <c r="A15" s="36">
+        <v>3</v>
+      </c>
+      <c r="B15" s="37" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="19"/>
+        <v>Body &amp; Painting</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>585</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>586</v>
+      </c>
       <c r="E15" s="14"/>
-      <c r="F15" s="22"/>
+      <c r="F15" s="22">
+        <v>8000</v>
+      </c>
       <c r="G15" s="40"/>
     </row>
     <row r="16" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="36"/>
-      <c r="B16" s="37">
+      <c r="A16" s="36">
+        <v>2</v>
+      </c>
+      <c r="B16" s="37" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C16" s="13"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>587</v>
+      </c>
       <c r="D16" s="19"/>
       <c r="E16" s="14"/>
-      <c r="F16" s="22"/>
+      <c r="F16" s="22">
+        <v>8500</v>
+      </c>
       <c r="G16" s="40"/>
     </row>
-    <row r="17" spans="1:7" ht="21.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="36"/>
-      <c r="B17" s="37">
+    <row r="17" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="36">
+        <v>2</v>
+      </c>
+      <c r="B17" s="37" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="19"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>588</v>
+      </c>
       <c r="E17" s="14"/>
-      <c r="F17" s="22"/>
+      <c r="F17" s="22">
+        <v>3000</v>
+      </c>
       <c r="G17" s="40"/>
     </row>
-    <row r="18" spans="1:7" ht="21.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="36"/>
+    <row r="18" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="36">
+        <v>9</v>
+      </c>
       <c r="B18" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="19"/>
+      <c r="C18" s="13" t="s">
+        <v>589</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>531</v>
+      </c>
       <c r="E18" s="14"/>
-      <c r="F18" s="22"/>
+      <c r="F18" s="22">
+        <v>150000</v>
+      </c>
       <c r="G18" s="40"/>
     </row>
-    <row r="19" spans="1:7" ht="21.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="36"/>
-      <c r="B19" s="37">
+    <row r="19" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="36">
+        <v>7</v>
+      </c>
+      <c r="B19" s="37" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="19"/>
+        <v>Discount</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>531</v>
+      </c>
       <c r="E19" s="14"/>
-      <c r="F19" s="22"/>
+      <c r="F19" s="22">
+        <v>1000</v>
+      </c>
       <c r="G19" s="40"/>
     </row>
-    <row r="20" spans="1:7" ht="21.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="36"/>
-      <c r="B20" s="37">
+    <row r="20" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="36">
+        <v>1</v>
+      </c>
+      <c r="B20" s="37" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="16"/>
+        <v>Expense</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>590</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>591</v>
+      </c>
       <c r="E20" s="16"/>
-      <c r="F20" s="22"/>
+      <c r="F20" s="22">
+        <v>67000</v>
+      </c>
       <c r="G20" s="40"/>
     </row>
-    <row r="21" spans="1:7" ht="21.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="36"/>
-      <c r="B21" s="37">
+    <row r="21" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="36">
+        <v>4</v>
+      </c>
+      <c r="B21" s="37" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C21" s="13"/>
+        <v>Wages</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>546</v>
+      </c>
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
-      <c r="F21" s="22"/>
+      <c r="F21" s="22">
+        <v>10000</v>
+      </c>
       <c r="G21" s="40"/>
     </row>
-    <row r="22" spans="1:7" ht="21.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="36"/>
-      <c r="B22" s="37">
+    <row r="22" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="36">
+        <v>6</v>
+      </c>
+      <c r="B22" s="37" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C22" s="13"/>
+        <v>Meal</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>387</v>
+      </c>
       <c r="D22" s="16"/>
       <c r="E22" s="16"/>
-      <c r="F22" s="22"/>
+      <c r="F22" s="22">
+        <v>27000</v>
+      </c>
       <c r="G22" s="40"/>
     </row>
-    <row r="23" spans="1:7" ht="21.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="36"/>
-      <c r="B23" s="37">
+    <row r="23" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="36">
+        <v>1</v>
+      </c>
+      <c r="B23" s="37" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C23" s="13"/>
+        <v>Expense</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>592</v>
+      </c>
       <c r="D23" s="16"/>
       <c r="E23" s="16"/>
-      <c r="F23" s="22"/>
+      <c r="F23" s="22">
+        <v>20000</v>
+      </c>
       <c r="G23" s="40"/>
     </row>
-    <row r="24" spans="1:7" ht="21.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="36"/>
-      <c r="B24" s="37">
+    <row r="24" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="36">
+        <v>5</v>
+      </c>
+      <c r="B24" s="37" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C24" s="13"/>
+        <v>Carry</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>405</v>
+      </c>
       <c r="D24" s="16"/>
       <c r="E24" s="16"/>
-      <c r="F24" s="22"/>
+      <c r="F24" s="22">
+        <v>6000</v>
+      </c>
       <c r="G24" s="40"/>
     </row>
-    <row r="25" spans="1:7" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="36"/>
       <c r="B25" s="37">
         <f t="shared" si="0"/>
@@ -6864,7 +7085,7 @@
       <c r="F25" s="22"/>
       <c r="G25" s="40"/>
     </row>
-    <row r="26" spans="1:7" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="36"/>
       <c r="B26" s="37">
         <f t="shared" si="0"/>
@@ -6876,7 +7097,7 @@
       <c r="F26" s="22"/>
       <c r="G26" s="40"/>
     </row>
-    <row r="27" spans="1:7" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="36"/>
       <c r="B27" s="37">
         <f t="shared" si="0"/>
@@ -6888,7 +7109,7 @@
       <c r="F27" s="22"/>
       <c r="G27" s="40"/>
     </row>
-    <row r="28" spans="1:7" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="36"/>
       <c r="B28" s="37">
         <f t="shared" si="0"/>
@@ -6900,7 +7121,7 @@
       <c r="F28" s="22"/>
       <c r="G28" s="40"/>
     </row>
-    <row r="29" spans="1:7" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="36"/>
       <c r="B29" s="37">
         <f t="shared" si="0"/>
@@ -6912,34 +7133,84 @@
       <c r="F29" s="22"/>
       <c r="G29" s="40"/>
     </row>
-    <row r="30" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E30" s="58"/>
-      <c r="F30" s="60"/>
-    </row>
-    <row r="31" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E31" s="58"/>
-      <c r="F31" s="61"/>
-    </row>
-    <row r="32" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E32" s="58"/>
-      <c r="F32" s="61"/>
-    </row>
-    <row r="33" spans="5:6" ht="23.25" x14ac:dyDescent="0.6">
-      <c r="E33" s="58"/>
-      <c r="F33" s="59"/>
-    </row>
-    <row r="34" spans="5:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="F34" s="53"/>
-    </row>
-    <row r="35" spans="5:6" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="E35" s="58"/>
-      <c r="F35" s="56"/>
-    </row>
-    <row r="36" spans="5:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="F36" s="62"/>
+    <row r="30" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E30" s="58" t="s">
+        <v>332</v>
+      </c>
+      <c r="F30" s="60">
+        <f>SUM(F2:F29)</f>
+        <v>425800</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E31" s="58" t="s">
+        <v>372</v>
+      </c>
+      <c r="F31" s="61">
+        <v>54350</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E32" s="58" t="s">
+        <v>407</v>
+      </c>
+      <c r="F32" s="61">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="33" spans="5:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="E33" s="58" t="s">
+        <v>373</v>
+      </c>
+      <c r="F33" s="59">
+        <v>43000</v>
+      </c>
+    </row>
+    <row r="34" spans="5:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F34" s="53">
+        <f>SUM(F30:F33)</f>
+        <v>538150</v>
+      </c>
+    </row>
+    <row r="35" spans="5:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E35" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="F35" s="61">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="36" spans="5:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="E36" s="58" t="s">
+        <v>374</v>
+      </c>
+      <c r="F36" s="64">
+        <v>521000</v>
+      </c>
+    </row>
+    <row r="37" spans="5:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F37" s="50">
+        <f>SUM(F35:F36)</f>
+        <v>571000</v>
+      </c>
+    </row>
+    <row r="38" spans="5:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="F38" s="70">
+        <v>538150</v>
+      </c>
+    </row>
+    <row r="39" spans="5:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E39" s="58" t="s">
+        <v>468</v>
+      </c>
+      <c r="F39" s="50">
+        <f>F37-F38</f>
+        <v>32850</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/GB-3Expense (Autosaved).xlsx
+++ b/GB-3Expense (Autosaved).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830" firstSheet="9" activeTab="14"/>
+    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830" firstSheet="9" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Jun-2018" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1974" uniqueCount="593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2020" uniqueCount="605">
   <si>
     <t>1.6.2018</t>
   </si>
@@ -1832,6 +1832,42 @@
   </si>
   <si>
     <t>ေဘာလံုးကြင္းေျကး</t>
+  </si>
+  <si>
+    <t>ဘုရားပန္း/အလွဴေငြ</t>
+  </si>
+  <si>
+    <t>Dupon/8200/131/ေရစား</t>
+  </si>
+  <si>
+    <t>7M-3595/Wish</t>
+  </si>
+  <si>
+    <t>စကၠဴတိတ္</t>
+  </si>
+  <si>
+    <t>ဓာတ္ဆီၤ</t>
+  </si>
+  <si>
+    <t>ဓာတ္ဆီၤ/ဓား</t>
+  </si>
+  <si>
+    <t>ေရလည္အံုတိုင္</t>
+  </si>
+  <si>
+    <t>9G-9951/Canter</t>
+  </si>
+  <si>
+    <t>ဂြင္း/ဂြ</t>
+  </si>
+  <si>
+    <t>2F-5593/Suzuki</t>
+  </si>
+  <si>
+    <t>Batteryေထာက္နိုး/Carry</t>
+  </si>
+  <si>
+    <t>ေမာင္းတိန္း</t>
   </si>
 </sst>
 </file>
@@ -5921,7 +5957,7 @@
   </sheetPr>
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -6521,8 +6557,8 @@
   </sheetPr>
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7219,10 +7255,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:L36"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7270,6 +7306,529 @@
         <v>3</v>
       </c>
       <c r="B2" s="37" t="str">
+        <f t="shared" ref="B2:B20" si="0">IF(A2=1,myvar1,IF(A2=2,myvar2,IF(A2=3,myvar3,IF(A2=4,myvar4,IF(A2=5,myvar5,IF(A2=6,myvar6,IF(A2=7,myvar7,IF(A2=8,myvar8,IF(A2=9,myvar9,IF(A2=10,myvar10,IF(A2=11,myvar11,IF(A2=12,myvar12,IF(A2=13,myvar13,)))))))))))))</f>
+        <v>Body &amp; Painting</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>594</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>595</v>
+      </c>
+      <c r="E2" s="14"/>
+      <c r="F2" s="22">
+        <v>35000</v>
+      </c>
+      <c r="G2" s="40"/>
+      <c r="K2" s="12">
+        <v>1</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="36">
+        <v>3</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>333</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>596</v>
+      </c>
+      <c r="D3" s="19"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="22">
+        <v>5600</v>
+      </c>
+      <c r="G3" s="40"/>
+      <c r="K3" s="12">
+        <v>2</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="36">
+        <v>3</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>333</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>598</v>
+      </c>
+      <c r="D4" s="19"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="22">
+        <v>1500</v>
+      </c>
+      <c r="G4" s="40"/>
+      <c r="K4" s="12">
+        <v>3</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="36">
+        <v>1</v>
+      </c>
+      <c r="B5" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Expense</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>593</v>
+      </c>
+      <c r="D5" s="19"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="22">
+        <v>2200</v>
+      </c>
+      <c r="G5" s="40"/>
+      <c r="K5" s="12">
+        <v>4</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="36">
+        <v>2</v>
+      </c>
+      <c r="B6" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>597</v>
+      </c>
+      <c r="D6" s="19"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="22">
+        <v>3000</v>
+      </c>
+      <c r="G6" s="40"/>
+      <c r="K6" s="12">
+        <v>5</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="36">
+        <v>6</v>
+      </c>
+      <c r="B7" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Meal</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="19"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="22">
+        <v>3000</v>
+      </c>
+      <c r="G7" s="40"/>
+      <c r="K7" s="12">
+        <v>6</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="36">
+        <v>1</v>
+      </c>
+      <c r="B8" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Expense</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>455</v>
+      </c>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="22">
+        <v>1600</v>
+      </c>
+      <c r="G8" s="40"/>
+      <c r="K8" s="12">
+        <v>7</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="36">
+        <v>2</v>
+      </c>
+      <c r="B9" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="22">
+        <v>3800</v>
+      </c>
+      <c r="G9" s="40"/>
+      <c r="K9" s="12">
+        <v>8</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="36">
+        <v>5</v>
+      </c>
+      <c r="B10" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Carry</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>541</v>
+      </c>
+      <c r="E10" s="14"/>
+      <c r="F10" s="22">
+        <v>2000</v>
+      </c>
+      <c r="G10" s="40"/>
+      <c r="K10" s="12">
+        <v>9</v>
+      </c>
+      <c r="L10" s="12"/>
+    </row>
+    <row r="11" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="36">
+        <v>5</v>
+      </c>
+      <c r="B11" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Carry</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="22">
+        <v>13000</v>
+      </c>
+      <c r="G11" s="40"/>
+      <c r="K11" s="12">
+        <v>10</v>
+      </c>
+      <c r="L11" s="12"/>
+    </row>
+    <row r="12" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="36">
+        <v>2</v>
+      </c>
+      <c r="B12" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>599</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>600</v>
+      </c>
+      <c r="E12" s="16"/>
+      <c r="F12" s="22">
+        <v>1000</v>
+      </c>
+      <c r="G12" s="40"/>
+      <c r="K12" s="12">
+        <v>11</v>
+      </c>
+      <c r="L12" s="12"/>
+    </row>
+    <row r="13" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="36">
+        <v>2</v>
+      </c>
+      <c r="B13" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>601</v>
+      </c>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="22">
+        <v>58400</v>
+      </c>
+      <c r="G13" s="40"/>
+      <c r="K13" s="12">
+        <v>12</v>
+      </c>
+      <c r="L13" s="12"/>
+    </row>
+    <row r="14" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="36">
+        <v>7</v>
+      </c>
+      <c r="B14" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Discount</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>602</v>
+      </c>
+      <c r="E14" s="14"/>
+      <c r="F14" s="22">
+        <v>3000</v>
+      </c>
+      <c r="G14" s="40"/>
+      <c r="K14" s="12">
+        <v>13</v>
+      </c>
+      <c r="L14" s="12"/>
+    </row>
+    <row r="15" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="36">
+        <v>2</v>
+      </c>
+      <c r="B15" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>603</v>
+      </c>
+      <c r="D15" s="19"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="22">
+        <v>3000</v>
+      </c>
+      <c r="G15" s="40"/>
+      <c r="K15" s="12">
+        <v>12</v>
+      </c>
+      <c r="L15" s="12"/>
+    </row>
+    <row r="16" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="36">
+        <v>1</v>
+      </c>
+      <c r="B16" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Expense</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>604</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="E16" s="14"/>
+      <c r="F16" s="22">
+        <v>8000</v>
+      </c>
+      <c r="G16" s="40"/>
+      <c r="K16" s="12">
+        <v>13</v>
+      </c>
+      <c r="L16" s="12"/>
+    </row>
+    <row r="17" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="36">
+        <v>4</v>
+      </c>
+      <c r="B17" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Wages</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>546</v>
+      </c>
+      <c r="D17" s="19"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="22">
+        <v>10000</v>
+      </c>
+      <c r="G17" s="40"/>
+    </row>
+    <row r="18" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="36">
+        <v>6</v>
+      </c>
+      <c r="B18" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Meal</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="D18" s="19"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="22">
+        <v>27000</v>
+      </c>
+      <c r="G18" s="40"/>
+    </row>
+    <row r="19" spans="1:7" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="36">
+        <v>5</v>
+      </c>
+      <c r="B19" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Carry</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>405</v>
+      </c>
+      <c r="D19" s="19"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="22">
+        <v>4000</v>
+      </c>
+      <c r="G19" s="40"/>
+    </row>
+    <row r="20" spans="1:7" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="36"/>
+      <c r="B20" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C20" s="13"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="40"/>
+    </row>
+    <row r="21" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E21" s="58" t="s">
+        <v>332</v>
+      </c>
+      <c r="F21" s="60">
+        <f>SUM(F2:F20)</f>
+        <v>185100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E22" s="58" t="s">
+        <v>372</v>
+      </c>
+      <c r="F22" s="61">
+        <v>69750</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="E23" s="58" t="s">
+        <v>373</v>
+      </c>
+      <c r="F23" s="56">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E24" s="58"/>
+      <c r="F24" s="69">
+        <f>SUM(F21:F23)</f>
+        <v>284850</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="E25" s="66" t="s">
+        <v>374</v>
+      </c>
+      <c r="F25" s="78">
+        <v>208000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E26" s="58"/>
+      <c r="F26" s="61">
+        <f>F25-F24</f>
+        <v>-76850</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F27" s="62"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="36.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="26" t="s">
+        <v>330</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>375</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>328</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="36">
+        <v>3</v>
+      </c>
+      <c r="B2" s="37" t="str">
         <f t="shared" ref="B2:B29" si="0">IF(A2=1,myvar1,IF(A2=2,myvar2,IF(A2=3,myvar3,IF(A2=4,myvar4,IF(A2=5,myvar5,IF(A2=6,myvar6,IF(A2=7,myvar7,IF(A2=8,myvar8,IF(A2=9,myvar9,IF(A2=10,myvar10,IF(A2=11,myvar11,IF(A2=12,myvar12,IF(A2=13,myvar13,)))))))))))))</f>
         <v>Body &amp; Painting</v>
       </c>
@@ -7702,18 +8261,6 @@
       <c r="F36" s="62"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/GB-3Expense (Autosaved).xlsx
+++ b/GB-3Expense (Autosaved).xlsx
@@ -23,7 +23,7 @@
     <sheet name="12.8.2018" sheetId="14" r:id="rId14"/>
     <sheet name="13.8.2018" sheetId="15" r:id="rId15"/>
     <sheet name="14.8.2018" sheetId="16" r:id="rId16"/>
-    <sheet name="Sheet2" sheetId="17" r:id="rId17"/>
+    <sheet name="15.8.2018" sheetId="17" r:id="rId17"/>
     <sheet name="Sheet3" sheetId="18" r:id="rId18"/>
     <sheet name="Sheet4" sheetId="19" r:id="rId19"/>
   </sheets>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2020" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2049" uniqueCount="619">
   <si>
     <t>1.6.2018</t>
   </si>
@@ -1868,6 +1868,48 @@
   </si>
   <si>
     <t>ေမာင္းတိန္း</t>
+  </si>
+  <si>
+    <t>Disel မီးစက္</t>
+  </si>
+  <si>
+    <t>ဆူးသြား/၀ါရွာ/ေက်ာက္ျပား</t>
+  </si>
+  <si>
+    <t>Coffee(Day/Night)</t>
+  </si>
+  <si>
+    <t>လစာျကိုထုတ္ေငြ(Thet Naing Oo)</t>
+  </si>
+  <si>
+    <t>အမဲဆီ/ေကာ္</t>
+  </si>
+  <si>
+    <t>8B-9669/Towance</t>
+  </si>
+  <si>
+    <t>BNY Carry</t>
+  </si>
+  <si>
+    <t>Paper Oil 1Li 1</t>
+  </si>
+  <si>
+    <t>8G-4383/Townace</t>
+  </si>
+  <si>
+    <t>ဓာတ္မီး2</t>
+  </si>
+  <si>
+    <t>Air Filter</t>
+  </si>
+  <si>
+    <t>2F-6774/Hilux</t>
+  </si>
+  <si>
+    <t>TieRod2</t>
+  </si>
+  <si>
+    <t>မိုးကာ(Security)</t>
   </si>
 </sst>
 </file>
@@ -7778,10 +7820,13 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L36"/>
+  <sheetPr>
+    <tabColor rgb="FF7030A0"/>
+  </sheetPr>
+  <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7789,7 +7834,7 @@
     <col min="1" max="1" width="7.28515625" customWidth="1"/>
     <col min="2" max="2" width="20.42578125" customWidth="1"/>
     <col min="3" max="3" width="36.28515625" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" customWidth="1"/>
     <col min="6" max="6" width="14.140625" customWidth="1"/>
     <col min="7" max="7" width="12.28515625" customWidth="1"/>
@@ -7826,16 +7871,20 @@
     </row>
     <row r="2" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="36">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2" s="37" t="str">
-        <f t="shared" ref="B2:B29" si="0">IF(A2=1,myvar1,IF(A2=2,myvar2,IF(A2=3,myvar3,IF(A2=4,myvar4,IF(A2=5,myvar5,IF(A2=6,myvar6,IF(A2=7,myvar7,IF(A2=8,myvar8,IF(A2=9,myvar9,IF(A2=10,myvar10,IF(A2=11,myvar11,IF(A2=12,myvar12,IF(A2=13,myvar13,)))))))))))))</f>
-        <v>Body &amp; Painting</v>
-      </c>
-      <c r="C2" s="13"/>
+        <f t="shared" ref="B2:B20" si="0">IF(A2=1,myvar1,IF(A2=2,myvar2,IF(A2=3,myvar3,IF(A2=4,myvar4,IF(A2=5,myvar5,IF(A2=6,myvar6,IF(A2=7,myvar7,IF(A2=8,myvar8,IF(A2=9,myvar9,IF(A2=10,myvar10,IF(A2=11,myvar11,IF(A2=12,myvar12,IF(A2=13,myvar13,)))))))))))))</f>
+        <v>Meal</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>607</v>
+      </c>
       <c r="D2" s="19"/>
       <c r="E2" s="14"/>
-      <c r="F2" s="22"/>
+      <c r="F2" s="22">
+        <v>7000</v>
+      </c>
       <c r="G2" s="40"/>
       <c r="K2" s="12">
         <v>1</v>
@@ -7846,16 +7895,22 @@
     </row>
     <row r="3" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="36">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B3" s="37" t="str">
         <f t="shared" si="0"/>
-        <v>Expense</v>
-      </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="19"/>
+        <v>Carry</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>541</v>
+      </c>
       <c r="E3" s="14"/>
-      <c r="F3" s="22"/>
+      <c r="F3" s="22">
+        <v>1000</v>
+      </c>
       <c r="G3" s="40"/>
       <c r="K3" s="12">
         <v>2</v>
@@ -7866,16 +7921,20 @@
     </row>
     <row r="4" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="37" t="str">
         <f t="shared" si="0"/>
-        <v>Workshop</v>
-      </c>
-      <c r="C4" s="13"/>
+        <v>Expense</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>605</v>
+      </c>
       <c r="D4" s="19"/>
       <c r="E4" s="14"/>
-      <c r="F4" s="22"/>
+      <c r="F4" s="22">
+        <v>10000</v>
+      </c>
       <c r="G4" s="40"/>
       <c r="K4" s="12">
         <v>3</v>
@@ -7885,15 +7944,21 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="36"/>
-      <c r="B5" s="37">
+      <c r="A5" s="36">
+        <v>3</v>
+      </c>
+      <c r="B5" s="37" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C5" s="13"/>
+        <v>Body &amp; Painting</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>606</v>
+      </c>
       <c r="D5" s="19"/>
       <c r="E5" s="14"/>
-      <c r="F5" s="22"/>
+      <c r="F5" s="22">
+        <v>7100</v>
+      </c>
       <c r="G5" s="40"/>
       <c r="K5" s="12">
         <v>4</v>
@@ -7903,15 +7968,21 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="36"/>
-      <c r="B6" s="37">
+      <c r="A6" s="36">
+        <v>2</v>
+      </c>
+      <c r="B6" s="37" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C6" s="13"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>51</v>
+      </c>
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
-      <c r="F6" s="22"/>
+      <c r="F6" s="22">
+        <v>1000</v>
+      </c>
       <c r="G6" s="40"/>
       <c r="K6" s="12">
         <v>5</v>
@@ -7921,15 +7992,21 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="36"/>
-      <c r="B7" s="37">
+      <c r="A7" s="36">
+        <v>8</v>
+      </c>
+      <c r="B7" s="37" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C7" s="13"/>
+        <v>Advance</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>608</v>
+      </c>
       <c r="D7" s="19"/>
       <c r="E7" s="19"/>
-      <c r="F7" s="22"/>
+      <c r="F7" s="22">
+        <v>30000</v>
+      </c>
       <c r="G7" s="40"/>
       <c r="K7" s="12">
         <v>6</v>
@@ -7939,15 +8016,21 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="36"/>
-      <c r="B8" s="37">
+      <c r="A8" s="36">
+        <v>2</v>
+      </c>
+      <c r="B8" s="37" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C8" s="13"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>609</v>
+      </c>
       <c r="D8" s="19"/>
       <c r="E8" s="14"/>
-      <c r="F8" s="22"/>
+      <c r="F8" s="22">
+        <v>7200</v>
+      </c>
       <c r="G8" s="40"/>
       <c r="K8" s="12">
         <v>7</v>
@@ -7957,15 +8040,23 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="36"/>
-      <c r="B9" s="37">
+      <c r="A9" s="36">
+        <v>7</v>
+      </c>
+      <c r="B9" s="37" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="19"/>
+        <v>Discount</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>610</v>
+      </c>
       <c r="E9" s="19"/>
-      <c r="F9" s="22"/>
+      <c r="F9" s="22">
+        <v>500</v>
+      </c>
       <c r="G9" s="40"/>
       <c r="K9" s="12">
         <v>8</v>
@@ -7975,15 +8066,21 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="36"/>
-      <c r="B10" s="37">
+      <c r="A10" s="36">
+        <v>5</v>
+      </c>
+      <c r="B10" s="37" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C10" s="13"/>
+        <v>Carry</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>611</v>
+      </c>
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
-      <c r="F10" s="22"/>
+      <c r="F10" s="22">
+        <v>9000</v>
+      </c>
       <c r="G10" s="40"/>
       <c r="K10" s="12">
         <v>9</v>
@@ -7991,15 +8088,21 @@
       <c r="L10" s="12"/>
     </row>
     <row r="11" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="36"/>
-      <c r="B11" s="37">
+      <c r="A11" s="36">
+        <v>2</v>
+      </c>
+      <c r="B11" s="37" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C11" s="13"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>612</v>
+      </c>
       <c r="D11" s="19"/>
       <c r="E11" s="19"/>
-      <c r="F11" s="22"/>
+      <c r="F11" s="22">
+        <v>1500</v>
+      </c>
       <c r="G11" s="40"/>
       <c r="K11" s="12">
         <v>10</v>
@@ -8007,15 +8110,23 @@
       <c r="L11" s="12"/>
     </row>
     <row r="12" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="36"/>
-      <c r="B12" s="37">
+      <c r="A12" s="36">
+        <v>2</v>
+      </c>
+      <c r="B12" s="37" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="19"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>613</v>
+      </c>
       <c r="E12" s="14"/>
-      <c r="F12" s="22"/>
+      <c r="F12" s="22">
+        <v>12000</v>
+      </c>
       <c r="G12" s="40"/>
       <c r="K12" s="12">
         <v>11</v>
@@ -8023,15 +8134,21 @@
       <c r="L12" s="12"/>
     </row>
     <row r="13" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="36"/>
-      <c r="B13" s="37">
+      <c r="A13" s="36">
+        <v>1</v>
+      </c>
+      <c r="B13" s="37" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C13" s="13"/>
+        <v>Expense</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>614</v>
+      </c>
       <c r="D13" s="19"/>
       <c r="E13" s="14"/>
-      <c r="F13" s="22"/>
+      <c r="F13" s="22">
+        <v>7500</v>
+      </c>
       <c r="G13" s="40"/>
       <c r="K13" s="12">
         <v>12</v>
@@ -8039,15 +8156,23 @@
       <c r="L13" s="12"/>
     </row>
     <row r="14" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="36"/>
-      <c r="B14" s="37">
+      <c r="A14" s="36">
+        <v>2</v>
+      </c>
+      <c r="B14" s="37" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="19"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>615</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>600</v>
+      </c>
       <c r="E14" s="14"/>
-      <c r="F14" s="22"/>
+      <c r="F14" s="22">
+        <v>14000</v>
+      </c>
       <c r="G14" s="40"/>
       <c r="K14" s="12">
         <v>13</v>
@@ -8055,63 +8180,95 @@
       <c r="L14" s="12"/>
     </row>
     <row r="15" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="36"/>
-      <c r="B15" s="37">
+      <c r="A15" s="36">
+        <v>2</v>
+      </c>
+      <c r="B15" s="37" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="19"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>617</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>616</v>
+      </c>
       <c r="E15" s="14"/>
-      <c r="F15" s="22"/>
+      <c r="F15" s="22">
+        <v>32000</v>
+      </c>
       <c r="G15" s="40"/>
     </row>
     <row r="16" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="36"/>
-      <c r="B16" s="37">
+      <c r="A16" s="36">
+        <v>1</v>
+      </c>
+      <c r="B16" s="37" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C16" s="13"/>
+        <v>Expense</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>618</v>
+      </c>
       <c r="D16" s="19"/>
       <c r="E16" s="14"/>
-      <c r="F16" s="22"/>
+      <c r="F16" s="22">
+        <v>5000</v>
+      </c>
       <c r="G16" s="40"/>
     </row>
     <row r="17" spans="1:7" ht="21.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="36"/>
-      <c r="B17" s="37">
+      <c r="A17" s="36">
+        <v>6</v>
+      </c>
+      <c r="B17" s="37" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C17" s="13"/>
+        <v>Meal</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>425</v>
+      </c>
       <c r="D17" s="19"/>
       <c r="E17" s="14"/>
-      <c r="F17" s="22"/>
+      <c r="F17" s="22">
+        <v>28500</v>
+      </c>
       <c r="G17" s="40"/>
     </row>
     <row r="18" spans="1:7" ht="21.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="36"/>
-      <c r="B18" s="37">
+      <c r="A18" s="36">
+        <v>4</v>
+      </c>
+      <c r="B18" s="37" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C18" s="13"/>
+        <v>Wages</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>424</v>
+      </c>
       <c r="D18" s="19"/>
       <c r="E18" s="14"/>
-      <c r="F18" s="22"/>
+      <c r="F18" s="22">
+        <v>20000</v>
+      </c>
       <c r="G18" s="40"/>
     </row>
     <row r="19" spans="1:7" ht="21.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="36"/>
-      <c r="B19" s="37">
+      <c r="A19" s="36">
+        <v>5</v>
+      </c>
+      <c r="B19" s="37" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C19" s="13"/>
+        <v>Carry</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>405</v>
+      </c>
       <c r="D19" s="19"/>
       <c r="E19" s="14"/>
-      <c r="F19" s="22"/>
+      <c r="F19" s="22">
+        <v>5000</v>
+      </c>
       <c r="G19" s="40"/>
     </row>
     <row r="20" spans="1:7" ht="21.75" x14ac:dyDescent="0.55000000000000004">
@@ -8126,142 +8283,81 @@
       <c r="F20" s="22"/>
       <c r="G20" s="40"/>
     </row>
-    <row r="21" spans="1:7" ht="21.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="36"/>
-      <c r="B21" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="40"/>
-    </row>
-    <row r="22" spans="1:7" ht="21.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="36"/>
-      <c r="B22" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="40"/>
-    </row>
-    <row r="23" spans="1:7" ht="21.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="36"/>
-      <c r="B23" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="40"/>
-    </row>
-    <row r="24" spans="1:7" ht="21.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="36"/>
-      <c r="B24" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="40"/>
-    </row>
-    <row r="25" spans="1:7" ht="21.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="36"/>
-      <c r="B25" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="40"/>
-    </row>
-    <row r="26" spans="1:7" ht="21.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="36"/>
-      <c r="B26" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="40"/>
-    </row>
-    <row r="27" spans="1:7" ht="21.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="36"/>
-      <c r="B27" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="40"/>
-    </row>
-    <row r="28" spans="1:7" ht="21.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="36"/>
-      <c r="B28" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="40"/>
-    </row>
-    <row r="29" spans="1:7" ht="21.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="36"/>
-      <c r="B29" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="40"/>
-    </row>
-    <row r="30" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E30" s="58"/>
-      <c r="F30" s="60"/>
-    </row>
-    <row r="31" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E31" s="58"/>
-      <c r="F31" s="61"/>
-    </row>
-    <row r="32" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E32" s="58"/>
-      <c r="F32" s="61"/>
-    </row>
-    <row r="33" spans="5:6" ht="23.25" x14ac:dyDescent="0.6">
-      <c r="E33" s="58"/>
-      <c r="F33" s="59"/>
-    </row>
-    <row r="34" spans="5:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="F34" s="53"/>
-    </row>
-    <row r="35" spans="5:6" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="E35" s="58"/>
-      <c r="F35" s="56"/>
-    </row>
-    <row r="36" spans="5:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="F36" s="62"/>
+    <row r="21" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E21" s="58" t="s">
+        <v>332</v>
+      </c>
+      <c r="F21" s="60">
+        <f>SUM(F2:F20)</f>
+        <v>198300</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E22" s="58" t="s">
+        <v>407</v>
+      </c>
+      <c r="F22" s="61">
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E23" s="58" t="s">
+        <v>372</v>
+      </c>
+      <c r="F23" s="61">
+        <v>183150</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="23.25" x14ac:dyDescent="0.6">
+      <c r="E24" s="58" t="s">
+        <v>373</v>
+      </c>
+      <c r="F24" s="59">
+        <v>712000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F25" s="53">
+        <f>SUM(F21:F24)</f>
+        <v>1223450</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E26" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="F26" s="61">
+        <v>501500</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="23.25" x14ac:dyDescent="0.6">
+      <c r="E27" s="58" t="s">
+        <v>374</v>
+      </c>
+      <c r="F27" s="64">
+        <v>1469500</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F28" s="50">
+        <f>SUM(F26:F27)</f>
+        <v>1971000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="23.25" x14ac:dyDescent="0.6">
+      <c r="F29" s="70">
+        <v>1223450</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F30" s="50">
+        <f>F28-F29</f>
+        <v>747550</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/GB-3Expense (Autosaved).xlsx
+++ b/GB-3Expense (Autosaved).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830" firstSheet="9" activeTab="16"/>
+    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830" firstSheet="11" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="Jun-2018" sheetId="1" r:id="rId1"/>
@@ -24,8 +24,9 @@
     <sheet name="13.8.2018" sheetId="15" r:id="rId15"/>
     <sheet name="14.8.2018" sheetId="16" r:id="rId16"/>
     <sheet name="15.8.2018" sheetId="17" r:id="rId17"/>
-    <sheet name="Sheet3" sheetId="18" r:id="rId18"/>
-    <sheet name="Sheet4" sheetId="19" r:id="rId19"/>
+    <sheet name="16.8.2018" sheetId="18" r:id="rId18"/>
+    <sheet name="17.8.2018" sheetId="19" r:id="rId19"/>
+    <sheet name="Sheet1" sheetId="20" r:id="rId20"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'1.8.2018'!$A$1:$G$31</definedName>
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2049" uniqueCount="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2102" uniqueCount="620">
   <si>
     <t>1.6.2018</t>
   </si>
@@ -1910,6 +1911,9 @@
   </si>
   <si>
     <t>မိုးကာ(Security)</t>
+  </si>
+  <si>
+    <t>Ko Zin Ko ျကိုရွင္း(Wiring)</t>
   </si>
 </sst>
 </file>
@@ -6599,8 +6603,8 @@
   </sheetPr>
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7021,11 +7025,11 @@
     </row>
     <row r="18" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="36">
-        <v>9</v>
-      </c>
-      <c r="B18" s="37">
+        <v>8</v>
+      </c>
+      <c r="B18" s="37" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>Advance</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>589</v>
@@ -7152,15 +7156,23 @@
       <c r="G24" s="40"/>
     </row>
     <row r="25" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="36"/>
-      <c r="B25" s="37">
+      <c r="A25" s="36">
+        <v>8</v>
+      </c>
+      <c r="B25" s="37" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="16"/>
+        <v>Advance</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>619</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>436</v>
+      </c>
       <c r="E25" s="16"/>
-      <c r="F25" s="22"/>
+      <c r="F25" s="22">
+        <v>11000</v>
+      </c>
       <c r="G25" s="40"/>
     </row>
     <row r="26" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -7217,7 +7229,7 @@
       </c>
       <c r="F30" s="60">
         <f>SUM(F2:F29)</f>
-        <v>425800</v>
+        <v>436800</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7233,7 +7245,7 @@
         <v>407</v>
       </c>
       <c r="F32" s="61">
-        <v>15000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="33" spans="5:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.6">
@@ -7825,8 +7837,8 @@
   </sheetPr>
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8363,24 +8375,848 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <sheetPr>
+    <tabColor theme="3" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="7.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="36.28515625" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="26" t="s">
+        <v>330</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>375</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>328</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="36">
+        <v>6</v>
+      </c>
+      <c r="B2" s="37" t="str">
+        <f t="shared" ref="B2:B20" si="0">IF(A2=1,myvar1,IF(A2=2,myvar2,IF(A2=3,myvar3,IF(A2=4,myvar4,IF(A2=5,myvar5,IF(A2=6,myvar6,IF(A2=7,myvar7,IF(A2=8,myvar8,IF(A2=9,myvar9,IF(A2=10,myvar10,IF(A2=11,myvar11,IF(A2=12,myvar12,IF(A2=13,myvar13,)))))))))))))</f>
+        <v>Meal</v>
+      </c>
+      <c r="C2" s="13"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="40"/>
+      <c r="K2" s="12">
+        <v>1</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="36">
+        <v>5</v>
+      </c>
+      <c r="B3" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Carry</v>
+      </c>
+      <c r="C3" s="13"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="40"/>
+      <c r="K3" s="12">
+        <v>2</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="36">
+        <v>1</v>
+      </c>
+      <c r="B4" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Expense</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="40"/>
+      <c r="K4" s="12">
+        <v>3</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="36">
+        <v>3</v>
+      </c>
+      <c r="B5" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Body &amp; Painting</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="40"/>
+      <c r="K5" s="12">
+        <v>4</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="36">
+        <v>2</v>
+      </c>
+      <c r="B6" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="40"/>
+      <c r="K6" s="12">
+        <v>5</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="36">
+        <v>8</v>
+      </c>
+      <c r="B7" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Advance</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="40"/>
+      <c r="K7" s="12">
+        <v>6</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="36">
+        <v>2</v>
+      </c>
+      <c r="B8" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="40"/>
+      <c r="K8" s="12">
+        <v>7</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="36">
+        <v>7</v>
+      </c>
+      <c r="B9" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Discount</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="40"/>
+      <c r="K9" s="12">
+        <v>8</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="36">
+        <v>5</v>
+      </c>
+      <c r="B10" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Carry</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="40"/>
+      <c r="K10" s="12">
+        <v>9</v>
+      </c>
+      <c r="L10" s="12"/>
+    </row>
+    <row r="11" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="36">
+        <v>2</v>
+      </c>
+      <c r="B11" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="40"/>
+      <c r="K11" s="12">
+        <v>10</v>
+      </c>
+      <c r="L11" s="12"/>
+    </row>
+    <row r="12" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="36">
+        <v>2</v>
+      </c>
+      <c r="B12" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="40"/>
+      <c r="K12" s="12">
+        <v>11</v>
+      </c>
+      <c r="L12" s="12"/>
+    </row>
+    <row r="13" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="36">
+        <v>1</v>
+      </c>
+      <c r="B13" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Expense</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="40"/>
+      <c r="K13" s="12">
+        <v>12</v>
+      </c>
+      <c r="L13" s="12"/>
+    </row>
+    <row r="14" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="36">
+        <v>2</v>
+      </c>
+      <c r="B14" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="40"/>
+      <c r="K14" s="12">
+        <v>13</v>
+      </c>
+      <c r="L14" s="12"/>
+    </row>
+    <row r="15" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="36">
+        <v>2</v>
+      </c>
+      <c r="B15" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="40"/>
+    </row>
+    <row r="16" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="36">
+        <v>1</v>
+      </c>
+      <c r="B16" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Expense</v>
+      </c>
+      <c r="C16" s="13"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="40"/>
+    </row>
+    <row r="17" spans="1:7" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="36">
+        <v>6</v>
+      </c>
+      <c r="B17" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Meal</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="40"/>
+    </row>
+    <row r="18" spans="1:7" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="36">
+        <v>4</v>
+      </c>
+      <c r="B18" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Wages</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="40"/>
+    </row>
+    <row r="19" spans="1:7" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="36">
+        <v>5</v>
+      </c>
+      <c r="B19" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Carry</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="40"/>
+    </row>
+    <row r="20" spans="1:7" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="36"/>
+      <c r="B20" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C20" s="13"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="40"/>
+    </row>
+    <row r="21" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E21" s="58"/>
+      <c r="F21" s="60"/>
+    </row>
+    <row r="22" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E22" s="58"/>
+      <c r="F22" s="61"/>
+    </row>
+    <row r="23" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E23" s="58"/>
+      <c r="F23" s="61"/>
+    </row>
+    <row r="24" spans="1:7" ht="23.25" x14ac:dyDescent="0.6">
+      <c r="E24" s="58"/>
+      <c r="F24" s="59"/>
+    </row>
+    <row r="25" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F25" s="53"/>
+    </row>
+    <row r="26" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E26" s="58"/>
+      <c r="F26" s="61"/>
+    </row>
+    <row r="27" spans="1:7" ht="23.25" x14ac:dyDescent="0.6">
+      <c r="E27" s="58"/>
+      <c r="F27" s="64"/>
+    </row>
+    <row r="28" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F28" s="50"/>
+    </row>
+    <row r="29" spans="1:7" ht="23.25" x14ac:dyDescent="0.6">
+      <c r="F29" s="70"/>
+    </row>
+    <row r="30" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F30" s="50"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <sheetPr>
+    <tabColor theme="6" tint="-0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="7.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="36.28515625" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="26" t="s">
+        <v>330</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>375</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>328</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="36">
+        <v>6</v>
+      </c>
+      <c r="B2" s="37" t="str">
+        <f t="shared" ref="B2:B20" si="0">IF(A2=1,myvar1,IF(A2=2,myvar2,IF(A2=3,myvar3,IF(A2=4,myvar4,IF(A2=5,myvar5,IF(A2=6,myvar6,IF(A2=7,myvar7,IF(A2=8,myvar8,IF(A2=9,myvar9,IF(A2=10,myvar10,IF(A2=11,myvar11,IF(A2=12,myvar12,IF(A2=13,myvar13,)))))))))))))</f>
+        <v>Meal</v>
+      </c>
+      <c r="C2" s="13"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="40"/>
+      <c r="K2" s="12">
+        <v>1</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="36">
+        <v>5</v>
+      </c>
+      <c r="B3" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Carry</v>
+      </c>
+      <c r="C3" s="13"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="40"/>
+      <c r="K3" s="12">
+        <v>2</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="36">
+        <v>1</v>
+      </c>
+      <c r="B4" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Expense</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="40"/>
+      <c r="K4" s="12">
+        <v>3</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="36">
+        <v>3</v>
+      </c>
+      <c r="B5" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Body &amp; Painting</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="40"/>
+      <c r="K5" s="12">
+        <v>4</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="36">
+        <v>2</v>
+      </c>
+      <c r="B6" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="40"/>
+      <c r="K6" s="12">
+        <v>5</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="36">
+        <v>8</v>
+      </c>
+      <c r="B7" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Advance</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="40"/>
+      <c r="K7" s="12">
+        <v>6</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="36">
+        <v>2</v>
+      </c>
+      <c r="B8" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="40"/>
+      <c r="K8" s="12">
+        <v>7</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="36">
+        <v>7</v>
+      </c>
+      <c r="B9" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Discount</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="40"/>
+      <c r="K9" s="12">
+        <v>8</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="36">
+        <v>5</v>
+      </c>
+      <c r="B10" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Carry</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="40"/>
+      <c r="K10" s="12">
+        <v>9</v>
+      </c>
+      <c r="L10" s="12"/>
+    </row>
+    <row r="11" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="36">
+        <v>2</v>
+      </c>
+      <c r="B11" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="40"/>
+      <c r="K11" s="12">
+        <v>10</v>
+      </c>
+      <c r="L11" s="12"/>
+    </row>
+    <row r="12" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="36">
+        <v>2</v>
+      </c>
+      <c r="B12" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="40"/>
+      <c r="K12" s="12">
+        <v>11</v>
+      </c>
+      <c r="L12" s="12"/>
+    </row>
+    <row r="13" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="36">
+        <v>1</v>
+      </c>
+      <c r="B13" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Expense</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="40"/>
+      <c r="K13" s="12">
+        <v>12</v>
+      </c>
+      <c r="L13" s="12"/>
+    </row>
+    <row r="14" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="36">
+        <v>2</v>
+      </c>
+      <c r="B14" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="40"/>
+      <c r="K14" s="12">
+        <v>13</v>
+      </c>
+      <c r="L14" s="12"/>
+    </row>
+    <row r="15" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="36">
+        <v>2</v>
+      </c>
+      <c r="B15" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="40"/>
+    </row>
+    <row r="16" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="36">
+        <v>1</v>
+      </c>
+      <c r="B16" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Expense</v>
+      </c>
+      <c r="C16" s="13"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="40"/>
+    </row>
+    <row r="17" spans="1:7" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="36">
+        <v>6</v>
+      </c>
+      <c r="B17" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Meal</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="40"/>
+    </row>
+    <row r="18" spans="1:7" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="36">
+        <v>4</v>
+      </c>
+      <c r="B18" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Wages</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="40"/>
+    </row>
+    <row r="19" spans="1:7" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="36">
+        <v>5</v>
+      </c>
+      <c r="B19" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Carry</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="40"/>
+    </row>
+    <row r="20" spans="1:7" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="36"/>
+      <c r="B20" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C20" s="13"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="40"/>
+    </row>
+    <row r="21" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E21" s="58"/>
+      <c r="F21" s="60"/>
+    </row>
+    <row r="22" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E22" s="58"/>
+      <c r="F22" s="61"/>
+    </row>
+    <row r="23" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E23" s="58"/>
+      <c r="F23" s="61"/>
+    </row>
+    <row r="24" spans="1:7" ht="23.25" x14ac:dyDescent="0.6">
+      <c r="E24" s="58"/>
+      <c r="F24" s="59"/>
+    </row>
+    <row r="25" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F25" s="53"/>
+    </row>
+    <row r="26" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E26" s="58"/>
+      <c r="F26" s="61"/>
+    </row>
+    <row r="27" spans="1:7" ht="23.25" x14ac:dyDescent="0.6">
+      <c r="E27" s="58"/>
+      <c r="F27" s="64"/>
+    </row>
+    <row r="28" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F28" s="50"/>
+    </row>
+    <row r="29" spans="1:7" ht="23.25" x14ac:dyDescent="0.6">
+      <c r="F29" s="70"/>
+    </row>
+    <row r="30" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F30" s="50"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -15364,6 +16200,427 @@
   <autoFilter ref="A1:D537"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="36.28515625" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="26" t="s">
+        <v>330</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>375</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>328</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="36">
+        <v>6</v>
+      </c>
+      <c r="B2" s="37" t="str">
+        <f t="shared" ref="B2:B20" si="0">IF(A2=1,myvar1,IF(A2=2,myvar2,IF(A2=3,myvar3,IF(A2=4,myvar4,IF(A2=5,myvar5,IF(A2=6,myvar6,IF(A2=7,myvar7,IF(A2=8,myvar8,IF(A2=9,myvar9,IF(A2=10,myvar10,IF(A2=11,myvar11,IF(A2=12,myvar12,IF(A2=13,myvar13,)))))))))))))</f>
+        <v>Meal</v>
+      </c>
+      <c r="C2" s="13"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="40"/>
+      <c r="K2" s="12">
+        <v>1</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="36">
+        <v>5</v>
+      </c>
+      <c r="B3" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Carry</v>
+      </c>
+      <c r="C3" s="13"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="40"/>
+      <c r="K3" s="12">
+        <v>2</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="36">
+        <v>1</v>
+      </c>
+      <c r="B4" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Expense</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="40"/>
+      <c r="K4" s="12">
+        <v>3</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="36">
+        <v>3</v>
+      </c>
+      <c r="B5" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Body &amp; Painting</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="40"/>
+      <c r="K5" s="12">
+        <v>4</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="36">
+        <v>2</v>
+      </c>
+      <c r="B6" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="40"/>
+      <c r="K6" s="12">
+        <v>5</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="36">
+        <v>8</v>
+      </c>
+      <c r="B7" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Advance</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="40"/>
+      <c r="K7" s="12">
+        <v>6</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="36">
+        <v>2</v>
+      </c>
+      <c r="B8" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="40"/>
+      <c r="K8" s="12">
+        <v>7</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="36">
+        <v>7</v>
+      </c>
+      <c r="B9" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Discount</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="40"/>
+      <c r="K9" s="12">
+        <v>8</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="36">
+        <v>5</v>
+      </c>
+      <c r="B10" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Carry</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="40"/>
+      <c r="K10" s="12">
+        <v>9</v>
+      </c>
+      <c r="L10" s="12"/>
+    </row>
+    <row r="11" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="36">
+        <v>2</v>
+      </c>
+      <c r="B11" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="40"/>
+      <c r="K11" s="12">
+        <v>10</v>
+      </c>
+      <c r="L11" s="12"/>
+    </row>
+    <row r="12" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="36">
+        <v>2</v>
+      </c>
+      <c r="B12" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="40"/>
+      <c r="K12" s="12">
+        <v>11</v>
+      </c>
+      <c r="L12" s="12"/>
+    </row>
+    <row r="13" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="36">
+        <v>1</v>
+      </c>
+      <c r="B13" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Expense</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="40"/>
+      <c r="K13" s="12">
+        <v>12</v>
+      </c>
+      <c r="L13" s="12"/>
+    </row>
+    <row r="14" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="36">
+        <v>2</v>
+      </c>
+      <c r="B14" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="40"/>
+      <c r="K14" s="12">
+        <v>13</v>
+      </c>
+      <c r="L14" s="12"/>
+    </row>
+    <row r="15" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="36">
+        <v>2</v>
+      </c>
+      <c r="B15" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="40"/>
+    </row>
+    <row r="16" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="36">
+        <v>1</v>
+      </c>
+      <c r="B16" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Expense</v>
+      </c>
+      <c r="C16" s="13"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="40"/>
+    </row>
+    <row r="17" spans="1:7" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="36">
+        <v>6</v>
+      </c>
+      <c r="B17" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Meal</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="40"/>
+    </row>
+    <row r="18" spans="1:7" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="36">
+        <v>4</v>
+      </c>
+      <c r="B18" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Wages</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="40"/>
+    </row>
+    <row r="19" spans="1:7" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="36">
+        <v>5</v>
+      </c>
+      <c r="B19" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Carry</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="40"/>
+    </row>
+    <row r="20" spans="1:7" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="36"/>
+      <c r="B20" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C20" s="13"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="40"/>
+    </row>
+    <row r="21" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E21" s="58"/>
+      <c r="F21" s="60"/>
+    </row>
+    <row r="22" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E22" s="58"/>
+      <c r="F22" s="61"/>
+    </row>
+    <row r="23" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E23" s="58"/>
+      <c r="F23" s="61"/>
+    </row>
+    <row r="24" spans="1:7" ht="23.25" x14ac:dyDescent="0.6">
+      <c r="E24" s="58"/>
+      <c r="F24" s="59"/>
+    </row>
+    <row r="25" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F25" s="53"/>
+    </row>
+    <row r="26" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E26" s="58"/>
+      <c r="F26" s="61"/>
+    </row>
+    <row r="27" spans="1:7" ht="23.25" x14ac:dyDescent="0.6">
+      <c r="E27" s="58"/>
+      <c r="F27" s="64"/>
+    </row>
+    <row r="28" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F28" s="50"/>
+    </row>
+    <row r="29" spans="1:7" ht="23.25" x14ac:dyDescent="0.6">
+      <c r="F29" s="70"/>
+    </row>
+    <row r="30" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F30" s="50"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/GB-3Expense (Autosaved).xlsx
+++ b/GB-3Expense (Autosaved).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830" firstSheet="11" activeTab="17"/>
+    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830" firstSheet="11" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Jun-2018" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2102" uniqueCount="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2138" uniqueCount="634">
   <si>
     <t>1.6.2018</t>
   </si>
@@ -1793,12 +1793,6 @@
     <t>Clutch Ball</t>
   </si>
   <si>
-    <t>9G-9951/</t>
-  </si>
-  <si>
-    <t>တိုက္ေရာ့/မိန္းလံုး</t>
-  </si>
-  <si>
     <t>2L-4623/Fuji</t>
   </si>
   <si>
@@ -1814,9 +1808,6 @@
     <t>W.90</t>
   </si>
   <si>
-    <t>Honda</t>
-  </si>
-  <si>
     <t>Sparko5*1700</t>
   </si>
   <si>
@@ -1914,6 +1905,57 @@
   </si>
   <si>
     <t>Ko Zin Ko ျကိုရွင္း(Wiring)</t>
+  </si>
+  <si>
+    <t>Coffee(Day&amp;Night)</t>
+  </si>
+  <si>
+    <t>အိမ္သာတံခါးျပင္</t>
+  </si>
+  <si>
+    <t>058/တင္ဒါေခ်ာ/131</t>
+  </si>
+  <si>
+    <t>ေဘာဒီပစၥည္း၀ယ္</t>
+  </si>
+  <si>
+    <t>ေသာ့</t>
+  </si>
+  <si>
+    <t>GB2 Ko Aung Htoo</t>
+  </si>
+  <si>
+    <t>ေက်ာက္ျပား</t>
+  </si>
+  <si>
+    <t>၀ရိန္ေခ်ာင္း</t>
+  </si>
+  <si>
+    <t>Butterfly ဂိုင္း</t>
+  </si>
+  <si>
+    <t>6G-5056/Suzuki</t>
+  </si>
+  <si>
+    <t>Brake Click</t>
+  </si>
+  <si>
+    <t>8B-9669/Townace</t>
+  </si>
+  <si>
+    <t>Sparko1</t>
+  </si>
+  <si>
+    <t>AA-8191/Probox</t>
+  </si>
+  <si>
+    <t>ေကာ္ျခင္း</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9G-9951/Canter </t>
+  </si>
+  <si>
+    <t>တိုက္ေရာ့/မိန္းလံုးPressနင္း</t>
   </si>
 </sst>
 </file>
@@ -2211,7 +2253,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2392,6 +2434,7 @@
     <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -6603,8 +6646,8 @@
   </sheetPr>
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6883,13 +6926,17 @@
         <v>578</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>579</v>
-      </c>
-      <c r="E11" s="19"/>
+        <v>632</v>
+      </c>
+      <c r="E11" s="14">
+        <v>16166</v>
+      </c>
       <c r="F11" s="22">
         <v>15000</v>
       </c>
-      <c r="G11" s="40"/>
+      <c r="G11" s="40">
+        <v>22000</v>
+      </c>
       <c r="K11" s="12">
         <v>10</v>
       </c>
@@ -6904,16 +6951,20 @@
         <v>Workshop</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>580</v>
+        <v>633</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>581</v>
-      </c>
-      <c r="E12" s="14"/>
+        <v>579</v>
+      </c>
+      <c r="E12" s="14">
+        <v>16154</v>
+      </c>
       <c r="F12" s="22">
         <v>34000</v>
       </c>
-      <c r="G12" s="40"/>
+      <c r="G12" s="40">
+        <v>49000</v>
+      </c>
       <c r="K12" s="12">
         <v>11</v>
       </c>
@@ -6928,16 +6979,20 @@
         <v>Workshop</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>583</v>
-      </c>
-      <c r="E13" s="14"/>
+        <v>581</v>
+      </c>
+      <c r="E13" s="14">
+        <v>16134</v>
+      </c>
       <c r="F13" s="22">
         <v>4000</v>
       </c>
-      <c r="G13" s="40"/>
+      <c r="G13" s="40">
+        <v>8000</v>
+      </c>
       <c r="K13" s="12">
         <v>12</v>
       </c>
@@ -6952,7 +7007,7 @@
         <v>Body &amp; Painting</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="D14" s="19"/>
       <c r="E14" s="14"/>
@@ -6974,16 +7029,18 @@
         <v>Body &amp; Painting</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>586</v>
+        <v>599</v>
       </c>
       <c r="E15" s="14"/>
       <c r="F15" s="22">
         <v>8000</v>
       </c>
-      <c r="G15" s="40"/>
+      <c r="G15" s="40">
+        <v>45000</v>
+      </c>
     </row>
     <row r="16" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="36">
@@ -6994,7 +7051,7 @@
         <v>Workshop</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="D16" s="19"/>
       <c r="E16" s="14"/>
@@ -7015,7 +7072,7 @@
         <v>261</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="E17" s="14"/>
       <c r="F17" s="22">
@@ -7032,7 +7089,7 @@
         <v>Advance</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="D18" s="16" t="s">
         <v>531</v>
@@ -7072,16 +7129,18 @@
         <v>Expense</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="E20" s="16"/>
       <c r="F20" s="22">
         <v>67000</v>
       </c>
-      <c r="G20" s="40"/>
+      <c r="G20" s="40">
+        <v>75000</v>
+      </c>
     </row>
     <row r="21" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="36">
@@ -7128,7 +7187,7 @@
         <v>Expense</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="D23" s="16"/>
       <c r="E23" s="16"/>
@@ -7164,7 +7223,7 @@
         <v>Advance</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="D25" s="16" t="s">
         <v>436</v>
@@ -7311,8 +7370,8 @@
   </sheetPr>
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7364,16 +7423,18 @@
         <v>Body &amp; Painting</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="E2" s="14"/>
       <c r="F2" s="22">
         <v>35000</v>
       </c>
-      <c r="G2" s="40"/>
+      <c r="G2" s="40">
+        <v>150000</v>
+      </c>
       <c r="K2" s="12">
         <v>1</v>
       </c>
@@ -7389,7 +7450,7 @@
         <v>333</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="D3" s="19"/>
       <c r="E3" s="14"/>
@@ -7412,7 +7473,7 @@
         <v>333</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="D4" s="19"/>
       <c r="E4" s="14"/>
@@ -7436,7 +7497,7 @@
         <v>Expense</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="D5" s="19"/>
       <c r="E5" s="14"/>
@@ -7460,7 +7521,7 @@
         <v>Workshop</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="D6" s="19"/>
       <c r="E6" s="14"/>
@@ -7602,10 +7663,10 @@
         <v>Workshop</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="E12" s="16"/>
       <c r="F12" s="22">
@@ -7626,7 +7687,7 @@
         <v>Workshop</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D13" s="19"/>
       <c r="E13" s="19"/>
@@ -7651,7 +7712,7 @@
         <v>57</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="E14" s="14"/>
       <c r="F14" s="22">
@@ -7672,7 +7733,7 @@
         <v>Workshop</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="D15" s="19"/>
       <c r="E15" s="14"/>
@@ -7694,7 +7755,7 @@
         <v>Expense</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="D16" s="19" t="s">
         <v>201</v>
@@ -7837,8 +7898,8 @@
   </sheetPr>
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7890,7 +7951,7 @@
         <v>Meal</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="D2" s="19"/>
       <c r="E2" s="14"/>
@@ -7940,7 +8001,7 @@
         <v>Expense</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="D4" s="19"/>
       <c r="E4" s="14"/>
@@ -7964,7 +8025,7 @@
         <v>Body &amp; Painting</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="D5" s="19"/>
       <c r="E5" s="14"/>
@@ -8012,7 +8073,7 @@
         <v>Advance</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="D7" s="19"/>
       <c r="E7" s="19"/>
@@ -8036,7 +8097,7 @@
         <v>Workshop</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="D8" s="19"/>
       <c r="E8" s="14"/>
@@ -8063,7 +8124,7 @@
         <v>57</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="E9" s="19"/>
       <c r="F9" s="22">
@@ -8086,7 +8147,7 @@
         <v>Carry</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
@@ -8108,7 +8169,7 @@
         <v>Workshop</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="D11" s="19"/>
       <c r="E11" s="19"/>
@@ -8133,13 +8194,17 @@
         <v>385</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>613</v>
-      </c>
-      <c r="E12" s="14"/>
+        <v>610</v>
+      </c>
+      <c r="E12" s="14">
+        <v>16181</v>
+      </c>
       <c r="F12" s="22">
         <v>12000</v>
       </c>
-      <c r="G12" s="40"/>
+      <c r="G12" s="40">
+        <v>15000</v>
+      </c>
       <c r="K12" s="12">
         <v>11</v>
       </c>
@@ -8154,7 +8219,7 @@
         <v>Expense</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="D13" s="19"/>
       <c r="E13" s="14"/>
@@ -8176,16 +8241,18 @@
         <v>Workshop</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="E14" s="14"/>
       <c r="F14" s="22">
         <v>14000</v>
       </c>
-      <c r="G14" s="40"/>
+      <c r="G14" s="40">
+        <v>16000</v>
+      </c>
       <c r="K14" s="12">
         <v>13</v>
       </c>
@@ -8200,16 +8267,20 @@
         <v>Workshop</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>616</v>
-      </c>
-      <c r="E15" s="14"/>
+        <v>613</v>
+      </c>
+      <c r="E15" s="14">
+        <v>16183</v>
+      </c>
       <c r="F15" s="22">
         <v>32000</v>
       </c>
-      <c r="G15" s="40"/>
+      <c r="G15" s="40">
+        <v>38000</v>
+      </c>
     </row>
     <row r="16" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="36">
@@ -8220,7 +8291,7 @@
         <v>Expense</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="D16" s="19"/>
       <c r="E16" s="14"/>
@@ -8378,10 +8449,10 @@
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8429,13 +8500,17 @@
         <v>6</v>
       </c>
       <c r="B2" s="37" t="str">
-        <f t="shared" ref="B2:B20" si="0">IF(A2=1,myvar1,IF(A2=2,myvar2,IF(A2=3,myvar3,IF(A2=4,myvar4,IF(A2=5,myvar5,IF(A2=6,myvar6,IF(A2=7,myvar7,IF(A2=8,myvar8,IF(A2=9,myvar9,IF(A2=10,myvar10,IF(A2=11,myvar11,IF(A2=12,myvar12,IF(A2=13,myvar13,)))))))))))))</f>
+        <f t="shared" ref="B2:B23" si="0">IF(A2=1,myvar1,IF(A2=2,myvar2,IF(A2=3,myvar3,IF(A2=4,myvar4,IF(A2=5,myvar5,IF(A2=6,myvar6,IF(A2=7,myvar7,IF(A2=8,myvar8,IF(A2=9,myvar9,IF(A2=10,myvar10,IF(A2=11,myvar11,IF(A2=12,myvar12,IF(A2=13,myvar13,)))))))))))))</f>
         <v>Meal</v>
       </c>
-      <c r="C2" s="13"/>
+      <c r="C2" s="13" t="s">
+        <v>617</v>
+      </c>
       <c r="D2" s="19"/>
       <c r="E2" s="14"/>
-      <c r="F2" s="22"/>
+      <c r="F2" s="23">
+        <v>6000</v>
+      </c>
       <c r="G2" s="40"/>
       <c r="K2" s="12">
         <v>1</v>
@@ -8446,16 +8521,20 @@
     </row>
     <row r="3" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="36">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B3" s="37" t="str">
         <f t="shared" si="0"/>
-        <v>Carry</v>
-      </c>
-      <c r="C3" s="13"/>
+        <v>Expense</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>618</v>
+      </c>
       <c r="D3" s="19"/>
       <c r="E3" s="14"/>
-      <c r="F3" s="22"/>
+      <c r="F3" s="23">
+        <v>1000</v>
+      </c>
       <c r="G3" s="40"/>
       <c r="K3" s="12">
         <v>2</v>
@@ -8466,17 +8545,25 @@
     </row>
     <row r="4" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" s="37" t="str">
         <f t="shared" si="0"/>
-        <v>Expense</v>
-      </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="19"/>
+        <v>Body &amp; Painting</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>619</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>271</v>
+      </c>
       <c r="E4" s="14"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="40"/>
+      <c r="F4" s="23">
+        <v>13500</v>
+      </c>
+      <c r="G4" s="40">
+        <v>30000</v>
+      </c>
       <c r="K4" s="12">
         <v>3</v>
       </c>
@@ -8492,10 +8579,14 @@
         <f t="shared" si="0"/>
         <v>Body &amp; Painting</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>620</v>
+      </c>
       <c r="D5" s="19"/>
       <c r="E5" s="14"/>
-      <c r="F5" s="22"/>
+      <c r="F5" s="23">
+        <v>21500</v>
+      </c>
       <c r="G5" s="40"/>
       <c r="K5" s="12">
         <v>4</v>
@@ -8506,16 +8597,20 @@
     </row>
     <row r="6" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6" s="37" t="str">
         <f t="shared" si="0"/>
-        <v>Workshop</v>
-      </c>
-      <c r="C6" s="13"/>
+        <v>Body &amp; Painting</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>621</v>
+      </c>
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
-      <c r="F6" s="22"/>
+      <c r="F6" s="22">
+        <v>2200</v>
+      </c>
       <c r="G6" s="40"/>
       <c r="K6" s="12">
         <v>5</v>
@@ -8526,16 +8621,20 @@
     </row>
     <row r="7" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="36">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B7" s="37" t="str">
         <f t="shared" si="0"/>
-        <v>Advance</v>
-      </c>
-      <c r="C7" s="13"/>
+        <v>Carry</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>622</v>
+      </c>
       <c r="D7" s="19"/>
       <c r="E7" s="19"/>
-      <c r="F7" s="22"/>
+      <c r="F7" s="22">
+        <v>1000</v>
+      </c>
       <c r="G7" s="40"/>
       <c r="K7" s="12">
         <v>6</v>
@@ -8552,10 +8651,14 @@
         <f t="shared" si="0"/>
         <v>Workshop</v>
       </c>
-      <c r="C8" s="13"/>
+      <c r="C8" s="13" t="s">
+        <v>572</v>
+      </c>
       <c r="D8" s="19"/>
       <c r="E8" s="14"/>
-      <c r="F8" s="22"/>
+      <c r="F8" s="22">
+        <v>5000</v>
+      </c>
       <c r="G8" s="40"/>
       <c r="K8" s="12">
         <v>7</v>
@@ -8566,16 +8669,20 @@
     </row>
     <row r="9" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="36">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B9" s="37" t="str">
         <f t="shared" si="0"/>
-        <v>Discount</v>
-      </c>
-      <c r="C9" s="13"/>
+        <v>Expense</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>455</v>
+      </c>
       <c r="D9" s="19"/>
       <c r="E9" s="19"/>
-      <c r="F9" s="22"/>
+      <c r="F9" s="22">
+        <v>1600</v>
+      </c>
       <c r="G9" s="40"/>
       <c r="K9" s="12">
         <v>8</v>
@@ -8592,10 +8699,14 @@
         <f t="shared" si="0"/>
         <v>Carry</v>
       </c>
-      <c r="C10" s="13"/>
+      <c r="C10" s="13" t="s">
+        <v>358</v>
+      </c>
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
-      <c r="F10" s="22"/>
+      <c r="F10" s="22">
+        <v>10000</v>
+      </c>
       <c r="G10" s="40"/>
       <c r="K10" s="12">
         <v>9</v>
@@ -8610,10 +8721,16 @@
         <f t="shared" si="0"/>
         <v>Workshop</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="19"/>
+      <c r="C11" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>320</v>
+      </c>
       <c r="E11" s="19"/>
-      <c r="F11" s="22"/>
+      <c r="F11" s="22">
+        <v>5000</v>
+      </c>
       <c r="G11" s="40"/>
       <c r="K11" s="12">
         <v>10</v>
@@ -8622,16 +8739,20 @@
     </row>
     <row r="12" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B12" s="37" t="str">
         <f t="shared" si="0"/>
-        <v>Workshop</v>
-      </c>
-      <c r="C12" s="13"/>
+        <v>Body &amp; Painting</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>623</v>
+      </c>
       <c r="D12" s="19"/>
       <c r="E12" s="14"/>
-      <c r="F12" s="22"/>
+      <c r="F12" s="22">
+        <v>1800</v>
+      </c>
       <c r="G12" s="40"/>
       <c r="K12" s="12">
         <v>11</v>
@@ -8640,16 +8761,20 @@
     </row>
     <row r="13" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B13" s="37" t="str">
         <f t="shared" si="0"/>
-        <v>Expense</v>
-      </c>
-      <c r="C13" s="13"/>
+        <v>Body &amp; Painting</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>624</v>
+      </c>
       <c r="D13" s="19"/>
       <c r="E13" s="14"/>
-      <c r="F13" s="22"/>
+      <c r="F13" s="22">
+        <v>3600</v>
+      </c>
       <c r="G13" s="40"/>
       <c r="K13" s="12">
         <v>12</v>
@@ -8664,11 +8789,21 @@
         <f t="shared" si="0"/>
         <v>Workshop</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="40"/>
+      <c r="C14" s="13" t="s">
+        <v>625</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>626</v>
+      </c>
+      <c r="E14" s="14">
+        <v>16194</v>
+      </c>
+      <c r="F14" s="22">
+        <v>15000</v>
+      </c>
+      <c r="G14" s="40">
+        <v>19000</v>
+      </c>
       <c r="K14" s="12">
         <v>13</v>
       </c>
@@ -8682,118 +8817,242 @@
         <f t="shared" si="0"/>
         <v>Workshop</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="40"/>
+      <c r="C15" s="13" t="s">
+        <v>627</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>628</v>
+      </c>
+      <c r="E15" s="14">
+        <v>16193</v>
+      </c>
+      <c r="F15" s="22">
+        <v>7500</v>
+      </c>
+      <c r="G15" s="40">
+        <v>10000</v>
+      </c>
     </row>
     <row r="16" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B16" s="37" t="str">
         <f t="shared" si="0"/>
-        <v>Expense</v>
-      </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="19"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>246</v>
+      </c>
       <c r="E16" s="14"/>
-      <c r="F16" s="22"/>
+      <c r="F16" s="22">
+        <v>7000</v>
+      </c>
       <c r="G16" s="40"/>
     </row>
     <row r="17" spans="1:7" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="36">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B17" s="37" t="str">
         <f t="shared" si="0"/>
-        <v>Meal</v>
-      </c>
-      <c r="C17" s="13"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>629</v>
+      </c>
       <c r="D17" s="19"/>
       <c r="E17" s="14"/>
-      <c r="F17" s="22"/>
+      <c r="F17" s="22">
+        <v>1700</v>
+      </c>
       <c r="G17" s="40"/>
     </row>
     <row r="18" spans="1:7" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="36">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B18" s="37" t="str">
         <f t="shared" si="0"/>
-        <v>Wages</v>
-      </c>
-      <c r="C18" s="13"/>
+        <v>Expense</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>206</v>
+      </c>
       <c r="D18" s="19"/>
       <c r="E18" s="14"/>
-      <c r="F18" s="22"/>
+      <c r="F18" s="22">
+        <v>50000</v>
+      </c>
       <c r="G18" s="40"/>
     </row>
     <row r="19" spans="1:7" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="36">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B19" s="37" t="str">
         <f t="shared" si="0"/>
-        <v>Carry</v>
-      </c>
-      <c r="C19" s="13"/>
+        <v>Meal</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>387</v>
+      </c>
       <c r="D19" s="19"/>
       <c r="E19" s="14"/>
-      <c r="F19" s="22"/>
+      <c r="F19" s="22">
+        <v>27000</v>
+      </c>
       <c r="G19" s="40"/>
     </row>
     <row r="20" spans="1:7" ht="21.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="36"/>
-      <c r="B20" s="37">
+      <c r="A20" s="36">
+        <v>4</v>
+      </c>
+      <c r="B20" s="37" t="s">
+        <v>334</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>479</v>
+      </c>
+      <c r="D20" s="19"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="22">
+        <v>33000</v>
+      </c>
+      <c r="G20" s="40"/>
+    </row>
+    <row r="21" spans="1:7" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="36">
+        <v>2</v>
+      </c>
+      <c r="B21" s="37" t="s">
+        <v>337</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>630</v>
+      </c>
+      <c r="E21" s="14">
+        <v>16198</v>
+      </c>
+      <c r="F21" s="22">
+        <v>3000</v>
+      </c>
+      <c r="G21" s="40">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="36">
+        <v>1</v>
+      </c>
+      <c r="B22" s="37" t="s">
+        <v>332</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>631</v>
+      </c>
+      <c r="D22" s="19"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="22">
+        <v>3000</v>
+      </c>
+      <c r="G22" s="40"/>
+    </row>
+    <row r="23" spans="1:7" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="36">
+        <v>5</v>
+      </c>
+      <c r="B23" s="37" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="40"/>
-    </row>
-    <row r="21" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E21" s="58"/>
-      <c r="F21" s="60"/>
-    </row>
-    <row r="22" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E22" s="58"/>
-      <c r="F22" s="61"/>
-    </row>
-    <row r="23" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E23" s="58"/>
-      <c r="F23" s="61"/>
-    </row>
-    <row r="24" spans="1:7" ht="23.25" x14ac:dyDescent="0.6">
-      <c r="E24" s="58"/>
-      <c r="F24" s="59"/>
-    </row>
-    <row r="25" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="F25" s="53"/>
+        <v>Carry</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>405</v>
+      </c>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="22">
+        <v>4000</v>
+      </c>
+      <c r="G23" s="40"/>
+    </row>
+    <row r="24" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E24" s="58" t="s">
+        <v>332</v>
+      </c>
+      <c r="F24" s="60">
+        <f>SUM(F2:F23)</f>
+        <v>223400</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="E25" s="58" t="s">
+        <v>372</v>
+      </c>
+      <c r="F25" s="56">
+        <v>45100</v>
+      </c>
     </row>
     <row r="26" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="E26" s="58"/>
-      <c r="F26" s="61"/>
-    </row>
-    <row r="27" spans="1:7" ht="23.25" x14ac:dyDescent="0.6">
-      <c r="E27" s="58"/>
-      <c r="F27" s="64"/>
-    </row>
-    <row r="28" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="F28" s="50"/>
-    </row>
-    <row r="29" spans="1:7" ht="23.25" x14ac:dyDescent="0.6">
-      <c r="F29" s="70"/>
-    </row>
-    <row r="30" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="F30" s="50"/>
+      <c r="F26" s="77">
+        <f>SUM(F24:F25)</f>
+        <v>268500</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E27" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="F27" s="76">
+        <v>413000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="E28" s="66" t="s">
+        <v>374</v>
+      </c>
+      <c r="F28" s="78">
+        <v>175500</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E29" s="58"/>
+      <c r="F29" s="61">
+        <f>SUM(F27:F28)</f>
+        <v>588500</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="23.25" x14ac:dyDescent="0.6">
+      <c r="E30" s="58"/>
+      <c r="F30" s="82">
+        <v>268500</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E31" s="58" t="s">
+        <v>468</v>
+      </c>
+      <c r="F31" s="50">
+        <f>F29-F30</f>
+        <v>320000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="23.25" x14ac:dyDescent="0.6">
+      <c r="F32" s="70"/>
+    </row>
+    <row r="33" spans="6:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F33" s="50"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/GB-3Expense (Autosaved).xlsx
+++ b/GB-3Expense (Autosaved).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830" firstSheet="11" activeTab="14"/>
+    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830" firstSheet="12" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="Jun-2018" sheetId="1" r:id="rId1"/>
@@ -27,9 +27,12 @@
     <sheet name="16.8.2018" sheetId="18" r:id="rId18"/>
     <sheet name="17.8.2018" sheetId="19" r:id="rId19"/>
     <sheet name="Sheet1" sheetId="20" r:id="rId20"/>
+    <sheet name="Sheet2" sheetId="21" r:id="rId21"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'1.8.2018'!$A$1:$G$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'10.8.2018'!$A$1:$G$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'11.8.2018'!$A$1:$G$28</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'2.8.2018'!$A$1:$G$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'3.8.2018'!$A$1:$G$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'4.8.2018'!$A$1:$G$1</definedName>
@@ -4911,8 +4914,8 @@
   </sheetPr>
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5202,11 +5205,11 @@
     </row>
     <row r="15" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B15" s="37" t="str">
         <f t="shared" si="1"/>
-        <v>Expense</v>
+        <v>Workshop</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>517</v>
@@ -5501,6 +5504,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G36"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5513,7 +5517,7 @@
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6034,6 +6038,7 @@
     <row r="31" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="32" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <autoFilter ref="A1:G28"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -6047,7 +6052,7 @@
   <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6646,8 +6651,8 @@
   </sheetPr>
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7370,7 +7375,7 @@
   </sheetPr>
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -9063,7 +9068,7 @@
   </sheetPr>
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
@@ -16879,6 +16884,18 @@
       <c r="F30" s="50"/>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/GB-3Expense (Autosaved).xlsx
+++ b/GB-3Expense (Autosaved).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830" firstSheet="12" activeTab="18"/>
+    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830" firstSheet="14" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="Jun-2018" sheetId="1" r:id="rId1"/>
@@ -26,8 +26,10 @@
     <sheet name="15.8.2018" sheetId="17" r:id="rId17"/>
     <sheet name="16.8.2018" sheetId="18" r:id="rId18"/>
     <sheet name="17.8.2018" sheetId="19" r:id="rId19"/>
-    <sheet name="Sheet1" sheetId="20" r:id="rId20"/>
-    <sheet name="Sheet2" sheetId="21" r:id="rId21"/>
+    <sheet name="18.8.2018" sheetId="20" r:id="rId20"/>
+    <sheet name="19.8.2018" sheetId="21" r:id="rId21"/>
+    <sheet name="Sheet1" sheetId="22" r:id="rId22"/>
+    <sheet name="Sheet2" sheetId="23" r:id="rId23"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'1.8.2018'!$A$1:$G$31</definedName>
@@ -57,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2138" uniqueCount="634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2292" uniqueCount="696">
   <si>
     <t>1.6.2018</t>
   </si>
@@ -1959,6 +1961,192 @@
   </si>
   <si>
     <t>တိုက္ေရာ့/မိန္းလံုးPressနင္း</t>
+  </si>
+  <si>
+    <t>မီးစက္အတြက္ေဆးစပ္</t>
+  </si>
+  <si>
+    <t>Kyawthiha လိုင္စင္</t>
+  </si>
+  <si>
+    <t>Battery အိုးအားသြင္း/Carry</t>
+  </si>
+  <si>
+    <t>Coffee Day&amp;Night</t>
+  </si>
+  <si>
+    <t>GB2 Ko Aung Htoo Carry</t>
+  </si>
+  <si>
+    <t>Ye'Myat Thwin Carry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BYN Carry </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyaw Kyaw  Carry </t>
+  </si>
+  <si>
+    <t>Sparko 6</t>
+  </si>
+  <si>
+    <t>AB ေကာ္</t>
+  </si>
+  <si>
+    <t>ပိုက္/စလင္း/ေဆးထိုးအပ္</t>
+  </si>
+  <si>
+    <t>ေရွာ့ဘား</t>
+  </si>
+  <si>
+    <t>5I-7820/Suzuki</t>
+  </si>
+  <si>
+    <t>9B-3621/Canter</t>
+  </si>
+  <si>
+    <t>အရစ္ေဖာ္</t>
+  </si>
+  <si>
+    <t>5L-4183/Canter</t>
+  </si>
+  <si>
+    <t>ေျကးေခ်ာင္း/နက္တိုင္</t>
+  </si>
+  <si>
+    <t>တံခါးဂ်က္(စိန္ဂတံုး)</t>
+  </si>
+  <si>
+    <t>8F-8967/</t>
+  </si>
+  <si>
+    <t>ျကမ္းတိုက္၀တ္/ဆပ္ျပာ</t>
+  </si>
+  <si>
+    <t>Tun Tun Aung (စက္ဘီးတာယာလဲ)</t>
+  </si>
+  <si>
+    <t>ဘြတ္အသစ္ခုတ္</t>
+  </si>
+  <si>
+    <t>အလွဴေငြ(နာေရး)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Air Filter </t>
+  </si>
+  <si>
+    <t>Water Pipe</t>
+  </si>
+  <si>
+    <t>17*1500</t>
+  </si>
+  <si>
+    <t>ေဘာအထိုင္</t>
+  </si>
+  <si>
+    <t>Coffee Day@Night</t>
+  </si>
+  <si>
+    <t>နက္</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oil Filter </t>
+  </si>
+  <si>
+    <t>4P-1721/Starex</t>
+  </si>
+  <si>
+    <t>ေရသန့္5</t>
+  </si>
+  <si>
+    <t>Ko Myo Mg (ေဆးခန္းျပ)</t>
+  </si>
+  <si>
+    <t>GB2 U Nyi (SERVICE)</t>
+  </si>
+  <si>
+    <t>4F-6371/Fuji Car</t>
+  </si>
+  <si>
+    <t>Tissue&amp;Paper Cup</t>
+  </si>
+  <si>
+    <t>နက္/၀ါရွာ</t>
+  </si>
+  <si>
+    <t>GB1 Polish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ko Myo Mg </t>
+  </si>
+  <si>
+    <t>J-ငု၀ါ/8200လိုက္ကာ</t>
+  </si>
+  <si>
+    <t>8G-3619/Dyna</t>
+  </si>
+  <si>
+    <t>Putty Fiber</t>
+  </si>
+  <si>
+    <t>GB3</t>
+  </si>
+  <si>
+    <t>Disel 15W40 1Li (Office)4500*5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Credit </t>
+  </si>
+  <si>
+    <t>Toilet(ေဆးရည္နွင့္ပစၥည္း)</t>
+  </si>
+  <si>
+    <t>ေဆးစပ္</t>
+  </si>
+  <si>
+    <t>Mark 2</t>
+  </si>
+  <si>
+    <t>Putty/131</t>
+  </si>
+  <si>
+    <t>Battery ေထာက္နိုး/အားသြင္း</t>
+  </si>
+  <si>
+    <t>ကလပ္ပလိပ္လိုင္နာလဲ</t>
+  </si>
+  <si>
+    <t>Heat plug</t>
+  </si>
+  <si>
+    <t>Tierod</t>
+  </si>
+  <si>
+    <t>4G-3427/</t>
+  </si>
+  <si>
+    <t>10နက္တိုင္</t>
+  </si>
+  <si>
+    <t>အ၀တ္စ</t>
+  </si>
+  <si>
+    <t>သေျပပန္း/တေရာ္ကင္ပြန္း/ေဆးထိုးပိုက္</t>
+  </si>
+  <si>
+    <t>ေလ်ာ့ေပးေငြ/ေရေဆး</t>
+  </si>
+  <si>
+    <t>Ko Nyi Nyi</t>
+  </si>
+  <si>
+    <t>EE-8223/Fielder</t>
+  </si>
+  <si>
+    <t>Kyaw Thiha</t>
+  </si>
+  <si>
+    <t>15*1500</t>
   </si>
 </sst>
 </file>
@@ -1969,7 +2157,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2189,6 +2377,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2252,11 +2455,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2438,9 +2642,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -8456,8 +8669,8 @@
   </sheetPr>
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9066,13 +9279,13 @@
   <sheetPr>
     <tabColor theme="6" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.28515625" customWidth="1"/>
     <col min="2" max="2" width="20.42578125" customWidth="1"/>
@@ -9083,7 +9296,7 @@
     <col min="7" max="7" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="26" t="s">
         <v>330</v>
       </c>
@@ -9112,18 +9325,22 @@
         <v>331</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="36">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B2" s="37" t="str">
-        <f t="shared" ref="B2:B20" si="0">IF(A2=1,myvar1,IF(A2=2,myvar2,IF(A2=3,myvar3,IF(A2=4,myvar4,IF(A2=5,myvar5,IF(A2=6,myvar6,IF(A2=7,myvar7,IF(A2=8,myvar8,IF(A2=9,myvar9,IF(A2=10,myvar10,IF(A2=11,myvar11,IF(A2=12,myvar12,IF(A2=13,myvar13,)))))))))))))</f>
-        <v>Meal</v>
-      </c>
-      <c r="C2" s="13"/>
+        <f t="shared" ref="B2:B21" si="0">IF(A2=1,myvar1,IF(A2=2,myvar2,IF(A2=3,myvar3,IF(A2=4,myvar4,IF(A2=5,myvar5,IF(A2=6,myvar6,IF(A2=7,myvar7,IF(A2=8,myvar8,IF(A2=9,myvar9,IF(A2=10,myvar10,IF(A2=11,myvar11,IF(A2=12,myvar12,IF(A2=13,myvar13,)))))))))))))</f>
+        <v>Expense</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>634</v>
+      </c>
       <c r="D2" s="19"/>
       <c r="E2" s="14"/>
-      <c r="F2" s="22"/>
+      <c r="F2" s="22">
+        <v>58100</v>
+      </c>
       <c r="G2" s="40"/>
       <c r="K2" s="12">
         <v>1</v>
@@ -9132,18 +9349,22 @@
         <v>332</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="36">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B3" s="37" t="str">
         <f t="shared" si="0"/>
-        <v>Carry</v>
-      </c>
-      <c r="C3" s="13"/>
+        <v>Advance</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>635</v>
+      </c>
       <c r="D3" s="19"/>
       <c r="E3" s="14"/>
-      <c r="F3" s="22"/>
+      <c r="F3" s="22">
+        <v>25000</v>
+      </c>
       <c r="G3" s="40"/>
       <c r="K3" s="12">
         <v>2</v>
@@ -9152,18 +9373,22 @@
         <v>337</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" s="37" t="str">
         <f t="shared" si="0"/>
-        <v>Expense</v>
-      </c>
-      <c r="C4" s="13"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>636</v>
+      </c>
       <c r="D4" s="19"/>
       <c r="E4" s="14"/>
-      <c r="F4" s="22"/>
+      <c r="F4" s="22">
+        <v>4000</v>
+      </c>
       <c r="G4" s="40"/>
       <c r="K4" s="12">
         <v>3</v>
@@ -9172,18 +9397,22 @@
         <v>333</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5" s="37" t="str">
         <f t="shared" si="0"/>
-        <v>Body &amp; Painting</v>
-      </c>
-      <c r="C5" s="13"/>
+        <v>Expense</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>637</v>
+      </c>
       <c r="D5" s="19"/>
       <c r="E5" s="14"/>
-      <c r="F5" s="22"/>
+      <c r="F5" s="22">
+        <v>5000</v>
+      </c>
       <c r="G5" s="40"/>
       <c r="K5" s="12">
         <v>4</v>
@@ -9192,18 +9421,22 @@
         <v>334</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="36">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B6" s="37" t="str">
         <f t="shared" si="0"/>
-        <v>Workshop</v>
-      </c>
-      <c r="C6" s="13"/>
+        <v>Carry</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>638</v>
+      </c>
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
-      <c r="F6" s="22"/>
+      <c r="F6" s="22">
+        <v>1000</v>
+      </c>
       <c r="G6" s="40"/>
       <c r="K6" s="12">
         <v>5</v>
@@ -9212,18 +9445,22 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="36">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B7" s="37" t="str">
         <f t="shared" si="0"/>
-        <v>Advance</v>
-      </c>
-      <c r="C7" s="13"/>
+        <v>Carry</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>639</v>
+      </c>
       <c r="D7" s="19"/>
       <c r="E7" s="19"/>
-      <c r="F7" s="22"/>
+      <c r="F7" s="22">
+        <v>1500</v>
+      </c>
       <c r="G7" s="40"/>
       <c r="K7" s="12">
         <v>6</v>
@@ -9232,18 +9469,22 @@
         <v>335</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="36">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B8" s="37" t="str">
         <f t="shared" si="0"/>
-        <v>Workshop</v>
-      </c>
-      <c r="C8" s="13"/>
+        <v>Carry</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>641</v>
+      </c>
       <c r="D8" s="19"/>
       <c r="E8" s="14"/>
-      <c r="F8" s="22"/>
+      <c r="F8" s="22">
+        <v>3000</v>
+      </c>
       <c r="G8" s="40"/>
       <c r="K8" s="12">
         <v>7</v>
@@ -9252,18 +9493,22 @@
         <v>336</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="36">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B9" s="37" t="str">
         <f t="shared" si="0"/>
-        <v>Discount</v>
-      </c>
-      <c r="C9" s="13"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>302</v>
+      </c>
       <c r="D9" s="19"/>
       <c r="E9" s="19"/>
-      <c r="F9" s="22"/>
+      <c r="F9" s="22">
+        <v>4000</v>
+      </c>
       <c r="G9" s="40"/>
       <c r="K9" s="12">
         <v>8</v>
@@ -9272,25 +9517,29 @@
         <v>491</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="36">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B10" s="37" t="str">
         <f t="shared" si="0"/>
-        <v>Carry</v>
-      </c>
-      <c r="C10" s="13"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>642</v>
+      </c>
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
-      <c r="F10" s="22"/>
+      <c r="F10" s="22">
+        <v>10200</v>
+      </c>
       <c r="G10" s="40"/>
       <c r="K10" s="12">
         <v>9</v>
       </c>
       <c r="L10" s="12"/>
     </row>
-    <row r="11" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="36">
         <v>2</v>
       </c>
@@ -9298,35 +9547,43 @@
         <f t="shared" si="0"/>
         <v>Workshop</v>
       </c>
-      <c r="C11" s="13"/>
+      <c r="C11" s="13" t="s">
+        <v>643</v>
+      </c>
       <c r="D11" s="19"/>
       <c r="E11" s="19"/>
-      <c r="F11" s="22"/>
+      <c r="F11" s="22">
+        <v>2000</v>
+      </c>
       <c r="G11" s="40"/>
       <c r="K11" s="12">
         <v>10</v>
       </c>
       <c r="L11" s="12"/>
     </row>
-    <row r="12" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="36">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B12" s="37" t="str">
         <f t="shared" si="0"/>
-        <v>Workshop</v>
-      </c>
-      <c r="C12" s="13"/>
+        <v>Carry</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>358</v>
+      </c>
       <c r="D12" s="19"/>
       <c r="E12" s="14"/>
-      <c r="F12" s="22"/>
+      <c r="F12" s="22">
+        <v>9000</v>
+      </c>
       <c r="G12" s="40"/>
       <c r="K12" s="12">
         <v>11</v>
       </c>
       <c r="L12" s="12"/>
     </row>
-    <row r="13" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="36">
         <v>1</v>
       </c>
@@ -9334,17 +9591,21 @@
         <f t="shared" si="0"/>
         <v>Expense</v>
       </c>
-      <c r="C13" s="13"/>
+      <c r="C13" s="13" t="s">
+        <v>644</v>
+      </c>
       <c r="D13" s="19"/>
       <c r="E13" s="14"/>
-      <c r="F13" s="22"/>
+      <c r="F13" s="22">
+        <v>1000</v>
+      </c>
       <c r="G13" s="40"/>
       <c r="K13" s="12">
         <v>12</v>
       </c>
       <c r="L13" s="12"/>
     </row>
-    <row r="14" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="36">
         <v>2</v>
       </c>
@@ -9352,17 +9613,25 @@
         <f t="shared" si="0"/>
         <v>Workshop</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="19"/>
+      <c r="C14" s="13" t="s">
+        <v>645</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>646</v>
+      </c>
       <c r="E14" s="14"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="40"/>
+      <c r="F14" s="22">
+        <v>58000</v>
+      </c>
+      <c r="G14" s="40">
+        <v>64000</v>
+      </c>
       <c r="K14" s="12">
         <v>13</v>
       </c>
       <c r="L14" s="12"/>
     </row>
-    <row r="15" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="36">
         <v>2</v>
       </c>
@@ -9370,55 +9639,86 @@
         <f t="shared" si="0"/>
         <v>Workshop</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="19"/>
+      <c r="C15" s="13" t="s">
+        <v>461</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>646</v>
+      </c>
       <c r="E15" s="14"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="40"/>
-    </row>
-    <row r="16" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="F15" s="22">
+        <v>22000</v>
+      </c>
+      <c r="G15" s="40">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B16" s="37" t="str">
         <f t="shared" si="0"/>
-        <v>Expense</v>
-      </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="19"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>536</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>646</v>
+      </c>
       <c r="E16" s="14"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="40"/>
-    </row>
-    <row r="17" spans="1:7" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="F16" s="22">
+        <v>26000</v>
+      </c>
+      <c r="G16" s="40">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="36">
-        <v>6</v>
-      </c>
-      <c r="B17" s="37" t="str">
-        <f t="shared" si="0"/>
-        <v>Meal</v>
-      </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="19"/>
+        <v>2</v>
+      </c>
+      <c r="B17" s="37" t="s">
+        <v>337</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>660</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>646</v>
+      </c>
       <c r="E17" s="14"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="40"/>
-    </row>
-    <row r="18" spans="1:7" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="F17" s="22">
+        <v>26000</v>
+      </c>
+      <c r="G17" s="40">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="36">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B18" s="37" t="str">
         <f t="shared" si="0"/>
-        <v>Wages</v>
-      </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="19"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>461</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>647</v>
+      </c>
       <c r="E18" s="14"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="40"/>
-    </row>
-    <row r="19" spans="1:7" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="F18" s="22">
+        <v>30000</v>
+      </c>
+      <c r="G18" s="40">
+        <v>34000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="36">
         <v>5</v>
       </c>
@@ -9426,62 +9726,310 @@
         <f t="shared" si="0"/>
         <v>Carry</v>
       </c>
-      <c r="C19" s="13"/>
+      <c r="C19" s="13" t="s">
+        <v>405</v>
+      </c>
       <c r="D19" s="19"/>
       <c r="E19" s="14"/>
-      <c r="F19" s="22"/>
+      <c r="F19" s="22">
+        <v>11000</v>
+      </c>
       <c r="G19" s="40"/>
     </row>
-    <row r="20" spans="1:7" ht="21.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="36"/>
-      <c r="B20" s="37">
+    <row r="20" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="36">
+        <v>2</v>
+      </c>
+      <c r="B20" s="37" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="22"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>648</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>649</v>
+      </c>
+      <c r="E20" s="14"/>
+      <c r="F20" s="22">
+        <v>4000</v>
+      </c>
       <c r="G20" s="40"/>
     </row>
-    <row r="21" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E21" s="58"/>
-      <c r="F21" s="60"/>
-    </row>
-    <row r="22" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E22" s="58"/>
-      <c r="F22" s="61"/>
-    </row>
-    <row r="23" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E23" s="58"/>
-      <c r="F23" s="61"/>
-    </row>
-    <row r="24" spans="1:7" ht="23.25" x14ac:dyDescent="0.6">
-      <c r="E24" s="58"/>
-      <c r="F24" s="59"/>
-    </row>
-    <row r="25" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="F25" s="53"/>
-    </row>
-    <row r="26" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E26" s="58"/>
-      <c r="F26" s="61"/>
-    </row>
-    <row r="27" spans="1:7" ht="23.25" x14ac:dyDescent="0.6">
-      <c r="E27" s="58"/>
-      <c r="F27" s="64"/>
-    </row>
-    <row r="28" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="F28" s="50"/>
-    </row>
-    <row r="29" spans="1:7" ht="23.25" x14ac:dyDescent="0.6">
-      <c r="F29" s="70"/>
-    </row>
-    <row r="30" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="F30" s="50"/>
+    <row r="21" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="36">
+        <v>3</v>
+      </c>
+      <c r="B21" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Body &amp; Painting</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>650</v>
+      </c>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="22">
+        <v>3000</v>
+      </c>
+      <c r="G21" s="40"/>
+    </row>
+    <row r="22" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="36">
+        <v>2</v>
+      </c>
+      <c r="B22" s="37" t="s">
+        <v>337</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>651</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>652</v>
+      </c>
+      <c r="E22" s="14"/>
+      <c r="F22" s="22">
+        <v>30000</v>
+      </c>
+      <c r="G22" s="40"/>
+    </row>
+    <row r="23" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="36">
+        <v>1</v>
+      </c>
+      <c r="B23" s="37" t="s">
+        <v>332</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>653</v>
+      </c>
+      <c r="D23" s="19"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="22">
+        <v>7750</v>
+      </c>
+      <c r="G23" s="40"/>
+    </row>
+    <row r="24" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="36">
+        <v>1</v>
+      </c>
+      <c r="B24" s="37" t="s">
+        <v>332</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>654</v>
+      </c>
+      <c r="D24" s="19"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="22">
+        <v>7000</v>
+      </c>
+      <c r="G24" s="40"/>
+    </row>
+    <row r="25" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="36">
+        <v>2</v>
+      </c>
+      <c r="B25" s="37" t="s">
+        <v>337</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>655</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>597</v>
+      </c>
+      <c r="E25" s="14"/>
+      <c r="F25" s="22">
+        <v>6000</v>
+      </c>
+      <c r="G25" s="40">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="36">
+        <v>1</v>
+      </c>
+      <c r="B26" s="37" t="s">
+        <v>332</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>656</v>
+      </c>
+      <c r="D26" s="19"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="22">
+        <v>2000</v>
+      </c>
+      <c r="G26" s="40"/>
+    </row>
+    <row r="27" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="36">
+        <v>2</v>
+      </c>
+      <c r="B27" s="37" t="s">
+        <v>337</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>657</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>649</v>
+      </c>
+      <c r="E27" s="16"/>
+      <c r="F27" s="22">
+        <v>10000</v>
+      </c>
+      <c r="G27" s="40"/>
+    </row>
+    <row r="28" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="36">
+        <v>3</v>
+      </c>
+      <c r="B28" s="37" t="s">
+        <v>333</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="D28" s="19"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="22">
+        <v>2000</v>
+      </c>
+      <c r="G28" s="40"/>
+    </row>
+    <row r="29" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="36">
+        <v>1</v>
+      </c>
+      <c r="B29" s="37" t="s">
+        <v>332</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>658</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>343</v>
+      </c>
+      <c r="E29" s="14"/>
+      <c r="F29" s="22">
+        <v>2000</v>
+      </c>
+      <c r="G29" s="40"/>
+    </row>
+    <row r="30" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="36">
+        <v>4</v>
+      </c>
+      <c r="B30" s="37" t="s">
+        <v>334</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>479</v>
+      </c>
+      <c r="D30" s="19"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="22">
+        <v>33000</v>
+      </c>
+      <c r="G30" s="40"/>
+    </row>
+    <row r="31" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="36">
+        <v>6</v>
+      </c>
+      <c r="B31" s="37" t="s">
+        <v>335</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>659</v>
+      </c>
+      <c r="D31" s="19"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="22">
+        <v>25500</v>
+      </c>
+      <c r="G31" s="40"/>
+    </row>
+    <row r="32" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="36"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="83"/>
+      <c r="G32" s="40"/>
+    </row>
+    <row r="33" spans="5:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E33" s="58" t="s">
+        <v>332</v>
+      </c>
+      <c r="F33" s="50">
+        <f>SUM(F2:F32)</f>
+        <v>429050</v>
+      </c>
+    </row>
+    <row r="34" spans="5:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E34" s="84" t="s">
+        <v>372</v>
+      </c>
+      <c r="F34" s="85">
+        <v>186150</v>
+      </c>
+    </row>
+    <row r="35" spans="5:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="E35" s="58" t="s">
+        <v>373</v>
+      </c>
+      <c r="F35" s="74">
+        <v>187500</v>
+      </c>
+    </row>
+    <row r="36" spans="5:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F36" s="62">
+        <f>SUM(F33:F35)</f>
+        <v>802700</v>
+      </c>
+    </row>
+    <row r="37" spans="5:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E37" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="F37" s="61">
+        <v>97000</v>
+      </c>
+    </row>
+    <row r="38" spans="5:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E38" s="58" t="s">
+        <v>374</v>
+      </c>
+      <c r="F38" s="56">
+        <v>525000</v>
+      </c>
+    </row>
+    <row r="39" spans="5:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F39" s="61">
+        <f>SUM(F37:F38)</f>
+        <v>622000</v>
+      </c>
+    </row>
+    <row r="40" spans="5:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="F40" s="70">
+        <v>802700</v>
+      </c>
+    </row>
+    <row r="41" spans="5:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F41" s="62">
+        <f>F39-F40</f>
+        <v>-180700</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -16469,10 +17017,13 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L30"/>
+  <sheetPr>
+    <tabColor rgb="FF00B0F0"/>
+  </sheetPr>
+  <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16517,16 +17068,20 @@
     </row>
     <row r="2" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="36">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="37" t="str">
-        <f t="shared" ref="B2:B20" si="0">IF(A2=1,myvar1,IF(A2=2,myvar2,IF(A2=3,myvar3,IF(A2=4,myvar4,IF(A2=5,myvar5,IF(A2=6,myvar6,IF(A2=7,myvar7,IF(A2=8,myvar8,IF(A2=9,myvar9,IF(A2=10,myvar10,IF(A2=11,myvar11,IF(A2=12,myvar12,IF(A2=13,myvar13,)))))))))))))</f>
-        <v>Meal</v>
-      </c>
-      <c r="C2" s="13"/>
+        <f t="shared" ref="B2:B25" si="0">IF(A2=1,myvar1,IF(A2=2,myvar2,IF(A2=3,myvar3,IF(A2=4,myvar4,IF(A2=5,myvar5,IF(A2=6,myvar6,IF(A2=7,myvar7,IF(A2=8,myvar8,IF(A2=9,myvar9,IF(A2=10,myvar10,IF(A2=11,myvar11,IF(A2=12,myvar12,IF(A2=13,myvar13,)))))))))))))</f>
+        <v>Carry</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>638</v>
+      </c>
       <c r="D2" s="19"/>
       <c r="E2" s="14"/>
-      <c r="F2" s="22"/>
+      <c r="F2" s="22">
+        <v>3000</v>
+      </c>
       <c r="G2" s="40"/>
       <c r="K2" s="12">
         <v>1</v>
@@ -16537,16 +17092,20 @@
     </row>
     <row r="3" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="36">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3" s="37" t="str">
         <f t="shared" si="0"/>
-        <v>Carry</v>
-      </c>
-      <c r="C3" s="13"/>
+        <v>Body &amp; Painting</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>51</v>
+      </c>
       <c r="D3" s="19"/>
       <c r="E3" s="14"/>
-      <c r="F3" s="22"/>
+      <c r="F3" s="22">
+        <v>2000</v>
+      </c>
       <c r="G3" s="40"/>
       <c r="K3" s="12">
         <v>2</v>
@@ -16563,10 +17122,14 @@
         <f t="shared" si="0"/>
         <v>Expense</v>
       </c>
-      <c r="C4" s="13"/>
+      <c r="C4" s="13" t="s">
+        <v>2</v>
+      </c>
       <c r="D4" s="19"/>
       <c r="E4" s="14"/>
-      <c r="F4" s="22"/>
+      <c r="F4" s="22">
+        <v>2000</v>
+      </c>
       <c r="G4" s="40"/>
       <c r="K4" s="12">
         <v>3</v>
@@ -16577,16 +17140,654 @@
     </row>
     <row r="5" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="36">
+        <v>6</v>
+      </c>
+      <c r="B5" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Meal</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>661</v>
+      </c>
+      <c r="D5" s="19"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="22">
+        <v>5000</v>
+      </c>
+      <c r="G5" s="40"/>
+      <c r="K5" s="12">
+        <v>4</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="36">
+        <v>3</v>
+      </c>
+      <c r="B6" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Body &amp; Painting</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>662</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="22">
+        <v>1050</v>
+      </c>
+      <c r="G6" s="40"/>
+      <c r="K6" s="12">
+        <v>5</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="36">
+        <v>2</v>
+      </c>
+      <c r="B7" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>663</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>664</v>
+      </c>
+      <c r="E7" s="19"/>
+      <c r="F7" s="22">
+        <v>9000</v>
+      </c>
+      <c r="G7" s="40">
+        <v>12000</v>
+      </c>
+      <c r="K7" s="12">
+        <v>6</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="36">
+        <v>5</v>
+      </c>
+      <c r="B8" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Carry</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="D8" s="19"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="22">
+        <v>9000</v>
+      </c>
+      <c r="G8" s="40"/>
+      <c r="K8" s="12">
+        <v>7</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="36">
+        <v>1</v>
+      </c>
+      <c r="B9" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Expense</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>665</v>
+      </c>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="22">
+        <v>2000</v>
+      </c>
+      <c r="G9" s="40"/>
+      <c r="K9" s="12">
+        <v>8</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="36">
+        <v>1</v>
+      </c>
+      <c r="B10" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Expense</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>666</v>
+      </c>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="22">
+        <v>3000</v>
+      </c>
+      <c r="G10" s="40"/>
+      <c r="K10" s="12">
+        <v>9</v>
+      </c>
+      <c r="L10" s="12"/>
+    </row>
+    <row r="11" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="36">
+        <v>7</v>
+      </c>
+      <c r="B11" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Discount</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>597</v>
+      </c>
+      <c r="E11" s="19"/>
+      <c r="F11" s="22">
+        <v>10000</v>
+      </c>
+      <c r="G11" s="40"/>
+      <c r="K11" s="12">
+        <v>10</v>
+      </c>
+      <c r="L11" s="12"/>
+    </row>
+    <row r="12" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="36">
+        <v>2</v>
+      </c>
+      <c r="B12" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>667</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="E12" s="14"/>
+      <c r="F12" s="22">
+        <v>50000</v>
+      </c>
+      <c r="G12" s="40"/>
+      <c r="K12" s="12">
+        <v>11</v>
+      </c>
+      <c r="L12" s="12"/>
+    </row>
+    <row r="13" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="36">
+        <v>3</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>333</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>673</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>674</v>
+      </c>
+      <c r="E13" s="14"/>
+      <c r="F13" s="22">
+        <v>10300</v>
+      </c>
+      <c r="G13" s="40"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+    </row>
+    <row r="14" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="36">
+        <v>3</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>333</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>562</v>
+      </c>
+      <c r="D14" s="19"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="22">
+        <v>5000</v>
+      </c>
+      <c r="G14" s="40"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+    </row>
+    <row r="15" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="36">
+        <v>3</v>
+      </c>
+      <c r="B15" s="37" t="s">
+        <v>333</v>
+      </c>
+      <c r="C15" s="13">
+        <v>199</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="E15" s="14"/>
+      <c r="F15" s="22">
+        <v>6000</v>
+      </c>
+      <c r="G15" s="40"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+    </row>
+    <row r="16" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="36">
+        <v>3</v>
+      </c>
+      <c r="B16" s="37" t="s">
+        <v>333</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>675</v>
+      </c>
+      <c r="D16" s="19"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="22">
+        <v>20000</v>
+      </c>
+      <c r="G16" s="40"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+    </row>
+    <row r="17" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="36">
+        <v>6</v>
+      </c>
+      <c r="B17" s="37" t="s">
+        <v>335</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>676</v>
+      </c>
+      <c r="D17" s="19"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="22">
+        <v>5000</v>
+      </c>
+      <c r="G17" s="40"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+    </row>
+    <row r="18" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="36">
+        <v>5</v>
+      </c>
+      <c r="B18" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Carry</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>405</v>
+      </c>
+      <c r="D18" s="19"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="22">
+        <v>5000</v>
+      </c>
+      <c r="G18" s="40"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+    </row>
+    <row r="19" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="36">
+        <v>1</v>
+      </c>
+      <c r="B19" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Expense</v>
+      </c>
+      <c r="C19" s="86" t="s">
+        <v>669</v>
+      </c>
+      <c r="D19" s="19"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="22">
+        <v>4500</v>
+      </c>
+      <c r="G19" s="40"/>
+    </row>
+    <row r="20" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="36">
+        <v>2</v>
+      </c>
+      <c r="B20" s="37" t="s">
+        <v>337</v>
+      </c>
+      <c r="C20" s="86" t="s">
+        <v>677</v>
+      </c>
+      <c r="D20" s="19"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="22">
+        <v>22500</v>
+      </c>
+      <c r="G20" s="40"/>
+    </row>
+    <row r="21" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="36">
+        <v>3</v>
+      </c>
+      <c r="B21" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Body &amp; Painting</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>670</v>
+      </c>
+      <c r="D21" s="19"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="22">
+        <v>3000</v>
+      </c>
+      <c r="G21" s="40"/>
+    </row>
+    <row r="22" spans="1:12" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="36">
+        <v>6</v>
+      </c>
+      <c r="B22" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Meal</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>446</v>
+      </c>
+      <c r="D22" s="19"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="22">
+        <v>24000</v>
+      </c>
+      <c r="G22" s="40"/>
+    </row>
+    <row r="23" spans="1:12" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="36">
+        <v>4</v>
+      </c>
+      <c r="B23" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Wages</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>479</v>
+      </c>
+      <c r="D23" s="19"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="22">
+        <v>33000</v>
+      </c>
+      <c r="G23" s="40"/>
+    </row>
+    <row r="24" spans="1:12" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="36">
+        <v>3</v>
+      </c>
+      <c r="B24" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Body &amp; Painting</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>671</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>592</v>
+      </c>
+      <c r="E24" s="14"/>
+      <c r="F24" s="22">
+        <v>10000</v>
+      </c>
+      <c r="G24" s="40"/>
+    </row>
+    <row r="25" spans="1:12" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="36">
+        <v>8</v>
+      </c>
+      <c r="B25" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Advance</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>672</v>
+      </c>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="22">
+        <v>10000</v>
+      </c>
+      <c r="G25" s="40"/>
+    </row>
+    <row r="26" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E26" s="58" t="s">
+        <v>332</v>
+      </c>
+      <c r="F26" s="60">
+        <f>SUM(F2:F25)</f>
+        <v>254350</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E27" s="58" t="s">
+        <v>407</v>
+      </c>
+      <c r="F27" s="61">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E28" s="58" t="s">
+        <v>678</v>
+      </c>
+      <c r="F28" s="61">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="23.25" x14ac:dyDescent="0.6">
+      <c r="E29" s="58" t="s">
+        <v>372</v>
+      </c>
+      <c r="F29" s="59">
+        <v>132300</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F30" s="53">
+        <f>SUM(F26:F29)</f>
+        <v>405650</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="E31" s="58" t="s">
+        <v>374</v>
+      </c>
+      <c r="F31" s="56">
+        <v>614500</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E32" s="58"/>
+      <c r="F32" s="68">
+        <f>F31-F30</f>
+        <v>208850</v>
+      </c>
+    </row>
+    <row r="33" spans="6:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F33" s="50"/>
+    </row>
+    <row r="34" spans="6:6" ht="23.25" x14ac:dyDescent="0.6">
+      <c r="F34" s="70"/>
+    </row>
+    <row r="35" spans="6:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F35" s="50"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C19" r:id="rId1" display="Tissue@Paper Cup"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="0" tint="-0.34998626667073579"/>
+  </sheetPr>
+  <dimension ref="A1:L42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="36.28515625" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="26" t="s">
+        <v>330</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>375</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>328</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="36">
+        <v>5</v>
+      </c>
+      <c r="B2" s="37" t="str">
+        <f t="shared" ref="B2:B21" si="0">IF(A2=1,myvar1,IF(A2=2,myvar2,IF(A2=3,myvar3,IF(A2=4,myvar4,IF(A2=5,myvar5,IF(A2=6,myvar6,IF(A2=7,myvar7,IF(A2=8,myvar8,IF(A2=9,myvar9,IF(A2=10,myvar10,IF(A2=11,myvar11,IF(A2=12,myvar12,IF(A2=13,myvar13,)))))))))))))</f>
+        <v>Carry</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>640</v>
+      </c>
+      <c r="D2" s="19"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="22">
+        <v>3000</v>
+      </c>
+      <c r="G2" s="40"/>
+      <c r="K2" s="12">
+        <v>1</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="36">
+        <v>6</v>
+      </c>
+      <c r="B3" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Meal</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="D3" s="19"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="22">
+        <v>7000</v>
+      </c>
+      <c r="G3" s="40"/>
+      <c r="K3" s="12">
+        <v>2</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="36">
+        <v>1</v>
+      </c>
+      <c r="B4" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Expense</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>679</v>
+      </c>
+      <c r="D4" s="19"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="22">
+        <v>5000</v>
+      </c>
+      <c r="G4" s="40"/>
+      <c r="K4" s="12">
+        <v>3</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="36">
         <v>3</v>
       </c>
       <c r="B5" s="37" t="str">
         <f t="shared" si="0"/>
         <v>Body &amp; Painting</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>682</v>
+      </c>
       <c r="D5" s="19"/>
       <c r="E5" s="14"/>
-      <c r="F5" s="22"/>
+      <c r="F5" s="22">
+        <v>27500</v>
+      </c>
       <c r="G5" s="40"/>
       <c r="K5" s="12">
         <v>4</v>
@@ -16595,18 +17796,24 @@
         <v>334</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6" s="37" t="str">
         <f t="shared" si="0"/>
-        <v>Workshop</v>
-      </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="16"/>
+        <v>Body &amp; Painting</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>680</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>681</v>
+      </c>
       <c r="E6" s="16"/>
-      <c r="F6" s="22"/>
+      <c r="F6" s="22">
+        <v>14000</v>
+      </c>
       <c r="G6" s="40"/>
       <c r="K6" s="12">
         <v>5</v>
@@ -16615,18 +17822,22 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="36">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B7" s="37" t="str">
         <f t="shared" si="0"/>
-        <v>Advance</v>
-      </c>
-      <c r="C7" s="13"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>683</v>
+      </c>
       <c r="D7" s="19"/>
       <c r="E7" s="19"/>
-      <c r="F7" s="22"/>
+      <c r="F7" s="22">
+        <v>5000</v>
+      </c>
       <c r="G7" s="40"/>
       <c r="K7" s="12">
         <v>6</v>
@@ -16635,7 +17846,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="36">
         <v>2</v>
       </c>
@@ -16643,10 +17854,16 @@
         <f t="shared" si="0"/>
         <v>Workshop</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="19"/>
+      <c r="C8" s="13" t="s">
+        <v>684</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>391</v>
+      </c>
       <c r="E8" s="14"/>
-      <c r="F8" s="22"/>
+      <c r="F8" s="22">
+        <v>20000</v>
+      </c>
       <c r="G8" s="40"/>
       <c r="K8" s="12">
         <v>7</v>
@@ -16655,18 +17872,24 @@
         <v>336</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="36">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B9" s="37" t="str">
         <f t="shared" si="0"/>
-        <v>Discount</v>
-      </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="19"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>685</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>575</v>
+      </c>
       <c r="E9" s="19"/>
-      <c r="F9" s="22"/>
+      <c r="F9" s="22">
+        <v>65000</v>
+      </c>
       <c r="G9" s="40"/>
       <c r="K9" s="12">
         <v>8</v>
@@ -16675,25 +17898,31 @@
         <v>491</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="36">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B10" s="37" t="str">
         <f t="shared" si="0"/>
-        <v>Carry</v>
-      </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="16"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>686</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>687</v>
+      </c>
       <c r="E10" s="16"/>
-      <c r="F10" s="22"/>
+      <c r="F10" s="22">
+        <v>34000</v>
+      </c>
       <c r="G10" s="40"/>
       <c r="K10" s="12">
         <v>9</v>
       </c>
       <c r="L10" s="12"/>
     </row>
-    <row r="11" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="36">
         <v>2</v>
       </c>
@@ -16701,17 +17930,21 @@
         <f t="shared" si="0"/>
         <v>Workshop</v>
       </c>
-      <c r="C11" s="13"/>
+      <c r="C11" s="13" t="s">
+        <v>210</v>
+      </c>
       <c r="D11" s="19"/>
       <c r="E11" s="19"/>
-      <c r="F11" s="22"/>
+      <c r="F11" s="22">
+        <v>4000</v>
+      </c>
       <c r="G11" s="40"/>
       <c r="K11" s="12">
         <v>10</v>
       </c>
       <c r="L11" s="12"/>
     </row>
-    <row r="12" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="36">
         <v>2</v>
       </c>
@@ -16719,53 +17952,65 @@
         <f t="shared" si="0"/>
         <v>Workshop</v>
       </c>
-      <c r="C12" s="13"/>
+      <c r="C12" s="13" t="s">
+        <v>688</v>
+      </c>
       <c r="D12" s="19"/>
       <c r="E12" s="14"/>
-      <c r="F12" s="22"/>
+      <c r="F12" s="22">
+        <v>2000</v>
+      </c>
       <c r="G12" s="40"/>
       <c r="K12" s="12">
         <v>11</v>
       </c>
       <c r="L12" s="12"/>
     </row>
-    <row r="13" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B13" s="37" t="str">
         <f t="shared" si="0"/>
-        <v>Expense</v>
-      </c>
-      <c r="C13" s="13"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>689</v>
+      </c>
       <c r="D13" s="19"/>
       <c r="E13" s="14"/>
-      <c r="F13" s="22"/>
+      <c r="F13" s="22">
+        <v>1000</v>
+      </c>
       <c r="G13" s="40"/>
       <c r="K13" s="12">
         <v>12</v>
       </c>
       <c r="L13" s="12"/>
     </row>
-    <row r="14" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B14" s="37" t="str">
         <f t="shared" si="0"/>
-        <v>Workshop</v>
-      </c>
-      <c r="C14" s="13"/>
+        <v>Expense</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>690</v>
+      </c>
       <c r="D14" s="19"/>
       <c r="E14" s="14"/>
-      <c r="F14" s="22"/>
+      <c r="F14" s="22">
+        <v>3000</v>
+      </c>
       <c r="G14" s="40"/>
       <c r="K14" s="12">
         <v>13</v>
       </c>
       <c r="L14" s="12"/>
     </row>
-    <row r="15" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="36">
         <v>2</v>
       </c>
@@ -16773,122 +18018,307 @@
         <f t="shared" si="0"/>
         <v>Workshop</v>
       </c>
-      <c r="C15" s="13"/>
+      <c r="C15" s="13" t="s">
+        <v>648</v>
+      </c>
       <c r="D15" s="19"/>
       <c r="E15" s="14"/>
-      <c r="F15" s="22"/>
+      <c r="F15" s="22">
+        <v>3000</v>
+      </c>
       <c r="G15" s="40"/>
     </row>
-    <row r="16" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B16" s="37" t="str">
         <f t="shared" si="0"/>
-        <v>Expense</v>
-      </c>
-      <c r="C16" s="13"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>51</v>
+      </c>
       <c r="D16" s="19"/>
       <c r="E16" s="14"/>
-      <c r="F16" s="22"/>
+      <c r="F16" s="22">
+        <v>2000</v>
+      </c>
       <c r="G16" s="40"/>
     </row>
     <row r="17" spans="1:7" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="36">
-        <v>6</v>
-      </c>
-      <c r="B17" s="37" t="str">
-        <f t="shared" si="0"/>
-        <v>Meal</v>
-      </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="19"/>
+        <v>3</v>
+      </c>
+      <c r="B17" s="37" t="s">
+        <v>333</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>671</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>681</v>
+      </c>
       <c r="E17" s="14"/>
-      <c r="F17" s="22"/>
+      <c r="F17" s="22">
+        <v>30000</v>
+      </c>
       <c r="G17" s="40"/>
     </row>
     <row r="18" spans="1:7" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="36">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B18" s="37" t="str">
         <f t="shared" si="0"/>
-        <v>Wages</v>
-      </c>
-      <c r="C18" s="13"/>
+        <v>Discount</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>691</v>
+      </c>
       <c r="D18" s="19"/>
       <c r="E18" s="14"/>
-      <c r="F18" s="22"/>
+      <c r="F18" s="22">
+        <v>4000</v>
+      </c>
       <c r="G18" s="40"/>
     </row>
     <row r="19" spans="1:7" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="36">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B19" s="37" t="str">
         <f t="shared" si="0"/>
-        <v>Carry</v>
-      </c>
-      <c r="C19" s="13"/>
+        <v>Advance</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>528</v>
+      </c>
       <c r="D19" s="19"/>
       <c r="E19" s="14"/>
-      <c r="F19" s="22"/>
+      <c r="F19" s="22">
+        <v>20000</v>
+      </c>
       <c r="G19" s="40"/>
     </row>
     <row r="20" spans="1:7" ht="21.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="36"/>
-      <c r="B20" s="37">
+      <c r="A20" s="36">
+        <v>8</v>
+      </c>
+      <c r="B20" s="37" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="22"/>
+        <v>Advance</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>692</v>
+      </c>
+      <c r="D20" s="19"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="22">
+        <v>50000</v>
+      </c>
       <c r="G20" s="40"/>
     </row>
-    <row r="21" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E21" s="58"/>
-      <c r="F21" s="60"/>
-    </row>
-    <row r="22" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E22" s="58"/>
-      <c r="F22" s="61"/>
-    </row>
-    <row r="23" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E23" s="58"/>
-      <c r="F23" s="61"/>
-    </row>
-    <row r="24" spans="1:7" ht="23.25" x14ac:dyDescent="0.6">
-      <c r="E24" s="58"/>
-      <c r="F24" s="59"/>
-    </row>
-    <row r="25" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="F25" s="53"/>
-    </row>
-    <row r="26" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E26" s="58"/>
-      <c r="F26" s="61"/>
-    </row>
-    <row r="27" spans="1:7" ht="23.25" x14ac:dyDescent="0.6">
-      <c r="E27" s="58"/>
-      <c r="F27" s="64"/>
-    </row>
-    <row r="28" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="F28" s="50"/>
-    </row>
-    <row r="29" spans="1:7" ht="23.25" x14ac:dyDescent="0.6">
-      <c r="F29" s="70"/>
+    <row r="21" spans="1:7" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="36">
+        <v>2</v>
+      </c>
+      <c r="B21" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="22">
+        <v>6000</v>
+      </c>
+      <c r="G21" s="40"/>
+    </row>
+    <row r="22" spans="1:7" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="36">
+        <v>4</v>
+      </c>
+      <c r="B22" s="37" t="s">
+        <v>334</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>546</v>
+      </c>
+      <c r="D22" s="19"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="22">
+        <v>13000</v>
+      </c>
+      <c r="G22" s="40"/>
+    </row>
+    <row r="23" spans="1:7" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="36">
+        <v>7</v>
+      </c>
+      <c r="B23" s="37" t="s">
+        <v>336</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>693</v>
+      </c>
+      <c r="E23" s="14"/>
+      <c r="F23" s="22">
+        <v>500</v>
+      </c>
+      <c r="G23" s="40"/>
+    </row>
+    <row r="24" spans="1:7" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="36">
+        <v>8</v>
+      </c>
+      <c r="B24" s="37" t="s">
+        <v>491</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>694</v>
+      </c>
+      <c r="D24" s="19"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="22">
+        <v>16000</v>
+      </c>
+      <c r="G24" s="40"/>
+    </row>
+    <row r="25" spans="1:7" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="36">
+        <v>5</v>
+      </c>
+      <c r="B25" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>405</v>
+      </c>
+      <c r="D25" s="19"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="22">
+        <v>9000</v>
+      </c>
+      <c r="G25" s="40"/>
+    </row>
+    <row r="26" spans="1:7" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="36">
+        <v>6</v>
+      </c>
+      <c r="B26" s="37" t="s">
+        <v>335</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>695</v>
+      </c>
+      <c r="D26" s="19"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="22">
+        <v>22500</v>
+      </c>
+      <c r="G26" s="40"/>
+    </row>
+    <row r="27" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E27" s="58" t="s">
+        <v>332</v>
+      </c>
+      <c r="F27" s="50">
+        <f>SUM(F2:F26)</f>
+        <v>366500</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="22.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E28" s="58" t="s">
+        <v>372</v>
+      </c>
+      <c r="F28" s="51">
+        <v>117100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="26.25" x14ac:dyDescent="0.8">
+      <c r="E29" s="58" t="s">
+        <v>373</v>
+      </c>
+      <c r="F29" s="52">
+        <v>141500</v>
+      </c>
     </row>
     <row r="30" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="F30" s="50"/>
+      <c r="F30" s="62">
+        <f>SUM(F27:F29)</f>
+        <v>625100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="E31" s="66" t="s">
+        <v>374</v>
+      </c>
+      <c r="F31" s="56">
+        <v>420500</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F32" s="62">
+        <f>F31-F30</f>
+        <v>-204600</v>
+      </c>
+    </row>
+    <row r="34" spans="5:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E34" s="58"/>
+      <c r="F34" s="50"/>
+    </row>
+    <row r="35" spans="5:6" ht="22.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E35" s="84"/>
+      <c r="F35" s="85"/>
+    </row>
+    <row r="36" spans="5:6" ht="23.25" x14ac:dyDescent="0.6">
+      <c r="E36" s="58"/>
+      <c r="F36" s="74"/>
+    </row>
+    <row r="37" spans="5:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F37" s="62"/>
+    </row>
+    <row r="38" spans="5:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E38" s="58"/>
+      <c r="F38" s="61"/>
+    </row>
+    <row r="39" spans="5:6" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="E39" s="58"/>
+      <c r="F39" s="56"/>
+    </row>
+    <row r="40" spans="5:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F40" s="61"/>
+    </row>
+    <row r="41" spans="5:6" ht="23.25" x14ac:dyDescent="0.6">
+      <c r="F41" s="70"/>
+    </row>
+    <row r="42" spans="5:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F42" s="62"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>

--- a/GB-3Expense (Autosaved).xlsx
+++ b/GB-3Expense (Autosaved).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830" firstSheet="14" activeTab="20"/>
+    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830" firstSheet="14" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="Jun-2018" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
     <sheet name="17.8.2018" sheetId="19" r:id="rId19"/>
     <sheet name="18.8.2018" sheetId="20" r:id="rId20"/>
     <sheet name="19.8.2018" sheetId="21" r:id="rId21"/>
-    <sheet name="Sheet1" sheetId="22" r:id="rId22"/>
+    <sheet name="20.8.2018" sheetId="22" r:id="rId22"/>
     <sheet name="Sheet2" sheetId="23" r:id="rId23"/>
   </sheets>
   <definedNames>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2292" uniqueCount="696">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2342" uniqueCount="714">
   <si>
     <t>1.6.2018</t>
   </si>
@@ -2147,6 +2147,60 @@
   </si>
   <si>
     <t>15*1500</t>
+  </si>
+  <si>
+    <t>ေကာ္ဖီ/မုန့္</t>
+  </si>
+  <si>
+    <t>သြပ္နန္းျကိုး</t>
+  </si>
+  <si>
+    <t>ပန္ကာျကိုး</t>
+  </si>
+  <si>
+    <t>6C-2479/Mini Bus</t>
+  </si>
+  <si>
+    <t>ေရွ့ဘန္ပါ</t>
+  </si>
+  <si>
+    <t>Bongo/Bingo Co.,</t>
+  </si>
+  <si>
+    <t>ေနာက္မီးလံုး/သဲကာ</t>
+  </si>
+  <si>
+    <t>Vitz</t>
+  </si>
+  <si>
+    <t>Ko Pyone</t>
+  </si>
+  <si>
+    <t>Shock Absorber</t>
+  </si>
+  <si>
+    <t>7E-3167/Canter</t>
+  </si>
+  <si>
+    <t>Gas ျဖည့္</t>
+  </si>
+  <si>
+    <t>3D-1375/Belta</t>
+  </si>
+  <si>
+    <t>Ko Kyaw Thiha</t>
+  </si>
+  <si>
+    <t>8200လိုက္ကာ</t>
+  </si>
+  <si>
+    <t>199/</t>
+  </si>
+  <si>
+    <t>6P-1494/Hino</t>
+  </si>
+  <si>
+    <t>ေန့စားခ3.</t>
   </si>
 </sst>
 </file>
@@ -2157,7 +2211,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2392,6 +2446,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Zawgyi-One"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2460,7 +2520,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2650,6 +2710,7 @@
     </xf>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -17022,8 +17083,8 @@
   </sheetPr>
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17656,7 +17717,7 @@
   </sheetPr>
   <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
@@ -18308,13 +18369,593 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <sheetPr>
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
+  <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="7.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="36.28515625" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="26" t="s">
+        <v>330</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>375</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>328</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="36">
+        <v>1</v>
+      </c>
+      <c r="B2" s="37" t="str">
+        <f t="shared" ref="B2:B25" si="0">IF(A2=1,myvar1,IF(A2=2,myvar2,IF(A2=3,myvar3,IF(A2=4,myvar4,IF(A2=5,myvar5,IF(A2=6,myvar6,IF(A2=7,myvar7,IF(A2=8,myvar8,IF(A2=9,myvar9,IF(A2=10,myvar10,IF(A2=11,myvar11,IF(A2=12,myvar12,IF(A2=13,myvar13,)))))))))))))</f>
+        <v>Expense</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>455</v>
+      </c>
+      <c r="D2" s="19"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="22">
+        <v>1600</v>
+      </c>
+      <c r="G2" s="40"/>
+      <c r="K2" s="12">
+        <v>1</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="36">
+        <v>6</v>
+      </c>
+      <c r="B3" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Meal</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>696</v>
+      </c>
+      <c r="D3" s="19"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="22">
+        <v>5000</v>
+      </c>
+      <c r="G3" s="40"/>
+      <c r="K3" s="12">
+        <v>2</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="36">
+        <v>3</v>
+      </c>
+      <c r="B4" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Body &amp; Painting</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>697</v>
+      </c>
+      <c r="D4" s="19"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="22">
+        <v>2500</v>
+      </c>
+      <c r="G4" s="40"/>
+      <c r="K4" s="12">
+        <v>3</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="36">
+        <v>2</v>
+      </c>
+      <c r="B5" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>698</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>699</v>
+      </c>
+      <c r="E5" s="14"/>
+      <c r="F5" s="22">
+        <v>6100</v>
+      </c>
+      <c r="G5" s="40">
+        <v>4000</v>
+      </c>
+      <c r="H5" t="s">
+        <v>561</v>
+      </c>
+      <c r="K5" s="12">
+        <v>4</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="36">
+        <v>2</v>
+      </c>
+      <c r="B6" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>700</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>701</v>
+      </c>
+      <c r="E6" s="16"/>
+      <c r="F6" s="22">
+        <v>110000</v>
+      </c>
+      <c r="G6" s="40"/>
+      <c r="K6" s="12">
+        <v>5</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="36">
+        <v>2</v>
+      </c>
+      <c r="B7" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>702</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>703</v>
+      </c>
+      <c r="E7" s="19"/>
+      <c r="F7" s="22">
+        <v>85000</v>
+      </c>
+      <c r="G7" s="40"/>
+      <c r="K7" s="12">
+        <v>6</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="36">
+        <v>2</v>
+      </c>
+      <c r="B8" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="19"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="22">
+        <v>2000</v>
+      </c>
+      <c r="G8" s="40"/>
+      <c r="K8" s="12">
+        <v>7</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="36">
+        <v>6</v>
+      </c>
+      <c r="B9" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Meal</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>704</v>
+      </c>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="22">
+        <v>10900</v>
+      </c>
+      <c r="G9" s="40"/>
+      <c r="K9" s="12">
+        <v>8</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="36">
+        <v>2</v>
+      </c>
+      <c r="B10" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>705</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>706</v>
+      </c>
+      <c r="E10" s="16"/>
+      <c r="F10" s="22">
+        <v>50000</v>
+      </c>
+      <c r="G10" s="40"/>
+      <c r="K10" s="12">
+        <v>9</v>
+      </c>
+      <c r="L10" s="12"/>
+    </row>
+    <row r="11" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="36">
+        <v>3</v>
+      </c>
+      <c r="B11" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Body &amp; Painting</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>707</v>
+      </c>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="22">
+        <v>2000</v>
+      </c>
+      <c r="G11" s="40"/>
+      <c r="K11" s="12">
+        <v>10</v>
+      </c>
+      <c r="L11" s="12"/>
+    </row>
+    <row r="12" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="36">
+        <v>5</v>
+      </c>
+      <c r="B12" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Carry</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="D12" s="19"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="22">
+        <v>6000</v>
+      </c>
+      <c r="G12" s="40"/>
+      <c r="K12" s="12">
+        <v>11</v>
+      </c>
+      <c r="L12" s="12"/>
+    </row>
+    <row r="13" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="36">
+        <v>2</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>337</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>698</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>708</v>
+      </c>
+      <c r="E13" s="14"/>
+      <c r="F13" s="22">
+        <v>9000</v>
+      </c>
+      <c r="G13" s="40">
+        <v>12000</v>
+      </c>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+    </row>
+    <row r="14" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="36">
+        <v>5</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>405</v>
+      </c>
+      <c r="D14" s="19"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="22">
+        <v>7000</v>
+      </c>
+      <c r="G14" s="40"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+    </row>
+    <row r="15" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="36">
+        <v>8</v>
+      </c>
+      <c r="B15" s="37" t="s">
+        <v>491</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>709</v>
+      </c>
+      <c r="D15" s="19"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="22">
+        <v>5000</v>
+      </c>
+      <c r="G15" s="40"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+    </row>
+    <row r="16" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="36">
+        <v>3</v>
+      </c>
+      <c r="B16" s="37" t="s">
+        <v>333</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>710</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>703</v>
+      </c>
+      <c r="E16" s="14"/>
+      <c r="F16" s="22">
+        <v>14500</v>
+      </c>
+      <c r="G16" s="40"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+    </row>
+    <row r="17" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="36">
+        <v>3</v>
+      </c>
+      <c r="B17" s="37" t="s">
+        <v>333</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>711</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="E17" s="14"/>
+      <c r="F17" s="22">
+        <v>6000</v>
+      </c>
+      <c r="G17" s="40"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+    </row>
+    <row r="18" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="36">
+        <v>2</v>
+      </c>
+      <c r="B18" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>663</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>712</v>
+      </c>
+      <c r="E18" s="14"/>
+      <c r="F18" s="22">
+        <v>7000</v>
+      </c>
+      <c r="G18" s="40">
+        <v>13000</v>
+      </c>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+    </row>
+    <row r="19" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="36">
+        <v>4</v>
+      </c>
+      <c r="B19" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Wages</v>
+      </c>
+      <c r="C19" s="87" t="s">
+        <v>713</v>
+      </c>
+      <c r="D19" s="19"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="22">
+        <v>33000</v>
+      </c>
+      <c r="G19" s="40"/>
+    </row>
+    <row r="20" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="36">
+        <v>2</v>
+      </c>
+      <c r="B20" s="37" t="s">
+        <v>337</v>
+      </c>
+      <c r="C20" s="86"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="40"/>
+    </row>
+    <row r="21" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="36">
+        <v>3</v>
+      </c>
+      <c r="B21" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Body &amp; Painting</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="40"/>
+    </row>
+    <row r="22" spans="1:12" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="36">
+        <v>6</v>
+      </c>
+      <c r="B22" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Meal</v>
+      </c>
+      <c r="C22" s="13"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="40"/>
+    </row>
+    <row r="23" spans="1:12" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="36">
+        <v>4</v>
+      </c>
+      <c r="B23" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Wages</v>
+      </c>
+      <c r="C23" s="13"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="40"/>
+    </row>
+    <row r="24" spans="1:12" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="36">
+        <v>3</v>
+      </c>
+      <c r="B24" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Body &amp; Painting</v>
+      </c>
+      <c r="C24" s="13"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="40"/>
+    </row>
+    <row r="25" spans="1:12" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="36">
+        <v>8</v>
+      </c>
+      <c r="B25" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Advance</v>
+      </c>
+      <c r="C25" s="13"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="40"/>
+    </row>
+    <row r="26" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E26" s="58"/>
+      <c r="F26" s="60"/>
+    </row>
+    <row r="27" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E27" s="58"/>
+      <c r="F27" s="61"/>
+    </row>
+    <row r="28" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E28" s="58"/>
+      <c r="F28" s="61"/>
+    </row>
+    <row r="29" spans="1:12" ht="23.25" x14ac:dyDescent="0.6">
+      <c r="E29" s="58"/>
+      <c r="F29" s="59"/>
+    </row>
+    <row r="30" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F30" s="53"/>
+    </row>
+    <row r="31" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="E31" s="58"/>
+      <c r="F31" s="56"/>
+    </row>
+    <row r="32" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E32" s="58"/>
+      <c r="F32" s="68"/>
+    </row>
+    <row r="33" spans="6:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F33" s="50"/>
+    </row>
+    <row r="34" spans="6:6" ht="23.25" x14ac:dyDescent="0.6">
+      <c r="F34" s="70"/>
+    </row>
+    <row r="35" spans="6:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F35" s="50"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/GB-3Expense (Autosaved).xlsx
+++ b/GB-3Expense (Autosaved).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830" firstSheet="14" activeTab="21"/>
+    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830" firstSheet="16" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="Jun-2018" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,9 @@
     <sheet name="18.8.2018" sheetId="20" r:id="rId20"/>
     <sheet name="19.8.2018" sheetId="21" r:id="rId21"/>
     <sheet name="20.8.2018" sheetId="22" r:id="rId22"/>
-    <sheet name="Sheet2" sheetId="23" r:id="rId23"/>
+    <sheet name="21.8.2018" sheetId="24" r:id="rId23"/>
+    <sheet name="22.8.2018" sheetId="25" r:id="rId24"/>
+    <sheet name="Sheet4" sheetId="26" r:id="rId25"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'1.8.2018'!$A$1:$G$31</definedName>
@@ -59,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2342" uniqueCount="714">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2498" uniqueCount="758">
   <si>
     <t>1.6.2018</t>
   </si>
@@ -2201,6 +2203,138 @@
   </si>
   <si>
     <t>ေန့စားခ3.</t>
+  </si>
+  <si>
+    <t>9G-1055/Belta</t>
+  </si>
+  <si>
+    <t>ေဘာကြင္းေျကး</t>
+  </si>
+  <si>
+    <t>ျခင္ေဆးဘူး</t>
+  </si>
+  <si>
+    <t>Porter2</t>
+  </si>
+  <si>
+    <t>20*1500</t>
+  </si>
+  <si>
+    <t>ေနာ္ဇယ္စစ္</t>
+  </si>
+  <si>
+    <t>ေ၀ယံပိုင္</t>
+  </si>
+  <si>
+    <t>ေကာ္မဲ/နီ 7</t>
+  </si>
+  <si>
+    <t>၀ါရွာ/ေကာ္သီး</t>
+  </si>
+  <si>
+    <t>Disel /ဓာတ္ဆီ</t>
+  </si>
+  <si>
+    <t>MN.ေရစာ</t>
+  </si>
+  <si>
+    <t>W29ေျကြေဆး</t>
+  </si>
+  <si>
+    <t>4L-9319/Bongo</t>
+  </si>
+  <si>
+    <t>Dupon.209</t>
+  </si>
+  <si>
+    <t>6K-5849/Fit</t>
+  </si>
+  <si>
+    <t>သံျဖတ္လွြ/ေရပံုး</t>
+  </si>
+  <si>
+    <t>မီးစက္နက္တိုင္</t>
+  </si>
+  <si>
+    <t>ြGB Carry</t>
+  </si>
+  <si>
+    <t>ဂိုင္းဘြတ္</t>
+  </si>
+  <si>
+    <t>Lancer</t>
+  </si>
+  <si>
+    <t>905/တင္ဒါျကမ္း</t>
+  </si>
+  <si>
+    <t>1.k စိမ္း</t>
+  </si>
+  <si>
+    <t>YBS</t>
+  </si>
+  <si>
+    <t>6.500 တင္ဒါအေခ်ာ</t>
+  </si>
+  <si>
+    <t>သံဘရွပ္</t>
+  </si>
+  <si>
+    <t>21*1500</t>
+  </si>
+  <si>
+    <t>Brake pipe</t>
+  </si>
+  <si>
+    <t>Correction Pen&amp;Ball Pen</t>
+  </si>
+  <si>
+    <t>1E7/</t>
+  </si>
+  <si>
+    <t>4M-4167/Belta</t>
+  </si>
+  <si>
+    <t>946/</t>
+  </si>
+  <si>
+    <t>F/B</t>
+  </si>
+  <si>
+    <t>ခေရာ့ေဘာ</t>
+  </si>
+  <si>
+    <t>9E-6598/Isuzu</t>
+  </si>
+  <si>
+    <t>Plug Coil</t>
+  </si>
+  <si>
+    <t>5M-6598/Starex</t>
+  </si>
+  <si>
+    <t>အမွိုက္အိတ္/ေကာ္ဖီခြက္</t>
+  </si>
+  <si>
+    <t>Tensioner Ball</t>
+  </si>
+  <si>
+    <t>GB2 To GB3 (Kyaw Kyaw)Carry</t>
+  </si>
+  <si>
+    <t>အိမ္သာတံခါးပတ္တာ</t>
+  </si>
+  <si>
+    <t>ေ၇တိုင္ဂီဖံုး</t>
+  </si>
+  <si>
+    <t>Alphardေဆးစပ္</t>
+  </si>
+  <si>
+    <t>ပိုက္စပ္/18သီး</t>
+  </si>
+  <si>
+    <t>ေဆးစစ္ဇကာ/131/3M Tape</t>
   </si>
 </sst>
 </file>
@@ -2447,7 +2581,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <name val="Zawgyi-One"/>
       <family val="2"/>
@@ -17717,7 +17850,7 @@
   </sheetPr>
   <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
@@ -18372,10 +18505,10 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18423,7 +18556,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="37" t="str">
-        <f t="shared" ref="B2:B25" si="0">IF(A2=1,myvar1,IF(A2=2,myvar2,IF(A2=3,myvar3,IF(A2=4,myvar4,IF(A2=5,myvar5,IF(A2=6,myvar6,IF(A2=7,myvar7,IF(A2=8,myvar8,IF(A2=9,myvar9,IF(A2=10,myvar10,IF(A2=11,myvar11,IF(A2=12,myvar12,IF(A2=13,myvar13,)))))))))))))</f>
+        <f t="shared" ref="B2:B26" si="0">IF(A2=1,myvar1,IF(A2=2,myvar2,IF(A2=3,myvar3,IF(A2=4,myvar4,IF(A2=5,myvar5,IF(A2=6,myvar6,IF(A2=7,myvar7,IF(A2=8,myvar8,IF(A2=9,myvar9,IF(A2=10,myvar10,IF(A2=11,myvar11,IF(A2=12,myvar12,IF(A2=13,myvar13,)))))))))))))</f>
         <v>Expense</v>
       </c>
       <c r="C2" s="13" t="s">
@@ -18834,31 +18967,43 @@
       </c>
       <c r="G19" s="40"/>
     </row>
-    <row r="20" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="36">
         <v>2</v>
       </c>
       <c r="B20" s="37" t="s">
         <v>337</v>
       </c>
-      <c r="C20" s="86"/>
-      <c r="D20" s="19"/>
+      <c r="C20" s="87" t="s">
+        <v>319</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>714</v>
+      </c>
       <c r="E20" s="14"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="40"/>
+      <c r="F20" s="22">
+        <v>7000</v>
+      </c>
+      <c r="G20" s="40">
+        <v>8000</v>
+      </c>
     </row>
     <row r="21" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B21" s="37" t="str">
         <f t="shared" si="0"/>
-        <v>Body &amp; Painting</v>
-      </c>
-      <c r="C21" s="13"/>
+        <v>Expense</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>715</v>
+      </c>
       <c r="D21" s="19"/>
       <c r="E21" s="14"/>
-      <c r="F21" s="22"/>
+      <c r="F21" s="22">
+        <v>20000</v>
+      </c>
       <c r="G21" s="40"/>
     </row>
     <row r="22" spans="1:12" ht="21.75" x14ac:dyDescent="0.55000000000000004">
@@ -18869,89 +19014,162 @@
         <f t="shared" si="0"/>
         <v>Meal</v>
       </c>
-      <c r="C22" s="13"/>
+      <c r="C22" s="13" t="s">
+        <v>718</v>
+      </c>
       <c r="D22" s="19"/>
       <c r="E22" s="14"/>
-      <c r="F22" s="22"/>
+      <c r="F22" s="22">
+        <v>30000</v>
+      </c>
       <c r="G22" s="40"/>
     </row>
     <row r="23" spans="1:12" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="36">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B23" s="37" t="str">
         <f t="shared" si="0"/>
-        <v>Wages</v>
-      </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="19"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>716</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>717</v>
+      </c>
       <c r="E23" s="14"/>
-      <c r="F23" s="22"/>
+      <c r="F23" s="22">
+        <v>3500</v>
+      </c>
       <c r="G23" s="40"/>
     </row>
     <row r="24" spans="1:12" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B24" s="37" t="str">
         <f t="shared" si="0"/>
-        <v>Body &amp; Painting</v>
-      </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="19"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>719</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>720</v>
+      </c>
       <c r="E24" s="14"/>
-      <c r="F24" s="22"/>
+      <c r="F24" s="22">
+        <v>1000</v>
+      </c>
       <c r="G24" s="40"/>
     </row>
     <row r="25" spans="1:12" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="36">
-        <v>8</v>
-      </c>
-      <c r="B25" s="37" t="str">
-        <f t="shared" si="0"/>
-        <v>Advance</v>
-      </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="22"/>
+        <v>2</v>
+      </c>
+      <c r="B25" s="37" t="s">
+        <v>337</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>721</v>
+      </c>
+      <c r="D25" s="19"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="22">
+        <v>10200</v>
+      </c>
       <c r="G25" s="40"/>
     </row>
-    <row r="26" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E26" s="58"/>
-      <c r="F26" s="60"/>
+    <row r="26" spans="1:12" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="36">
+        <v>2</v>
+      </c>
+      <c r="B26" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>722</v>
+      </c>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="22">
+        <v>2200</v>
+      </c>
+      <c r="G26" s="40"/>
     </row>
     <row r="27" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E27" s="58"/>
-      <c r="F27" s="61"/>
+      <c r="E27" s="58" t="s">
+        <v>332</v>
+      </c>
+      <c r="F27" s="60">
+        <f>SUM(F2:F26)</f>
+        <v>436500</v>
+      </c>
     </row>
     <row r="28" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E28" s="58"/>
-      <c r="F28" s="61"/>
-    </row>
-    <row r="29" spans="1:12" ht="23.25" x14ac:dyDescent="0.6">
-      <c r="E29" s="58"/>
-      <c r="F29" s="59"/>
-    </row>
-    <row r="30" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="F30" s="53"/>
-    </row>
-    <row r="31" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="E31" s="58"/>
-      <c r="F31" s="56"/>
-    </row>
-    <row r="32" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E32" s="58"/>
-      <c r="F32" s="68"/>
-    </row>
-    <row r="33" spans="6:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="F33" s="50"/>
-    </row>
-    <row r="34" spans="6:6" ht="23.25" x14ac:dyDescent="0.6">
-      <c r="F34" s="70"/>
-    </row>
-    <row r="35" spans="6:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="F35" s="50"/>
+      <c r="E28" s="58" t="s">
+        <v>372</v>
+      </c>
+      <c r="F28" s="61">
+        <v>247500</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E29" s="58" t="s">
+        <v>373</v>
+      </c>
+      <c r="F29" s="61">
+        <v>486500</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="23.25" x14ac:dyDescent="0.6">
+      <c r="E30" s="58" t="s">
+        <v>407</v>
+      </c>
+      <c r="F30" s="59">
+        <v>68000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F31" s="53">
+        <f>SUM(F27:F30)</f>
+        <v>1238500</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E32" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="F32" s="61">
+        <v>147000</v>
+      </c>
+    </row>
+    <row r="33" spans="5:6" ht="23.25" x14ac:dyDescent="0.6">
+      <c r="E33" s="58" t="s">
+        <v>374</v>
+      </c>
+      <c r="F33" s="64">
+        <v>856500</v>
+      </c>
+    </row>
+    <row r="34" spans="5:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F34" s="50">
+        <f>SUM(F32:F33)</f>
+        <v>1003500</v>
+      </c>
+    </row>
+    <row r="35" spans="5:6" ht="23.25" x14ac:dyDescent="0.6">
+      <c r="F35" s="70">
+        <v>1238500</v>
+      </c>
+    </row>
+    <row r="36" spans="5:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F36" s="62">
+        <f>F34-F35</f>
+        <v>-235000</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18961,12 +19179,1758 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <sheetPr>
+    <tabColor rgb="FFC00000"/>
+  </sheetPr>
+  <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="7.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="36.28515625" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="26" t="s">
+        <v>330</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>375</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>328</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="36">
+        <v>2</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>337</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>723</v>
+      </c>
+      <c r="D2" s="19"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="22">
+        <v>4000</v>
+      </c>
+      <c r="G2" s="40"/>
+      <c r="K2" s="12">
+        <v>1</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="36">
+        <v>6</v>
+      </c>
+      <c r="B3" s="37" t="str">
+        <f t="shared" ref="B3:B26" si="0">IF(A3=1,myvar1,IF(A3=2,myvar2,IF(A3=3,myvar3,IF(A3=4,myvar4,IF(A3=5,myvar5,IF(A3=6,myvar6,IF(A3=7,myvar7,IF(A3=8,myvar8,IF(A3=9,myvar9,IF(A3=10,myvar10,IF(A3=11,myvar11,IF(A3=12,myvar12,IF(A3=13,myvar13,)))))))))))))</f>
+        <v>Meal</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="D3" s="19"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="22">
+        <v>5000</v>
+      </c>
+      <c r="G3" s="40"/>
+      <c r="K3" s="12">
+        <v>2</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="36">
+        <v>3</v>
+      </c>
+      <c r="B4" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Body &amp; Painting</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>724</v>
+      </c>
+      <c r="D4" s="19"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="22">
+        <v>13500</v>
+      </c>
+      <c r="G4" s="40"/>
+      <c r="K4" s="12">
+        <v>3</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="36">
+        <v>3</v>
+      </c>
+      <c r="B5" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Body &amp; Painting</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>725</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>726</v>
+      </c>
+      <c r="E5" s="14"/>
+      <c r="F5" s="22">
+        <v>16000</v>
+      </c>
+      <c r="G5" s="40"/>
+      <c r="K5" s="12">
+        <v>4</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="36">
+        <v>3</v>
+      </c>
+      <c r="B6" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Body &amp; Painting</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>727</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>728</v>
+      </c>
+      <c r="E6" s="16"/>
+      <c r="F6" s="22">
+        <v>9000</v>
+      </c>
+      <c r="G6" s="40"/>
+      <c r="K6" s="12">
+        <v>5</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="36">
+        <v>1</v>
+      </c>
+      <c r="B7" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Expense</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="22">
+        <v>5000</v>
+      </c>
+      <c r="G7" s="40"/>
+      <c r="K7" s="12">
+        <v>6</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="36">
+        <v>5</v>
+      </c>
+      <c r="B8" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Carry</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="D8" s="19"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="22">
+        <v>9000</v>
+      </c>
+      <c r="G8" s="40"/>
+      <c r="K8" s="12">
+        <v>7</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="36">
+        <v>3</v>
+      </c>
+      <c r="B9" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Body &amp; Painting</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>729</v>
+      </c>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="22">
+        <v>3400</v>
+      </c>
+      <c r="G9" s="40"/>
+      <c r="K9" s="12">
+        <v>8</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="36">
+        <v>2</v>
+      </c>
+      <c r="B10" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="22">
+        <v>2000</v>
+      </c>
+      <c r="G10" s="40"/>
+      <c r="K10" s="12">
+        <v>9</v>
+      </c>
+      <c r="L10" s="12"/>
+    </row>
+    <row r="11" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="36">
+        <v>1</v>
+      </c>
+      <c r="B11" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Expense</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>730</v>
+      </c>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="22">
+        <v>6000</v>
+      </c>
+      <c r="G11" s="40"/>
+      <c r="K11" s="12">
+        <v>10</v>
+      </c>
+      <c r="L11" s="12"/>
+    </row>
+    <row r="12" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="36">
+        <v>5</v>
+      </c>
+      <c r="B12" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Carry</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>731</v>
+      </c>
+      <c r="D12" s="19"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="22">
+        <v>2000</v>
+      </c>
+      <c r="G12" s="40"/>
+      <c r="K12" s="12">
+        <v>11</v>
+      </c>
+      <c r="L12" s="12"/>
+    </row>
+    <row r="13" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="36">
+        <v>2</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>337</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>732</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>733</v>
+      </c>
+      <c r="E13" s="14"/>
+      <c r="F13" s="22">
+        <v>8000</v>
+      </c>
+      <c r="G13" s="40"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+    </row>
+    <row r="14" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="36">
+        <v>3</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>333</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>734</v>
+      </c>
+      <c r="D14" s="19"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="22">
+        <v>5000</v>
+      </c>
+      <c r="G14" s="40"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+    </row>
+    <row r="15" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="36">
+        <v>3</v>
+      </c>
+      <c r="B15" s="37" t="s">
+        <v>333</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>735</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>736</v>
+      </c>
+      <c r="E15" s="14"/>
+      <c r="F15" s="22">
+        <v>5000</v>
+      </c>
+      <c r="G15" s="40"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+    </row>
+    <row r="16" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="36">
+        <v>3</v>
+      </c>
+      <c r="B16" s="37" t="s">
+        <v>333</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>737</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>726</v>
+      </c>
+      <c r="E16" s="14"/>
+      <c r="F16" s="22">
+        <v>6000</v>
+      </c>
+      <c r="G16" s="40"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+    </row>
+    <row r="17" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="36">
+        <v>3</v>
+      </c>
+      <c r="B17" s="37" t="s">
+        <v>333</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>738</v>
+      </c>
+      <c r="D17" s="19"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="22">
+        <v>1500</v>
+      </c>
+      <c r="G17" s="40"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+    </row>
+    <row r="18" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="36">
+        <v>2</v>
+      </c>
+      <c r="B18" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="D18" s="19"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="22">
+        <v>1700</v>
+      </c>
+      <c r="G18" s="40"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+    </row>
+    <row r="19" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="36">
+        <v>4</v>
+      </c>
+      <c r="B19" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Wages</v>
+      </c>
+      <c r="C19" s="87" t="s">
+        <v>364</v>
+      </c>
+      <c r="D19" s="19"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="22">
+        <v>20000</v>
+      </c>
+      <c r="G19" s="40"/>
+    </row>
+    <row r="20" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="36">
+        <v>6</v>
+      </c>
+      <c r="B20" s="37" t="s">
+        <v>335</v>
+      </c>
+      <c r="C20" s="87" t="s">
+        <v>739</v>
+      </c>
+      <c r="D20" s="19"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="22">
+        <v>31500</v>
+      </c>
+      <c r="G20" s="40"/>
+    </row>
+    <row r="21" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="36">
+        <v>8</v>
+      </c>
+      <c r="B21" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Advance</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>709</v>
+      </c>
+      <c r="D21" s="19"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="22">
+        <v>20000</v>
+      </c>
+      <c r="G21" s="40"/>
+    </row>
+    <row r="22" spans="1:12" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="36">
+        <v>1</v>
+      </c>
+      <c r="B22" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Expense</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="19"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="22">
+        <v>600</v>
+      </c>
+      <c r="G22" s="40"/>
+    </row>
+    <row r="23" spans="1:12" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="36">
+        <v>2</v>
+      </c>
+      <c r="B23" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C23" s="13"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="40"/>
+    </row>
+    <row r="24" spans="1:12" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="36">
+        <v>2</v>
+      </c>
+      <c r="B24" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C24" s="13"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="40"/>
+    </row>
+    <row r="25" spans="1:12" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="36">
+        <v>2</v>
+      </c>
+      <c r="B25" s="37" t="s">
+        <v>337</v>
+      </c>
+      <c r="C25" s="13"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="40"/>
+    </row>
+    <row r="26" spans="1:12" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="36">
+        <v>2</v>
+      </c>
+      <c r="B26" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C26" s="13"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="40"/>
+    </row>
+    <row r="27" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E27" s="58" t="s">
+        <v>332</v>
+      </c>
+      <c r="F27" s="60">
+        <f>SUM(F2:F26)</f>
+        <v>174200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E28" s="58" t="s">
+        <v>372</v>
+      </c>
+      <c r="F28" s="61">
+        <v>189550</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E29" s="58" t="s">
+        <v>373</v>
+      </c>
+      <c r="F29" s="61">
+        <v>32500</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="23.25" x14ac:dyDescent="0.6">
+      <c r="E30" s="58" t="s">
+        <v>407</v>
+      </c>
+      <c r="F30" s="59">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F31" s="53">
+        <f>SUM(F27:F30)</f>
+        <v>456250</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E32" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="F32" s="61">
+        <v>125000</v>
+      </c>
+    </row>
+    <row r="33" spans="5:6" ht="23.25" x14ac:dyDescent="0.6">
+      <c r="E33" s="58" t="s">
+        <v>374</v>
+      </c>
+      <c r="F33" s="64">
+        <v>1015500</v>
+      </c>
+    </row>
+    <row r="34" spans="5:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F34" s="50">
+        <f>SUM(F32:F33)</f>
+        <v>1140500</v>
+      </c>
+    </row>
+    <row r="35" spans="5:6" ht="23.25" x14ac:dyDescent="0.6">
+      <c r="F35" s="70">
+        <v>456250</v>
+      </c>
+    </row>
+    <row r="36" spans="5:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F36" s="68">
+        <f>F34-F35</f>
+        <v>684250</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:L36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="36.28515625" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="26" t="s">
+        <v>330</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>375</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>328</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="36">
+        <v>6</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>335</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="19"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="22">
+        <v>5000</v>
+      </c>
+      <c r="G2" s="40"/>
+      <c r="K2" s="12">
+        <v>1</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="36">
+        <v>2</v>
+      </c>
+      <c r="B3" s="37" t="str">
+        <f t="shared" ref="B3:B26" si="0">IF(A3=1,myvar1,IF(A3=2,myvar2,IF(A3=3,myvar3,IF(A3=4,myvar4,IF(A3=5,myvar5,IF(A3=6,myvar6,IF(A3=7,myvar7,IF(A3=8,myvar8,IF(A3=9,myvar9,IF(A3=10,myvar10,IF(A3=11,myvar11,IF(A3=12,myvar12,IF(A3=13,myvar13,)))))))))))))</f>
+        <v>Workshop</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="19"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="22">
+        <v>2000</v>
+      </c>
+      <c r="G3" s="40"/>
+      <c r="K3" s="12">
+        <v>2</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="36">
+        <v>2</v>
+      </c>
+      <c r="B4" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="D4" s="19"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="22">
+        <v>1700</v>
+      </c>
+      <c r="G4" s="40"/>
+      <c r="K4" s="12">
+        <v>3</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="36">
+        <v>5</v>
+      </c>
+      <c r="B5" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Carry</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="D5" s="19"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="22">
+        <v>9000</v>
+      </c>
+      <c r="G5" s="40"/>
+      <c r="K5" s="12">
+        <v>4</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="36">
+        <v>2</v>
+      </c>
+      <c r="B6" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>740</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="E6" s="16"/>
+      <c r="F6" s="22">
+        <v>4000</v>
+      </c>
+      <c r="G6" s="40"/>
+      <c r="K6" s="12">
+        <v>5</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="36">
+        <v>1</v>
+      </c>
+      <c r="B7" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Expense</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>741</v>
+      </c>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="22">
+        <v>1000</v>
+      </c>
+      <c r="G7" s="40"/>
+      <c r="K7" s="12">
+        <v>6</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="36">
+        <v>5</v>
+      </c>
+      <c r="B8" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Carry</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>405</v>
+      </c>
+      <c r="D8" s="19"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="22">
+        <v>11000</v>
+      </c>
+      <c r="G8" s="40"/>
+      <c r="K8" s="12">
+        <v>7</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="36">
+        <v>3</v>
+      </c>
+      <c r="B9" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Body &amp; Painting</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>742</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>743</v>
+      </c>
+      <c r="E9" s="19"/>
+      <c r="F9" s="22">
+        <v>6000</v>
+      </c>
+      <c r="G9" s="40"/>
+      <c r="K9" s="12">
+        <v>8</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="36">
+        <v>3</v>
+      </c>
+      <c r="B10" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Body &amp; Painting</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>744</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="16"/>
+      <c r="F10" s="22">
+        <v>6000</v>
+      </c>
+      <c r="G10" s="40"/>
+      <c r="K10" s="12">
+        <v>9</v>
+      </c>
+      <c r="L10" s="12"/>
+    </row>
+    <row r="11" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="36">
+        <v>3</v>
+      </c>
+      <c r="B11" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Body &amp; Painting</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>757</v>
+      </c>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="22">
+        <v>11600</v>
+      </c>
+      <c r="G11" s="40"/>
+      <c r="K11" s="12">
+        <v>10</v>
+      </c>
+      <c r="L11" s="12"/>
+    </row>
+    <row r="12" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="36">
+        <v>3</v>
+      </c>
+      <c r="B12" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Body &amp; Painting</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>710</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>745</v>
+      </c>
+      <c r="E12" s="14"/>
+      <c r="F12" s="22">
+        <v>15000</v>
+      </c>
+      <c r="G12" s="40"/>
+      <c r="K12" s="12">
+        <v>11</v>
+      </c>
+      <c r="L12" s="12"/>
+    </row>
+    <row r="13" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="36">
+        <v>2</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>337</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>746</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>747</v>
+      </c>
+      <c r="E13" s="14"/>
+      <c r="F13" s="22">
+        <v>13000</v>
+      </c>
+      <c r="G13" s="40"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+    </row>
+    <row r="14" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="36">
+        <v>2</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>337</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>748</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>749</v>
+      </c>
+      <c r="E14" s="14"/>
+      <c r="F14" s="22">
+        <v>23000</v>
+      </c>
+      <c r="G14" s="40"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+    </row>
+    <row r="15" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="36">
+        <v>1</v>
+      </c>
+      <c r="B15" s="37" t="s">
+        <v>332</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>750</v>
+      </c>
+      <c r="D15" s="19"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="22">
+        <v>4000</v>
+      </c>
+      <c r="G15" s="40"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+    </row>
+    <row r="16" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="36">
+        <v>2</v>
+      </c>
+      <c r="B16" s="37" t="s">
+        <v>337</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>751</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>343</v>
+      </c>
+      <c r="E16" s="14"/>
+      <c r="F16" s="22">
+        <v>2500</v>
+      </c>
+      <c r="G16" s="40"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+    </row>
+    <row r="17" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="36">
+        <v>1</v>
+      </c>
+      <c r="B17" s="37" t="s">
+        <v>332</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>752</v>
+      </c>
+      <c r="D17" s="19"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="22">
+        <v>1500</v>
+      </c>
+      <c r="G17" s="40"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+    </row>
+    <row r="18" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="36">
+        <v>1</v>
+      </c>
+      <c r="B18" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Expense</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>455</v>
+      </c>
+      <c r="D18" s="19"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="22">
+        <v>1600</v>
+      </c>
+      <c r="G18" s="40"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+    </row>
+    <row r="19" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="36">
+        <v>1</v>
+      </c>
+      <c r="B19" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Expense</v>
+      </c>
+      <c r="C19" s="87" t="s">
+        <v>753</v>
+      </c>
+      <c r="D19" s="19"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="22">
+        <v>2400</v>
+      </c>
+      <c r="G19" s="40"/>
+    </row>
+    <row r="20" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="36">
+        <v>2</v>
+      </c>
+      <c r="B20" s="37" t="s">
+        <v>337</v>
+      </c>
+      <c r="C20" s="87" t="s">
+        <v>754</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>343</v>
+      </c>
+      <c r="E20" s="14"/>
+      <c r="F20" s="22">
+        <v>2000</v>
+      </c>
+      <c r="G20" s="40"/>
+    </row>
+    <row r="21" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="36">
+        <v>3</v>
+      </c>
+      <c r="B21" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Body &amp; Painting</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>755</v>
+      </c>
+      <c r="D21" s="19"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="22">
+        <v>22500</v>
+      </c>
+      <c r="G21" s="40"/>
+    </row>
+    <row r="22" spans="1:12" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="36">
+        <v>2</v>
+      </c>
+      <c r="B22" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>756</v>
+      </c>
+      <c r="D22" s="19"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="22">
+        <v>14000</v>
+      </c>
+      <c r="G22" s="40"/>
+    </row>
+    <row r="23" spans="1:12" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="36">
+        <v>2</v>
+      </c>
+      <c r="B23" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>689</v>
+      </c>
+      <c r="D23" s="19"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="22">
+        <v>2000</v>
+      </c>
+      <c r="G23" s="40"/>
+    </row>
+    <row r="24" spans="1:12" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="36">
+        <v>3</v>
+      </c>
+      <c r="B24" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Body &amp; Painting</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>476</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>726</v>
+      </c>
+      <c r="E24" s="14"/>
+      <c r="F24" s="22">
+        <v>1500</v>
+      </c>
+      <c r="G24" s="40"/>
+    </row>
+    <row r="25" spans="1:12" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="36">
+        <v>2</v>
+      </c>
+      <c r="B25" s="37" t="s">
+        <v>337</v>
+      </c>
+      <c r="C25" s="13"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="40"/>
+    </row>
+    <row r="26" spans="1:12" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="36">
+        <v>2</v>
+      </c>
+      <c r="B26" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C26" s="13"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="40"/>
+    </row>
+    <row r="27" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E27" s="58"/>
+      <c r="F27" s="60">
+        <f>SUM(F2:F26)</f>
+        <v>162300</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E28" s="58"/>
+      <c r="F28" s="61"/>
+    </row>
+    <row r="29" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E29" s="58"/>
+      <c r="F29" s="61"/>
+    </row>
+    <row r="30" spans="1:12" ht="23.25" x14ac:dyDescent="0.6">
+      <c r="E30" s="58"/>
+      <c r="F30" s="59"/>
+    </row>
+    <row r="31" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F31" s="53"/>
+    </row>
+    <row r="32" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E32" s="58"/>
+      <c r="F32" s="61"/>
+    </row>
+    <row r="33" spans="5:6" ht="23.25" x14ac:dyDescent="0.6">
+      <c r="E33" s="58"/>
+      <c r="F33" s="64"/>
+    </row>
+    <row r="34" spans="5:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F34" s="50"/>
+    </row>
+    <row r="35" spans="5:6" ht="23.25" x14ac:dyDescent="0.6">
+      <c r="F35" s="70"/>
+    </row>
+    <row r="36" spans="5:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F36" s="68"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="36.28515625" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="26" t="s">
+        <v>330</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>375</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>328</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="36">
+        <v>2</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>337</v>
+      </c>
+      <c r="C2" s="13"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="40"/>
+      <c r="K2" s="12">
+        <v>1</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="36">
+        <v>6</v>
+      </c>
+      <c r="B3" s="37" t="str">
+        <f t="shared" ref="B3:B26" si="0">IF(A3=1,myvar1,IF(A3=2,myvar2,IF(A3=3,myvar3,IF(A3=4,myvar4,IF(A3=5,myvar5,IF(A3=6,myvar6,IF(A3=7,myvar7,IF(A3=8,myvar8,IF(A3=9,myvar9,IF(A3=10,myvar10,IF(A3=11,myvar11,IF(A3=12,myvar12,IF(A3=13,myvar13,)))))))))))))</f>
+        <v>Meal</v>
+      </c>
+      <c r="C3" s="13"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="40"/>
+      <c r="K3" s="12">
+        <v>2</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="36">
+        <v>3</v>
+      </c>
+      <c r="B4" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Body &amp; Painting</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="40"/>
+      <c r="K4" s="12">
+        <v>3</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="36">
+        <v>3</v>
+      </c>
+      <c r="B5" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Body &amp; Painting</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="40"/>
+      <c r="K5" s="12">
+        <v>4</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="36">
+        <v>3</v>
+      </c>
+      <c r="B6" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Body &amp; Painting</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="40"/>
+      <c r="K6" s="12">
+        <v>5</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="36">
+        <v>1</v>
+      </c>
+      <c r="B7" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Expense</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="40"/>
+      <c r="K7" s="12">
+        <v>6</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="36">
+        <v>5</v>
+      </c>
+      <c r="B8" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Carry</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="40"/>
+      <c r="K8" s="12">
+        <v>7</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="36">
+        <v>3</v>
+      </c>
+      <c r="B9" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Body &amp; Painting</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="40"/>
+      <c r="K9" s="12">
+        <v>8</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="36">
+        <v>2</v>
+      </c>
+      <c r="B10" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="40"/>
+      <c r="K10" s="12">
+        <v>9</v>
+      </c>
+      <c r="L10" s="12"/>
+    </row>
+    <row r="11" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="36">
+        <v>1</v>
+      </c>
+      <c r="B11" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Expense</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="40"/>
+      <c r="K11" s="12">
+        <v>10</v>
+      </c>
+      <c r="L11" s="12"/>
+    </row>
+    <row r="12" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="36">
+        <v>5</v>
+      </c>
+      <c r="B12" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Carry</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="40"/>
+      <c r="K12" s="12">
+        <v>11</v>
+      </c>
+      <c r="L12" s="12"/>
+    </row>
+    <row r="13" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="36">
+        <v>2</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>337</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="40"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+    </row>
+    <row r="14" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="36">
+        <v>3</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>333</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="40"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+    </row>
+    <row r="15" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="36">
+        <v>3</v>
+      </c>
+      <c r="B15" s="37" t="s">
+        <v>333</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="40"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+    </row>
+    <row r="16" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="36">
+        <v>3</v>
+      </c>
+      <c r="B16" s="37" t="s">
+        <v>333</v>
+      </c>
+      <c r="C16" s="13"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="40"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+    </row>
+    <row r="17" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="36">
+        <v>3</v>
+      </c>
+      <c r="B17" s="37" t="s">
+        <v>333</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="40"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+    </row>
+    <row r="18" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="36">
+        <v>2</v>
+      </c>
+      <c r="B18" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="40"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+    </row>
+    <row r="19" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="36">
+        <v>4</v>
+      </c>
+      <c r="B19" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Wages</v>
+      </c>
+      <c r="C19" s="87"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="40"/>
+    </row>
+    <row r="20" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="36">
+        <v>6</v>
+      </c>
+      <c r="B20" s="37" t="s">
+        <v>335</v>
+      </c>
+      <c r="C20" s="87"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="40"/>
+    </row>
+    <row r="21" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="36">
+        <v>8</v>
+      </c>
+      <c r="B21" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Advance</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="40"/>
+    </row>
+    <row r="22" spans="1:12" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="36">
+        <v>1</v>
+      </c>
+      <c r="B22" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Expense</v>
+      </c>
+      <c r="C22" s="13"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="40"/>
+    </row>
+    <row r="23" spans="1:12" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="36">
+        <v>2</v>
+      </c>
+      <c r="B23" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C23" s="13"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="40"/>
+    </row>
+    <row r="24" spans="1:12" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="36">
+        <v>2</v>
+      </c>
+      <c r="B24" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C24" s="13"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="40"/>
+    </row>
+    <row r="25" spans="1:12" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="36">
+        <v>2</v>
+      </c>
+      <c r="B25" s="37" t="s">
+        <v>337</v>
+      </c>
+      <c r="C25" s="13"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="40"/>
+    </row>
+    <row r="26" spans="1:12" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="36">
+        <v>2</v>
+      </c>
+      <c r="B26" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C26" s="13"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="40"/>
+    </row>
+    <row r="27" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E27" s="58"/>
+      <c r="F27" s="60"/>
+    </row>
+    <row r="28" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E28" s="58"/>
+      <c r="F28" s="61"/>
+    </row>
+    <row r="29" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E29" s="58"/>
+      <c r="F29" s="61"/>
+    </row>
+    <row r="30" spans="1:12" ht="23.25" x14ac:dyDescent="0.6">
+      <c r="E30" s="58"/>
+      <c r="F30" s="59"/>
+    </row>
+    <row r="31" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F31" s="53"/>
+    </row>
+    <row r="32" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E32" s="58"/>
+      <c r="F32" s="61"/>
+    </row>
+    <row r="33" spans="5:6" ht="23.25" x14ac:dyDescent="0.6">
+      <c r="E33" s="58"/>
+      <c r="F33" s="64"/>
+    </row>
+    <row r="34" spans="5:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F34" s="50"/>
+    </row>
+    <row r="35" spans="5:6" ht="23.25" x14ac:dyDescent="0.6">
+      <c r="F35" s="70"/>
+    </row>
+    <row r="36" spans="5:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F36" s="68"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/GB-3Expense (Autosaved).xlsx
+++ b/GB-3Expense (Autosaved).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830" firstSheet="16" activeTab="23"/>
+    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830" firstSheet="17" activeTab="24"/>
   </bookViews>
   <sheets>
     <sheet name="Jun-2018" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,8 @@
     <sheet name="20.8.2018" sheetId="22" r:id="rId22"/>
     <sheet name="21.8.2018" sheetId="24" r:id="rId23"/>
     <sheet name="22.8.2018" sheetId="25" r:id="rId24"/>
-    <sheet name="Sheet4" sheetId="26" r:id="rId25"/>
+    <sheet name="23.8.2018" sheetId="26" r:id="rId25"/>
+    <sheet name="Sheet1" sheetId="27" r:id="rId26"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'1.8.2018'!$A$1:$G$31</definedName>
@@ -61,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2498" uniqueCount="758">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2504" uniqueCount="758">
   <si>
     <t>1.6.2018</t>
   </si>
@@ -19820,8 +19821,8 @@
   </sheetPr>
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19949,7 +19950,7 @@
       <c r="D5" s="19"/>
       <c r="E5" s="14"/>
       <c r="F5" s="22">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="G5" s="40"/>
       <c r="K5" s="12">
@@ -20363,56 +20364,85 @@
     </row>
     <row r="25" spans="1:12" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="36">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B25" s="37" t="s">
-        <v>337</v>
-      </c>
-      <c r="C25" s="13"/>
+        <v>334</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>424</v>
+      </c>
       <c r="D25" s="19"/>
       <c r="E25" s="14"/>
-      <c r="F25" s="22"/>
+      <c r="F25" s="22">
+        <v>20000</v>
+      </c>
       <c r="G25" s="40"/>
     </row>
     <row r="26" spans="1:12" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="36">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B26" s="37" t="str">
         <f t="shared" si="0"/>
-        <v>Workshop</v>
-      </c>
-      <c r="C26" s="13"/>
+        <v>Meal</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>739</v>
+      </c>
       <c r="D26" s="16"/>
       <c r="E26" s="16"/>
-      <c r="F26" s="22"/>
+      <c r="F26" s="22">
+        <v>31500</v>
+      </c>
       <c r="G26" s="40"/>
     </row>
     <row r="27" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E27" s="58"/>
+      <c r="E27" s="58" t="s">
+        <v>332</v>
+      </c>
       <c r="F27" s="60">
         <f>SUM(F2:F26)</f>
-        <v>162300</v>
+        <v>216800</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E28" s="58"/>
-      <c r="F28" s="61"/>
-    </row>
-    <row r="29" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E29" s="58"/>
-      <c r="F29" s="61"/>
-    </row>
-    <row r="30" spans="1:12" ht="23.25" x14ac:dyDescent="0.6">
+      <c r="E28" s="58" t="s">
+        <v>372</v>
+      </c>
+      <c r="F28" s="61">
+        <v>24200</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="E29" s="58" t="s">
+        <v>373</v>
+      </c>
+      <c r="F29" s="56">
+        <v>611500</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E30" s="58"/>
-      <c r="F30" s="59"/>
-    </row>
-    <row r="31" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="F31" s="53"/>
+      <c r="F30" s="69">
+        <f>SUM(F27:F29)</f>
+        <v>852500</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="E31" s="66" t="s">
+        <v>374</v>
+      </c>
+      <c r="F31" s="78">
+        <v>865500</v>
+      </c>
     </row>
     <row r="32" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="E32" s="58"/>
-      <c r="F32" s="61"/>
+      <c r="F32" s="61">
+        <f>F31-F30</f>
+        <v>13000</v>
+      </c>
     </row>
     <row r="33" spans="5:6" ht="23.25" x14ac:dyDescent="0.6">
       <c r="E33" s="58"/>
@@ -20429,15 +20459,19 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="5" tint="-0.499984740745262"/>
+  </sheetPr>
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20931,6 +20965,18 @@
       <c r="F36" s="68"/>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/GB-3Expense (Autosaved).xlsx
+++ b/GB-3Expense (Autosaved).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830" firstSheet="17" activeTab="24"/>
+    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830" firstSheet="17" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="Jun-2018" sheetId="1" r:id="rId1"/>
@@ -39,6 +39,10 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'10.8.2018'!$A$1:$G$36</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'11.8.2018'!$A$1:$G$28</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'2.8.2018'!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="21" hidden="1">'20.8.2018'!$A$1:$G$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="22" hidden="1">'21.8.2018'!$A$1:$G$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="23" hidden="1">'22.8.2018'!$A$1:$G$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="24" hidden="1">'23.8.2018'!$A$1:$G$35</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'3.8.2018'!$A$1:$G$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'4.8.2018'!$A$1:$G$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'July-2018'!$A$1:$D$537</definedName>
@@ -62,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2504" uniqueCount="758">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2543" uniqueCount="777">
   <si>
     <t>1.6.2018</t>
   </si>
@@ -2263,9 +2267,6 @@
     <t>ဂိုင္းဘြတ္</t>
   </si>
   <si>
-    <t>Lancer</t>
-  </si>
-  <si>
     <t>905/တင္ဒါျကမ္း</t>
   </si>
   <si>
@@ -2305,9 +2306,6 @@
     <t>ခေရာ့ေဘာ</t>
   </si>
   <si>
-    <t>9E-6598/Isuzu</t>
-  </si>
-  <si>
     <t>Plug Coil</t>
   </si>
   <si>
@@ -2336,6 +2334,69 @@
   </si>
   <si>
     <t>ေဆးစစ္ဇကာ/131/3M Tape</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gear Oil </t>
+  </si>
+  <si>
+    <t>Bingo Car</t>
+  </si>
+  <si>
+    <t>အိမ္သာစီးဖိနပ္</t>
+  </si>
+  <si>
+    <t>5H-5624/Probox</t>
+  </si>
+  <si>
+    <t>ေနာက္ရွွဴး</t>
+  </si>
+  <si>
+    <t>9E-8070/Townace</t>
+  </si>
+  <si>
+    <t>Finger သ</t>
+  </si>
+  <si>
+    <t>ဒ၇မ္သ</t>
+  </si>
+  <si>
+    <t>9E-3468/Probox</t>
+  </si>
+  <si>
+    <t>သံေခ်ာင္း</t>
+  </si>
+  <si>
+    <t>Wire Tape</t>
+  </si>
+  <si>
+    <t>FF-1433/Probox</t>
+  </si>
+  <si>
+    <t>2D-7092/Police</t>
+  </si>
+  <si>
+    <t>ဆိုင္ကယ္ျပဳျပင္</t>
+  </si>
+  <si>
+    <t>အရစ္ေတာက္/နက္ျကိုးထုတ္</t>
+  </si>
+  <si>
+    <t>Demio/Fuji</t>
+  </si>
+  <si>
+    <t>23*1500</t>
+  </si>
+  <si>
+    <t>Ye'Myat Thwin</t>
+  </si>
+  <si>
+    <t>3M-8476/Bongo3</t>
+  </si>
+  <si>
+    <t>9E-9768/Isuzu</t>
+  </si>
+  <si>
+    <t>5F-6481/Lancer</t>
   </si>
 </sst>
 </file>
@@ -2346,7 +2407,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2586,6 +2647,12 @@
       <name val="Zawgyi-One"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Zawgyi-One"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2654,7 +2721,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2845,6 +2912,9 @@
     <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -18503,13 +18573,13 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18552,7 +18622,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:12" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="36">
         <v>1</v>
       </c>
@@ -18576,7 +18646,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:12" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="36">
         <v>6</v>
       </c>
@@ -18600,7 +18670,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:12" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="36">
         <v>3</v>
       </c>
@@ -18707,7 +18777,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:12" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="36">
         <v>2</v>
       </c>
@@ -18731,7 +18801,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:12" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="36">
         <v>6</v>
       </c>
@@ -18779,7 +18849,7 @@
       </c>
       <c r="L10" s="12"/>
     </row>
-    <row r="11" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:12" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="36">
         <v>3</v>
       </c>
@@ -18801,7 +18871,7 @@
       </c>
       <c r="L11" s="12"/>
     </row>
-    <row r="12" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:12" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="36">
         <v>5</v>
       </c>
@@ -18846,7 +18916,7 @@
       <c r="K13" s="12"/>
       <c r="L13" s="12"/>
     </row>
-    <row r="14" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:12" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="36">
         <v>5</v>
       </c>
@@ -18865,7 +18935,7 @@
       <c r="K14" s="12"/>
       <c r="L14" s="12"/>
     </row>
-    <row r="15" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:12" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="36">
         <v>8</v>
       </c>
@@ -18884,7 +18954,7 @@
       <c r="K15" s="12"/>
       <c r="L15" s="12"/>
     </row>
-    <row r="16" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:12" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="36">
         <v>3</v>
       </c>
@@ -18905,7 +18975,7 @@
       <c r="K16" s="12"/>
       <c r="L16" s="12"/>
     </row>
-    <row r="17" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:12" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="36">
         <v>3</v>
       </c>
@@ -18950,7 +19020,7 @@
       <c r="K18" s="12"/>
       <c r="L18" s="12"/>
     </row>
-    <row r="19" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:12" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="36">
         <v>4</v>
       </c>
@@ -18989,7 +19059,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:12" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="36">
         <v>1</v>
       </c>
@@ -19007,7 +19077,7 @@
       </c>
       <c r="G21" s="40"/>
     </row>
-    <row r="22" spans="1:12" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:12" ht="21.75" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="36">
         <v>6</v>
       </c>
@@ -19065,7 +19135,7 @@
       </c>
       <c r="G24" s="40"/>
     </row>
-    <row r="25" spans="1:12" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:12" ht="21.75" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="36">
         <v>2</v>
       </c>
@@ -19082,7 +19152,7 @@
       </c>
       <c r="G25" s="40"/>
     </row>
-    <row r="26" spans="1:12" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:12" ht="21.75" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="36">
         <v>2</v>
       </c>
@@ -19100,7 +19170,7 @@
       </c>
       <c r="G26" s="40"/>
     </row>
-    <row r="27" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="E27" s="58" t="s">
         <v>332</v>
       </c>
@@ -19109,7 +19179,7 @@
         <v>436500</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="E28" s="58" t="s">
         <v>372</v>
       </c>
@@ -19117,7 +19187,7 @@
         <v>247500</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="E29" s="58" t="s">
         <v>373</v>
       </c>
@@ -19125,7 +19195,7 @@
         <v>486500</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="23.25" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:12" ht="23.25" hidden="1" x14ac:dyDescent="0.6">
       <c r="E30" s="58" t="s">
         <v>407</v>
       </c>
@@ -19133,13 +19203,13 @@
         <v>68000</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="F31" s="53">
         <f>SUM(F27:F30)</f>
         <v>1238500</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="E32" s="58" t="s">
         <v>428</v>
       </c>
@@ -19147,7 +19217,7 @@
         <v>147000</v>
       </c>
     </row>
-    <row r="33" spans="5:6" ht="23.25" x14ac:dyDescent="0.6">
+    <row r="33" spans="5:6" ht="23.25" hidden="1" x14ac:dyDescent="0.6">
       <c r="E33" s="58" t="s">
         <v>374</v>
       </c>
@@ -19155,24 +19225,36 @@
         <v>856500</v>
       </c>
     </row>
-    <row r="34" spans="5:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="34" spans="5:6" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
       <c r="F34" s="50">
         <f>SUM(F32:F33)</f>
         <v>1003500</v>
       </c>
     </row>
-    <row r="35" spans="5:6" ht="23.25" x14ac:dyDescent="0.6">
+    <row r="35" spans="5:6" ht="23.25" hidden="1" x14ac:dyDescent="0.6">
       <c r="F35" s="70">
         <v>1238500</v>
       </c>
     </row>
-    <row r="36" spans="5:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="36" spans="5:6" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
       <c r="F36" s="62">
         <f>F34-F35</f>
         <v>-235000</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G36">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="2"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="3">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -19186,7 +19268,7 @@
   <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19501,13 +19583,17 @@
         <v>732</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>733</v>
-      </c>
-      <c r="E13" s="14"/>
+        <v>776</v>
+      </c>
+      <c r="E13" s="14">
+        <v>16262</v>
+      </c>
       <c r="F13" s="22">
         <v>8000</v>
       </c>
-      <c r="G13" s="40"/>
+      <c r="G13" s="40">
+        <v>9000</v>
+      </c>
       <c r="K13" s="12"/>
       <c r="L13" s="12"/>
     </row>
@@ -19519,7 +19605,7 @@
         <v>333</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="D14" s="19"/>
       <c r="E14" s="14"/>
@@ -19538,10 +19624,10 @@
         <v>333</v>
       </c>
       <c r="C15" s="13" t="s">
+        <v>734</v>
+      </c>
+      <c r="D15" s="19" t="s">
         <v>735</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>736</v>
       </c>
       <c r="E15" s="14"/>
       <c r="F15" s="22">
@@ -19559,7 +19645,7 @@
         <v>333</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D16" s="19" t="s">
         <v>726</v>
@@ -19580,7 +19666,7 @@
         <v>333</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D17" s="19"/>
       <c r="E17" s="14"/>
@@ -19637,7 +19723,7 @@
         <v>335</v>
       </c>
       <c r="C20" s="87" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="D20" s="19"/>
       <c r="E20" s="14"/>
@@ -19810,6 +19896,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G36"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -19821,8 +19908,8 @@
   </sheetPr>
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19969,7 +20056,7 @@
         <v>Workshop</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D6" s="16" t="s">
         <v>318</v>
@@ -19995,7 +20082,7 @@
         <v>Expense</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D7" s="19"/>
       <c r="E7" s="19"/>
@@ -20043,10 +20130,10 @@
         <v>Body &amp; Painting</v>
       </c>
       <c r="C9" s="18" t="s">
+        <v>741</v>
+      </c>
+      <c r="D9" s="19" t="s">
         <v>742</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>743</v>
       </c>
       <c r="E9" s="19"/>
       <c r="F9" s="22">
@@ -20069,7 +20156,7 @@
         <v>Body &amp; Painting</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D10" s="16" t="s">
         <v>66</v>
@@ -20093,7 +20180,7 @@
         <v>Body &amp; Painting</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="D11" s="19"/>
       <c r="E11" s="19"/>
@@ -20118,7 +20205,7 @@
         <v>710</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="22">
@@ -20138,16 +20225,20 @@
         <v>337</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>747</v>
-      </c>
-      <c r="E13" s="14"/>
+        <v>775</v>
+      </c>
+      <c r="E13" s="14">
+        <v>16328</v>
+      </c>
       <c r="F13" s="22">
         <v>13000</v>
       </c>
-      <c r="G13" s="40"/>
+      <c r="G13" s="40">
+        <v>17000</v>
+      </c>
       <c r="K13" s="12"/>
       <c r="L13" s="12"/>
     </row>
@@ -20159,16 +20250,20 @@
         <v>337</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>749</v>
-      </c>
-      <c r="E14" s="14"/>
+        <v>747</v>
+      </c>
+      <c r="E14" s="14">
+        <v>16331</v>
+      </c>
       <c r="F14" s="22">
         <v>23000</v>
       </c>
-      <c r="G14" s="40"/>
+      <c r="G14" s="40">
+        <v>24000</v>
+      </c>
       <c r="K14" s="12"/>
       <c r="L14" s="12"/>
     </row>
@@ -20180,7 +20275,7 @@
         <v>332</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="D15" s="19"/>
       <c r="E15" s="14"/>
@@ -20193,13 +20288,13 @@
     </row>
     <row r="16" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B16" s="37" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="D16" s="19" t="s">
         <v>343</v>
@@ -20220,7 +20315,7 @@
         <v>332</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="D17" s="19"/>
       <c r="E17" s="14"/>
@@ -20260,7 +20355,7 @@
         <v>Expense</v>
       </c>
       <c r="C19" s="87" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="D19" s="19"/>
       <c r="E19" s="14"/>
@@ -20271,13 +20366,13 @@
     </row>
     <row r="20" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B20" s="37" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="C20" s="87" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="D20" s="19" t="s">
         <v>343</v>
@@ -20297,7 +20392,7 @@
         <v>Body &amp; Painting</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="D21" s="19"/>
       <c r="E21" s="14"/>
@@ -20315,7 +20410,7 @@
         <v>Workshop</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="D22" s="19"/>
       <c r="E22" s="14"/>
@@ -20388,7 +20483,7 @@
         <v>Meal</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="D26" s="16"/>
       <c r="E26" s="16"/>
@@ -20458,6 +20553,7 @@
       <c r="F36" s="68"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G32"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -20468,10 +20564,10 @@
   <sheetPr>
     <tabColor theme="5" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:L36"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20516,101 +20612,128 @@
     </row>
     <row r="2" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="36">
-        <v>2</v>
-      </c>
-      <c r="B2" s="37" t="s">
-        <v>337</v>
-      </c>
-      <c r="C2" s="13"/>
+        <v>6</v>
+      </c>
+      <c r="B2" s="37" t="str">
+        <f t="shared" ref="B2:B25" si="0">IF(A2=1,myvar1,IF(A2=2,myvar2,IF(A2=3,myvar3,IF(A2=4,myvar4,IF(A2=5,myvar5,IF(A2=6,myvar6,IF(A2=7,myvar7,IF(A2=8,myvar8,IF(A2=9,myvar9,IF(A2=10,myvar10,IF(A2=11,myvar11,IF(A2=12,myvar12,IF(A2=13,myvar13,)))))))))))))</f>
+        <v>Meal</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>304</v>
+      </c>
       <c r="D2" s="19"/>
       <c r="E2" s="14"/>
-      <c r="F2" s="22"/>
+      <c r="F2" s="22">
+        <v>5000</v>
+      </c>
       <c r="G2" s="40"/>
       <c r="K2" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="36">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B3" s="37" t="str">
-        <f t="shared" ref="B3:B26" si="0">IF(A3=1,myvar1,IF(A3=2,myvar2,IF(A3=3,myvar3,IF(A3=4,myvar4,IF(A3=5,myvar5,IF(A3=6,myvar6,IF(A3=7,myvar7,IF(A3=8,myvar8,IF(A3=9,myvar9,IF(A3=10,myvar10,IF(A3=11,myvar11,IF(A3=12,myvar12,IF(A3=13,myvar13,)))))))))))))</f>
-        <v>Meal</v>
-      </c>
-      <c r="C3" s="13"/>
+        <f t="shared" si="0"/>
+        <v>Expense</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>455</v>
+      </c>
       <c r="D3" s="19"/>
       <c r="E3" s="14"/>
-      <c r="F3" s="22"/>
+      <c r="F3" s="22">
+        <v>1600</v>
+      </c>
       <c r="G3" s="40"/>
       <c r="K3" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="37" t="str">
         <f t="shared" si="0"/>
-        <v>Body &amp; Painting</v>
-      </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="40"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>756</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>774</v>
+      </c>
+      <c r="E4" s="14">
+        <v>16344</v>
+      </c>
+      <c r="F4" s="22">
+        <v>6800</v>
+      </c>
+      <c r="G4" s="40">
+        <v>8000</v>
+      </c>
       <c r="K4" s="12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="36">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B5" s="37" t="str">
         <f t="shared" si="0"/>
-        <v>Body &amp; Painting</v>
-      </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="22"/>
+        <v>Carry</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>405</v>
+      </c>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="22">
+        <v>10000</v>
+      </c>
       <c r="G5" s="40"/>
       <c r="K5" s="12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>334</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" s="37" t="str">
         <f t="shared" si="0"/>
-        <v>Body &amp; Painting</v>
-      </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="22"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>481</v>
+      </c>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="22">
+        <v>2000</v>
+      </c>
       <c r="G6" s="40"/>
       <c r="K6" s="12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L6" s="12" t="s">
-        <v>53</v>
+        <v>335</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -20621,57 +20744,67 @@
         <f t="shared" si="0"/>
         <v>Expense</v>
       </c>
-      <c r="C7" s="13"/>
+      <c r="C7" s="13" t="s">
+        <v>758</v>
+      </c>
       <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="22"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="22">
+        <v>2000</v>
+      </c>
       <c r="G7" s="40"/>
       <c r="K7" s="12">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L7" s="12" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="36">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B8" s="37" t="str">
         <f t="shared" si="0"/>
-        <v>Carry</v>
-      </c>
-      <c r="C8" s="13"/>
+        <v>Expense</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>123</v>
+      </c>
       <c r="D8" s="19"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="22"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="22">
+        <v>200</v>
+      </c>
       <c r="G8" s="40"/>
       <c r="K8" s="12">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L8" s="12" t="s">
-        <v>336</v>
+        <v>491</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="36">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B9" s="37" t="str">
         <f t="shared" si="0"/>
-        <v>Body &amp; Painting</v>
-      </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="22"/>
+        <v>Carry</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="22">
+        <v>9000</v>
+      </c>
       <c r="G9" s="40"/>
       <c r="K9" s="12">
-        <v>8</v>
-      </c>
-      <c r="L9" s="12" t="s">
-        <v>491</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="L9" s="12"/>
     </row>
     <row r="10" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="36">
@@ -20681,50 +20814,73 @@
         <f t="shared" si="0"/>
         <v>Workshop</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="22"/>
+      <c r="C10" s="13" t="s">
+        <v>716</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>717</v>
+      </c>
+      <c r="E10" s="19"/>
+      <c r="F10" s="22">
+        <v>3000</v>
+      </c>
       <c r="G10" s="40"/>
       <c r="K10" s="12">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L10" s="12"/>
     </row>
     <row r="11" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B11" s="37" t="str">
         <f t="shared" si="0"/>
-        <v>Expense</v>
-      </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="40"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>601</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>759</v>
+      </c>
+      <c r="E11" s="14">
+        <v>16349</v>
+      </c>
+      <c r="F11" s="22">
+        <v>30000</v>
+      </c>
+      <c r="G11" s="40">
+        <v>32000</v>
+      </c>
       <c r="K11" s="12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L11" s="12"/>
     </row>
     <row r="12" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="36">
-        <v>5</v>
-      </c>
-      <c r="B12" s="37" t="str">
-        <f t="shared" si="0"/>
-        <v>Carry</v>
-      </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="40"/>
-      <c r="K12" s="12">
-        <v>11</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>337</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>760</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>761</v>
+      </c>
+      <c r="E12" s="14">
+        <v>16353</v>
+      </c>
+      <c r="F12" s="22">
+        <v>15000</v>
+      </c>
+      <c r="G12" s="40">
+        <v>17000</v>
+      </c>
+      <c r="K12" s="12"/>
       <c r="L12" s="12"/>
     </row>
     <row r="13" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -20734,26 +20890,42 @@
       <c r="B13" s="37" t="s">
         <v>337</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="19"/>
+      <c r="C13" s="13" t="s">
+        <v>762</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>757</v>
+      </c>
       <c r="E13" s="14"/>
-      <c r="F13" s="22"/>
+      <c r="F13" s="22">
+        <v>50000</v>
+      </c>
       <c r="G13" s="40"/>
       <c r="K13" s="12"/>
       <c r="L13" s="12"/>
     </row>
     <row r="14" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>333</v>
-      </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="40"/>
+        <v>337</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>763</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>764</v>
+      </c>
+      <c r="E14" s="14">
+        <v>16355</v>
+      </c>
+      <c r="F14" s="22">
+        <v>8000</v>
+      </c>
+      <c r="G14" s="40">
+        <v>1000</v>
+      </c>
       <c r="K14" s="12"/>
       <c r="L14" s="12"/>
     </row>
@@ -20764,41 +20936,60 @@
       <c r="B15" s="37" t="s">
         <v>333</v>
       </c>
-      <c r="C15" s="13"/>
+      <c r="C15" s="13" t="s">
+        <v>765</v>
+      </c>
       <c r="D15" s="19"/>
       <c r="E15" s="14"/>
-      <c r="F15" s="22"/>
+      <c r="F15" s="22">
+        <v>500</v>
+      </c>
       <c r="G15" s="40"/>
       <c r="K15" s="12"/>
       <c r="L15" s="12"/>
     </row>
     <row r="16" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B16" s="37" t="s">
-        <v>333</v>
-      </c>
-      <c r="C16" s="13"/>
+        <v>337</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>766</v>
+      </c>
       <c r="D16" s="19"/>
       <c r="E16" s="14"/>
-      <c r="F16" s="22"/>
+      <c r="F16" s="22">
+        <v>1000</v>
+      </c>
       <c r="G16" s="40"/>
       <c r="K16" s="12"/>
       <c r="L16" s="12"/>
     </row>
     <row r="17" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="36">
-        <v>3</v>
-      </c>
-      <c r="B17" s="37" t="s">
-        <v>333</v>
-      </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="40"/>
+        <v>2</v>
+      </c>
+      <c r="B17" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>767</v>
+      </c>
+      <c r="E17" s="14">
+        <v>16359</v>
+      </c>
+      <c r="F17" s="22">
+        <v>3000</v>
+      </c>
+      <c r="G17" s="40">
+        <v>5000</v>
+      </c>
       <c r="K17" s="12"/>
       <c r="L17" s="12"/>
     </row>
@@ -20810,162 +21001,227 @@
         <f t="shared" si="0"/>
         <v>Workshop</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="40"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
+      <c r="C18" s="87" t="s">
+        <v>663</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>768</v>
+      </c>
+      <c r="E18" s="14">
+        <v>16357</v>
+      </c>
+      <c r="F18" s="22">
+        <v>6500</v>
+      </c>
+      <c r="G18" s="40">
+        <v>7000</v>
+      </c>
     </row>
     <row r="19" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="36">
-        <v>4</v>
-      </c>
-      <c r="B19" s="37" t="str">
-        <f t="shared" si="0"/>
-        <v>Wages</v>
-      </c>
-      <c r="C19" s="87"/>
+        <v>1</v>
+      </c>
+      <c r="B19" s="37" t="s">
+        <v>332</v>
+      </c>
+      <c r="C19" s="87" t="s">
+        <v>769</v>
+      </c>
       <c r="D19" s="19"/>
       <c r="E19" s="14"/>
-      <c r="F19" s="22"/>
+      <c r="F19" s="22">
+        <v>20000</v>
+      </c>
       <c r="G19" s="40"/>
     </row>
     <row r="20" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="36">
-        <v>6</v>
-      </c>
-      <c r="B20" s="37" t="s">
-        <v>335</v>
-      </c>
-      <c r="C20" s="87"/>
-      <c r="D20" s="19"/>
+        <v>1</v>
+      </c>
+      <c r="B20" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Expense</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>770</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>343</v>
+      </c>
       <c r="E20" s="14"/>
-      <c r="F20" s="22"/>
+      <c r="F20" s="22">
+        <v>6000</v>
+      </c>
       <c r="G20" s="40"/>
     </row>
-    <row r="21" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:12" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="36">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B21" s="37" t="str">
         <f t="shared" si="0"/>
-        <v>Advance</v>
-      </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="19"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>771</v>
+      </c>
       <c r="E21" s="14"/>
-      <c r="F21" s="22"/>
+      <c r="F21" s="22">
+        <v>2000</v>
+      </c>
       <c r="G21" s="40"/>
     </row>
     <row r="22" spans="1:12" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="36">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B22" s="37" t="str">
         <f t="shared" si="0"/>
-        <v>Expense</v>
-      </c>
-      <c r="C22" s="13"/>
+        <v>Wages</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>424</v>
+      </c>
       <c r="D22" s="19"/>
       <c r="E22" s="14"/>
-      <c r="F22" s="22"/>
+      <c r="F22" s="22">
+        <v>20000</v>
+      </c>
       <c r="G22" s="40"/>
     </row>
     <row r="23" spans="1:12" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="36">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B23" s="37" t="str">
         <f t="shared" si="0"/>
-        <v>Workshop</v>
-      </c>
-      <c r="C23" s="13"/>
+        <v>Meal</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>772</v>
+      </c>
       <c r="D23" s="19"/>
       <c r="E23" s="14"/>
-      <c r="F23" s="22"/>
+      <c r="F23" s="22">
+        <v>34500</v>
+      </c>
       <c r="G23" s="40"/>
     </row>
     <row r="24" spans="1:12" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="36">
-        <v>2</v>
-      </c>
-      <c r="B24" s="37" t="str">
-        <f t="shared" si="0"/>
-        <v>Workshop</v>
-      </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="19"/>
+        <v>8</v>
+      </c>
+      <c r="B24" s="37" t="s">
+        <v>491</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>773</v>
+      </c>
+      <c r="D24" s="88" t="s">
+        <v>746</v>
+      </c>
       <c r="E24" s="14"/>
-      <c r="F24" s="22"/>
+      <c r="F24" s="22">
+        <v>15000</v>
+      </c>
       <c r="G24" s="40"/>
     </row>
     <row r="25" spans="1:12" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="36">
         <v>2</v>
       </c>
-      <c r="B25" s="37" t="s">
-        <v>337</v>
+      <c r="B25" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Workshop</v>
       </c>
       <c r="C25" s="13"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="14"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
       <c r="F25" s="22"/>
       <c r="G25" s="40"/>
     </row>
-    <row r="26" spans="1:12" ht="21.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="36">
-        <v>2</v>
-      </c>
-      <c r="B26" s="37" t="str">
-        <f t="shared" si="0"/>
-        <v>Workshop</v>
-      </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="40"/>
+    <row r="26" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E26" s="58" t="s">
+        <v>332</v>
+      </c>
+      <c r="F26" s="60">
+        <f>SUM(F2:F25)</f>
+        <v>251100</v>
+      </c>
     </row>
     <row r="27" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E27" s="58"/>
-      <c r="F27" s="60"/>
+      <c r="E27" s="58" t="s">
+        <v>372</v>
+      </c>
+      <c r="F27" s="61">
+        <v>117850</v>
+      </c>
     </row>
     <row r="28" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E28" s="58"/>
-      <c r="F28" s="61"/>
-    </row>
-    <row r="29" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E29" s="58"/>
-      <c r="F29" s="61"/>
-    </row>
-    <row r="30" spans="1:12" ht="23.25" x14ac:dyDescent="0.6">
-      <c r="E30" s="58"/>
-      <c r="F30" s="59"/>
+      <c r="E28" s="58" t="s">
+        <v>373</v>
+      </c>
+      <c r="F28" s="61">
+        <v>138000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="23.25" x14ac:dyDescent="0.6">
+      <c r="E29" s="58" t="s">
+        <v>407</v>
+      </c>
+      <c r="F29" s="59">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F30" s="53">
+        <f>SUM(F26:F29)</f>
+        <v>509950</v>
+      </c>
     </row>
     <row r="31" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="F31" s="53"/>
-    </row>
-    <row r="32" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E32" s="58"/>
-      <c r="F32" s="61"/>
-    </row>
-    <row r="33" spans="5:6" ht="23.25" x14ac:dyDescent="0.6">
-      <c r="E33" s="58"/>
-      <c r="F33" s="64"/>
-    </row>
-    <row r="34" spans="5:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="F34" s="50"/>
-    </row>
-    <row r="35" spans="5:6" ht="23.25" x14ac:dyDescent="0.6">
-      <c r="F35" s="70"/>
-    </row>
-    <row r="36" spans="5:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="F36" s="68"/>
+      <c r="E31" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="F31" s="61">
+        <v>270500</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="23.25" x14ac:dyDescent="0.6">
+      <c r="E32" s="58" t="s">
+        <v>374</v>
+      </c>
+      <c r="F32" s="64">
+        <v>367000</v>
+      </c>
+    </row>
+    <row r="33" spans="5:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F33" s="50">
+        <f>SUM(F31:F32)</f>
+        <v>637500</v>
+      </c>
+    </row>
+    <row r="34" spans="5:6" ht="23.25" x14ac:dyDescent="0.6">
+      <c r="F34" s="70">
+        <v>509950</v>
+      </c>
+    </row>
+    <row r="35" spans="5:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E35" s="58" t="s">
+        <v>468</v>
+      </c>
+      <c r="F35" s="68">
+        <f>F33-F34</f>
+        <v>127550</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G35"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/GB-3Expense (Autosaved).xlsx
+++ b/GB-3Expense (Autosaved).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830" firstSheet="17" activeTab="21"/>
+    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830" tabRatio="568" firstSheet="19" activeTab="25"/>
   </bookViews>
   <sheets>
     <sheet name="Jun-2018" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,14 @@
     <sheet name="21.8.2018" sheetId="24" r:id="rId23"/>
     <sheet name="22.8.2018" sheetId="25" r:id="rId24"/>
     <sheet name="23.8.2018" sheetId="26" r:id="rId25"/>
-    <sheet name="Sheet1" sheetId="27" r:id="rId26"/>
+    <sheet name="24.8.2018" sheetId="27" r:id="rId26"/>
+    <sheet name="25.8.2018" sheetId="28" r:id="rId27"/>
+    <sheet name="26.8.2018" sheetId="29" r:id="rId28"/>
+    <sheet name="Sheet4" sheetId="30" r:id="rId29"/>
+    <sheet name="Sheet5" sheetId="31" r:id="rId30"/>
+    <sheet name="Sheet6" sheetId="32" r:id="rId31"/>
+    <sheet name="Sheet7" sheetId="33" r:id="rId32"/>
+    <sheet name="Sheet8" sheetId="34" r:id="rId33"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'1.8.2018'!$A$1:$G$31</definedName>
@@ -66,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2543" uniqueCount="777">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2713" uniqueCount="794">
   <si>
     <t>1.6.2018</t>
   </si>
@@ -2397,6 +2404,57 @@
   </si>
   <si>
     <t>5F-6481/Lancer</t>
+  </si>
+  <si>
+    <t>Clutch ၀ါရွာ</t>
+  </si>
+  <si>
+    <t>Pipeမဲ</t>
+  </si>
+  <si>
+    <t>ေခမာ/လွထြန္း</t>
+  </si>
+  <si>
+    <t>ဂန္းဘရက္ကစ္</t>
+  </si>
+  <si>
+    <t>8J-7140/Townace</t>
+  </si>
+  <si>
+    <t>Batteryအိုးငွား/အားသြင္း</t>
+  </si>
+  <si>
+    <t>ဘရိတ္ျကိုးလဲ</t>
+  </si>
+  <si>
+    <t>6A-9491/Hiace</t>
+  </si>
+  <si>
+    <t>ဂိုင္းဘြတ္/ရွပ္</t>
+  </si>
+  <si>
+    <t>2D-7931/Harrier</t>
+  </si>
+  <si>
+    <t>ပန္ကာ/ဒိုင္နမို/Oil Seal</t>
+  </si>
+  <si>
+    <t>1F-4925/Probox</t>
+  </si>
+  <si>
+    <t>ေကာ္နီ7</t>
+  </si>
+  <si>
+    <t>Power Oil</t>
+  </si>
+  <si>
+    <t>7B-6087/Canter</t>
+  </si>
+  <si>
+    <t>8G-1061/JAC</t>
+  </si>
+  <si>
+    <t>(2D-7931/Harrier Advance-300000,1J-7399/Vitz-20000,2E-9629/Canter-236000,Bingo Co.,Lukoil15W40 5Li-24000)</t>
   </si>
 </sst>
 </file>
@@ -2721,7 +2779,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2915,6 +2973,7 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -9546,8 +9605,8 @@
   </sheetPr>
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -18573,13 +18632,13 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18622,7 +18681,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="36">
         <v>1</v>
       </c>
@@ -18646,7 +18705,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="36">
         <v>6</v>
       </c>
@@ -18670,7 +18729,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="36">
         <v>3</v>
       </c>
@@ -18777,7 +18836,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="36">
         <v>2</v>
       </c>
@@ -18801,7 +18860,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="36">
         <v>6</v>
       </c>
@@ -18849,7 +18908,7 @@
       </c>
       <c r="L10" s="12"/>
     </row>
-    <row r="11" spans="1:12" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="36">
         <v>3</v>
       </c>
@@ -18871,7 +18930,7 @@
       </c>
       <c r="L11" s="12"/>
     </row>
-    <row r="12" spans="1:12" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="36">
         <v>5</v>
       </c>
@@ -18916,7 +18975,7 @@
       <c r="K13" s="12"/>
       <c r="L13" s="12"/>
     </row>
-    <row r="14" spans="1:12" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="36">
         <v>5</v>
       </c>
@@ -18935,7 +18994,7 @@
       <c r="K14" s="12"/>
       <c r="L14" s="12"/>
     </row>
-    <row r="15" spans="1:12" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="36">
         <v>8</v>
       </c>
@@ -18954,7 +19013,7 @@
       <c r="K15" s="12"/>
       <c r="L15" s="12"/>
     </row>
-    <row r="16" spans="1:12" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="36">
         <v>3</v>
       </c>
@@ -18975,7 +19034,7 @@
       <c r="K16" s="12"/>
       <c r="L16" s="12"/>
     </row>
-    <row r="17" spans="1:12" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="36">
         <v>3</v>
       </c>
@@ -19020,7 +19079,7 @@
       <c r="K18" s="12"/>
       <c r="L18" s="12"/>
     </row>
-    <row r="19" spans="1:12" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="36">
         <v>4</v>
       </c>
@@ -19059,7 +19118,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="36">
         <v>1</v>
       </c>
@@ -19077,7 +19136,7 @@
       </c>
       <c r="G21" s="40"/>
     </row>
-    <row r="22" spans="1:12" ht="21.75" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:12" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="36">
         <v>6</v>
       </c>
@@ -19135,7 +19194,7 @@
       </c>
       <c r="G24" s="40"/>
     </row>
-    <row r="25" spans="1:12" ht="21.75" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:12" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="36">
         <v>2</v>
       </c>
@@ -19152,7 +19211,7 @@
       </c>
       <c r="G25" s="40"/>
     </row>
-    <row r="26" spans="1:12" ht="21.75" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:12" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="36">
         <v>2</v>
       </c>
@@ -19170,7 +19229,7 @@
       </c>
       <c r="G26" s="40"/>
     </row>
-    <row r="27" spans="1:12" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="E27" s="58" t="s">
         <v>332</v>
       </c>
@@ -19179,7 +19238,7 @@
         <v>436500</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="E28" s="58" t="s">
         <v>372</v>
       </c>
@@ -19187,7 +19246,7 @@
         <v>247500</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="E29" s="58" t="s">
         <v>373</v>
       </c>
@@ -19195,7 +19254,7 @@
         <v>486500</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="23.25" hidden="1" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:12" ht="23.25" x14ac:dyDescent="0.6">
       <c r="E30" s="58" t="s">
         <v>407</v>
       </c>
@@ -19203,13 +19262,13 @@
         <v>68000</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="F31" s="53">
         <f>SUM(F27:F30)</f>
         <v>1238500</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="E32" s="58" t="s">
         <v>428</v>
       </c>
@@ -19217,7 +19276,7 @@
         <v>147000</v>
       </c>
     </row>
-    <row r="33" spans="5:6" ht="23.25" hidden="1" x14ac:dyDescent="0.6">
+    <row r="33" spans="5:6" ht="23.25" x14ac:dyDescent="0.6">
       <c r="E33" s="58" t="s">
         <v>374</v>
       </c>
@@ -19225,36 +19284,25 @@
         <v>856500</v>
       </c>
     </row>
-    <row r="34" spans="5:6" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="5:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="F34" s="50">
         <f>SUM(F32:F33)</f>
         <v>1003500</v>
       </c>
     </row>
-    <row r="35" spans="5:6" ht="23.25" hidden="1" x14ac:dyDescent="0.6">
+    <row r="35" spans="5:6" ht="23.25" x14ac:dyDescent="0.6">
       <c r="F35" s="70">
         <v>1238500</v>
       </c>
     </row>
-    <row r="36" spans="5:6" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="5:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="F36" s="62">
         <f>F34-F35</f>
         <v>-235000</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G36">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="2"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="3">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:G36"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -19908,7 +19956,7 @@
   </sheetPr>
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
@@ -20566,8 +20614,8 @@
   </sheetPr>
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21227,12 +21275,2284 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <sheetPr>
+    <tabColor theme="6" tint="-0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="O34" sqref="O34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="7.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="36.28515625" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="26" t="s">
+        <v>330</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>375</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>328</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="36">
+        <v>6</v>
+      </c>
+      <c r="B2" s="37" t="str">
+        <f t="shared" ref="B2:B25" si="0">IF(A2=1,myvar1,IF(A2=2,myvar2,IF(A2=3,myvar3,IF(A2=4,myvar4,IF(A2=5,myvar5,IF(A2=6,myvar6,IF(A2=7,myvar7,IF(A2=8,myvar8,IF(A2=9,myvar9,IF(A2=10,myvar10,IF(A2=11,myvar11,IF(A2=12,myvar12,IF(A2=13,myvar13,)))))))))))))</f>
+        <v>Meal</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="D2" s="19"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="22">
+        <v>5000</v>
+      </c>
+      <c r="G2" s="40"/>
+      <c r="K2" s="12">
+        <v>2</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="36">
+        <v>1</v>
+      </c>
+      <c r="B3" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Expense</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="D3" s="19"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="22">
+        <v>1000</v>
+      </c>
+      <c r="G3" s="40"/>
+      <c r="K3" s="12">
+        <v>3</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="36">
+        <v>2</v>
+      </c>
+      <c r="B4" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>777</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>792</v>
+      </c>
+      <c r="E4" s="14"/>
+      <c r="F4" s="22">
+        <v>2000</v>
+      </c>
+      <c r="G4" s="40"/>
+      <c r="K4" s="12">
+        <v>4</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="36">
+        <v>5</v>
+      </c>
+      <c r="B5" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Carry</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>405</v>
+      </c>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="22">
+        <v>10000</v>
+      </c>
+      <c r="G5" s="40"/>
+      <c r="K5" s="12">
+        <v>5</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="36">
+        <v>2</v>
+      </c>
+      <c r="B6" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>778</v>
+      </c>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="22">
+        <v>1500</v>
+      </c>
+      <c r="G6" s="40"/>
+      <c r="K6" s="12">
+        <v>6</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="36">
+        <v>8</v>
+      </c>
+      <c r="B7" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Advance</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>779</v>
+      </c>
+      <c r="D7" s="19"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="22">
+        <v>60000</v>
+      </c>
+      <c r="G7" s="40"/>
+      <c r="K7" s="12">
+        <v>7</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="36">
+        <v>2</v>
+      </c>
+      <c r="B8" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>780</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>781</v>
+      </c>
+      <c r="E8" s="19"/>
+      <c r="F8" s="22">
+        <v>7000</v>
+      </c>
+      <c r="G8" s="40"/>
+      <c r="K8" s="12">
+        <v>8</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="36">
+        <v>2</v>
+      </c>
+      <c r="B9" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>782</v>
+      </c>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="22">
+        <v>8000</v>
+      </c>
+      <c r="G9" s="40"/>
+      <c r="K9" s="12">
+        <v>9</v>
+      </c>
+      <c r="L9" s="12"/>
+    </row>
+    <row r="10" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="36">
+        <v>2</v>
+      </c>
+      <c r="B10" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>783</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>784</v>
+      </c>
+      <c r="E10" s="19"/>
+      <c r="F10" s="22">
+        <v>18000</v>
+      </c>
+      <c r="G10" s="40"/>
+      <c r="K10" s="12">
+        <v>10</v>
+      </c>
+      <c r="L10" s="12"/>
+    </row>
+    <row r="11" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="36">
+        <v>2</v>
+      </c>
+      <c r="B11" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>698</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>784</v>
+      </c>
+      <c r="E11" s="14"/>
+      <c r="F11" s="22">
+        <v>5000</v>
+      </c>
+      <c r="G11" s="40"/>
+      <c r="K11" s="12">
+        <v>11</v>
+      </c>
+      <c r="L11" s="12"/>
+    </row>
+    <row r="12" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="36">
+        <v>2</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>337</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>784</v>
+      </c>
+      <c r="E12" s="14"/>
+      <c r="F12" s="22">
+        <v>28000</v>
+      </c>
+      <c r="G12" s="40"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+    </row>
+    <row r="13" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="36">
+        <v>2</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>337</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>785</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>786</v>
+      </c>
+      <c r="E13" s="14"/>
+      <c r="F13" s="22">
+        <v>23000</v>
+      </c>
+      <c r="G13" s="40"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+    </row>
+    <row r="14" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="36">
+        <v>2</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>337</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>787</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>788</v>
+      </c>
+      <c r="E14" s="14"/>
+      <c r="F14" s="22">
+        <v>10000</v>
+      </c>
+      <c r="G14" s="40"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+    </row>
+    <row r="15" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="36">
+        <v>1</v>
+      </c>
+      <c r="B15" s="37" t="s">
+        <v>332</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>343</v>
+      </c>
+      <c r="E15" s="14"/>
+      <c r="F15" s="22">
+        <v>2000</v>
+      </c>
+      <c r="G15" s="40"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+    </row>
+    <row r="16" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="36">
+        <v>2</v>
+      </c>
+      <c r="B16" s="37" t="s">
+        <v>337</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="19"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="22">
+        <v>1000</v>
+      </c>
+      <c r="G16" s="40"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+    </row>
+    <row r="17" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="36">
+        <v>2</v>
+      </c>
+      <c r="B17" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>789</v>
+      </c>
+      <c r="D17" s="19"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="22">
+        <v>11900</v>
+      </c>
+      <c r="G17" s="40"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+    </row>
+    <row r="18" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="36">
+        <v>2</v>
+      </c>
+      <c r="B18" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C18" s="87" t="s">
+        <v>790</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>649</v>
+      </c>
+      <c r="E18" s="14"/>
+      <c r="F18" s="22">
+        <v>4000</v>
+      </c>
+      <c r="G18" s="40"/>
+    </row>
+    <row r="19" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="36">
+        <v>8</v>
+      </c>
+      <c r="B19" s="37" t="s">
+        <v>491</v>
+      </c>
+      <c r="C19" s="87" t="s">
+        <v>407</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>791</v>
+      </c>
+      <c r="E19" s="14"/>
+      <c r="F19" s="22">
+        <v>7000</v>
+      </c>
+      <c r="G19" s="40"/>
+    </row>
+    <row r="20" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="36">
+        <v>4</v>
+      </c>
+      <c r="B20" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Wages</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>546</v>
+      </c>
+      <c r="D20" s="19"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="22">
+        <v>10000</v>
+      </c>
+      <c r="G20" s="40"/>
+    </row>
+    <row r="21" spans="1:17" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="36">
+        <v>6</v>
+      </c>
+      <c r="B21" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Meal</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>718</v>
+      </c>
+      <c r="D21" s="19"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="22">
+        <v>30000</v>
+      </c>
+      <c r="G21" s="40"/>
+    </row>
+    <row r="22" spans="1:17" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="36">
+        <v>5</v>
+      </c>
+      <c r="B22" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Carry</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="D22" s="19"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="22">
+        <v>7000</v>
+      </c>
+      <c r="G22" s="40"/>
+    </row>
+    <row r="23" spans="1:17" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="36">
+        <v>2</v>
+      </c>
+      <c r="B23" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>684</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>792</v>
+      </c>
+      <c r="E23" s="14"/>
+      <c r="F23" s="22">
+        <v>50000</v>
+      </c>
+      <c r="G23" s="40"/>
+    </row>
+    <row r="24" spans="1:17" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="36">
+        <v>8</v>
+      </c>
+      <c r="B24" s="37" t="s">
+        <v>491</v>
+      </c>
+      <c r="C24" s="13"/>
+      <c r="D24" s="88"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="40"/>
+    </row>
+    <row r="25" spans="1:17" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="36">
+        <v>2</v>
+      </c>
+      <c r="B25" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C25" s="13"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="40"/>
+    </row>
+    <row r="26" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E26" s="58" t="s">
+        <v>332</v>
+      </c>
+      <c r="F26" s="60">
+        <f>SUM(F2:F25)</f>
+        <v>301400</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E27" s="58" t="s">
+        <v>372</v>
+      </c>
+      <c r="F27" s="61">
+        <v>80500</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E28" s="58" t="s">
+        <v>407</v>
+      </c>
+      <c r="F28" s="61">
+        <v>29000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="23.25" x14ac:dyDescent="0.6">
+      <c r="E29" s="58" t="s">
+        <v>373</v>
+      </c>
+      <c r="F29" s="59">
+        <v>290000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F30" s="53">
+        <f>SUM(F26:F29)</f>
+        <v>700900</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E31" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="F31" s="61">
+        <v>580000</v>
+      </c>
+      <c r="G31" s="89" t="s">
+        <v>793</v>
+      </c>
+      <c r="H31" s="89"/>
+      <c r="I31" s="89"/>
+      <c r="J31" s="89"/>
+      <c r="K31" s="89"/>
+      <c r="L31" s="89"/>
+      <c r="M31" s="89"/>
+      <c r="N31" s="89"/>
+      <c r="O31" s="89"/>
+      <c r="P31" s="89"/>
+      <c r="Q31" s="89"/>
+    </row>
+    <row r="32" spans="1:17" ht="23.25" x14ac:dyDescent="0.6">
+      <c r="E32" s="58" t="s">
+        <v>374</v>
+      </c>
+      <c r="F32" s="64">
+        <v>359500</v>
+      </c>
+    </row>
+    <row r="33" spans="5:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F33" s="50">
+        <f>SUM(F31:F32)</f>
+        <v>939500</v>
+      </c>
+    </row>
+    <row r="34" spans="5:6" ht="23.25" x14ac:dyDescent="0.6">
+      <c r="F34" s="70">
+        <v>700900</v>
+      </c>
+    </row>
+    <row r="35" spans="5:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E35" s="58"/>
+      <c r="F35" s="68">
+        <f>F33-F34</f>
+        <v>238600</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="7" tint="-0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1:L35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="36.28515625" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="26" t="s">
+        <v>330</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>375</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>328</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="36">
+        <v>6</v>
+      </c>
+      <c r="B2" s="37" t="str">
+        <f t="shared" ref="B2:B25" si="0">IF(A2=1,myvar1,IF(A2=2,myvar2,IF(A2=3,myvar3,IF(A2=4,myvar4,IF(A2=5,myvar5,IF(A2=6,myvar6,IF(A2=7,myvar7,IF(A2=8,myvar8,IF(A2=9,myvar9,IF(A2=10,myvar10,IF(A2=11,myvar11,IF(A2=12,myvar12,IF(A2=13,myvar13,)))))))))))))</f>
+        <v>Meal</v>
+      </c>
+      <c r="C2" s="13"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="40"/>
+      <c r="K2" s="12">
+        <v>2</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="36">
+        <v>1</v>
+      </c>
+      <c r="B3" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Expense</v>
+      </c>
+      <c r="C3" s="13"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="40"/>
+      <c r="K3" s="12">
+        <v>3</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="36">
+        <v>2</v>
+      </c>
+      <c r="B4" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="40"/>
+      <c r="K4" s="12">
+        <v>4</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="36">
+        <v>5</v>
+      </c>
+      <c r="B5" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Carry</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="40"/>
+      <c r="K5" s="12">
+        <v>5</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="36">
+        <v>2</v>
+      </c>
+      <c r="B6" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="40"/>
+      <c r="K6" s="12">
+        <v>6</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="36">
+        <v>1</v>
+      </c>
+      <c r="B7" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Expense</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="40"/>
+      <c r="K7" s="12">
+        <v>7</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="36">
+        <v>1</v>
+      </c>
+      <c r="B8" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Expense</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="40"/>
+      <c r="K8" s="12">
+        <v>8</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="36">
+        <v>5</v>
+      </c>
+      <c r="B9" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Carry</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="40"/>
+      <c r="K9" s="12">
+        <v>9</v>
+      </c>
+      <c r="L9" s="12"/>
+    </row>
+    <row r="10" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="36">
+        <v>2</v>
+      </c>
+      <c r="B10" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="40"/>
+      <c r="K10" s="12">
+        <v>10</v>
+      </c>
+      <c r="L10" s="12"/>
+    </row>
+    <row r="11" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="36">
+        <v>2</v>
+      </c>
+      <c r="B11" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="40"/>
+      <c r="K11" s="12">
+        <v>11</v>
+      </c>
+      <c r="L11" s="12"/>
+    </row>
+    <row r="12" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="36">
+        <v>2</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>337</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="40"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+    </row>
+    <row r="13" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="36">
+        <v>2</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>337</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="40"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+    </row>
+    <row r="14" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="36">
+        <v>2</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>337</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="40"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+    </row>
+    <row r="15" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="36">
+        <v>3</v>
+      </c>
+      <c r="B15" s="37" t="s">
+        <v>333</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="40"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+    </row>
+    <row r="16" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="36">
+        <v>2</v>
+      </c>
+      <c r="B16" s="37" t="s">
+        <v>337</v>
+      </c>
+      <c r="C16" s="13"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="40"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+    </row>
+    <row r="17" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="36">
+        <v>2</v>
+      </c>
+      <c r="B17" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="40"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+    </row>
+    <row r="18" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="36">
+        <v>2</v>
+      </c>
+      <c r="B18" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C18" s="87"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="40"/>
+    </row>
+    <row r="19" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="36">
+        <v>1</v>
+      </c>
+      <c r="B19" s="37" t="s">
+        <v>332</v>
+      </c>
+      <c r="C19" s="87"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="40"/>
+    </row>
+    <row r="20" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="36">
+        <v>1</v>
+      </c>
+      <c r="B20" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Expense</v>
+      </c>
+      <c r="C20" s="13"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="40"/>
+    </row>
+    <row r="21" spans="1:12" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="36">
+        <v>2</v>
+      </c>
+      <c r="B21" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="40"/>
+    </row>
+    <row r="22" spans="1:12" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="36">
+        <v>4</v>
+      </c>
+      <c r="B22" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Wages</v>
+      </c>
+      <c r="C22" s="13"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="40"/>
+    </row>
+    <row r="23" spans="1:12" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="36">
+        <v>6</v>
+      </c>
+      <c r="B23" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Meal</v>
+      </c>
+      <c r="C23" s="13"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="40"/>
+    </row>
+    <row r="24" spans="1:12" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="36">
+        <v>8</v>
+      </c>
+      <c r="B24" s="37" t="s">
+        <v>491</v>
+      </c>
+      <c r="C24" s="13"/>
+      <c r="D24" s="88"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="40"/>
+    </row>
+    <row r="25" spans="1:12" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="36">
+        <v>2</v>
+      </c>
+      <c r="B25" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C25" s="13"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="40"/>
+    </row>
+    <row r="26" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E26" s="58"/>
+      <c r="F26" s="60"/>
+    </row>
+    <row r="27" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E27" s="58"/>
+      <c r="F27" s="61"/>
+    </row>
+    <row r="28" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E28" s="58"/>
+      <c r="F28" s="61"/>
+    </row>
+    <row r="29" spans="1:12" ht="23.25" x14ac:dyDescent="0.6">
+      <c r="E29" s="58"/>
+      <c r="F29" s="59"/>
+    </row>
+    <row r="30" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F30" s="53"/>
+    </row>
+    <row r="31" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E31" s="58"/>
+      <c r="F31" s="61"/>
+    </row>
+    <row r="32" spans="1:12" ht="23.25" x14ac:dyDescent="0.6">
+      <c r="E32" s="58"/>
+      <c r="F32" s="64"/>
+    </row>
+    <row r="33" spans="5:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F33" s="50"/>
+    </row>
+    <row r="34" spans="5:6" ht="23.25" x14ac:dyDescent="0.6">
+      <c r="F34" s="70"/>
+    </row>
+    <row r="35" spans="5:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E35" s="58"/>
+      <c r="F35" s="68"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="9" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:L41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="36.28515625" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="26" t="s">
+        <v>330</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>375</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>328</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="36">
+        <v>1</v>
+      </c>
+      <c r="B2" s="37" t="str">
+        <f t="shared" ref="B2:B21" si="0">IF(A2=1,myvar1,IF(A2=2,myvar2,IF(A2=3,myvar3,IF(A2=4,myvar4,IF(A2=5,myvar5,IF(A2=6,myvar6,IF(A2=7,myvar7,IF(A2=8,myvar8,IF(A2=9,myvar9,IF(A2=10,myvar10,IF(A2=11,myvar11,IF(A2=12,myvar12,IF(A2=13,myvar13,)))))))))))))</f>
+        <v>Expense</v>
+      </c>
+      <c r="C2" s="13"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="40"/>
+      <c r="K2" s="12">
+        <v>1</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="36">
+        <v>8</v>
+      </c>
+      <c r="B3" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Advance</v>
+      </c>
+      <c r="C3" s="13"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="40"/>
+      <c r="K3" s="12">
+        <v>2</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="36">
+        <v>2</v>
+      </c>
+      <c r="B4" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="40"/>
+      <c r="K4" s="12">
+        <v>3</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="36">
+        <v>1</v>
+      </c>
+      <c r="B5" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Expense</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="40"/>
+      <c r="K5" s="12">
+        <v>4</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="36">
+        <v>5</v>
+      </c>
+      <c r="B6" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Carry</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="40"/>
+      <c r="K6" s="12">
+        <v>5</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="36">
+        <v>5</v>
+      </c>
+      <c r="B7" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Carry</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="40"/>
+      <c r="K7" s="12">
+        <v>6</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="36">
+        <v>5</v>
+      </c>
+      <c r="B8" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Carry</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="40"/>
+      <c r="K8" s="12">
+        <v>7</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="36">
+        <v>2</v>
+      </c>
+      <c r="B9" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="40"/>
+      <c r="K9" s="12">
+        <v>8</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="36">
+        <v>2</v>
+      </c>
+      <c r="B10" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="40"/>
+      <c r="K10" s="12">
+        <v>9</v>
+      </c>
+      <c r="L10" s="12"/>
+    </row>
+    <row r="11" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="36">
+        <v>2</v>
+      </c>
+      <c r="B11" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="40"/>
+      <c r="K11" s="12">
+        <v>10</v>
+      </c>
+      <c r="L11" s="12"/>
+    </row>
+    <row r="12" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="36">
+        <v>5</v>
+      </c>
+      <c r="B12" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Carry</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="40"/>
+      <c r="K12" s="12">
+        <v>11</v>
+      </c>
+      <c r="L12" s="12"/>
+    </row>
+    <row r="13" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="36">
+        <v>1</v>
+      </c>
+      <c r="B13" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Expense</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="40"/>
+      <c r="K13" s="12">
+        <v>12</v>
+      </c>
+      <c r="L13" s="12"/>
+    </row>
+    <row r="14" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="36">
+        <v>2</v>
+      </c>
+      <c r="B14" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="40"/>
+      <c r="K14" s="12">
+        <v>13</v>
+      </c>
+      <c r="L14" s="12"/>
+    </row>
+    <row r="15" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="36">
+        <v>2</v>
+      </c>
+      <c r="B15" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="40"/>
+    </row>
+    <row r="16" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="36">
+        <v>2</v>
+      </c>
+      <c r="B16" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C16" s="13"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="40"/>
+    </row>
+    <row r="17" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="36">
+        <v>2</v>
+      </c>
+      <c r="B17" s="37" t="s">
+        <v>337</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="40"/>
+    </row>
+    <row r="18" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="36">
+        <v>2</v>
+      </c>
+      <c r="B18" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="40"/>
+    </row>
+    <row r="19" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="36">
+        <v>5</v>
+      </c>
+      <c r="B19" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Carry</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="40"/>
+    </row>
+    <row r="20" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="36">
+        <v>2</v>
+      </c>
+      <c r="B20" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C20" s="13"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="40"/>
+    </row>
+    <row r="21" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="36">
+        <v>3</v>
+      </c>
+      <c r="B21" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Body &amp; Painting</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="40"/>
+    </row>
+    <row r="22" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="36">
+        <v>2</v>
+      </c>
+      <c r="B22" s="37" t="s">
+        <v>337</v>
+      </c>
+      <c r="C22" s="13"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="40"/>
+    </row>
+    <row r="23" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="36">
+        <v>1</v>
+      </c>
+      <c r="B23" s="37" t="s">
+        <v>332</v>
+      </c>
+      <c r="C23" s="13"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="40"/>
+    </row>
+    <row r="24" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="36">
+        <v>1</v>
+      </c>
+      <c r="B24" s="37" t="s">
+        <v>332</v>
+      </c>
+      <c r="C24" s="13"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="40"/>
+    </row>
+    <row r="25" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="36">
+        <v>2</v>
+      </c>
+      <c r="B25" s="37" t="s">
+        <v>337</v>
+      </c>
+      <c r="C25" s="13"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="40"/>
+    </row>
+    <row r="26" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="36">
+        <v>1</v>
+      </c>
+      <c r="B26" s="37" t="s">
+        <v>332</v>
+      </c>
+      <c r="C26" s="13"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="40"/>
+    </row>
+    <row r="27" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="36">
+        <v>2</v>
+      </c>
+      <c r="B27" s="37" t="s">
+        <v>337</v>
+      </c>
+      <c r="C27" s="13"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="40"/>
+    </row>
+    <row r="28" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="36">
+        <v>3</v>
+      </c>
+      <c r="B28" s="37" t="s">
+        <v>333</v>
+      </c>
+      <c r="C28" s="13"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="40"/>
+    </row>
+    <row r="29" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="36">
+        <v>1</v>
+      </c>
+      <c r="B29" s="37" t="s">
+        <v>332</v>
+      </c>
+      <c r="C29" s="13"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="40"/>
+    </row>
+    <row r="30" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="36">
+        <v>4</v>
+      </c>
+      <c r="B30" s="37" t="s">
+        <v>334</v>
+      </c>
+      <c r="C30" s="13"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="40"/>
+    </row>
+    <row r="31" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="36">
+        <v>6</v>
+      </c>
+      <c r="B31" s="37" t="s">
+        <v>335</v>
+      </c>
+      <c r="C31" s="13"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="40"/>
+    </row>
+    <row r="32" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="36"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="83"/>
+      <c r="G32" s="40"/>
+    </row>
+    <row r="33" spans="5:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E33" s="58"/>
+      <c r="F33" s="50"/>
+    </row>
+    <row r="34" spans="5:6" ht="22.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E34" s="84"/>
+      <c r="F34" s="85"/>
+    </row>
+    <row r="35" spans="5:6" ht="23.25" x14ac:dyDescent="0.6">
+      <c r="E35" s="58"/>
+      <c r="F35" s="74"/>
+    </row>
+    <row r="36" spans="5:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F36" s="62"/>
+    </row>
+    <row r="37" spans="5:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E37" s="58"/>
+      <c r="F37" s="61"/>
+    </row>
+    <row r="38" spans="5:6" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="E38" s="58"/>
+      <c r="F38" s="56"/>
+    </row>
+    <row r="39" spans="5:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F39" s="61"/>
+    </row>
+    <row r="40" spans="5:6" ht="23.25" x14ac:dyDescent="0.6">
+      <c r="F40" s="70"/>
+    </row>
+    <row r="41" spans="5:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F41" s="62">
+        <f>F39-F40</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="36.28515625" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="26" t="s">
+        <v>330</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>375</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>328</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="36">
+        <v>1</v>
+      </c>
+      <c r="B2" s="37" t="str">
+        <f t="shared" ref="B2:B21" si="0">IF(A2=1,myvar1,IF(A2=2,myvar2,IF(A2=3,myvar3,IF(A2=4,myvar4,IF(A2=5,myvar5,IF(A2=6,myvar6,IF(A2=7,myvar7,IF(A2=8,myvar8,IF(A2=9,myvar9,IF(A2=10,myvar10,IF(A2=11,myvar11,IF(A2=12,myvar12,IF(A2=13,myvar13,)))))))))))))</f>
+        <v>Expense</v>
+      </c>
+      <c r="C2" s="13"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="40"/>
+      <c r="K2" s="12">
+        <v>1</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="36">
+        <v>8</v>
+      </c>
+      <c r="B3" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Advance</v>
+      </c>
+      <c r="C3" s="13"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="40"/>
+      <c r="K3" s="12">
+        <v>2</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="36">
+        <v>2</v>
+      </c>
+      <c r="B4" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="40"/>
+      <c r="K4" s="12">
+        <v>3</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="36">
+        <v>1</v>
+      </c>
+      <c r="B5" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Expense</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="40"/>
+      <c r="K5" s="12">
+        <v>4</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="36">
+        <v>5</v>
+      </c>
+      <c r="B6" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Carry</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="40"/>
+      <c r="K6" s="12">
+        <v>5</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="36">
+        <v>5</v>
+      </c>
+      <c r="B7" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Carry</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="40"/>
+      <c r="K7" s="12">
+        <v>6</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="36">
+        <v>5</v>
+      </c>
+      <c r="B8" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Carry</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="40"/>
+      <c r="K8" s="12">
+        <v>7</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="36">
+        <v>2</v>
+      </c>
+      <c r="B9" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="40"/>
+      <c r="K9" s="12">
+        <v>8</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="36">
+        <v>2</v>
+      </c>
+      <c r="B10" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="40"/>
+      <c r="K10" s="12">
+        <v>9</v>
+      </c>
+      <c r="L10" s="12"/>
+    </row>
+    <row r="11" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="36">
+        <v>2</v>
+      </c>
+      <c r="B11" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="40"/>
+      <c r="K11" s="12">
+        <v>10</v>
+      </c>
+      <c r="L11" s="12"/>
+    </row>
+    <row r="12" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="36">
+        <v>5</v>
+      </c>
+      <c r="B12" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Carry</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="40"/>
+      <c r="K12" s="12">
+        <v>11</v>
+      </c>
+      <c r="L12" s="12"/>
+    </row>
+    <row r="13" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="36">
+        <v>1</v>
+      </c>
+      <c r="B13" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Expense</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="40"/>
+      <c r="K13" s="12">
+        <v>12</v>
+      </c>
+      <c r="L13" s="12"/>
+    </row>
+    <row r="14" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="36">
+        <v>2</v>
+      </c>
+      <c r="B14" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="40"/>
+      <c r="K14" s="12">
+        <v>13</v>
+      </c>
+      <c r="L14" s="12"/>
+    </row>
+    <row r="15" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="36">
+        <v>2</v>
+      </c>
+      <c r="B15" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="40"/>
+    </row>
+    <row r="16" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="36">
+        <v>2</v>
+      </c>
+      <c r="B16" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C16" s="13"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="40"/>
+    </row>
+    <row r="17" spans="1:7" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="36">
+        <v>2</v>
+      </c>
+      <c r="B17" s="37" t="s">
+        <v>337</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="40"/>
+    </row>
+    <row r="18" spans="1:7" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="36">
+        <v>2</v>
+      </c>
+      <c r="B18" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="40"/>
+    </row>
+    <row r="19" spans="1:7" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="36">
+        <v>5</v>
+      </c>
+      <c r="B19" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Carry</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="40"/>
+    </row>
+    <row r="20" spans="1:7" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="36">
+        <v>2</v>
+      </c>
+      <c r="B20" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C20" s="13"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="40"/>
+    </row>
+    <row r="21" spans="1:7" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="36">
+        <v>3</v>
+      </c>
+      <c r="B21" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Body &amp; Painting</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="40"/>
+    </row>
+    <row r="22" spans="1:7" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="36">
+        <v>2</v>
+      </c>
+      <c r="B22" s="37" t="s">
+        <v>337</v>
+      </c>
+      <c r="C22" s="13"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="40"/>
+    </row>
+    <row r="23" spans="1:7" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="36">
+        <v>1</v>
+      </c>
+      <c r="B23" s="37" t="s">
+        <v>332</v>
+      </c>
+      <c r="C23" s="13"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="40"/>
+    </row>
+    <row r="24" spans="1:7" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="36">
+        <v>1</v>
+      </c>
+      <c r="B24" s="37" t="s">
+        <v>332</v>
+      </c>
+      <c r="C24" s="13"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="40"/>
+    </row>
+    <row r="25" spans="1:7" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="36">
+        <v>2</v>
+      </c>
+      <c r="B25" s="37" t="s">
+        <v>337</v>
+      </c>
+      <c r="C25" s="13"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="40"/>
+    </row>
+    <row r="26" spans="1:7" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="36">
+        <v>1</v>
+      </c>
+      <c r="B26" s="37" t="s">
+        <v>332</v>
+      </c>
+      <c r="C26" s="13"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="40"/>
+    </row>
+    <row r="27" spans="1:7" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="36">
+        <v>2</v>
+      </c>
+      <c r="B27" s="37" t="s">
+        <v>337</v>
+      </c>
+      <c r="C27" s="13"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="40"/>
+    </row>
+    <row r="28" spans="1:7" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="36">
+        <v>3</v>
+      </c>
+      <c r="B28" s="37" t="s">
+        <v>333</v>
+      </c>
+      <c r="C28" s="13"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="40"/>
+    </row>
+    <row r="29" spans="1:7" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="36">
+        <v>1</v>
+      </c>
+      <c r="B29" s="37" t="s">
+        <v>332</v>
+      </c>
+      <c r="C29" s="13"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="40"/>
+    </row>
+    <row r="30" spans="1:7" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="36">
+        <v>4</v>
+      </c>
+      <c r="B30" s="37" t="s">
+        <v>334</v>
+      </c>
+      <c r="C30" s="13"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="40"/>
+    </row>
+    <row r="31" spans="1:7" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="36">
+        <v>6</v>
+      </c>
+      <c r="B31" s="37" t="s">
+        <v>335</v>
+      </c>
+      <c r="C31" s="13"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="40"/>
+    </row>
+    <row r="32" spans="1:7" ht="22.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="36"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="83"/>
+      <c r="G32" s="40"/>
+    </row>
+    <row r="33" spans="5:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E33" s="58"/>
+      <c r="F33" s="50"/>
+    </row>
+    <row r="34" spans="5:6" ht="22.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E34" s="84"/>
+      <c r="F34" s="85"/>
+    </row>
+    <row r="35" spans="5:6" ht="23.25" x14ac:dyDescent="0.6">
+      <c r="E35" s="58"/>
+      <c r="F35" s="74"/>
+    </row>
+    <row r="36" spans="5:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F36" s="62"/>
+    </row>
+    <row r="37" spans="5:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E37" s="58"/>
+      <c r="F37" s="61"/>
+    </row>
+    <row r="38" spans="5:6" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="E38" s="58"/>
+      <c r="F38" s="56"/>
+    </row>
+    <row r="39" spans="5:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F39" s="61"/>
+    </row>
+    <row r="40" spans="5:6" ht="23.25" x14ac:dyDescent="0.6">
+      <c r="F40" s="70"/>
+    </row>
+    <row r="41" spans="5:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F41" s="62"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -21245,8 +23565,8 @@
   <dimension ref="A1:K539"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J1" sqref="J1:K14"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" x14ac:dyDescent="0.55000000000000004"/>
@@ -23371,6 +25691,613 @@
   <autoFilter ref="A1:G31"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L41"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="36.28515625" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="26" t="s">
+        <v>330</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>375</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>328</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="36">
+        <v>1</v>
+      </c>
+      <c r="B2" s="37" t="str">
+        <f t="shared" ref="B2:B21" si="0">IF(A2=1,myvar1,IF(A2=2,myvar2,IF(A2=3,myvar3,IF(A2=4,myvar4,IF(A2=5,myvar5,IF(A2=6,myvar6,IF(A2=7,myvar7,IF(A2=8,myvar8,IF(A2=9,myvar9,IF(A2=10,myvar10,IF(A2=11,myvar11,IF(A2=12,myvar12,IF(A2=13,myvar13,)))))))))))))</f>
+        <v>Expense</v>
+      </c>
+      <c r="C2" s="13"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="40"/>
+      <c r="K2" s="12">
+        <v>1</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="36">
+        <v>8</v>
+      </c>
+      <c r="B3" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Advance</v>
+      </c>
+      <c r="C3" s="13"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="40"/>
+      <c r="K3" s="12">
+        <v>2</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="36">
+        <v>2</v>
+      </c>
+      <c r="B4" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="40"/>
+      <c r="K4" s="12">
+        <v>3</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="36">
+        <v>1</v>
+      </c>
+      <c r="B5" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Expense</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="40"/>
+      <c r="K5" s="12">
+        <v>4</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="36">
+        <v>5</v>
+      </c>
+      <c r="B6" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Carry</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="40"/>
+      <c r="K6" s="12">
+        <v>5</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="36">
+        <v>5</v>
+      </c>
+      <c r="B7" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Carry</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="40"/>
+      <c r="K7" s="12">
+        <v>6</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="36">
+        <v>5</v>
+      </c>
+      <c r="B8" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Carry</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="40"/>
+      <c r="K8" s="12">
+        <v>7</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="36">
+        <v>2</v>
+      </c>
+      <c r="B9" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="40"/>
+      <c r="K9" s="12">
+        <v>8</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="36">
+        <v>2</v>
+      </c>
+      <c r="B10" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="40"/>
+      <c r="K10" s="12">
+        <v>9</v>
+      </c>
+      <c r="L10" s="12"/>
+    </row>
+    <row r="11" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="36">
+        <v>2</v>
+      </c>
+      <c r="B11" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="40"/>
+      <c r="K11" s="12">
+        <v>10</v>
+      </c>
+      <c r="L11" s="12"/>
+    </row>
+    <row r="12" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="36">
+        <v>5</v>
+      </c>
+      <c r="B12" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Carry</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="40"/>
+      <c r="K12" s="12">
+        <v>11</v>
+      </c>
+      <c r="L12" s="12"/>
+    </row>
+    <row r="13" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="36">
+        <v>1</v>
+      </c>
+      <c r="B13" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Expense</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="40"/>
+      <c r="K13" s="12">
+        <v>12</v>
+      </c>
+      <c r="L13" s="12"/>
+    </row>
+    <row r="14" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="36">
+        <v>2</v>
+      </c>
+      <c r="B14" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="40"/>
+      <c r="K14" s="12">
+        <v>13</v>
+      </c>
+      <c r="L14" s="12"/>
+    </row>
+    <row r="15" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="36">
+        <v>2</v>
+      </c>
+      <c r="B15" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="40"/>
+    </row>
+    <row r="16" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="36">
+        <v>2</v>
+      </c>
+      <c r="B16" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C16" s="13"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="40"/>
+    </row>
+    <row r="17" spans="1:7" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="36">
+        <v>2</v>
+      </c>
+      <c r="B17" s="37" t="s">
+        <v>337</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="40"/>
+    </row>
+    <row r="18" spans="1:7" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="36">
+        <v>2</v>
+      </c>
+      <c r="B18" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="40"/>
+    </row>
+    <row r="19" spans="1:7" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="36">
+        <v>5</v>
+      </c>
+      <c r="B19" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Carry</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="40"/>
+    </row>
+    <row r="20" spans="1:7" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="36">
+        <v>2</v>
+      </c>
+      <c r="B20" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Workshop</v>
+      </c>
+      <c r="C20" s="13"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="40"/>
+    </row>
+    <row r="21" spans="1:7" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="36">
+        <v>3</v>
+      </c>
+      <c r="B21" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Body &amp; Painting</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="40"/>
+    </row>
+    <row r="22" spans="1:7" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="36">
+        <v>2</v>
+      </c>
+      <c r="B22" s="37" t="s">
+        <v>337</v>
+      </c>
+      <c r="C22" s="13"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="40"/>
+    </row>
+    <row r="23" spans="1:7" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="36">
+        <v>1</v>
+      </c>
+      <c r="B23" s="37" t="s">
+        <v>332</v>
+      </c>
+      <c r="C23" s="13"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="40"/>
+    </row>
+    <row r="24" spans="1:7" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="36">
+        <v>1</v>
+      </c>
+      <c r="B24" s="37" t="s">
+        <v>332</v>
+      </c>
+      <c r="C24" s="13"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="40"/>
+    </row>
+    <row r="25" spans="1:7" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="36">
+        <v>2</v>
+      </c>
+      <c r="B25" s="37" t="s">
+        <v>337</v>
+      </c>
+      <c r="C25" s="13"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="40"/>
+    </row>
+    <row r="26" spans="1:7" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="36">
+        <v>1</v>
+      </c>
+      <c r="B26" s="37" t="s">
+        <v>332</v>
+      </c>
+      <c r="C26" s="13"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="40"/>
+    </row>
+    <row r="27" spans="1:7" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="36">
+        <v>2</v>
+      </c>
+      <c r="B27" s="37" t="s">
+        <v>337</v>
+      </c>
+      <c r="C27" s="13"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="40"/>
+    </row>
+    <row r="28" spans="1:7" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="36">
+        <v>3</v>
+      </c>
+      <c r="B28" s="37" t="s">
+        <v>333</v>
+      </c>
+      <c r="C28" s="13"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="40"/>
+    </row>
+    <row r="29" spans="1:7" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="36">
+        <v>1</v>
+      </c>
+      <c r="B29" s="37" t="s">
+        <v>332</v>
+      </c>
+      <c r="C29" s="13"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="40"/>
+    </row>
+    <row r="30" spans="1:7" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="36">
+        <v>4</v>
+      </c>
+      <c r="B30" s="37" t="s">
+        <v>334</v>
+      </c>
+      <c r="C30" s="13"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="40"/>
+    </row>
+    <row r="31" spans="1:7" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="36">
+        <v>6</v>
+      </c>
+      <c r="B31" s="37" t="s">
+        <v>335</v>
+      </c>
+      <c r="C31" s="13"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="40"/>
+    </row>
+    <row r="32" spans="1:7" ht="22.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="36"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="83"/>
+      <c r="G32" s="40"/>
+    </row>
+    <row r="33" spans="5:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E33" s="58"/>
+      <c r="F33" s="50"/>
+    </row>
+    <row r="34" spans="5:6" ht="22.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E34" s="84"/>
+      <c r="F34" s="85"/>
+    </row>
+    <row r="35" spans="5:6" ht="23.25" x14ac:dyDescent="0.6">
+      <c r="E35" s="58"/>
+      <c r="F35" s="74"/>
+    </row>
+    <row r="36" spans="5:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F36" s="62"/>
+    </row>
+    <row r="37" spans="5:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E37" s="58"/>
+      <c r="F37" s="61"/>
+    </row>
+    <row r="38" spans="5:6" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="E38" s="58"/>
+      <c r="F38" s="56"/>
+    </row>
+    <row r="39" spans="5:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F39" s="61"/>
+    </row>
+    <row r="40" spans="5:6" ht="23.25" x14ac:dyDescent="0.6">
+      <c r="F40" s="70"/>
+    </row>
+    <row r="41" spans="5:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F41" s="62"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/GB-3Expense (Autosaved).xlsx
+++ b/GB-3Expense (Autosaved).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830" tabRatio="568" firstSheet="19" activeTab="25"/>
+    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830" tabRatio="568" firstSheet="8" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Jun-2018" sheetId="1" r:id="rId1"/>
@@ -35,8 +35,8 @@
     <sheet name="24.8.2018" sheetId="27" r:id="rId26"/>
     <sheet name="25.8.2018" sheetId="28" r:id="rId27"/>
     <sheet name="26.8.2018" sheetId="29" r:id="rId28"/>
-    <sheet name="Sheet4" sheetId="30" r:id="rId29"/>
-    <sheet name="Sheet5" sheetId="31" r:id="rId30"/>
+    <sheet name="27.8.2018" sheetId="30" r:id="rId29"/>
+    <sheet name="28.8.2018" sheetId="31" r:id="rId30"/>
     <sheet name="Sheet6" sheetId="32" r:id="rId31"/>
     <sheet name="Sheet7" sheetId="33" r:id="rId32"/>
     <sheet name="Sheet8" sheetId="34" r:id="rId33"/>
@@ -45,13 +45,22 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'1.8.2018'!$A$1:$G$31</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'10.8.2018'!$A$1:$G$36</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'11.8.2018'!$A$1:$G$28</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'2.8.2018'!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'12.8.2018'!$A$1:$G$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'13.8.2018'!$A$1:$G$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">'14.8.2018'!$A$1:$G$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">'15.8.2018'!$A$1:$G$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'2.8.2018'!$A$1:$G$34</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="21" hidden="1">'20.8.2018'!$A$1:$G$36</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="22" hidden="1">'21.8.2018'!$A$1:$G$36</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="23" hidden="1">'22.8.2018'!$A$1:$G$32</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="24" hidden="1">'23.8.2018'!$A$1:$G$35</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'3.8.2018'!$A$1:$G$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'4.8.2018'!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'3.8.2018'!$A$1:$G$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'4.8.2018'!$A$1:$G$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'5.8.2018'!$A$1:$G$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'6.8.2018'!$A$1:$G$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'7.8.2018'!$A$1:$G$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'8.8.2018'!$A$1:$G$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'9.8.2018'!$A$1:$G$30</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'July-2018'!$A$1:$D$537</definedName>
     <definedName name="myvar1">'11.8.2018'!$L$2</definedName>
     <definedName name="myvar10">'11.8.2018'!$L$11</definedName>
@@ -3283,8 +3292,8 @@
   <dimension ref="A1:R32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S12" sqref="S12"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R32" sqref="R32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4520,7 +4529,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4927,6 +4936,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G26"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4938,8 +4948,8 @@
   </sheetPr>
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5440,6 +5450,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G30"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5452,7 +5463,7 @@
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6054,7 +6065,7 @@
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6589,7 +6600,7 @@
   <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7177,6 +7188,7 @@
       <c r="F36" s="62"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G29"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7188,8 +7200,8 @@
   </sheetPr>
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7900,6 +7912,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G39"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -7913,7 +7926,7 @@
   <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8429,6 +8442,7 @@
       <c r="F27" s="62"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G26"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8440,8 +8454,8 @@
   </sheetPr>
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C35" sqref="C34:C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8981,6 +8995,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G30"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -10365,7 +10380,7 @@
   <dimension ref="A1:F595"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A533" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A509" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G539" sqref="G539"/>
     </sheetView>
   </sheetViews>
@@ -19315,8 +19330,8 @@
   </sheetPr>
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21280,7 +21295,7 @@
   </sheetPr>
   <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O34" sqref="O34"/>
     </sheetView>
   </sheetViews>
@@ -22988,10 +23003,13 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
   <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23565,19 +23583,19 @@
   <dimension ref="A1:K539"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I19" sqref="I19"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="5.28515625" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" customWidth="1"/>
-    <col min="3" max="3" width="38.5703125" style="12" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" style="12" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="3" max="3" width="29.7109375" style="12" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="12" customWidth="1"/>
     <col min="5" max="5" width="13.42578125" style="12" customWidth="1"/>
     <col min="6" max="6" width="13.7109375" style="24" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" style="32" customWidth="1"/>
+    <col min="7" max="7" width="15" style="32" customWidth="1"/>
     <col min="8" max="8" width="4.7109375" style="12" customWidth="1"/>
     <col min="9" max="9" width="21.42578125" style="12" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="12"/>
@@ -25696,9 +25714,12 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF7030A0"/>
+  </sheetPr>
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
@@ -26309,8 +26330,8 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C37" sqref="C37"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -26929,7 +26950,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1"/>
+  <autoFilter ref="A1:G34"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -26942,8 +26963,8 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -27382,7 +27403,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1"/>
+  <autoFilter ref="A1:G29"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -27855,7 +27876,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1"/>
+  <autoFilter ref="A1:G28"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -27868,7 +27889,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28335,6 +28356,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G28"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -28346,8 +28368,8 @@
   </sheetPr>
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28903,6 +28925,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G34"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -28916,7 +28939,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29270,6 +29293,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G24"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>